--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,14 @@
   </si>
   <si>
     <t>SIJoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,6 +456,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -511,6 +520,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1500,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1511,7 +1521,10 @@
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -1521,8 +1534,20 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1000</v>
       </c>
@@ -1535,8 +1560,20 @@
       <c r="E3">
         <v>1006</v>
       </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>852</v>
+      </c>
+      <c r="I3">
+        <v>1074</v>
+      </c>
+      <c r="J3">
+        <v>950</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3000</v>
       </c>
@@ -1549,8 +1586,20 @@
       <c r="E4">
         <v>1097</v>
       </c>
+      <c r="G4">
+        <v>3000</v>
+      </c>
+      <c r="H4">
+        <v>977</v>
+      </c>
+      <c r="I4">
+        <v>1245</v>
+      </c>
+      <c r="J4">
+        <v>933</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -1563,8 +1612,20 @@
       <c r="E5">
         <v>1671</v>
       </c>
+      <c r="G5">
+        <v>10000</v>
+      </c>
+      <c r="H5">
+        <v>1260</v>
+      </c>
+      <c r="I5">
+        <v>1698</v>
+      </c>
+      <c r="J5">
+        <v>1326</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>30000</v>
       </c>
@@ -1577,8 +1638,20 @@
       <c r="E6">
         <v>2847</v>
       </c>
+      <c r="G6">
+        <v>30000</v>
+      </c>
+      <c r="H6">
+        <v>2150</v>
+      </c>
+      <c r="I6">
+        <v>3243</v>
+      </c>
+      <c r="J6">
+        <v>2622</v>
+      </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>100000</v>
       </c>
@@ -1591,8 +1664,20 @@
       <c r="E7">
         <v>6950</v>
       </c>
+      <c r="G7">
+        <v>100000</v>
+      </c>
+      <c r="H7">
+        <v>5702</v>
+      </c>
+      <c r="I7">
+        <v>7182</v>
+      </c>
+      <c r="J7">
+        <v>10367</v>
+      </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>300000</v>
       </c>
@@ -1605,8 +1690,20 @@
       <c r="E8">
         <v>66504</v>
       </c>
+      <c r="G8">
+        <v>300000</v>
+      </c>
+      <c r="H8">
+        <v>26418</v>
+      </c>
+      <c r="I8">
+        <v>21741</v>
+      </c>
+      <c r="J8">
+        <v>66329</v>
+      </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1000000</v>
       </c>
@@ -1618,6 +1715,18 @@
       </c>
       <c r="E9">
         <v>652060</v>
+      </c>
+      <c r="G9">
+        <v>1000000</v>
+      </c>
+      <c r="H9">
+        <v>215862</v>
+      </c>
+      <c r="I9">
+        <v>114857</v>
+      </c>
+      <c r="J9">
+        <v>638937</v>
       </c>
     </row>
   </sheetData>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>Plum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +664,1175 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$41:$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$41:$J$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2277</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>193287</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1889489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D935-4710-AED2-576A7861378F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$41:$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$41:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1204366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D935-4710-AED2-576A7861378F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIJoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$41:$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$41:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242690</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2272803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29079895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D935-4710-AED2-576A7861378F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="226979279"/>
+        <c:axId val="226990927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="226979279"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226990927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="226990927"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226979279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>215862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8885-432F-A366-A70AF90FFC15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>114857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8885-432F-A366-A70AF90FFC15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIJoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2622</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>638937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8885-432F-A366-A70AF90FFC15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="226979279"/>
+        <c:axId val="226982607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="226979279"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226982607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="226982607"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226979279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1212,6 +2388,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1239,6 +3447,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>653823</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>27894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>387122</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>46944</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1510,18 +3778,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J9"/>
+  <dimension ref="B1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1534,20 +3808,20 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1000</v>
       </c>
@@ -1560,20 +3834,20 @@
       <c r="E3">
         <v>1006</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1000</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>852</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>1074</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3000</v>
       </c>
@@ -1586,20 +3860,20 @@
       <c r="E4">
         <v>1097</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>3000</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>977</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>1245</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>933</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -1612,20 +3886,20 @@
       <c r="E5">
         <v>1671</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>10000</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1260</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>1698</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>1326</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>30000</v>
       </c>
@@ -1638,20 +3912,20 @@
       <c r="E6">
         <v>2847</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>30000</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>2150</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>3243</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>2622</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>100000</v>
       </c>
@@ -1664,20 +3938,20 @@
       <c r="E7">
         <v>6950</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>100000</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>5702</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>7182</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>10367</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>300000</v>
       </c>
@@ -1690,20 +3964,20 @@
       <c r="E8">
         <v>66504</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>300000</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>26418</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>21741</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>66329</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1000000</v>
       </c>
@@ -1716,17 +3990,139 @@
       <c r="E9">
         <v>652060</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1000000</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>215862</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>114857</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>638937</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>1000</v>
+      </c>
+      <c r="J41">
+        <v>221</v>
+      </c>
+      <c r="K41">
+        <v>332</v>
+      </c>
+      <c r="L41">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>3000</v>
+      </c>
+      <c r="J42">
+        <v>482</v>
+      </c>
+      <c r="K42">
+        <v>427</v>
+      </c>
+      <c r="L42">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>10000</v>
+      </c>
+      <c r="J43">
+        <v>2277</v>
+      </c>
+      <c r="K43">
+        <v>868</v>
+      </c>
+      <c r="L43">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>30000</v>
+      </c>
+      <c r="J44">
+        <v>16197</v>
+      </c>
+      <c r="K44">
+        <v>2521</v>
+      </c>
+      <c r="L44">
+        <v>22776</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>100000</v>
+      </c>
+      <c r="J45">
+        <v>193287</v>
+      </c>
+      <c r="K45">
+        <v>14350</v>
+      </c>
+      <c r="L45">
+        <v>242690</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>300000</v>
+      </c>
+      <c r="J46">
+        <v>1889489</v>
+      </c>
+      <c r="K46">
+        <v>117231</v>
+      </c>
+      <c r="L46">
+        <v>2272803</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>1000000</v>
+      </c>
+      <c r="K47">
+        <v>1204366</v>
+      </c>
+      <c r="L47">
+        <v>29079895</v>
+      </c>
+      <c r="N47">
+        <f>K47/60/60/1000</f>
+        <v>0.3345461111111111</v>
+      </c>
+      <c r="O47">
+        <f>L47/60/60/1000</f>
+        <v>8.0777486111111116</v>
       </c>
     </row>
   </sheetData>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>USPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hybrid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3780,8 +3784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3808,6 +3812,9 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
       <c r="I2" t="s">
         <v>4</v>
       </c>
@@ -4009,6 +4016,18 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
       <c r="I40" t="s">
         <v>4</v>
       </c>
@@ -4023,6 +4042,18 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1000</v>
+      </c>
+      <c r="C41">
+        <v>257</v>
+      </c>
+      <c r="D41">
+        <v>373</v>
+      </c>
+      <c r="E41">
+        <v>383</v>
+      </c>
       <c r="I41">
         <v>1000</v>
       </c>
@@ -4037,6 +4068,18 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>3000</v>
+      </c>
+      <c r="C42">
+        <v>638</v>
+      </c>
+      <c r="D42">
+        <v>533</v>
+      </c>
+      <c r="E42">
+        <v>736</v>
+      </c>
       <c r="I42">
         <v>3000</v>
       </c>
@@ -4051,6 +4094,18 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>10000</v>
+      </c>
+      <c r="C43">
+        <v>2683</v>
+      </c>
+      <c r="D43">
+        <v>1162</v>
+      </c>
+      <c r="E43">
+        <v>3247</v>
+      </c>
       <c r="I43">
         <v>10000</v>
       </c>
@@ -4065,6 +4120,18 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>30000</v>
+      </c>
+      <c r="C44">
+        <v>18726</v>
+      </c>
+      <c r="D44">
+        <v>3231</v>
+      </c>
+      <c r="E44">
+        <v>23968</v>
+      </c>
       <c r="I44">
         <v>30000</v>
       </c>
@@ -4079,6 +4146,18 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>100000</v>
+      </c>
+      <c r="C45">
+        <v>217040</v>
+      </c>
+      <c r="D45">
+        <v>15731</v>
+      </c>
+      <c r="E45">
+        <v>259537</v>
+      </c>
       <c r="I45">
         <v>100000</v>
       </c>
@@ -4093,6 +4172,9 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>300000</v>
+      </c>
       <c r="I46">
         <v>300000</v>
       </c>
@@ -4107,6 +4189,9 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1000000</v>
+      </c>
       <c r="I47">
         <v>1000000</v>
       </c>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -798,6 +798,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1889489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22096138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3785,7 +3788,7 @@
   <dimension ref="B1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="J77" sqref="J77:J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4195,6 +4198,9 @@
       <c r="I47">
         <v>1000000</v>
       </c>
+      <c r="J47">
+        <v>22096138</v>
+      </c>
       <c r="K47">
         <v>1204366</v>
       </c>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,42 @@
   </si>
   <si>
     <t>Hybrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinHybrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinHybrid(best)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinHybrid(worst)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinHybridOpt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinHybridThres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,6 +173,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>AOL (25MB)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -683,6 +749,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>USPS (44MB)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -743,7 +834,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -782,25 +885,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>221</c:v>
+                  <c:v>0.221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>482</c:v>
+                  <c:v>0.48199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2277</c:v>
+                  <c:v>2.2770000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16197</c:v>
+                  <c:v>16.196999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>193287</c:v>
+                  <c:v>193.28700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1889489</c:v>
+                  <c:v>1889.489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22096138</c:v>
+                  <c:v>22096.137999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,7 +939,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -875,25 +990,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>332</c:v>
+                  <c:v>0.33200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>427</c:v>
+                  <c:v>0.42699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>868</c:v>
+                  <c:v>0.86799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2521</c:v>
+                  <c:v>2.5209999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14350</c:v>
+                  <c:v>14.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117231</c:v>
+                  <c:v>117.23099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1204366</c:v>
+                  <c:v>1204.366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,7 +1044,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -968,25 +1095,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>243</c:v>
+                  <c:v>0.24299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>546</c:v>
+                  <c:v>0.54600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3108</c:v>
+                  <c:v>3.1080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22776</c:v>
+                  <c:v>22.776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>242690</c:v>
+                  <c:v>242.69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2272803</c:v>
+                  <c:v>2272.8029999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29079895</c:v>
+                  <c:v>29079.895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,6 +1122,216 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D935-4710-AED2-576A7861378F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybrid(best)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$41:$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$41:$M$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.069000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36C2-44C2-ACB4-35DD87667636}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybrid(worst)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$41:$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$41:$N$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.158999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.739000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>299.59800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-36C2-44C2-ACB4-35DD87667636}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1032,6 +1369,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Datasize</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1095,6 +1489,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1160,7 +1615,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1228,6 +1683,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>AOL (25MB)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1540,6 +2021,192 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8885-432F-A366-A70AF90FFC15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybrid(best)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F83-46CA-BB92-1BA7B372F333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybrid(worst)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>581433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F83-46CA-BB92-1BA7B372F333}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1679,6 +2346,1312 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="226979279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>USPS (44MB), JoinHybrid</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$41:$AA$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$42:$AA$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.069000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA32-4A7E-9D66-D6251320A3D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$41:$AA$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$43:$AA$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0969999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.603000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA32-4A7E-9D66-D6251320A3D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$41:$AA$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$44:$AA$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DA32-4A7E-9D66-D6251320A3D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$41:$AA$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$45:$AA$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.158999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.739000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>299.59800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DA32-4A7E-9D66-D6251320A3D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="119791295"/>
+        <c:axId val="119794207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="119791295"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119794207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="119794207"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119791295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$10:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158.57400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-166C-44AE-8ACB-B33C8406E386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$11:$Z$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.061999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-166C-44AE-8ACB-B33C8406E386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$12:$Z$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161.273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-166C-44AE-8ACB-B33C8406E386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$13:$Z$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.536000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>581.43299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-166C-44AE-8ACB-B33C8406E386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="373363279"/>
+        <c:axId val="373358703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="373363279"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373358703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="373358703"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373363279"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1879,6 +3852,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2912,6 +4965,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3461,16 +6546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>653823</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>27894</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>82321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>387122</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>46944</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6123</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3493,12 +6578,12 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>81642</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>530678</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
@@ -3514,6 +6599,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>319768</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>29934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>129268</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>119741</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3785,10 +6930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O47"/>
+  <dimension ref="B1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77:J78"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R70" sqref="R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3797,12 +6942,12 @@
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -3830,8 +6975,14 @@
       <c r="L2" t="s">
         <v>2</v>
       </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1000</v>
       </c>
@@ -3856,8 +7007,14 @@
       <c r="L3">
         <v>950</v>
       </c>
+      <c r="M3">
+        <v>1488</v>
+      </c>
+      <c r="N3">
+        <v>1578</v>
+      </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3000</v>
       </c>
@@ -3882,8 +7039,14 @@
       <c r="L4">
         <v>933</v>
       </c>
+      <c r="M4">
+        <v>1757</v>
+      </c>
+      <c r="N4">
+        <v>1844</v>
+      </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -3908,8 +7071,14 @@
       <c r="L5">
         <v>1326</v>
       </c>
+      <c r="M5">
+        <v>2785</v>
+      </c>
+      <c r="N5">
+        <v>3186</v>
+      </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>30000</v>
       </c>
@@ -3934,8 +7103,14 @@
       <c r="L6">
         <v>2622</v>
       </c>
+      <c r="M6">
+        <v>5407</v>
+      </c>
+      <c r="N6">
+        <v>6709</v>
+      </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>100000</v>
       </c>
@@ -3960,8 +7135,14 @@
       <c r="L7">
         <v>10367</v>
       </c>
+      <c r="M7">
+        <v>10318</v>
+      </c>
+      <c r="N7">
+        <v>11978</v>
+      </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>300000</v>
       </c>
@@ -3986,8 +7167,20 @@
       <c r="L8">
         <v>66329</v>
       </c>
+      <c r="M8">
+        <v>42887</v>
+      </c>
+      <c r="N8">
+        <v>49536</v>
+      </c>
+      <c r="T8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1000000</v>
       </c>
@@ -4012,13 +7205,505 @@
       <c r="L9">
         <v>638937</v>
       </c>
+      <c r="M9">
+        <v>158574</v>
+      </c>
+      <c r="N9">
+        <v>581433</v>
+      </c>
+      <c r="R9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9">
+        <v>1000</v>
+      </c>
+      <c r="U9">
+        <v>3000</v>
+      </c>
+      <c r="V9">
+        <v>10000</v>
+      </c>
+      <c r="W9">
+        <v>30000</v>
+      </c>
+      <c r="X9">
+        <v>100000</v>
+      </c>
+      <c r="Y9">
+        <v>300000</v>
+      </c>
+      <c r="Z9">
+        <v>1000000</v>
+      </c>
+      <c r="AD9">
+        <v>1000</v>
+      </c>
+      <c r="AE9">
+        <v>3000</v>
+      </c>
+      <c r="AF9">
+        <v>10000</v>
+      </c>
+      <c r="AG9">
+        <v>30000</v>
+      </c>
+      <c r="AH9">
+        <v>100000</v>
+      </c>
+      <c r="AI9">
+        <v>300000</v>
+      </c>
+      <c r="AJ9">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10">
+        <v>0.01</v>
+      </c>
+      <c r="T10">
+        <f>T17/1000</f>
+        <v>1.488</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ref="U10:Y10" si="0">U17/1000</f>
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>2.7850000000000001</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>5.407</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>10.318</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>42.887</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ref="Z10" si="1">Z17/1000</f>
+        <v>158.57400000000001</v>
+      </c>
+      <c r="AC10">
+        <v>10</v>
+      </c>
+      <c r="AD10">
+        <f>AD17/1000</f>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" ref="AE10:AJ10" si="2">AE17/1000</f>
+        <v>1.234</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="2"/>
+        <v>3.3530000000000002</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="2"/>
+        <v>6.069</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="2"/>
+        <v>21.521000000000001</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="2"/>
+        <v>104.18600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="S11">
+        <v>0.03</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ref="T11:Y13" si="3">T18/1000</f>
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="3"/>
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>2.9279999999999999</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="3"/>
+        <v>5.52</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>10.728999999999999</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="3"/>
+        <v>45.061999999999998</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" ref="Z11" si="4">Z18/1000</f>
+        <v>163.31</v>
+      </c>
+      <c r="AC11">
+        <v>100</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" ref="AD11:AJ12" si="5">AD18/1000</f>
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="5"/>
+        <v>1.42</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="5"/>
+        <v>1.96</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="5"/>
+        <v>3.6669999999999998</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="5"/>
+        <v>6.7880000000000003</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="5"/>
+        <v>24.132999999999999</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="5"/>
+        <v>115.616</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="S12">
+        <v>0.1</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="3"/>
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>2.8530000000000002</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="3"/>
+        <v>6.0439999999999996</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="3"/>
+        <v>10.77</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="3"/>
+        <v>45.98</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" ref="Z12" si="6">Z19/1000</f>
+        <v>161.273</v>
+      </c>
+      <c r="AC12">
+        <v>1000</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="5"/>
+        <v>1.208</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="5"/>
+        <v>1.522</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="5"/>
+        <v>2.5179999999999998</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="5"/>
+        <v>4.9390000000000001</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="5"/>
+        <v>9.2119999999999997</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="5"/>
+        <v>42.78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="S13">
+        <v>0.3</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="3"/>
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="3"/>
+        <v>3.1859999999999999</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="3"/>
+        <v>6.7089999999999996</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="3"/>
+        <v>11.978</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="3"/>
+        <v>49.536000000000001</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" ref="Z13" si="7">Z20/1000</f>
+        <v>581.43299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <v>1000</v>
+      </c>
+      <c r="U16">
+        <v>3000</v>
+      </c>
+      <c r="V16">
+        <v>10000</v>
+      </c>
+      <c r="W16">
+        <v>30000</v>
+      </c>
+      <c r="X16">
+        <v>100000</v>
+      </c>
+      <c r="Y16">
+        <v>300000</v>
+      </c>
+      <c r="Z16">
+        <v>1000000</v>
+      </c>
+      <c r="AD16">
+        <v>1000</v>
+      </c>
+      <c r="AE16">
+        <v>3000</v>
+      </c>
+      <c r="AF16">
+        <v>10000</v>
+      </c>
+      <c r="AG16">
+        <v>30000</v>
+      </c>
+      <c r="AH16">
+        <v>100000</v>
+      </c>
+      <c r="AI16">
+        <v>300000</v>
+      </c>
+      <c r="AJ16">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="19:36" x14ac:dyDescent="0.3">
+      <c r="S17">
+        <v>0.01</v>
+      </c>
+      <c r="T17">
+        <v>1488</v>
+      </c>
+      <c r="U17">
+        <v>1757</v>
+      </c>
+      <c r="V17">
+        <v>2785</v>
+      </c>
+      <c r="W17">
+        <v>5407</v>
+      </c>
+      <c r="X17">
+        <v>10318</v>
+      </c>
+      <c r="Y17">
+        <v>42887</v>
+      </c>
+      <c r="Z17">
+        <v>158574</v>
+      </c>
+      <c r="AC17">
+        <v>10</v>
+      </c>
+      <c r="AD17">
+        <v>1098</v>
+      </c>
+      <c r="AE17">
+        <v>1234</v>
+      </c>
+      <c r="AF17">
+        <v>1771</v>
+      </c>
+      <c r="AG17">
+        <v>3353</v>
+      </c>
+      <c r="AH17">
+        <v>6069</v>
+      </c>
+      <c r="AI17">
+        <v>21521</v>
+      </c>
+      <c r="AJ17">
+        <v>104186</v>
+      </c>
+    </row>
+    <row r="18" spans="19:36" x14ac:dyDescent="0.3">
+      <c r="S18">
+        <v>0.03</v>
+      </c>
+      <c r="T18">
+        <v>1523</v>
+      </c>
+      <c r="U18">
+        <v>1922</v>
+      </c>
+      <c r="V18">
+        <v>2928</v>
+      </c>
+      <c r="W18">
+        <v>5520</v>
+      </c>
+      <c r="X18">
+        <v>10729</v>
+      </c>
+      <c r="Y18">
+        <v>45062</v>
+      </c>
+      <c r="Z18">
+        <v>163310</v>
+      </c>
+      <c r="AC18">
+        <v>100</v>
+      </c>
+      <c r="AD18">
+        <v>1106</v>
+      </c>
+      <c r="AE18">
+        <v>1420</v>
+      </c>
+      <c r="AF18">
+        <v>1960</v>
+      </c>
+      <c r="AG18">
+        <v>3667</v>
+      </c>
+      <c r="AH18">
+        <v>6788</v>
+      </c>
+      <c r="AI18">
+        <v>24133</v>
+      </c>
+      <c r="AJ18">
+        <v>115616</v>
+      </c>
+    </row>
+    <row r="19" spans="19:36" x14ac:dyDescent="0.3">
+      <c r="S19">
+        <v>0.1</v>
+      </c>
+      <c r="T19">
+        <v>1608</v>
+      </c>
+      <c r="U19">
+        <v>1842</v>
+      </c>
+      <c r="V19">
+        <v>2853</v>
+      </c>
+      <c r="W19">
+        <v>6044</v>
+      </c>
+      <c r="X19">
+        <v>10770</v>
+      </c>
+      <c r="Y19">
+        <v>45980</v>
+      </c>
+      <c r="Z19">
+        <v>161273</v>
+      </c>
+      <c r="AC19">
+        <v>1000</v>
+      </c>
+      <c r="AD19">
+        <v>1208</v>
+      </c>
+      <c r="AE19">
+        <v>1522</v>
+      </c>
+      <c r="AF19">
+        <v>2518</v>
+      </c>
+      <c r="AG19">
+        <v>4939</v>
+      </c>
+      <c r="AH19">
+        <v>9212</v>
+      </c>
+      <c r="AI19">
+        <v>42780</v>
+      </c>
+    </row>
+    <row r="20" spans="19:36" x14ac:dyDescent="0.3">
+      <c r="S20">
+        <v>0.3</v>
+      </c>
+      <c r="T20">
+        <v>1578</v>
+      </c>
+      <c r="U20">
+        <v>1844</v>
+      </c>
+      <c r="V20">
+        <v>3186</v>
+      </c>
+      <c r="W20">
+        <v>6709</v>
+      </c>
+      <c r="X20">
+        <v>11978</v>
+      </c>
+      <c r="Y20">
+        <v>49536</v>
+      </c>
+      <c r="Z20">
+        <v>581433</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -4031,6 +7716,9 @@
       <c r="E40" t="s">
         <v>2</v>
       </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
       <c r="I40" t="s">
         <v>4</v>
       </c>
@@ -4043,8 +7731,17 @@
       <c r="L40" t="s">
         <v>2</v>
       </c>
+      <c r="M40" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" t="s">
+        <v>11</v>
+      </c>
+      <c r="T40" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1000</v>
       </c>
@@ -4061,16 +7758,51 @@
         <v>1000</v>
       </c>
       <c r="J41">
-        <v>221</v>
+        <f>J52/1000</f>
+        <v>0.221</v>
       </c>
       <c r="K41">
-        <v>332</v>
+        <f t="shared" ref="K41:N41" si="8">K52/1000</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="L41">
-        <v>243</v>
+        <f t="shared" si="8"/>
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="8"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="8"/>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="S41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U41">
+        <v>1000</v>
+      </c>
+      <c r="V41">
+        <v>3000</v>
+      </c>
+      <c r="W41">
+        <v>10000</v>
+      </c>
+      <c r="X41">
+        <v>30000</v>
+      </c>
+      <c r="Y41">
+        <v>100000</v>
+      </c>
+      <c r="Z41">
+        <v>300000</v>
+      </c>
+      <c r="AA41">
+        <v>1000000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>3000</v>
       </c>
@@ -4087,16 +7819,61 @@
         <v>3000</v>
       </c>
       <c r="J42">
-        <v>482</v>
+        <f t="shared" ref="J42:N47" si="9">J53/1000</f>
+        <v>0.48199999999999998</v>
       </c>
       <c r="K42">
-        <v>427</v>
+        <f t="shared" si="9"/>
+        <v>0.42699999999999999</v>
       </c>
       <c r="L42">
-        <v>546</v>
+        <f t="shared" si="9"/>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="9"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="9"/>
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="S42" t="s">
+        <v>15</v>
+      </c>
+      <c r="T42">
+        <v>0.01</v>
+      </c>
+      <c r="U42">
+        <f>U51/1000</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="V42">
+        <f t="shared" ref="V42:AA42" si="10">V51/1000</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="10"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="10"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="10"/>
+        <v>1.014</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="10"/>
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="10"/>
+        <v>10.069000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>10000</v>
       </c>
@@ -4113,16 +7890,58 @@
         <v>10000</v>
       </c>
       <c r="J43">
-        <v>2277</v>
+        <f t="shared" si="9"/>
+        <v>2.2770000000000001</v>
       </c>
       <c r="K43">
-        <v>868</v>
+        <f t="shared" si="9"/>
+        <v>0.86799999999999999</v>
       </c>
       <c r="L43">
-        <v>3108</v>
+        <f t="shared" si="9"/>
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="9"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="9"/>
+        <v>2.9409999999999998</v>
+      </c>
+      <c r="T43">
+        <v>0.03</v>
+      </c>
+      <c r="U43">
+        <f t="shared" ref="U43:AA45" si="11">U52/1000</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="11"/>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="11"/>
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="11"/>
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="11"/>
+        <v>3.0219999999999998</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="11"/>
+        <v>9.0969999999999995</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="11"/>
+        <v>29.603000000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>30000</v>
       </c>
@@ -4139,16 +7958,58 @@
         <v>30000</v>
       </c>
       <c r="J44">
-        <v>16197</v>
+        <f t="shared" si="9"/>
+        <v>16.196999999999999</v>
       </c>
       <c r="K44">
-        <v>2521</v>
+        <f t="shared" si="9"/>
+        <v>2.5209999999999999</v>
       </c>
       <c r="L44">
-        <v>22776</v>
+        <f t="shared" si="9"/>
+        <v>22.776</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="9"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="9"/>
+        <v>8.8650000000000002</v>
+      </c>
+      <c r="T44">
+        <v>0.1</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="11"/>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="11"/>
+        <v>0.309</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="11"/>
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="11"/>
+        <v>2.9729999999999999</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="11"/>
+        <v>9.84</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="11"/>
+        <v>30.234999999999999</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="11"/>
+        <v>100.262</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>100000</v>
       </c>
@@ -4165,16 +8026,58 @@
         <v>100000</v>
       </c>
       <c r="J45">
-        <v>193287</v>
+        <f t="shared" si="9"/>
+        <v>193.28700000000001</v>
       </c>
       <c r="K45">
-        <v>14350</v>
+        <f t="shared" si="9"/>
+        <v>14.35</v>
       </c>
       <c r="L45">
-        <v>242690</v>
+        <f t="shared" si="9"/>
+        <v>242.69</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="9"/>
+        <v>1.014</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="9"/>
+        <v>30.158999999999999</v>
+      </c>
+      <c r="T45">
+        <v>0.3</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="11"/>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="11"/>
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="11"/>
+        <v>2.9409999999999998</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="11"/>
+        <v>8.8650000000000002</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="11"/>
+        <v>30.158999999999999</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="11"/>
+        <v>89.739000000000004</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="11"/>
+        <v>299.59800000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>300000</v>
       </c>
@@ -4182,16 +8085,27 @@
         <v>300000</v>
       </c>
       <c r="J46">
-        <v>1889489</v>
+        <f t="shared" si="9"/>
+        <v>1889.489</v>
       </c>
       <c r="K46">
-        <v>117231</v>
+        <f t="shared" si="9"/>
+        <v>117.23099999999999</v>
       </c>
       <c r="L46">
-        <v>2272803</v>
+        <f t="shared" si="9"/>
+        <v>2272.8029999999999</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="9"/>
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="9"/>
+        <v>89.739000000000004</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>1000000</v>
       </c>
@@ -4199,21 +8113,426 @@
         <v>1000000</v>
       </c>
       <c r="J47">
+        <f t="shared" si="9"/>
+        <v>22096.137999999999</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="9"/>
+        <v>1204.366</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="9"/>
+        <v>29079.895</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="9"/>
+        <v>10.069000000000001</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="9"/>
+        <v>299.59800000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="T49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="S50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U50">
+        <v>1000</v>
+      </c>
+      <c r="V50">
+        <v>3000</v>
+      </c>
+      <c r="W50">
+        <v>10000</v>
+      </c>
+      <c r="X50">
+        <v>30000</v>
+      </c>
+      <c r="Y50">
+        <v>100000</v>
+      </c>
+      <c r="Z50">
+        <v>300000</v>
+      </c>
+      <c r="AA50">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="51" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>2</v>
+      </c>
+      <c r="M51" t="s">
+        <v>10</v>
+      </c>
+      <c r="N51" t="s">
+        <v>11</v>
+      </c>
+      <c r="S51" t="s">
+        <v>15</v>
+      </c>
+      <c r="T51">
+        <v>0.01</v>
+      </c>
+      <c r="U51">
+        <v>12</v>
+      </c>
+      <c r="V51">
+        <v>26</v>
+      </c>
+      <c r="W51">
+        <v>102</v>
+      </c>
+      <c r="X51">
+        <v>295</v>
+      </c>
+      <c r="Y51">
+        <v>1014</v>
+      </c>
+      <c r="Z51">
+        <v>2995</v>
+      </c>
+      <c r="AA51">
+        <v>10069</v>
+      </c>
+    </row>
+    <row r="52" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>1000</v>
+      </c>
+      <c r="J52">
+        <v>221</v>
+      </c>
+      <c r="K52">
+        <v>332</v>
+      </c>
+      <c r="L52">
+        <v>243</v>
+      </c>
+      <c r="M52">
+        <v>12</v>
+      </c>
+      <c r="N52">
+        <v>328</v>
+      </c>
+      <c r="T52">
+        <v>0.03</v>
+      </c>
+      <c r="U52">
+        <v>35</v>
+      </c>
+      <c r="V52">
+        <v>91</v>
+      </c>
+      <c r="W52">
+        <v>289</v>
+      </c>
+      <c r="X52">
+        <v>862</v>
+      </c>
+      <c r="Y52">
+        <v>3022</v>
+      </c>
+      <c r="Z52">
+        <v>9097</v>
+      </c>
+      <c r="AA52">
+        <v>29603</v>
+      </c>
+    </row>
+    <row r="53" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>3000</v>
+      </c>
+      <c r="J53">
+        <v>482</v>
+      </c>
+      <c r="K53">
+        <v>427</v>
+      </c>
+      <c r="L53">
+        <v>546</v>
+      </c>
+      <c r="M53">
+        <v>26</v>
+      </c>
+      <c r="N53">
+        <v>919</v>
+      </c>
+      <c r="T53">
+        <v>0.1</v>
+      </c>
+      <c r="U53">
+        <v>103</v>
+      </c>
+      <c r="V53">
+        <v>309</v>
+      </c>
+      <c r="W53">
+        <v>938</v>
+      </c>
+      <c r="X53">
+        <v>2973</v>
+      </c>
+      <c r="Y53">
+        <v>9840</v>
+      </c>
+      <c r="Z53">
+        <v>30235</v>
+      </c>
+      <c r="AA53">
+        <v>100262</v>
+      </c>
+    </row>
+    <row r="54" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>10000</v>
+      </c>
+      <c r="J54">
+        <v>2277</v>
+      </c>
+      <c r="K54">
+        <v>868</v>
+      </c>
+      <c r="L54">
+        <v>3108</v>
+      </c>
+      <c r="M54">
+        <v>102</v>
+      </c>
+      <c r="N54">
+        <v>2941</v>
+      </c>
+      <c r="T54">
+        <v>0.3</v>
+      </c>
+      <c r="U54">
+        <v>328</v>
+      </c>
+      <c r="V54">
+        <v>919</v>
+      </c>
+      <c r="W54">
+        <v>2941</v>
+      </c>
+      <c r="X54">
+        <v>8865</v>
+      </c>
+      <c r="Y54">
+        <v>30159</v>
+      </c>
+      <c r="Z54">
+        <v>89739</v>
+      </c>
+      <c r="AA54">
+        <v>299598</v>
+      </c>
+    </row>
+    <row r="55" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <v>30000</v>
+      </c>
+      <c r="J55">
+        <v>16197</v>
+      </c>
+      <c r="K55">
+        <v>2521</v>
+      </c>
+      <c r="L55">
+        <v>22776</v>
+      </c>
+      <c r="M55">
+        <v>295</v>
+      </c>
+      <c r="N55">
+        <v>8865</v>
+      </c>
+    </row>
+    <row r="56" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>100000</v>
+      </c>
+      <c r="J56">
+        <v>193287</v>
+      </c>
+      <c r="K56">
+        <v>14350</v>
+      </c>
+      <c r="L56">
+        <v>242690</v>
+      </c>
+      <c r="M56">
+        <v>1014</v>
+      </c>
+      <c r="N56">
+        <v>30159</v>
+      </c>
+    </row>
+    <row r="57" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>300000</v>
+      </c>
+      <c r="J57">
+        <v>1889489</v>
+      </c>
+      <c r="K57">
+        <v>117231</v>
+      </c>
+      <c r="L57">
+        <v>2272803</v>
+      </c>
+      <c r="M57">
+        <v>2995</v>
+      </c>
+      <c r="N57">
+        <v>89739</v>
+      </c>
+    </row>
+    <row r="58" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <v>1000000</v>
+      </c>
+      <c r="J58">
         <v>22096138</v>
       </c>
-      <c r="K47">
+      <c r="K58">
         <v>1204366</v>
       </c>
-      <c r="L47">
+      <c r="L58">
         <v>29079895</v>
       </c>
-      <c r="N47">
-        <f>K47/60/60/1000</f>
-        <v>0.3345461111111111</v>
-      </c>
-      <c r="O47">
-        <f>L47/60/60/1000</f>
-        <v>8.0777486111111116</v>
+      <c r="M58">
+        <v>10069</v>
+      </c>
+      <c r="N58">
+        <v>299598</v>
+      </c>
+    </row>
+    <row r="60" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="T60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="T61" t="s">
+        <v>14</v>
+      </c>
+      <c r="U61">
+        <v>1000</v>
+      </c>
+      <c r="V61">
+        <v>3000</v>
+      </c>
+      <c r="W61">
+        <v>10000</v>
+      </c>
+      <c r="X61">
+        <v>30000</v>
+      </c>
+      <c r="Y61">
+        <v>100000</v>
+      </c>
+      <c r="Z61">
+        <v>300000</v>
+      </c>
+      <c r="AA61">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="62" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="S62" t="s">
+        <v>16</v>
+      </c>
+      <c r="T62">
+        <v>10</v>
+      </c>
+      <c r="U62">
+        <v>220</v>
+      </c>
+      <c r="V62">
+        <v>425</v>
+      </c>
+      <c r="W62">
+        <v>831</v>
+      </c>
+      <c r="X62">
+        <v>1987</v>
+      </c>
+      <c r="Y62">
+        <v>7190</v>
+      </c>
+      <c r="Z62">
+        <v>39755</v>
+      </c>
+      <c r="AA62">
+        <v>402707</v>
+      </c>
+    </row>
+    <row r="63" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="T63">
+        <v>100</v>
+      </c>
+      <c r="U63">
+        <v>218</v>
+      </c>
+      <c r="V63">
+        <v>397</v>
+      </c>
+      <c r="W63">
+        <v>797</v>
+      </c>
+      <c r="X63">
+        <v>1705</v>
+      </c>
+      <c r="Y63">
+        <v>4561</v>
+      </c>
+      <c r="Z63">
+        <v>12548</v>
+      </c>
+      <c r="AA63">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="64" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="T64">
+        <v>1000</v>
+      </c>
+      <c r="U64">
+        <v>222</v>
+      </c>
+      <c r="V64">
+        <v>389</v>
+      </c>
+      <c r="W64">
+        <v>806</v>
+      </c>
+      <c r="X64">
+        <v>1718</v>
+      </c>
+      <c r="Y64">
+        <v>4563</v>
+      </c>
+      <c r="Z64">
+        <v>12661</v>
+      </c>
+      <c r="AA64">
+        <v>46305</v>
       </c>
     </row>
   </sheetData>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15045" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>threshold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synthetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mangosteen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1227,111 +1235,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-36C2-44C2-ACB4-35DD87667636}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JoinHybrid(worst)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$I$41:$I$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$N$41:$N$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.32800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.91900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9409999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.8650000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.158999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89.739000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>299.59800000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-36C2-44C2-ACB4-35DD87667636}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2117,99 +2020,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JoinHybrid(worst)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$I$3:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$N$3:$N$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1578</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1844</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3186</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6709</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11978</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49536</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>581433</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9F83-46CA-BB92-1BA7B372F333}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2879,6 +2689,382 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$41:$AA$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$46:$AA$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.423000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>796.33299999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DA32-4A7E-9D66-D6251320A3D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$41:$AA$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$47:$AA$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.064999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DA32-4A7E-9D66-D6251320A3D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$41:$AA$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$48:$AA$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.488</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.456000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>806.65499999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DA32-4A7E-9D66-D6251320A3D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$41:$AA$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$49:$AA$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.581</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.551000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>805.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-DA32-4A7E-9D66-D6251320A3D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3514,6 +3700,382 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-166C-44AE-8ACB-B33C8406E386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$14:$Z$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.465000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>147.39699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-166C-44AE-8ACB-B33C8406E386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$15:$Z$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.561999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.057000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>143.85599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-166C-44AE-8ACB-B33C8406E386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$16:$Z$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.603999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.302999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142.495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-166C-44AE-8ACB-B33C8406E386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$17:$Z$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.585000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148.27000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-166C-44AE-8ACB-B33C8406E386}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6637,15 +7199,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>84364</xdr:rowOff>
+      <xdr:colOff>278945</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
+      <xdr:colOff>88445</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6930,10 +7492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AJ64"/>
+  <dimension ref="B1:AS97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R70" sqref="R70"/>
+    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC73" sqref="AC73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6942,12 +7504,12 @@
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -6982,7 +7544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1000</v>
       </c>
@@ -7014,7 +7576,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3000</v>
       </c>
@@ -7046,7 +7608,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -7078,7 +7640,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>30000</v>
       </c>
@@ -7110,7 +7672,7 @@
         <v>6709</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>100000</v>
       </c>
@@ -7142,7 +7704,7 @@
         <v>11978</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>300000</v>
       </c>
@@ -7177,10 +7739,13 @@
         <v>12</v>
       </c>
       <c r="AD8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1000000</v>
       </c>
@@ -7235,6 +7800,9 @@
       <c r="Z9">
         <v>1000000</v>
       </c>
+      <c r="AB9" t="s">
+        <v>18</v>
+      </c>
       <c r="AD9">
         <v>1000</v>
       </c>
@@ -7256,8 +7824,29 @@
       <c r="AJ9">
         <v>1000000</v>
       </c>
+      <c r="AM9">
+        <v>1000</v>
+      </c>
+      <c r="AN9">
+        <v>3000</v>
+      </c>
+      <c r="AO9">
+        <v>10000</v>
+      </c>
+      <c r="AP9">
+        <v>30000</v>
+      </c>
+      <c r="AQ9">
+        <v>100000</v>
+      </c>
+      <c r="AR9">
+        <v>300000</v>
+      </c>
+      <c r="AS9">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:45" x14ac:dyDescent="0.3">
       <c r="R10" t="s">
         <v>15</v>
       </c>
@@ -7265,437 +7854,776 @@
         <v>0.01</v>
       </c>
       <c r="T10">
-        <f>T17/1000</f>
+        <f>T21/1000</f>
         <v>1.488</v>
       </c>
       <c r="U10">
-        <f t="shared" ref="U10:Y10" si="0">U17/1000</f>
+        <f>U21/1000</f>
         <v>1.7569999999999999</v>
       </c>
       <c r="V10">
+        <f>V21/1000</f>
+        <v>2.7850000000000001</v>
+      </c>
+      <c r="W10">
+        <f>W21/1000</f>
+        <v>5.407</v>
+      </c>
+      <c r="X10">
+        <f>X21/1000</f>
+        <v>10.318</v>
+      </c>
+      <c r="Y10">
+        <f>Y21/1000</f>
+        <v>42.887</v>
+      </c>
+      <c r="Z10">
+        <f>Z21/1000</f>
+        <v>158.57400000000001</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC10">
+        <v>1E-4</v>
+      </c>
+      <c r="AD10">
+        <v>1439</v>
+      </c>
+      <c r="AE10">
+        <v>1730</v>
+      </c>
+      <c r="AF10">
+        <v>2770</v>
+      </c>
+      <c r="AG10">
+        <v>5448</v>
+      </c>
+      <c r="AH10">
+        <v>9853</v>
+      </c>
+      <c r="AI10">
+        <v>43566</v>
+      </c>
+      <c r="AJ10">
+        <v>154764</v>
+      </c>
+      <c r="AL10">
+        <v>10</v>
+      </c>
+      <c r="AM10">
+        <f>AM17/1000</f>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" ref="AN10:AS10" si="0">AN17/1000</f>
+        <v>1.234</v>
+      </c>
+      <c r="AO10">
         <f t="shared" si="0"/>
-        <v>2.7850000000000001</v>
-      </c>
-      <c r="W10">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="AP10">
         <f t="shared" si="0"/>
-        <v>5.407</v>
-      </c>
-      <c r="X10">
+        <v>3.3530000000000002</v>
+      </c>
+      <c r="AQ10">
         <f t="shared" si="0"/>
-        <v>10.318</v>
-      </c>
-      <c r="Y10">
+        <v>6.069</v>
+      </c>
+      <c r="AR10">
         <f t="shared" si="0"/>
-        <v>42.887</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" ref="Z10" si="1">Z17/1000</f>
-        <v>158.57400000000001</v>
-      </c>
-      <c r="AC10">
-        <v>10</v>
-      </c>
-      <c r="AD10">
-        <f>AD17/1000</f>
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" ref="AE10:AJ10" si="2">AE17/1000</f>
-        <v>1.234</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="2"/>
-        <v>1.7709999999999999</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="2"/>
-        <v>3.3530000000000002</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" si="2"/>
-        <v>6.069</v>
-      </c>
-      <c r="AI10">
-        <f t="shared" si="2"/>
         <v>21.521000000000001</v>
       </c>
-      <c r="AJ10">
-        <f t="shared" si="2"/>
+      <c r="AS10">
+        <f t="shared" si="0"/>
         <v>104.18600000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:45" x14ac:dyDescent="0.3">
       <c r="S11">
         <v>0.03</v>
       </c>
       <c r="T11">
-        <f t="shared" ref="T11:Y13" si="3">T18/1000</f>
+        <f>T22/1000</f>
         <v>1.5229999999999999</v>
       </c>
       <c r="U11">
-        <f t="shared" si="3"/>
+        <f>U22/1000</f>
         <v>1.9219999999999999</v>
       </c>
       <c r="V11">
-        <f t="shared" si="3"/>
+        <f>V22/1000</f>
         <v>2.9279999999999999</v>
       </c>
       <c r="W11">
-        <f t="shared" si="3"/>
+        <f>W22/1000</f>
         <v>5.52</v>
       </c>
       <c r="X11">
-        <f t="shared" si="3"/>
+        <f>X22/1000</f>
         <v>10.728999999999999</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="3"/>
+        <f>Y22/1000</f>
         <v>45.061999999999998</v>
       </c>
       <c r="Z11">
-        <f t="shared" ref="Z11" si="4">Z18/1000</f>
+        <f>Z22/1000</f>
         <v>163.31</v>
       </c>
       <c r="AC11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AD11">
+        <v>1489</v>
+      </c>
+      <c r="AE11">
+        <v>1766</v>
+      </c>
+      <c r="AF11">
+        <v>2786</v>
+      </c>
+      <c r="AG11">
+        <v>5565</v>
+      </c>
+      <c r="AH11">
+        <v>10622</v>
+      </c>
+      <c r="AI11">
+        <v>41630</v>
+      </c>
+      <c r="AJ11">
+        <v>156216</v>
+      </c>
+      <c r="AL11">
         <v>100</v>
       </c>
-      <c r="AD11">
-        <f t="shared" ref="AD11:AJ12" si="5">AD18/1000</f>
+      <c r="AM11">
+        <f t="shared" ref="AM11:AS12" si="1">AM18/1000</f>
         <v>1.1060000000000001</v>
       </c>
-      <c r="AE11">
-        <f t="shared" si="5"/>
+      <c r="AN11">
+        <f t="shared" si="1"/>
         <v>1.42</v>
       </c>
-      <c r="AF11">
-        <f t="shared" si="5"/>
+      <c r="AO11">
+        <f t="shared" si="1"/>
         <v>1.96</v>
       </c>
-      <c r="AG11">
-        <f t="shared" si="5"/>
+      <c r="AP11">
+        <f t="shared" si="1"/>
         <v>3.6669999999999998</v>
       </c>
-      <c r="AH11">
-        <f t="shared" si="5"/>
+      <c r="AQ11">
+        <f t="shared" si="1"/>
         <v>6.7880000000000003</v>
       </c>
-      <c r="AI11">
-        <f t="shared" si="5"/>
+      <c r="AR11">
+        <f t="shared" si="1"/>
         <v>24.132999999999999</v>
       </c>
-      <c r="AJ11">
-        <f t="shared" si="5"/>
+      <c r="AS11">
+        <f t="shared" si="1"/>
         <v>115.616</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:45" x14ac:dyDescent="0.3">
       <c r="S12">
         <v>0.1</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f>T23/1000</f>
         <v>1.6080000000000001</v>
       </c>
       <c r="U12">
-        <f t="shared" si="3"/>
+        <f>U23/1000</f>
         <v>1.8420000000000001</v>
       </c>
       <c r="V12">
-        <f t="shared" si="3"/>
+        <f>V23/1000</f>
         <v>2.8530000000000002</v>
       </c>
       <c r="W12">
-        <f t="shared" si="3"/>
+        <f>W23/1000</f>
         <v>6.0439999999999996</v>
       </c>
       <c r="X12">
-        <f t="shared" si="3"/>
+        <f>X23/1000</f>
         <v>10.77</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="3"/>
+        <f>Y23/1000</f>
         <v>45.98</v>
       </c>
       <c r="Z12">
-        <f t="shared" ref="Z12" si="6">Z19/1000</f>
+        <f>Z23/1000</f>
         <v>161.273</v>
       </c>
       <c r="AC12">
+        <v>1E-3</v>
+      </c>
+      <c r="AD12">
+        <v>1454</v>
+      </c>
+      <c r="AE12">
+        <v>1789</v>
+      </c>
+      <c r="AF12">
+        <v>2725</v>
+      </c>
+      <c r="AG12">
+        <v>5454</v>
+      </c>
+      <c r="AH12">
+        <v>10691</v>
+      </c>
+      <c r="AI12">
+        <v>46168</v>
+      </c>
+      <c r="AJ12">
+        <v>156177</v>
+      </c>
+      <c r="AL12">
         <v>1000</v>
       </c>
-      <c r="AD12">
-        <f t="shared" si="5"/>
+      <c r="AM12">
+        <f t="shared" si="1"/>
         <v>1.208</v>
       </c>
-      <c r="AE12">
-        <f t="shared" si="5"/>
+      <c r="AN12">
+        <f t="shared" si="1"/>
         <v>1.522</v>
       </c>
-      <c r="AF12">
-        <f t="shared" si="5"/>
+      <c r="AO12">
+        <f t="shared" si="1"/>
         <v>2.5179999999999998</v>
       </c>
-      <c r="AG12">
-        <f t="shared" si="5"/>
+      <c r="AP12">
+        <f t="shared" si="1"/>
         <v>4.9390000000000001</v>
       </c>
-      <c r="AH12">
-        <f t="shared" si="5"/>
+      <c r="AQ12">
+        <f t="shared" si="1"/>
         <v>9.2119999999999997</v>
       </c>
-      <c r="AI12">
-        <f t="shared" si="5"/>
+      <c r="AR12">
+        <f t="shared" si="1"/>
         <v>42.78</v>
       </c>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:45" x14ac:dyDescent="0.3">
       <c r="S13">
         <v>0.3</v>
       </c>
       <c r="T13">
+        <f>T24/1000</f>
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="U13">
+        <f>U24/1000</f>
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="V13">
+        <f>V24/1000</f>
+        <v>3.1859999999999999</v>
+      </c>
+      <c r="W13">
+        <f>W24/1000</f>
+        <v>6.7089999999999996</v>
+      </c>
+      <c r="X13">
+        <f>X24/1000</f>
+        <v>11.978</v>
+      </c>
+      <c r="Y13">
+        <f>Y24/1000</f>
+        <v>49.536000000000001</v>
+      </c>
+      <c r="Z13">
+        <f>Z24/1000</f>
+        <v>581.43299999999999</v>
+      </c>
+      <c r="AC13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AD13">
+        <v>1450</v>
+      </c>
+      <c r="AE13">
+        <v>1751</v>
+      </c>
+      <c r="AF13">
+        <v>2862</v>
+      </c>
+      <c r="AG13">
+        <v>5977</v>
+      </c>
+      <c r="AH13">
+        <v>10567</v>
+      </c>
+      <c r="AI13">
+        <v>44449</v>
+      </c>
+      <c r="AJ13">
+        <v>151957</v>
+      </c>
+    </row>
+    <row r="14" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <v>1E-4</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ref="T14:Z14" si="2">T25/1000</f>
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>1.58</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>2.4870000000000001</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>5.1769999999999996</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>12.875</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="2"/>
+        <v>41.465000000000003</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="2"/>
+        <v>147.39699999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="S15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ref="T15:Z15" si="3">T26/1000</f>
+        <v>1.31</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="3"/>
-        <v>1.5780000000000001</v>
-      </c>
-      <c r="U13">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="3"/>
-        <v>1.8440000000000001</v>
-      </c>
-      <c r="V13">
+        <v>2.4729999999999999</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="3"/>
-        <v>3.1859999999999999</v>
-      </c>
-      <c r="W13">
+        <v>5.0259999999999998</v>
+      </c>
+      <c r="X15">
         <f t="shared" si="3"/>
-        <v>6.7089999999999996</v>
-      </c>
-      <c r="X13">
+        <v>12.561999999999999</v>
+      </c>
+      <c r="Y15">
         <f t="shared" si="3"/>
-        <v>11.978</v>
-      </c>
-      <c r="Y13">
+        <v>41.057000000000002</v>
+      </c>
+      <c r="Z15">
         <f t="shared" si="3"/>
-        <v>49.536000000000001</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" ref="Z13" si="7">Z20/1000</f>
-        <v>581.43299999999999</v>
+        <v>143.85599999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="S16">
+        <v>1E-3</v>
+      </c>
       <c r="T16">
+        <f t="shared" ref="T16:Z16" si="4">T27/1000</f>
+        <v>1.3</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>1.575</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="4"/>
+        <v>2.4670000000000001</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="4"/>
+        <v>5.1859999999999999</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="4"/>
+        <v>12.603999999999999</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="4"/>
+        <v>42.302999999999997</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="4"/>
+        <v>142.495</v>
+      </c>
+      <c r="AM16">
         <v>1000</v>
       </c>
-      <c r="U16">
+      <c r="AN16">
         <v>3000</v>
       </c>
-      <c r="V16">
+      <c r="AO16">
         <v>10000</v>
       </c>
-      <c r="W16">
+      <c r="AP16">
         <v>30000</v>
       </c>
-      <c r="X16">
+      <c r="AQ16">
         <v>100000</v>
       </c>
-      <c r="Y16">
+      <c r="AR16">
         <v>300000</v>
       </c>
-      <c r="Z16">
+      <c r="AS16">
         <v>1000000</v>
       </c>
-      <c r="AD16">
+    </row>
+    <row r="17" spans="19:45" x14ac:dyDescent="0.3">
+      <c r="S17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T17">
+        <f t="shared" ref="T17:Z17" si="5">T28/1000</f>
+        <v>1.333</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="5"/>
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="5"/>
+        <v>2.4430000000000001</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="5"/>
+        <v>5.2539999999999996</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="5"/>
+        <v>13.218</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="5"/>
+        <v>42.585000000000001</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="5"/>
+        <v>148.27000000000001</v>
+      </c>
+      <c r="AL17">
+        <v>10</v>
+      </c>
+      <c r="AM17">
+        <v>1098</v>
+      </c>
+      <c r="AN17">
+        <v>1234</v>
+      </c>
+      <c r="AO17">
+        <v>1771</v>
+      </c>
+      <c r="AP17">
+        <v>3353</v>
+      </c>
+      <c r="AQ17">
+        <v>6069</v>
+      </c>
+      <c r="AR17">
+        <v>21521</v>
+      </c>
+      <c r="AS17">
+        <v>104186</v>
+      </c>
+    </row>
+    <row r="18" spans="19:45" x14ac:dyDescent="0.3">
+      <c r="AL18">
+        <v>100</v>
+      </c>
+      <c r="AM18">
+        <v>1106</v>
+      </c>
+      <c r="AN18">
+        <v>1420</v>
+      </c>
+      <c r="AO18">
+        <v>1960</v>
+      </c>
+      <c r="AP18">
+        <v>3667</v>
+      </c>
+      <c r="AQ18">
+        <v>6788</v>
+      </c>
+      <c r="AR18">
+        <v>24133</v>
+      </c>
+      <c r="AS18">
+        <v>115616</v>
+      </c>
+    </row>
+    <row r="19" spans="19:45" x14ac:dyDescent="0.3">
+      <c r="AL19">
         <v>1000</v>
       </c>
-      <c r="AE16">
+      <c r="AM19">
+        <v>1208</v>
+      </c>
+      <c r="AN19">
+        <v>1522</v>
+      </c>
+      <c r="AO19">
+        <v>2518</v>
+      </c>
+      <c r="AP19">
+        <v>4939</v>
+      </c>
+      <c r="AQ19">
+        <v>9212</v>
+      </c>
+      <c r="AR19">
+        <v>42780</v>
+      </c>
+    </row>
+    <row r="20" spans="19:45" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <v>1000</v>
+      </c>
+      <c r="U20">
         <v>3000</v>
       </c>
-      <c r="AF16">
+      <c r="V20">
         <v>10000</v>
       </c>
-      <c r="AG16">
+      <c r="W20">
         <v>30000</v>
       </c>
-      <c r="AH16">
+      <c r="X20">
         <v>100000</v>
       </c>
-      <c r="AI16">
+      <c r="Y20">
         <v>300000</v>
       </c>
-      <c r="AJ16">
+      <c r="Z20">
         <v>1000000</v>
       </c>
     </row>
-    <row r="17" spans="19:36" x14ac:dyDescent="0.3">
-      <c r="S17">
+    <row r="21" spans="19:45" x14ac:dyDescent="0.3">
+      <c r="S21">
         <v>0.01</v>
       </c>
-      <c r="T17">
+      <c r="T21">
         <v>1488</v>
       </c>
-      <c r="U17">
+      <c r="U21">
         <v>1757</v>
       </c>
-      <c r="V17">
+      <c r="V21">
         <v>2785</v>
       </c>
-      <c r="W17">
+      <c r="W21">
         <v>5407</v>
       </c>
-      <c r="X17">
+      <c r="X21">
         <v>10318</v>
       </c>
-      <c r="Y17">
+      <c r="Y21">
         <v>42887</v>
       </c>
-      <c r="Z17">
+      <c r="Z21">
         <v>158574</v>
       </c>
-      <c r="AC17">
-        <v>10</v>
-      </c>
-      <c r="AD17">
-        <v>1098</v>
-      </c>
-      <c r="AE17">
-        <v>1234</v>
-      </c>
-      <c r="AF17">
-        <v>1771</v>
-      </c>
-      <c r="AG17">
-        <v>3353</v>
-      </c>
-      <c r="AH17">
-        <v>6069</v>
-      </c>
-      <c r="AI17">
-        <v>21521</v>
-      </c>
-      <c r="AJ17">
-        <v>104186</v>
-      </c>
     </row>
-    <row r="18" spans="19:36" x14ac:dyDescent="0.3">
-      <c r="S18">
+    <row r="22" spans="19:45" x14ac:dyDescent="0.3">
+      <c r="S22">
         <v>0.03</v>
       </c>
-      <c r="T18">
+      <c r="T22">
         <v>1523</v>
       </c>
-      <c r="U18">
+      <c r="U22">
         <v>1922</v>
       </c>
-      <c r="V18">
+      <c r="V22">
         <v>2928</v>
       </c>
-      <c r="W18">
+      <c r="W22">
         <v>5520</v>
       </c>
-      <c r="X18">
+      <c r="X22">
         <v>10729</v>
       </c>
-      <c r="Y18">
+      <c r="Y22">
         <v>45062</v>
       </c>
-      <c r="Z18">
+      <c r="Z22">
         <v>163310</v>
       </c>
-      <c r="AC18">
-        <v>100</v>
-      </c>
-      <c r="AD18">
-        <v>1106</v>
-      </c>
-      <c r="AE18">
-        <v>1420</v>
-      </c>
-      <c r="AF18">
-        <v>1960</v>
-      </c>
-      <c r="AG18">
-        <v>3667</v>
-      </c>
-      <c r="AH18">
-        <v>6788</v>
-      </c>
-      <c r="AI18">
-        <v>24133</v>
-      </c>
-      <c r="AJ18">
-        <v>115616</v>
-      </c>
     </row>
-    <row r="19" spans="19:36" x14ac:dyDescent="0.3">
-      <c r="S19">
+    <row r="23" spans="19:45" x14ac:dyDescent="0.3">
+      <c r="S23">
         <v>0.1</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1608</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1842</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>2853</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>6044</v>
       </c>
-      <c r="X19">
+      <c r="X23">
         <v>10770</v>
       </c>
-      <c r="Y19">
+      <c r="Y23">
         <v>45980</v>
       </c>
-      <c r="Z19">
+      <c r="Z23">
         <v>161273</v>
       </c>
-      <c r="AC19">
-        <v>1000</v>
-      </c>
-      <c r="AD19">
-        <v>1208</v>
-      </c>
-      <c r="AE19">
-        <v>1522</v>
-      </c>
-      <c r="AF19">
-        <v>2518</v>
-      </c>
-      <c r="AG19">
-        <v>4939</v>
-      </c>
-      <c r="AH19">
-        <v>9212</v>
-      </c>
-      <c r="AI19">
-        <v>42780</v>
-      </c>
     </row>
-    <row r="20" spans="19:36" x14ac:dyDescent="0.3">
-      <c r="S20">
+    <row r="24" spans="19:45" x14ac:dyDescent="0.3">
+      <c r="S24">
         <v>0.3</v>
       </c>
-      <c r="T20">
+      <c r="T24">
         <v>1578</v>
       </c>
-      <c r="U20">
+      <c r="U24">
         <v>1844</v>
       </c>
-      <c r="V20">
+      <c r="V24">
         <v>3186</v>
       </c>
-      <c r="W20">
+      <c r="W24">
         <v>6709</v>
       </c>
-      <c r="X20">
+      <c r="X24">
         <v>11978</v>
       </c>
-      <c r="Y20">
+      <c r="Y24">
         <v>49536</v>
       </c>
-      <c r="Z20">
+      <c r="Z24">
         <v>581433</v>
+      </c>
+    </row>
+    <row r="25" spans="19:45" x14ac:dyDescent="0.3">
+      <c r="S25">
+        <v>1E-4</v>
+      </c>
+      <c r="T25">
+        <v>1368</v>
+      </c>
+      <c r="U25">
+        <v>1580</v>
+      </c>
+      <c r="V25">
+        <v>2487</v>
+      </c>
+      <c r="W25">
+        <v>5177</v>
+      </c>
+      <c r="X25">
+        <v>12875</v>
+      </c>
+      <c r="Y25">
+        <v>41465</v>
+      </c>
+      <c r="Z25">
+        <v>147397</v>
+      </c>
+    </row>
+    <row r="26" spans="19:45" x14ac:dyDescent="0.3">
+      <c r="S26">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="T26">
+        <v>1310</v>
+      </c>
+      <c r="U26">
+        <v>1525</v>
+      </c>
+      <c r="V26">
+        <v>2473</v>
+      </c>
+      <c r="W26">
+        <v>5026</v>
+      </c>
+      <c r="X26">
+        <v>12562</v>
+      </c>
+      <c r="Y26">
+        <v>41057</v>
+      </c>
+      <c r="Z26">
+        <v>143856</v>
+      </c>
+    </row>
+    <row r="27" spans="19:45" x14ac:dyDescent="0.3">
+      <c r="S27">
+        <v>1E-3</v>
+      </c>
+      <c r="T27">
+        <v>1300</v>
+      </c>
+      <c r="U27">
+        <v>1575</v>
+      </c>
+      <c r="V27">
+        <v>2467</v>
+      </c>
+      <c r="W27">
+        <v>5186</v>
+      </c>
+      <c r="X27">
+        <v>12604</v>
+      </c>
+      <c r="Y27">
+        <v>42303</v>
+      </c>
+      <c r="Z27">
+        <v>142495</v>
+      </c>
+    </row>
+    <row r="28" spans="19:45" x14ac:dyDescent="0.3">
+      <c r="S28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T28">
+        <v>1333</v>
+      </c>
+      <c r="U28">
+        <v>1582</v>
+      </c>
+      <c r="V28">
+        <v>2443</v>
+      </c>
+      <c r="W28">
+        <v>5254</v>
+      </c>
+      <c r="X28">
+        <v>13218</v>
+      </c>
+      <c r="Y28">
+        <v>42585</v>
+      </c>
+      <c r="Z28">
+        <v>148270</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.3">
@@ -7762,19 +8690,19 @@
         <v>0.221</v>
       </c>
       <c r="K41">
-        <f t="shared" ref="K41:N41" si="8">K52/1000</f>
+        <f t="shared" ref="K41:N41" si="6">K52/1000</f>
         <v>0.33200000000000002</v>
       </c>
       <c r="L41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.24299999999999999</v>
       </c>
       <c r="M41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.2E-2</v>
       </c>
       <c r="N41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.32800000000000001</v>
       </c>
       <c r="S41" t="s">
@@ -7819,23 +8747,23 @@
         <v>3000</v>
       </c>
       <c r="J42">
-        <f t="shared" ref="J42:N47" si="9">J53/1000</f>
+        <f t="shared" ref="J42:N47" si="7">J53/1000</f>
         <v>0.48199999999999998</v>
       </c>
       <c r="K42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.42699999999999999</v>
       </c>
       <c r="L42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.54600000000000004</v>
       </c>
       <c r="M42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="N42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.91900000000000004</v>
       </c>
       <c r="S42" t="s">
@@ -7845,31 +8773,31 @@
         <v>0.01</v>
       </c>
       <c r="U42">
-        <f>U51/1000</f>
+        <f>U54/1000</f>
         <v>1.2E-2</v>
       </c>
       <c r="V42">
-        <f t="shared" ref="V42:AA42" si="10">V51/1000</f>
+        <f>V54/1000</f>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="W42">
-        <f t="shared" si="10"/>
+        <f>W54/1000</f>
         <v>0.10199999999999999</v>
       </c>
       <c r="X42">
-        <f t="shared" si="10"/>
+        <f>X54/1000</f>
         <v>0.29499999999999998</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="10"/>
+        <f>Y54/1000</f>
         <v>1.014</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="10"/>
+        <f>Z54/1000</f>
         <v>2.9950000000000001</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="10"/>
+        <f>AA54/1000</f>
         <v>10.069000000000001</v>
       </c>
     </row>
@@ -7890,54 +8818,54 @@
         <v>10000</v>
       </c>
       <c r="J43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.2770000000000001</v>
       </c>
       <c r="K43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.86799999999999999</v>
       </c>
       <c r="L43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.1080000000000001</v>
       </c>
       <c r="M43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.10199999999999999</v>
       </c>
       <c r="N43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.9409999999999998</v>
       </c>
       <c r="T43">
         <v>0.03</v>
       </c>
       <c r="U43">
-        <f t="shared" ref="U43:AA45" si="11">U52/1000</f>
+        <f>U55/1000</f>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="V43">
-        <f t="shared" si="11"/>
+        <f>V55/1000</f>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="W43">
-        <f t="shared" si="11"/>
+        <f>W55/1000</f>
         <v>0.28899999999999998</v>
       </c>
       <c r="X43">
-        <f t="shared" si="11"/>
+        <f>X55/1000</f>
         <v>0.86199999999999999</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="11"/>
+        <f>Y55/1000</f>
         <v>3.0219999999999998</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="11"/>
+        <f>Z55/1000</f>
         <v>9.0969999999999995</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="11"/>
+        <f>AA55/1000</f>
         <v>29.603000000000002</v>
       </c>
     </row>
@@ -7958,54 +8886,54 @@
         <v>30000</v>
       </c>
       <c r="J44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>16.196999999999999</v>
       </c>
       <c r="K44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.5209999999999999</v>
       </c>
       <c r="L44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>22.776</v>
       </c>
       <c r="M44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.29499999999999998</v>
       </c>
       <c r="N44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8.8650000000000002</v>
       </c>
       <c r="T44">
         <v>0.1</v>
       </c>
       <c r="U44">
-        <f t="shared" si="11"/>
+        <f>U56/1000</f>
         <v>0.10299999999999999</v>
       </c>
       <c r="V44">
-        <f t="shared" si="11"/>
+        <f>V56/1000</f>
         <v>0.309</v>
       </c>
       <c r="W44">
-        <f t="shared" si="11"/>
+        <f>W56/1000</f>
         <v>0.93799999999999994</v>
       </c>
       <c r="X44">
-        <f t="shared" si="11"/>
+        <f>X56/1000</f>
         <v>2.9729999999999999</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="11"/>
+        <f>Y56/1000</f>
         <v>9.84</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="11"/>
+        <f>Z56/1000</f>
         <v>30.234999999999999</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="11"/>
+        <f>AA56/1000</f>
         <v>100.262</v>
       </c>
     </row>
@@ -8026,54 +8954,54 @@
         <v>100000</v>
       </c>
       <c r="J45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>193.28700000000001</v>
       </c>
       <c r="K45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>14.35</v>
       </c>
       <c r="L45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>242.69</v>
       </c>
       <c r="M45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.014</v>
       </c>
       <c r="N45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>30.158999999999999</v>
       </c>
       <c r="T45">
         <v>0.3</v>
       </c>
       <c r="U45">
-        <f t="shared" si="11"/>
+        <f>U57/1000</f>
         <v>0.32800000000000001</v>
       </c>
       <c r="V45">
-        <f t="shared" si="11"/>
+        <f>V57/1000</f>
         <v>0.91900000000000004</v>
       </c>
       <c r="W45">
-        <f t="shared" si="11"/>
+        <f>W57/1000</f>
         <v>2.9409999999999998</v>
       </c>
       <c r="X45">
-        <f t="shared" si="11"/>
+        <f>X57/1000</f>
         <v>8.8650000000000002</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="11"/>
+        <f>Y57/1000</f>
         <v>30.158999999999999</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="11"/>
+        <f>Z57/1000</f>
         <v>89.739000000000004</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="11"/>
+        <f>AA57/1000</f>
         <v>299.59800000000001</v>
       </c>
     </row>
@@ -8085,24 +9013,55 @@
         <v>300000</v>
       </c>
       <c r="J46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1889.489</v>
       </c>
       <c r="K46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>117.23099999999999</v>
       </c>
       <c r="L46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2272.8029999999999</v>
       </c>
       <c r="M46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.9950000000000001</v>
       </c>
       <c r="N46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>89.739000000000004</v>
+      </c>
+      <c r="T46">
+        <v>1E-4</v>
+      </c>
+      <c r="U46">
+        <f t="shared" ref="U46:AA49" si="8">U58/1000</f>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="8"/>
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="8"/>
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="8"/>
+        <v>2.9780000000000002</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="8"/>
+        <v>12.38</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="8"/>
+        <v>78.423000000000002</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="8"/>
+        <v>796.33299999999997</v>
       </c>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.3">
@@ -8113,58 +9072,124 @@
         <v>1000000</v>
       </c>
       <c r="J47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>22096.137999999999</v>
       </c>
       <c r="K47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1204.366</v>
       </c>
       <c r="L47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>29079.895</v>
       </c>
       <c r="M47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10.069000000000001</v>
       </c>
       <c r="N47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>299.59800000000001</v>
       </c>
+      <c r="T47">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="8"/>
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="8"/>
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="8"/>
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="8"/>
+        <v>3.0390000000000001</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="8"/>
+        <v>12.208</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="8"/>
+        <v>79.064999999999998</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="8"/>
+        <v>800.72</v>
+      </c>
     </row>
-    <row r="49" spans="9:27" x14ac:dyDescent="0.3">
-      <c r="T49" t="s">
-        <v>12</v>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="T48">
+        <v>1E-3</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="8"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="8"/>
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="8"/>
+        <v>1.056</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="8"/>
+        <v>2.968</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="8"/>
+        <v>12.488</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="8"/>
+        <v>79.456000000000003</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="8"/>
+        <v>806.65499999999997</v>
       </c>
     </row>
-    <row r="50" spans="9:27" x14ac:dyDescent="0.3">
-      <c r="S50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U50">
-        <v>1000</v>
-      </c>
-      <c r="V50">
-        <v>3000</v>
-      </c>
-      <c r="W50">
-        <v>10000</v>
-      </c>
-      <c r="X50">
-        <v>30000</v>
-      </c>
-      <c r="Y50">
-        <v>100000</v>
-      </c>
-      <c r="Z50">
-        <v>300000</v>
-      </c>
-      <c r="AA50">
-        <v>1000000</v>
+    <row r="49" spans="9:37" x14ac:dyDescent="0.3">
+      <c r="T49">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="8"/>
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="8"/>
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="8"/>
+        <v>1.05</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="8"/>
+        <v>4.07</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="8"/>
+        <v>12.581</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="8"/>
+        <v>79.551000000000002</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="8"/>
+        <v>805.95</v>
       </c>
     </row>
-    <row r="51" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:37" x14ac:dyDescent="0.3">
       <c r="I51" t="s">
         <v>4</v>
       </c>
@@ -8183,35 +9208,8 @@
       <c r="N51" t="s">
         <v>11</v>
       </c>
-      <c r="S51" t="s">
-        <v>15</v>
-      </c>
-      <c r="T51">
-        <v>0.01</v>
-      </c>
-      <c r="U51">
-        <v>12</v>
-      </c>
-      <c r="V51">
-        <v>26</v>
-      </c>
-      <c r="W51">
-        <v>102</v>
-      </c>
-      <c r="X51">
-        <v>295</v>
-      </c>
-      <c r="Y51">
-        <v>1014</v>
-      </c>
-      <c r="Z51">
-        <v>2995</v>
-      </c>
-      <c r="AA51">
-        <v>10069</v>
-      </c>
     </row>
-    <row r="52" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:37" x14ac:dyDescent="0.3">
       <c r="I52">
         <v>1000</v>
       </c>
@@ -8230,32 +9228,11 @@
       <c r="N52">
         <v>328</v>
       </c>
-      <c r="T52">
-        <v>0.03</v>
-      </c>
-      <c r="U52">
-        <v>35</v>
-      </c>
-      <c r="V52">
-        <v>91</v>
-      </c>
-      <c r="W52">
-        <v>289</v>
-      </c>
-      <c r="X52">
-        <v>862</v>
-      </c>
-      <c r="Y52">
-        <v>3022</v>
-      </c>
-      <c r="Z52">
-        <v>9097</v>
-      </c>
-      <c r="AA52">
-        <v>29603</v>
+      <c r="T52" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="53" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:37" x14ac:dyDescent="0.3">
       <c r="I53">
         <v>3000</v>
       </c>
@@ -8274,32 +9251,53 @@
       <c r="N53">
         <v>919</v>
       </c>
-      <c r="T53">
-        <v>0.1</v>
+      <c r="S53" t="s">
+        <v>9</v>
       </c>
       <c r="U53">
-        <v>103</v>
+        <v>1000</v>
       </c>
       <c r="V53">
-        <v>309</v>
+        <v>3000</v>
       </c>
       <c r="W53">
-        <v>938</v>
+        <v>10000</v>
       </c>
       <c r="X53">
-        <v>2973</v>
+        <v>30000</v>
       </c>
       <c r="Y53">
-        <v>9840</v>
+        <v>100000</v>
       </c>
       <c r="Z53">
-        <v>30235</v>
+        <v>300000</v>
       </c>
       <c r="AA53">
-        <v>100262</v>
+        <v>1000000</v>
+      </c>
+      <c r="AE53">
+        <v>1000</v>
+      </c>
+      <c r="AF53">
+        <v>3000</v>
+      </c>
+      <c r="AG53">
+        <v>10000</v>
+      </c>
+      <c r="AH53">
+        <v>30000</v>
+      </c>
+      <c r="AI53">
+        <v>100000</v>
+      </c>
+      <c r="AJ53">
+        <v>300000</v>
+      </c>
+      <c r="AK53">
+        <v>1000000</v>
       </c>
     </row>
-    <row r="54" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:37" x14ac:dyDescent="0.3">
       <c r="I54">
         <v>10000</v>
       </c>
@@ -8318,32 +9316,38 @@
       <c r="N54">
         <v>2941</v>
       </c>
+      <c r="S54" t="s">
+        <v>15</v>
+      </c>
       <c r="T54">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="U54">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="V54">
-        <v>919</v>
+        <v>26</v>
       </c>
       <c r="W54">
-        <v>2941</v>
+        <v>102</v>
       </c>
       <c r="X54">
-        <v>8865</v>
+        <v>295</v>
       </c>
       <c r="Y54">
-        <v>30159</v>
+        <v>1014</v>
       </c>
       <c r="Z54">
-        <v>89739</v>
+        <v>2995</v>
       </c>
       <c r="AA54">
-        <v>299598</v>
+        <v>10069</v>
+      </c>
+      <c r="AD54">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:37" x14ac:dyDescent="0.3">
       <c r="I55">
         <v>30000</v>
       </c>
@@ -8362,8 +9366,35 @@
       <c r="N55">
         <v>8865</v>
       </c>
+      <c r="T55">
+        <v>0.03</v>
+      </c>
+      <c r="U55">
+        <v>35</v>
+      </c>
+      <c r="V55">
+        <v>91</v>
+      </c>
+      <c r="W55">
+        <v>289</v>
+      </c>
+      <c r="X55">
+        <v>862</v>
+      </c>
+      <c r="Y55">
+        <v>3022</v>
+      </c>
+      <c r="Z55">
+        <v>9097</v>
+      </c>
+      <c r="AA55">
+        <v>29603</v>
+      </c>
+      <c r="AD55">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="56" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:37" x14ac:dyDescent="0.3">
       <c r="I56">
         <v>100000</v>
       </c>
@@ -8382,8 +9413,35 @@
       <c r="N56">
         <v>30159</v>
       </c>
+      <c r="T56">
+        <v>0.1</v>
+      </c>
+      <c r="U56">
+        <v>103</v>
+      </c>
+      <c r="V56">
+        <v>309</v>
+      </c>
+      <c r="W56">
+        <v>938</v>
+      </c>
+      <c r="X56">
+        <v>2973</v>
+      </c>
+      <c r="Y56">
+        <v>9840</v>
+      </c>
+      <c r="Z56">
+        <v>30235</v>
+      </c>
+      <c r="AA56">
+        <v>100262</v>
+      </c>
+      <c r="AD56">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="57" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:37" x14ac:dyDescent="0.3">
       <c r="I57">
         <v>300000</v>
       </c>
@@ -8402,8 +9460,35 @@
       <c r="N57">
         <v>89739</v>
       </c>
+      <c r="T57">
+        <v>0.3</v>
+      </c>
+      <c r="U57">
+        <v>328</v>
+      </c>
+      <c r="V57">
+        <v>919</v>
+      </c>
+      <c r="W57">
+        <v>2941</v>
+      </c>
+      <c r="X57">
+        <v>8865</v>
+      </c>
+      <c r="Y57">
+        <v>30159</v>
+      </c>
+      <c r="Z57">
+        <v>89739</v>
+      </c>
+      <c r="AA57">
+        <v>299598</v>
+      </c>
+      <c r="AD57">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="58" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:37" x14ac:dyDescent="0.3">
       <c r="I58">
         <v>1000000</v>
       </c>
@@ -8422,122 +9507,383 @@
       <c r="N58">
         <v>299598</v>
       </c>
+      <c r="T58">
+        <v>1E-4</v>
+      </c>
+      <c r="U58">
+        <v>548</v>
+      </c>
+      <c r="V58">
+        <v>519</v>
+      </c>
+      <c r="W58">
+        <v>1767</v>
+      </c>
+      <c r="X58">
+        <v>2978</v>
+      </c>
+      <c r="Y58">
+        <v>12380</v>
+      </c>
+      <c r="Z58">
+        <v>78423</v>
+      </c>
+      <c r="AA58">
+        <v>796333</v>
+      </c>
+      <c r="AD58">
+        <v>1E-4</v>
+      </c>
+      <c r="AE58">
+        <v>671</v>
+      </c>
+      <c r="AF58">
+        <v>563</v>
+      </c>
+      <c r="AG58">
+        <v>1425</v>
+      </c>
+      <c r="AH58">
+        <v>3671</v>
+      </c>
+      <c r="AI58">
+        <v>14215</v>
+      </c>
+      <c r="AJ58">
+        <v>88028</v>
+      </c>
+      <c r="AK58">
+        <v>873609</v>
+      </c>
     </row>
-    <row r="60" spans="9:27" x14ac:dyDescent="0.3">
-      <c r="T60" t="s">
+    <row r="59" spans="9:37" x14ac:dyDescent="0.3">
+      <c r="T59">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="U59">
+        <v>289</v>
+      </c>
+      <c r="V59">
+        <v>538</v>
+      </c>
+      <c r="W59">
+        <v>1072</v>
+      </c>
+      <c r="X59">
+        <v>3039</v>
+      </c>
+      <c r="Y59">
+        <v>12208</v>
+      </c>
+      <c r="Z59">
+        <v>79065</v>
+      </c>
+      <c r="AA59">
+        <v>800720</v>
+      </c>
+      <c r="AD59">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AE59">
+        <v>384</v>
+      </c>
+      <c r="AF59">
+        <v>559</v>
+      </c>
+      <c r="AG59">
+        <v>1685</v>
+      </c>
+      <c r="AH59">
+        <v>4162</v>
+      </c>
+      <c r="AI59">
+        <v>13756</v>
+      </c>
+      <c r="AJ59">
+        <v>87542</v>
+      </c>
+      <c r="AK59">
+        <v>881443</v>
+      </c>
+    </row>
+    <row r="60" spans="9:37" x14ac:dyDescent="0.3">
+      <c r="T60">
+        <v>1E-3</v>
+      </c>
+      <c r="U60">
+        <v>295</v>
+      </c>
+      <c r="V60">
+        <v>533</v>
+      </c>
+      <c r="W60">
+        <v>1056</v>
+      </c>
+      <c r="X60">
+        <v>2968</v>
+      </c>
+      <c r="Y60">
+        <v>12488</v>
+      </c>
+      <c r="Z60">
+        <v>79456</v>
+      </c>
+      <c r="AA60">
+        <v>806655</v>
+      </c>
+      <c r="AD60">
+        <v>1E-3</v>
+      </c>
+      <c r="AE60">
+        <v>326</v>
+      </c>
+      <c r="AF60">
+        <v>694</v>
+      </c>
+      <c r="AG60">
+        <v>1444</v>
+      </c>
+      <c r="AH60">
+        <v>3438</v>
+      </c>
+      <c r="AI60">
+        <v>13913</v>
+      </c>
+      <c r="AJ60">
+        <v>87293</v>
+      </c>
+      <c r="AK60">
+        <v>895197</v>
+      </c>
+    </row>
+    <row r="61" spans="9:37" x14ac:dyDescent="0.3">
+      <c r="T61">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="U61">
+        <v>291</v>
+      </c>
+      <c r="V61">
+        <v>537</v>
+      </c>
+      <c r="W61">
+        <v>1050</v>
+      </c>
+      <c r="X61">
+        <v>4070</v>
+      </c>
+      <c r="Y61">
+        <v>12581</v>
+      </c>
+      <c r="Z61">
+        <v>79551</v>
+      </c>
+      <c r="AA61">
+        <v>805950</v>
+      </c>
+      <c r="AD61">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AE61">
+        <v>327</v>
+      </c>
+      <c r="AF61">
+        <v>616</v>
+      </c>
+      <c r="AG61">
+        <v>1691</v>
+      </c>
+      <c r="AH61">
+        <v>3300</v>
+      </c>
+      <c r="AI61">
+        <v>13930</v>
+      </c>
+      <c r="AJ61">
+        <v>88287</v>
+      </c>
+      <c r="AK61">
+        <v>879094</v>
+      </c>
+    </row>
+    <row r="63" spans="9:37" x14ac:dyDescent="0.3">
+      <c r="T63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="9:27" x14ac:dyDescent="0.3">
-      <c r="T61" t="s">
+    <row r="64" spans="9:37" x14ac:dyDescent="0.3">
+      <c r="T64" t="s">
         <v>14</v>
       </c>
-      <c r="U61">
+      <c r="U64">
         <v>1000</v>
       </c>
-      <c r="V61">
+      <c r="V64">
         <v>3000</v>
       </c>
-      <c r="W61">
+      <c r="W64">
         <v>10000</v>
       </c>
-      <c r="X61">
+      <c r="X64">
         <v>30000</v>
       </c>
-      <c r="Y61">
+      <c r="Y64">
         <v>100000</v>
       </c>
-      <c r="Z61">
+      <c r="Z64">
         <v>300000</v>
       </c>
-      <c r="AA61">
+      <c r="AA64">
         <v>1000000</v>
       </c>
     </row>
-    <row r="62" spans="9:27" x14ac:dyDescent="0.3">
-      <c r="S62" t="s">
+    <row r="65" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="S65" t="s">
         <v>16</v>
       </c>
-      <c r="T62">
+      <c r="T65">
         <v>10</v>
       </c>
-      <c r="U62">
+      <c r="U65">
         <v>220</v>
       </c>
-      <c r="V62">
+      <c r="V65">
         <v>425</v>
       </c>
-      <c r="W62">
+      <c r="W65">
         <v>831</v>
       </c>
-      <c r="X62">
+      <c r="X65">
         <v>1987</v>
       </c>
-      <c r="Y62">
+      <c r="Y65">
         <v>7190</v>
       </c>
-      <c r="Z62">
+      <c r="Z65">
         <v>39755</v>
       </c>
-      <c r="AA62">
+      <c r="AA65">
         <v>402707</v>
       </c>
     </row>
-    <row r="63" spans="9:27" x14ac:dyDescent="0.3">
-      <c r="T63">
+    <row r="66" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="T66">
         <v>100</v>
       </c>
-      <c r="U63">
+      <c r="U66">
         <v>218</v>
       </c>
-      <c r="V63">
+      <c r="V66">
         <v>397</v>
       </c>
-      <c r="W63">
+      <c r="W66">
         <v>797</v>
       </c>
-      <c r="X63">
+      <c r="X66">
         <v>1705</v>
       </c>
-      <c r="Y63">
+      <c r="Y66">
         <v>4561</v>
       </c>
-      <c r="Z63">
+      <c r="Z66">
         <v>12548</v>
       </c>
-      <c r="AA63">
+      <c r="AA66">
         <v>45261</v>
       </c>
     </row>
-    <row r="64" spans="9:27" x14ac:dyDescent="0.3">
-      <c r="T64">
+    <row r="67" spans="19:27" x14ac:dyDescent="0.3">
+      <c r="T67">
         <v>1000</v>
       </c>
-      <c r="U64">
+      <c r="U67">
         <v>222</v>
       </c>
-      <c r="V64">
+      <c r="V67">
         <v>389</v>
       </c>
-      <c r="W64">
+      <c r="W67">
         <v>806</v>
       </c>
-      <c r="X64">
+      <c r="X67">
         <v>1718</v>
       </c>
-      <c r="Y64">
+      <c r="Y67">
         <v>4563</v>
       </c>
-      <c r="Z64">
+      <c r="Z67">
         <v>12661</v>
       </c>
-      <c r="AA64">
+      <c r="AA67">
         <v>46305</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>100</v>
+      </c>
+      <c r="D92">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>1000</v>
+      </c>
+      <c r="D93">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>10000</v>
+      </c>
+      <c r="D94">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>100000</v>
+      </c>
+      <c r="D95">
+        <v>17429</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1000000</v>
+      </c>
+      <c r="D96">
+        <v>1189513</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15045" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1711,25 +1711,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>852</c:v>
+                  <c:v>0.85199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>977</c:v>
+                  <c:v>0.97699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1260</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2150</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5702</c:v>
+                  <c:v>5.702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26418</c:v>
+                  <c:v>26.417999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>215862</c:v>
+                  <c:v>215.86199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1804,25 +1804,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1074</c:v>
+                  <c:v>1.0740000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1245</c:v>
+                  <c:v>1.2450000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1698</c:v>
+                  <c:v>1.698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3243</c:v>
+                  <c:v>3.2429999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7182</c:v>
+                  <c:v>7.1820000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21741</c:v>
+                  <c:v>21.741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>114857</c:v>
+                  <c:v>114.857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,25 +1897,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>950</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>933</c:v>
+                  <c:v>0.93300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1326</c:v>
+                  <c:v>1.3260000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2622</c:v>
+                  <c:v>2.6219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10367</c:v>
+                  <c:v>10.367000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66329</c:v>
+                  <c:v>66.328999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>638937</c:v>
+                  <c:v>638.93700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1990,25 +1990,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1488</c:v>
+                  <c:v>1.488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1757</c:v>
+                  <c:v>1.7569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2785</c:v>
+                  <c:v>2.7850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5407</c:v>
+                  <c:v>5.407</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10318</c:v>
+                  <c:v>10.318</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42887</c:v>
+                  <c:v>42.887</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>158574</c:v>
+                  <c:v>158.57400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2100,7 +2100,6 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3227,7 +3226,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4241,7 +4240,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7139,15 +7138,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>81642</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>112938</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7168,16 +7167,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>319768</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>29934</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>551090</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>129268</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>119741</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7198,16 +7197,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>278945</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>510267</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>111577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>88445</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7494,8 +7493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC73" sqref="AC73"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7561,19 +7560,24 @@
         <v>1000</v>
       </c>
       <c r="J3">
-        <v>852</v>
+        <f>J13/1000</f>
+        <v>0.85199999999999998</v>
       </c>
       <c r="K3">
-        <v>1074</v>
+        <f t="shared" ref="K3:N3" si="0">K13/1000</f>
+        <v>1.0740000000000001</v>
       </c>
       <c r="L3">
-        <v>950</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="M3">
-        <v>1488</v>
+        <f t="shared" si="0"/>
+        <v>1.488</v>
       </c>
       <c r="N3">
-        <v>1578</v>
+        <f t="shared" si="0"/>
+        <v>1.5780000000000001</v>
       </c>
     </row>
     <row r="4" spans="2:45" x14ac:dyDescent="0.3">
@@ -7593,19 +7597,24 @@
         <v>3000</v>
       </c>
       <c r="J4">
-        <v>977</v>
+        <f t="shared" ref="J4:N9" si="1">J14/1000</f>
+        <v>0.97699999999999998</v>
       </c>
       <c r="K4">
-        <v>1245</v>
+        <f t="shared" si="1"/>
+        <v>1.2450000000000001</v>
       </c>
       <c r="L4">
-        <v>933</v>
+        <f t="shared" si="1"/>
+        <v>0.93300000000000005</v>
       </c>
       <c r="M4">
-        <v>1757</v>
+        <f t="shared" si="1"/>
+        <v>1.7569999999999999</v>
       </c>
       <c r="N4">
-        <v>1844</v>
+        <f t="shared" si="1"/>
+        <v>1.8440000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:45" x14ac:dyDescent="0.3">
@@ -7625,19 +7634,24 @@
         <v>10000</v>
       </c>
       <c r="J5">
-        <v>1260</v>
+        <f t="shared" si="1"/>
+        <v>1.26</v>
       </c>
       <c r="K5">
-        <v>1698</v>
+        <f t="shared" si="1"/>
+        <v>1.698</v>
       </c>
       <c r="L5">
-        <v>1326</v>
+        <f t="shared" si="1"/>
+        <v>1.3260000000000001</v>
       </c>
       <c r="M5">
-        <v>2785</v>
+        <f t="shared" si="1"/>
+        <v>2.7850000000000001</v>
       </c>
       <c r="N5">
-        <v>3186</v>
+        <f t="shared" si="1"/>
+        <v>3.1859999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.3">
@@ -7657,19 +7671,24 @@
         <v>30000</v>
       </c>
       <c r="J6">
-        <v>2150</v>
+        <f t="shared" si="1"/>
+        <v>2.15</v>
       </c>
       <c r="K6">
-        <v>3243</v>
+        <f t="shared" si="1"/>
+        <v>3.2429999999999999</v>
       </c>
       <c r="L6">
-        <v>2622</v>
+        <f t="shared" si="1"/>
+        <v>2.6219999999999999</v>
       </c>
       <c r="M6">
-        <v>5407</v>
+        <f t="shared" si="1"/>
+        <v>5.407</v>
       </c>
       <c r="N6">
-        <v>6709</v>
+        <f t="shared" si="1"/>
+        <v>6.7089999999999996</v>
       </c>
     </row>
     <row r="7" spans="2:45" x14ac:dyDescent="0.3">
@@ -7689,19 +7708,24 @@
         <v>100000</v>
       </c>
       <c r="J7">
-        <v>5702</v>
+        <f t="shared" si="1"/>
+        <v>5.702</v>
       </c>
       <c r="K7">
-        <v>7182</v>
+        <f t="shared" si="1"/>
+        <v>7.1820000000000004</v>
       </c>
       <c r="L7">
-        <v>10367</v>
+        <f t="shared" si="1"/>
+        <v>10.367000000000001</v>
       </c>
       <c r="M7">
-        <v>10318</v>
+        <f t="shared" si="1"/>
+        <v>10.318</v>
       </c>
       <c r="N7">
-        <v>11978</v>
+        <f t="shared" si="1"/>
+        <v>11.978</v>
       </c>
     </row>
     <row r="8" spans="2:45" x14ac:dyDescent="0.3">
@@ -7721,19 +7745,24 @@
         <v>300000</v>
       </c>
       <c r="J8">
-        <v>26418</v>
+        <f t="shared" si="1"/>
+        <v>26.417999999999999</v>
       </c>
       <c r="K8">
-        <v>21741</v>
+        <f t="shared" si="1"/>
+        <v>21.741</v>
       </c>
       <c r="L8">
-        <v>66329</v>
+        <f t="shared" si="1"/>
+        <v>66.328999999999994</v>
       </c>
       <c r="M8">
-        <v>42887</v>
+        <f t="shared" si="1"/>
+        <v>42.887</v>
       </c>
       <c r="N8">
-        <v>49536</v>
+        <f t="shared" si="1"/>
+        <v>49.536000000000001</v>
       </c>
       <c r="T8" t="s">
         <v>12</v>
@@ -7762,19 +7791,24 @@
         <v>1000000</v>
       </c>
       <c r="J9">
-        <v>215862</v>
+        <f t="shared" si="1"/>
+        <v>215.86199999999999</v>
       </c>
       <c r="K9">
-        <v>114857</v>
+        <f t="shared" si="1"/>
+        <v>114.857</v>
       </c>
       <c r="L9">
-        <v>638937</v>
+        <f t="shared" si="1"/>
+        <v>638.93700000000001</v>
       </c>
       <c r="M9">
-        <v>158574</v>
+        <f t="shared" si="1"/>
+        <v>158.57400000000001</v>
       </c>
       <c r="N9">
-        <v>581433</v>
+        <f t="shared" si="1"/>
+        <v>581.43299999999999</v>
       </c>
       <c r="R9" t="s">
         <v>9</v>
@@ -7916,27 +7950,27 @@
         <v>1.0980000000000001</v>
       </c>
       <c r="AN10">
-        <f t="shared" ref="AN10:AS10" si="0">AN17/1000</f>
+        <f t="shared" ref="AN10:AS10" si="2">AN17/1000</f>
         <v>1.234</v>
       </c>
       <c r="AO10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7709999999999999</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.3530000000000002</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.069</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21.521000000000001</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>104.18600000000001</v>
       </c>
     </row>
@@ -8000,35 +8034,53 @@
         <v>100</v>
       </c>
       <c r="AM11">
-        <f t="shared" ref="AM11:AS12" si="1">AM18/1000</f>
+        <f t="shared" ref="AM11:AS12" si="3">AM18/1000</f>
         <v>1.1060000000000001</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.42</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.96</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.6669999999999998</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.7880000000000003</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24.132999999999999</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>115.616</v>
       </c>
     </row>
     <row r="12" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
       <c r="S12">
         <v>0.1</v>
       </c>
@@ -8088,31 +8140,49 @@
         <v>1000</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.208</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.522</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5179999999999998</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.9390000000000001</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.2119999999999997</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42.78</v>
       </c>
     </row>
     <row r="13" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>1000</v>
+      </c>
+      <c r="J13">
+        <v>852</v>
+      </c>
+      <c r="K13">
+        <v>1074</v>
+      </c>
+      <c r="L13">
+        <v>950</v>
+      </c>
+      <c r="M13">
+        <v>1488</v>
+      </c>
+      <c r="N13">
+        <v>1578</v>
+      </c>
       <c r="S13">
         <v>0.3</v>
       </c>
@@ -8170,101 +8240,155 @@
       </c>
     </row>
     <row r="14" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>3000</v>
+      </c>
+      <c r="J14">
+        <v>977</v>
+      </c>
+      <c r="K14">
+        <v>1245</v>
+      </c>
+      <c r="L14">
+        <v>933</v>
+      </c>
+      <c r="M14">
+        <v>1757</v>
+      </c>
+      <c r="N14">
+        <v>1844</v>
+      </c>
       <c r="S14">
         <v>1E-4</v>
       </c>
       <c r="T14">
-        <f t="shared" ref="T14:Z14" si="2">T25/1000</f>
+        <f t="shared" ref="T14:Z14" si="4">T25/1000</f>
         <v>1.3680000000000001</v>
       </c>
       <c r="U14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.58</v>
       </c>
       <c r="V14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4870000000000001</v>
       </c>
       <c r="W14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1769999999999996</v>
       </c>
       <c r="X14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.875</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41.465000000000003</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>147.39699999999999</v>
       </c>
     </row>
     <row r="15" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>10000</v>
+      </c>
+      <c r="J15">
+        <v>1260</v>
+      </c>
+      <c r="K15">
+        <v>1698</v>
+      </c>
+      <c r="L15">
+        <v>1326</v>
+      </c>
+      <c r="M15">
+        <v>2785</v>
+      </c>
+      <c r="N15">
+        <v>3186</v>
+      </c>
       <c r="S15">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="T15">
-        <f t="shared" ref="T15:Z15" si="3">T26/1000</f>
+        <f t="shared" ref="T15:Z15" si="5">T26/1000</f>
         <v>1.31</v>
       </c>
       <c r="U15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5249999999999999</v>
       </c>
       <c r="V15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4729999999999999</v>
       </c>
       <c r="W15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.0259999999999998</v>
       </c>
       <c r="X15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.561999999999999</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41.057000000000002</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>143.85599999999999</v>
       </c>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>30000</v>
+      </c>
+      <c r="J16">
+        <v>2150</v>
+      </c>
+      <c r="K16">
+        <v>3243</v>
+      </c>
+      <c r="L16">
+        <v>2622</v>
+      </c>
+      <c r="M16">
+        <v>5407</v>
+      </c>
+      <c r="N16">
+        <v>6709</v>
+      </c>
       <c r="S16">
         <v>1E-3</v>
       </c>
       <c r="T16">
-        <f t="shared" ref="T16:Z16" si="4">T27/1000</f>
+        <f t="shared" ref="T16:Z16" si="6">T27/1000</f>
         <v>1.3</v>
       </c>
       <c r="U16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.575</v>
       </c>
       <c r="V16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4670000000000001</v>
       </c>
       <c r="W16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.1859999999999999</v>
       </c>
       <c r="X16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.603999999999999</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>42.302999999999997</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>142.495</v>
       </c>
       <c r="AM16">
@@ -8289,36 +8413,54 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="17" spans="19:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:45" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>100000</v>
+      </c>
+      <c r="J17">
+        <v>5702</v>
+      </c>
+      <c r="K17">
+        <v>7182</v>
+      </c>
+      <c r="L17">
+        <v>10367</v>
+      </c>
+      <c r="M17">
+        <v>10318</v>
+      </c>
+      <c r="N17">
+        <v>11978</v>
+      </c>
       <c r="S17">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="T17">
-        <f t="shared" ref="T17:Z17" si="5">T28/1000</f>
+        <f t="shared" ref="T17:Z17" si="7">T28/1000</f>
         <v>1.333</v>
       </c>
       <c r="U17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5820000000000001</v>
       </c>
       <c r="V17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4430000000000001</v>
       </c>
       <c r="W17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.2539999999999996</v>
       </c>
       <c r="X17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13.218</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42.585000000000001</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>148.27000000000001</v>
       </c>
       <c r="AL17">
@@ -8346,7 +8488,25 @@
         <v>104186</v>
       </c>
     </row>
-    <row r="18" spans="19:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:45" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>300000</v>
+      </c>
+      <c r="J18">
+        <v>26418</v>
+      </c>
+      <c r="K18">
+        <v>21741</v>
+      </c>
+      <c r="L18">
+        <v>66329</v>
+      </c>
+      <c r="M18">
+        <v>42887</v>
+      </c>
+      <c r="N18">
+        <v>49536</v>
+      </c>
       <c r="AL18">
         <v>100</v>
       </c>
@@ -8372,7 +8532,25 @@
         <v>115616</v>
       </c>
     </row>
-    <row r="19" spans="19:45" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:45" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>1000000</v>
+      </c>
+      <c r="J19">
+        <v>215862</v>
+      </c>
+      <c r="K19">
+        <v>114857</v>
+      </c>
+      <c r="L19">
+        <v>638937</v>
+      </c>
+      <c r="M19">
+        <v>158574</v>
+      </c>
+      <c r="N19">
+        <v>581433</v>
+      </c>
       <c r="AL19">
         <v>1000</v>
       </c>
@@ -8395,7 +8573,7 @@
         <v>42780</v>
       </c>
     </row>
-    <row r="20" spans="19:45" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:45" x14ac:dyDescent="0.3">
       <c r="T20">
         <v>1000</v>
       </c>
@@ -8418,7 +8596,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="21" spans="19:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:45" x14ac:dyDescent="0.3">
       <c r="S21">
         <v>0.01</v>
       </c>
@@ -8444,7 +8622,7 @@
         <v>158574</v>
       </c>
     </row>
-    <row r="22" spans="19:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:45" x14ac:dyDescent="0.3">
       <c r="S22">
         <v>0.03</v>
       </c>
@@ -8470,7 +8648,7 @@
         <v>163310</v>
       </c>
     </row>
-    <row r="23" spans="19:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:45" x14ac:dyDescent="0.3">
       <c r="S23">
         <v>0.1</v>
       </c>
@@ -8496,7 +8674,7 @@
         <v>161273</v>
       </c>
     </row>
-    <row r="24" spans="19:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:45" x14ac:dyDescent="0.3">
       <c r="S24">
         <v>0.3</v>
       </c>
@@ -8522,7 +8700,7 @@
         <v>581433</v>
       </c>
     </row>
-    <row r="25" spans="19:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:45" x14ac:dyDescent="0.3">
       <c r="S25">
         <v>1E-4</v>
       </c>
@@ -8548,7 +8726,7 @@
         <v>147397</v>
       </c>
     </row>
-    <row r="26" spans="19:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:45" x14ac:dyDescent="0.3">
       <c r="S26">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -8574,7 +8752,7 @@
         <v>143856</v>
       </c>
     </row>
-    <row r="27" spans="19:45" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:45" x14ac:dyDescent="0.3">
       <c r="S27">
         <v>1E-3</v>
       </c>
@@ -8600,7 +8778,7 @@
         <v>142495</v>
       </c>
     </row>
-    <row r="28" spans="19:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:45" x14ac:dyDescent="0.3">
       <c r="S28">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -8690,19 +8868,19 @@
         <v>0.221</v>
       </c>
       <c r="K41">
-        <f t="shared" ref="K41:N41" si="6">K52/1000</f>
+        <f t="shared" ref="K41:N41" si="8">K52/1000</f>
         <v>0.33200000000000002</v>
       </c>
       <c r="L41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.24299999999999999</v>
       </c>
       <c r="M41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2E-2</v>
       </c>
       <c r="N41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.32800000000000001</v>
       </c>
       <c r="S41" t="s">
@@ -8747,23 +8925,23 @@
         <v>3000</v>
       </c>
       <c r="J42">
-        <f t="shared" ref="J42:N47" si="7">J53/1000</f>
+        <f t="shared" ref="J42:N47" si="9">J53/1000</f>
         <v>0.48199999999999998</v>
       </c>
       <c r="K42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.42699999999999999</v>
       </c>
       <c r="L42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.54600000000000004</v>
       </c>
       <c r="M42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="N42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.91900000000000004</v>
       </c>
       <c r="S42" t="s">
@@ -8818,23 +8996,23 @@
         <v>10000</v>
       </c>
       <c r="J43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2770000000000001</v>
       </c>
       <c r="K43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.86799999999999999</v>
       </c>
       <c r="L43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.1080000000000001</v>
       </c>
       <c r="M43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10199999999999999</v>
       </c>
       <c r="N43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.9409999999999998</v>
       </c>
       <c r="T43">
@@ -8886,23 +9064,23 @@
         <v>30000</v>
       </c>
       <c r="J44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>16.196999999999999</v>
       </c>
       <c r="K44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5209999999999999</v>
       </c>
       <c r="L44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22.776</v>
       </c>
       <c r="M44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.29499999999999998</v>
       </c>
       <c r="N44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.8650000000000002</v>
       </c>
       <c r="T44">
@@ -8954,23 +9132,23 @@
         <v>100000</v>
       </c>
       <c r="J45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>193.28700000000001</v>
       </c>
       <c r="K45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14.35</v>
       </c>
       <c r="L45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>242.69</v>
       </c>
       <c r="M45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.014</v>
       </c>
       <c r="N45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30.158999999999999</v>
       </c>
       <c r="T45">
@@ -9013,54 +9191,54 @@
         <v>300000</v>
       </c>
       <c r="J46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1889.489</v>
       </c>
       <c r="K46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>117.23099999999999</v>
       </c>
       <c r="L46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2272.8029999999999</v>
       </c>
       <c r="M46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.9950000000000001</v>
       </c>
       <c r="N46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>89.739000000000004</v>
       </c>
       <c r="T46">
         <v>1E-4</v>
       </c>
       <c r="U46">
-        <f t="shared" ref="U46:AA49" si="8">U58/1000</f>
+        <f t="shared" ref="U46:AA49" si="10">U58/1000</f>
         <v>0.54800000000000004</v>
       </c>
       <c r="V46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.51900000000000002</v>
       </c>
       <c r="W46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7669999999999999</v>
       </c>
       <c r="X46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.9780000000000002</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.38</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>78.423000000000002</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>796.33299999999997</v>
       </c>
     </row>
@@ -9072,54 +9250,54 @@
         <v>1000000</v>
       </c>
       <c r="J47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22096.137999999999</v>
       </c>
       <c r="K47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1204.366</v>
       </c>
       <c r="L47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29079.895</v>
       </c>
       <c r="M47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.069000000000001</v>
       </c>
       <c r="N47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>299.59800000000001</v>
       </c>
       <c r="T47">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="U47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.28899999999999998</v>
       </c>
       <c r="V47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.53800000000000003</v>
       </c>
       <c r="W47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0720000000000001</v>
       </c>
       <c r="X47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.0390000000000001</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.208</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>79.064999999999998</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>800.72</v>
       </c>
     </row>
@@ -9128,31 +9306,31 @@
         <v>1E-3</v>
       </c>
       <c r="U48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.29499999999999998</v>
       </c>
       <c r="V48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.53300000000000003</v>
       </c>
       <c r="W48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.056</v>
       </c>
       <c r="X48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.968</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.488</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>79.456000000000003</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>806.65499999999997</v>
       </c>
     </row>
@@ -9161,31 +9339,31 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="U49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.29099999999999998</v>
       </c>
       <c r="V49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.53700000000000003</v>
       </c>
       <c r="W49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.05</v>
       </c>
       <c r="X49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.07</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.581</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>79.551000000000002</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>805.95</v>
       </c>
     </row>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +100,30 @@
   </si>
   <si>
     <t>Mangosteen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinMH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIJoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinHybrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinHybrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinHybridThres</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1672,7 +1697,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1765,7 +1802,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1858,7 +1907,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1951,7 +2012,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2036,7 +2109,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1000"/>
+          <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2100,6 +2173,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3698,7 +3772,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-166C-44AE-8ACB-B33C8406E386}"/>
+              <c16:uniqueId val="{00000000-8E85-4D2A-9A08-57F8636F92FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3791,7 +3865,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-166C-44AE-8ACB-B33C8406E386}"/>
+              <c16:uniqueId val="{00000001-8E85-4D2A-9A08-57F8636F92FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3884,7 +3958,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-166C-44AE-8ACB-B33C8406E386}"/>
+              <c16:uniqueId val="{00000002-8E85-4D2A-9A08-57F8636F92FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3979,7 +4053,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-166C-44AE-8ACB-B33C8406E386}"/>
+              <c16:uniqueId val="{00000003-8E85-4D2A-9A08-57F8636F92FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4074,7 +4148,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-166C-44AE-8ACB-B33C8406E386}"/>
+              <c16:uniqueId val="{00000004-8E85-4D2A-9A08-57F8636F92FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4094,7 +4168,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1000"/>
+          <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4158,6 +4232,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4241,6 +4316,4791 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$5:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1729</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3653</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7883</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-621A-4126-AC50-662FC1CF3E03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-621A-4126-AC50-662FC1CF3E03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIJoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$5:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8924</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17606</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38436</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-621A-4126-AC50-662FC1CF3E03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybrid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$5:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1851</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2393</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12157</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16963</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-621A-4126-AC50-662FC1CF3E03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybridThres</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$5:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2758</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12884</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-621A-4126-AC50-662FC1CF3E03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="323316192"/>
+        <c:axId val="323317024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="323316192"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323317024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="323317024"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323316192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$5:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5539</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FB3-40C0-8A43-E245AAC5BEBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$5:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4480</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16954</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5FB3-40C0-8A43-E245AAC5BEBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$5:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12773</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5FB3-40C0-8A43-E245AAC5BEBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$O$5:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12586</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17420</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5FB3-40C0-8A43-E245AAC5BEBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$5:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8591</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12079</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17520</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5FB3-40C0-8A43-E245AAC5BEBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$5:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9084</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17370</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5FB3-40C0-8A43-E245AAC5BEBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="396515216"/>
+        <c:axId val="396507312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="396515216"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396507312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="396507312"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396515216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$S$5:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$T$5:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2710</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5910</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12950</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2484-4DFE-8E4F-E5D390D4904A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$U$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$S$5:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$U$5:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2758</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12884</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2484-4DFE-8E4F-E5D390D4904A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$V$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$S$5:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$V$5:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1812</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4717</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6079</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8947</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13033</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2484-4DFE-8E4F-E5D390D4904A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$W$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$S$5:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$W$5:$W$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8862</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12892</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2484-4DFE-8E4F-E5D390D4904A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$X$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$S$5:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$X$5:$X$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4682</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8851</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12920</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2484-4DFE-8E4F-E5D390D4904A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Y$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$S$5:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Y$5:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1691</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2213</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12932</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2484-4DFE-8E4F-E5D390D4904A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="323321600"/>
+        <c:axId val="323315776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="323321600"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323315776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="323315776"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323321600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$5:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5539</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03F0-4276-86DA-F27EC8FD552F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$5:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4480</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16954</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03F0-4276-86DA-F27EC8FD552F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$5:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12773</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-03F0-4276-86DA-F27EC8FD552F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$O$5:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12586</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17420</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-03F0-4276-86DA-F27EC8FD552F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$5:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8591</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12079</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17520</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-03F0-4276-86DA-F27EC8FD552F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$5:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9084</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17370</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-03F0-4276-86DA-F27EC8FD552F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$T$5:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2710</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5910</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12950</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-03F0-4276-86DA-F27EC8FD552F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$U$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$U$5:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2758</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12884</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-03F0-4276-86DA-F27EC8FD552F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$V$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$V$5:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1812</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4717</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6079</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8947</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13033</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-03F0-4276-86DA-F27EC8FD552F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$W$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$W$5:$W$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8862</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12892</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-03F0-4276-86DA-F27EC8FD552F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$X$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$X$5:$X$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4682</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8851</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12920</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-03F0-4276-86DA-F27EC8FD552F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Y$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Y$5:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1691</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2213</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12932</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-03F0-4276-86DA-F27EC8FD552F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="396515216"/>
+        <c:axId val="396507312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="396515216"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396507312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="396507312"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396515216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4493,6 +9353,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6558,6 +11578,2070 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7197,16 +14281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>510267</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>111577</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>265339</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>421821</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7220,6 +14304,133 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7493,8 +14704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7888,31 +15099,31 @@
         <v>0.01</v>
       </c>
       <c r="T10">
-        <f>T21/1000</f>
+        <f t="shared" ref="T10:Z13" si="2">T21/1000</f>
         <v>1.488</v>
       </c>
       <c r="U10">
-        <f>U21/1000</f>
+        <f t="shared" si="2"/>
         <v>1.7569999999999999</v>
       </c>
       <c r="V10">
-        <f>V21/1000</f>
+        <f t="shared" si="2"/>
         <v>2.7850000000000001</v>
       </c>
       <c r="W10">
-        <f>W21/1000</f>
+        <f t="shared" si="2"/>
         <v>5.407</v>
       </c>
       <c r="X10">
-        <f>X21/1000</f>
+        <f t="shared" si="2"/>
         <v>10.318</v>
       </c>
       <c r="Y10">
-        <f>Y21/1000</f>
+        <f t="shared" si="2"/>
         <v>42.887</v>
       </c>
       <c r="Z10">
-        <f>Z21/1000</f>
+        <f t="shared" si="2"/>
         <v>158.57400000000001</v>
       </c>
       <c r="AB10" t="s">
@@ -7950,27 +15161,27 @@
         <v>1.0980000000000001</v>
       </c>
       <c r="AN10">
-        <f t="shared" ref="AN10:AS10" si="2">AN17/1000</f>
+        <f t="shared" ref="AN10:AS10" si="3">AN17/1000</f>
         <v>1.234</v>
       </c>
       <c r="AO10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7709999999999999</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3530000000000002</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.069</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.521000000000001</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104.18600000000001</v>
       </c>
     </row>
@@ -7979,31 +15190,31 @@
         <v>0.03</v>
       </c>
       <c r="T11">
-        <f>T22/1000</f>
+        <f t="shared" si="2"/>
         <v>1.5229999999999999</v>
       </c>
       <c r="U11">
-        <f>U22/1000</f>
+        <f t="shared" si="2"/>
         <v>1.9219999999999999</v>
       </c>
       <c r="V11">
-        <f>V22/1000</f>
+        <f t="shared" si="2"/>
         <v>2.9279999999999999</v>
       </c>
       <c r="W11">
-        <f>W22/1000</f>
+        <f t="shared" si="2"/>
         <v>5.52</v>
       </c>
       <c r="X11">
-        <f>X22/1000</f>
+        <f t="shared" si="2"/>
         <v>10.728999999999999</v>
       </c>
       <c r="Y11">
-        <f>Y22/1000</f>
+        <f t="shared" si="2"/>
         <v>45.061999999999998</v>
       </c>
       <c r="Z11">
-        <f>Z22/1000</f>
+        <f t="shared" si="2"/>
         <v>163.31</v>
       </c>
       <c r="AC11">
@@ -8034,31 +15245,31 @@
         <v>100</v>
       </c>
       <c r="AM11">
-        <f t="shared" ref="AM11:AS12" si="3">AM18/1000</f>
+        <f t="shared" ref="AM11:AS12" si="4">AM18/1000</f>
         <v>1.1060000000000001</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.42</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.96</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6669999999999998</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.7880000000000003</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.132999999999999</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>115.616</v>
       </c>
     </row>
@@ -8085,31 +15296,31 @@
         <v>0.1</v>
       </c>
       <c r="T12">
-        <f>T23/1000</f>
+        <f t="shared" si="2"/>
         <v>1.6080000000000001</v>
       </c>
       <c r="U12">
-        <f>U23/1000</f>
+        <f t="shared" si="2"/>
         <v>1.8420000000000001</v>
       </c>
       <c r="V12">
-        <f>V23/1000</f>
+        <f t="shared" si="2"/>
         <v>2.8530000000000002</v>
       </c>
       <c r="W12">
-        <f>W23/1000</f>
+        <f t="shared" si="2"/>
         <v>6.0439999999999996</v>
       </c>
       <c r="X12">
-        <f>X23/1000</f>
+        <f t="shared" si="2"/>
         <v>10.77</v>
       </c>
       <c r="Y12">
-        <f>Y23/1000</f>
+        <f t="shared" si="2"/>
         <v>45.98</v>
       </c>
       <c r="Z12">
-        <f>Z23/1000</f>
+        <f t="shared" si="2"/>
         <v>161.273</v>
       </c>
       <c r="AC12">
@@ -8140,27 +15351,27 @@
         <v>1000</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.208</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.522</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5179999999999998</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9390000000000001</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.2119999999999997</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.78</v>
       </c>
     </row>
@@ -8187,31 +15398,31 @@
         <v>0.3</v>
       </c>
       <c r="T13">
-        <f>T24/1000</f>
+        <f t="shared" si="2"/>
         <v>1.5780000000000001</v>
       </c>
       <c r="U13">
-        <f>U24/1000</f>
+        <f t="shared" si="2"/>
         <v>1.8440000000000001</v>
       </c>
       <c r="V13">
-        <f>V24/1000</f>
+        <f t="shared" si="2"/>
         <v>3.1859999999999999</v>
       </c>
       <c r="W13">
-        <f>W24/1000</f>
+        <f t="shared" si="2"/>
         <v>6.7089999999999996</v>
       </c>
       <c r="X13">
-        <f>X24/1000</f>
+        <f t="shared" si="2"/>
         <v>11.978</v>
       </c>
       <c r="Y13">
-        <f>Y24/1000</f>
+        <f t="shared" si="2"/>
         <v>49.536000000000001</v>
       </c>
       <c r="Z13">
-        <f>Z24/1000</f>
+        <f t="shared" si="2"/>
         <v>581.43299999999999</v>
       </c>
       <c r="AC13">
@@ -8262,31 +15473,31 @@
         <v>1E-4</v>
       </c>
       <c r="T14">
-        <f t="shared" ref="T14:Z14" si="4">T25/1000</f>
+        <f t="shared" ref="T14:Z14" si="5">T25/1000</f>
         <v>1.3680000000000001</v>
       </c>
       <c r="U14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.58</v>
       </c>
       <c r="V14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4870000000000001</v>
       </c>
       <c r="W14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1769999999999996</v>
       </c>
       <c r="X14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.875</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41.465000000000003</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>147.39699999999999</v>
       </c>
     </row>
@@ -8313,31 +15524,31 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="T15">
-        <f t="shared" ref="T15:Z15" si="5">T26/1000</f>
+        <f t="shared" ref="T15:Z15" si="6">T26/1000</f>
         <v>1.31</v>
       </c>
       <c r="U15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5249999999999999</v>
       </c>
       <c r="V15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4729999999999999</v>
       </c>
       <c r="W15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0259999999999998</v>
       </c>
       <c r="X15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.561999999999999</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41.057000000000002</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>143.85599999999999</v>
       </c>
     </row>
@@ -8364,31 +15575,31 @@
         <v>1E-3</v>
       </c>
       <c r="T16">
-        <f t="shared" ref="T16:Z16" si="6">T27/1000</f>
+        <f t="shared" ref="T16:Z16" si="7">T27/1000</f>
         <v>1.3</v>
       </c>
       <c r="U16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.575</v>
       </c>
       <c r="V16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4670000000000001</v>
       </c>
       <c r="W16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.1859999999999999</v>
       </c>
       <c r="X16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.603999999999999</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42.302999999999997</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>142.495</v>
       </c>
       <c r="AM16">
@@ -8436,31 +15647,31 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="T17">
-        <f t="shared" ref="T17:Z17" si="7">T28/1000</f>
+        <f t="shared" ref="T17:Z17" si="8">T28/1000</f>
         <v>1.333</v>
       </c>
       <c r="U17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5820000000000001</v>
       </c>
       <c r="V17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4430000000000001</v>
       </c>
       <c r="W17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2539999999999996</v>
       </c>
       <c r="X17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.218</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42.585000000000001</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>148.27000000000001</v>
       </c>
       <c r="AL17">
@@ -8868,19 +16079,19 @@
         <v>0.221</v>
       </c>
       <c r="K41">
-        <f t="shared" ref="K41:N41" si="8">K52/1000</f>
+        <f t="shared" ref="K41:N41" si="9">K52/1000</f>
         <v>0.33200000000000002</v>
       </c>
       <c r="L41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.24299999999999999</v>
       </c>
       <c r="M41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2E-2</v>
       </c>
       <c r="N41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.32800000000000001</v>
       </c>
       <c r="S41" t="s">
@@ -8925,23 +16136,23 @@
         <v>3000</v>
       </c>
       <c r="J42">
-        <f t="shared" ref="J42:N47" si="9">J53/1000</f>
+        <f t="shared" ref="J42:N47" si="10">J53/1000</f>
         <v>0.48199999999999998</v>
       </c>
       <c r="K42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.42699999999999999</v>
       </c>
       <c r="L42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.54600000000000004</v>
       </c>
       <c r="M42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="N42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.91900000000000004</v>
       </c>
       <c r="S42" t="s">
@@ -8951,31 +16162,31 @@
         <v>0.01</v>
       </c>
       <c r="U42">
-        <f>U54/1000</f>
+        <f t="shared" ref="U42:AA45" si="11">U54/1000</f>
         <v>1.2E-2</v>
       </c>
       <c r="V42">
-        <f>V54/1000</f>
+        <f t="shared" si="11"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="W42">
-        <f>W54/1000</f>
+        <f t="shared" si="11"/>
         <v>0.10199999999999999</v>
       </c>
       <c r="X42">
-        <f>X54/1000</f>
+        <f t="shared" si="11"/>
         <v>0.29499999999999998</v>
       </c>
       <c r="Y42">
-        <f>Y54/1000</f>
+        <f t="shared" si="11"/>
         <v>1.014</v>
       </c>
       <c r="Z42">
-        <f>Z54/1000</f>
+        <f t="shared" si="11"/>
         <v>2.9950000000000001</v>
       </c>
       <c r="AA42">
-        <f>AA54/1000</f>
+        <f t="shared" si="11"/>
         <v>10.069000000000001</v>
       </c>
     </row>
@@ -8996,54 +16207,54 @@
         <v>10000</v>
       </c>
       <c r="J43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2770000000000001</v>
       </c>
       <c r="K43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.86799999999999999</v>
       </c>
       <c r="L43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.1080000000000001</v>
       </c>
       <c r="M43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.10199999999999999</v>
       </c>
       <c r="N43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.9409999999999998</v>
       </c>
       <c r="T43">
         <v>0.03</v>
       </c>
       <c r="U43">
-        <f>U55/1000</f>
+        <f t="shared" si="11"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="V43">
-        <f>V55/1000</f>
+        <f t="shared" si="11"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="W43">
-        <f>W55/1000</f>
+        <f t="shared" si="11"/>
         <v>0.28899999999999998</v>
       </c>
       <c r="X43">
-        <f>X55/1000</f>
+        <f t="shared" si="11"/>
         <v>0.86199999999999999</v>
       </c>
       <c r="Y43">
-        <f>Y55/1000</f>
+        <f t="shared" si="11"/>
         <v>3.0219999999999998</v>
       </c>
       <c r="Z43">
-        <f>Z55/1000</f>
+        <f t="shared" si="11"/>
         <v>9.0969999999999995</v>
       </c>
       <c r="AA43">
-        <f>AA55/1000</f>
+        <f t="shared" si="11"/>
         <v>29.603000000000002</v>
       </c>
     </row>
@@ -9064,54 +16275,54 @@
         <v>30000</v>
       </c>
       <c r="J44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16.196999999999999</v>
       </c>
       <c r="K44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.5209999999999999</v>
       </c>
       <c r="L44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.776</v>
       </c>
       <c r="M44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.29499999999999998</v>
       </c>
       <c r="N44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.8650000000000002</v>
       </c>
       <c r="T44">
         <v>0.1</v>
       </c>
       <c r="U44">
-        <f>U56/1000</f>
+        <f t="shared" si="11"/>
         <v>0.10299999999999999</v>
       </c>
       <c r="V44">
-        <f>V56/1000</f>
+        <f t="shared" si="11"/>
         <v>0.309</v>
       </c>
       <c r="W44">
-        <f>W56/1000</f>
+        <f t="shared" si="11"/>
         <v>0.93799999999999994</v>
       </c>
       <c r="X44">
-        <f>X56/1000</f>
+        <f t="shared" si="11"/>
         <v>2.9729999999999999</v>
       </c>
       <c r="Y44">
-        <f>Y56/1000</f>
+        <f t="shared" si="11"/>
         <v>9.84</v>
       </c>
       <c r="Z44">
-        <f>Z56/1000</f>
+        <f t="shared" si="11"/>
         <v>30.234999999999999</v>
       </c>
       <c r="AA44">
-        <f>AA56/1000</f>
+        <f t="shared" si="11"/>
         <v>100.262</v>
       </c>
     </row>
@@ -9132,54 +16343,54 @@
         <v>100000</v>
       </c>
       <c r="J45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>193.28700000000001</v>
       </c>
       <c r="K45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.35</v>
       </c>
       <c r="L45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>242.69</v>
       </c>
       <c r="M45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.014</v>
       </c>
       <c r="N45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.158999999999999</v>
       </c>
       <c r="T45">
         <v>0.3</v>
       </c>
       <c r="U45">
-        <f>U57/1000</f>
+        <f t="shared" si="11"/>
         <v>0.32800000000000001</v>
       </c>
       <c r="V45">
-        <f>V57/1000</f>
+        <f t="shared" si="11"/>
         <v>0.91900000000000004</v>
       </c>
       <c r="W45">
-        <f>W57/1000</f>
+        <f t="shared" si="11"/>
         <v>2.9409999999999998</v>
       </c>
       <c r="X45">
-        <f>X57/1000</f>
+        <f t="shared" si="11"/>
         <v>8.8650000000000002</v>
       </c>
       <c r="Y45">
-        <f>Y57/1000</f>
+        <f t="shared" si="11"/>
         <v>30.158999999999999</v>
       </c>
       <c r="Z45">
-        <f>Z57/1000</f>
+        <f t="shared" si="11"/>
         <v>89.739000000000004</v>
       </c>
       <c r="AA45">
-        <f>AA57/1000</f>
+        <f t="shared" si="11"/>
         <v>299.59800000000001</v>
       </c>
     </row>
@@ -9191,54 +16402,54 @@
         <v>300000</v>
       </c>
       <c r="J46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1889.489</v>
       </c>
       <c r="K46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>117.23099999999999</v>
       </c>
       <c r="L46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2272.8029999999999</v>
       </c>
       <c r="M46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.9950000000000001</v>
       </c>
       <c r="N46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>89.739000000000004</v>
       </c>
       <c r="T46">
         <v>1E-4</v>
       </c>
       <c r="U46">
-        <f t="shared" ref="U46:AA49" si="10">U58/1000</f>
+        <f t="shared" ref="U46:AA49" si="12">U58/1000</f>
         <v>0.54800000000000004</v>
       </c>
       <c r="V46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.51900000000000002</v>
       </c>
       <c r="W46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.7669999999999999</v>
       </c>
       <c r="X46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.9780000000000002</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12.38</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>78.423000000000002</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>796.33299999999997</v>
       </c>
     </row>
@@ -9250,54 +16461,54 @@
         <v>1000000</v>
       </c>
       <c r="J47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22096.137999999999</v>
       </c>
       <c r="K47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1204.366</v>
       </c>
       <c r="L47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29079.895</v>
       </c>
       <c r="M47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.069000000000001</v>
       </c>
       <c r="N47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>299.59800000000001</v>
       </c>
       <c r="T47">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="U47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.28899999999999998</v>
       </c>
       <c r="V47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.53800000000000003</v>
       </c>
       <c r="W47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0720000000000001</v>
       </c>
       <c r="X47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.0390000000000001</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12.208</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>79.064999999999998</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>800.72</v>
       </c>
     </row>
@@ -9306,31 +16517,31 @@
         <v>1E-3</v>
       </c>
       <c r="U48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.29499999999999998</v>
       </c>
       <c r="V48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.53300000000000003</v>
       </c>
       <c r="W48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.056</v>
       </c>
       <c r="X48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.968</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12.488</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>79.456000000000003</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>806.65499999999997</v>
       </c>
     </row>
@@ -9339,31 +16550,31 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="U49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.29099999999999998</v>
       </c>
       <c r="V49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.53700000000000003</v>
       </c>
       <c r="W49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.05</v>
       </c>
       <c r="X49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.07</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12.581</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>79.551000000000002</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>805.95</v>
       </c>
     </row>
@@ -10064,4 +17275,755 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:Y15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4">
+        <v>1E-4</v>
+      </c>
+      <c r="M4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N4">
+        <v>1E-3</v>
+      </c>
+      <c r="O4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P4">
+        <v>0.01</v>
+      </c>
+      <c r="Q4">
+        <v>0.03</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>30</v>
+      </c>
+      <c r="W4">
+        <v>100</v>
+      </c>
+      <c r="X4">
+        <v>300</v>
+      </c>
+      <c r="Y4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5">
+        <v>1182</v>
+      </c>
+      <c r="E5">
+        <v>1453</v>
+      </c>
+      <c r="F5">
+        <v>1174</v>
+      </c>
+      <c r="G5">
+        <v>1851</v>
+      </c>
+      <c r="H5">
+        <v>1371</v>
+      </c>
+      <c r="K5">
+        <v>10000</v>
+      </c>
+      <c r="L5">
+        <v>1815</v>
+      </c>
+      <c r="M5">
+        <v>1862</v>
+      </c>
+      <c r="N5">
+        <v>1810</v>
+      </c>
+      <c r="O5">
+        <v>1810</v>
+      </c>
+      <c r="P5">
+        <v>1890</v>
+      </c>
+      <c r="Q5">
+        <v>1873</v>
+      </c>
+      <c r="S5">
+        <v>10000</v>
+      </c>
+      <c r="T5">
+        <v>1442</v>
+      </c>
+      <c r="U5">
+        <v>1371</v>
+      </c>
+      <c r="V5">
+        <v>1488</v>
+      </c>
+      <c r="W5">
+        <v>1459</v>
+      </c>
+      <c r="X5">
+        <v>1396</v>
+      </c>
+      <c r="Y5">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>15848</v>
+      </c>
+      <c r="D6">
+        <v>1357</v>
+      </c>
+      <c r="E6">
+        <v>1506</v>
+      </c>
+      <c r="F6">
+        <v>1458</v>
+      </c>
+      <c r="G6">
+        <v>2040</v>
+      </c>
+      <c r="H6">
+        <v>1641</v>
+      </c>
+      <c r="K6">
+        <v>15848</v>
+      </c>
+      <c r="L6">
+        <v>2053</v>
+      </c>
+      <c r="M6">
+        <v>2017</v>
+      </c>
+      <c r="N6">
+        <v>1987</v>
+      </c>
+      <c r="O6">
+        <v>2067</v>
+      </c>
+      <c r="P6">
+        <v>2031</v>
+      </c>
+      <c r="Q6">
+        <v>2046</v>
+      </c>
+      <c r="S6">
+        <v>15848</v>
+      </c>
+      <c r="T6">
+        <v>1619</v>
+      </c>
+      <c r="U6">
+        <v>1641</v>
+      </c>
+      <c r="V6">
+        <v>1593</v>
+      </c>
+      <c r="W6">
+        <v>1568</v>
+      </c>
+      <c r="X6">
+        <v>1627</v>
+      </c>
+      <c r="Y6">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>25118</v>
+      </c>
+      <c r="D7">
+        <v>1445</v>
+      </c>
+      <c r="E7">
+        <v>1721</v>
+      </c>
+      <c r="F7">
+        <v>1443</v>
+      </c>
+      <c r="G7">
+        <v>2393</v>
+      </c>
+      <c r="H7">
+        <v>1794</v>
+      </c>
+      <c r="K7">
+        <v>25118</v>
+      </c>
+      <c r="L7">
+        <v>2439</v>
+      </c>
+      <c r="M7">
+        <v>2414</v>
+      </c>
+      <c r="N7">
+        <v>2471</v>
+      </c>
+      <c r="O7">
+        <v>2536</v>
+      </c>
+      <c r="P7">
+        <v>2399</v>
+      </c>
+      <c r="Q7">
+        <v>2526</v>
+      </c>
+      <c r="S7">
+        <v>25118</v>
+      </c>
+      <c r="T7">
+        <v>1874</v>
+      </c>
+      <c r="U7">
+        <v>1794</v>
+      </c>
+      <c r="V7">
+        <v>1812</v>
+      </c>
+      <c r="W7">
+        <v>1806</v>
+      </c>
+      <c r="X7">
+        <v>1813</v>
+      </c>
+      <c r="Y7">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>39810</v>
+      </c>
+      <c r="D8">
+        <v>1729</v>
+      </c>
+      <c r="E8">
+        <v>2123</v>
+      </c>
+      <c r="F8">
+        <v>1753</v>
+      </c>
+      <c r="G8">
+        <v>2881</v>
+      </c>
+      <c r="H8">
+        <v>2193</v>
+      </c>
+      <c r="K8">
+        <v>39810</v>
+      </c>
+      <c r="L8">
+        <v>2982</v>
+      </c>
+      <c r="M8">
+        <v>2950</v>
+      </c>
+      <c r="N8">
+        <v>2746</v>
+      </c>
+      <c r="O8">
+        <v>2756</v>
+      </c>
+      <c r="P8">
+        <v>2863</v>
+      </c>
+      <c r="Q8">
+        <v>2990</v>
+      </c>
+      <c r="S8">
+        <v>39810</v>
+      </c>
+      <c r="T8">
+        <v>2210</v>
+      </c>
+      <c r="U8">
+        <v>2193</v>
+      </c>
+      <c r="V8">
+        <v>2262</v>
+      </c>
+      <c r="W8">
+        <v>2147</v>
+      </c>
+      <c r="X8">
+        <v>2288</v>
+      </c>
+      <c r="Y8">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>63095</v>
+      </c>
+      <c r="D9">
+        <v>2160</v>
+      </c>
+      <c r="E9">
+        <v>2656</v>
+      </c>
+      <c r="F9">
+        <v>2482</v>
+      </c>
+      <c r="G9">
+        <v>3379</v>
+      </c>
+      <c r="H9">
+        <v>2758</v>
+      </c>
+      <c r="K9">
+        <v>63095</v>
+      </c>
+      <c r="L9">
+        <v>3652</v>
+      </c>
+      <c r="M9">
+        <v>3321</v>
+      </c>
+      <c r="N9">
+        <v>3353</v>
+      </c>
+      <c r="O9">
+        <v>3243</v>
+      </c>
+      <c r="P9">
+        <v>3436</v>
+      </c>
+      <c r="Q9">
+        <v>3530</v>
+      </c>
+      <c r="S9">
+        <v>63095</v>
+      </c>
+      <c r="T9">
+        <v>2710</v>
+      </c>
+      <c r="U9">
+        <v>2758</v>
+      </c>
+      <c r="V9">
+        <v>2593</v>
+      </c>
+      <c r="W9">
+        <v>2668</v>
+      </c>
+      <c r="X9">
+        <v>2697</v>
+      </c>
+      <c r="Y9">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>100000</v>
+      </c>
+      <c r="D10">
+        <v>2598</v>
+      </c>
+      <c r="E10">
+        <v>3143</v>
+      </c>
+      <c r="F10">
+        <v>3264</v>
+      </c>
+      <c r="G10">
+        <v>4816</v>
+      </c>
+      <c r="H10">
+        <v>3341</v>
+      </c>
+      <c r="K10">
+        <v>100000</v>
+      </c>
+      <c r="L10">
+        <v>4399</v>
+      </c>
+      <c r="M10">
+        <v>4480</v>
+      </c>
+      <c r="N10">
+        <v>4598</v>
+      </c>
+      <c r="O10">
+        <v>4428</v>
+      </c>
+      <c r="P10">
+        <v>4432</v>
+      </c>
+      <c r="Q10">
+        <v>4909</v>
+      </c>
+      <c r="S10">
+        <v>100000</v>
+      </c>
+      <c r="T10">
+        <v>3462</v>
+      </c>
+      <c r="U10">
+        <v>3341</v>
+      </c>
+      <c r="V10">
+        <v>3302</v>
+      </c>
+      <c r="W10">
+        <v>3188</v>
+      </c>
+      <c r="X10">
+        <v>3329</v>
+      </c>
+      <c r="Y10">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>158489</v>
+      </c>
+      <c r="D11">
+        <v>3653</v>
+      </c>
+      <c r="E11">
+        <v>4498</v>
+      </c>
+      <c r="F11">
+        <v>5256</v>
+      </c>
+      <c r="G11">
+        <v>6229</v>
+      </c>
+      <c r="H11">
+        <v>4675</v>
+      </c>
+      <c r="K11">
+        <v>158489</v>
+      </c>
+      <c r="L11">
+        <v>5539</v>
+      </c>
+      <c r="M11">
+        <v>5871</v>
+      </c>
+      <c r="N11">
+        <v>6300</v>
+      </c>
+      <c r="O11">
+        <v>5756</v>
+      </c>
+      <c r="P11">
+        <v>5713</v>
+      </c>
+      <c r="Q11">
+        <v>6183</v>
+      </c>
+      <c r="S11">
+        <v>158489</v>
+      </c>
+      <c r="T11">
+        <v>4644</v>
+      </c>
+      <c r="U11">
+        <v>4675</v>
+      </c>
+      <c r="V11">
+        <v>4717</v>
+      </c>
+      <c r="W11">
+        <v>4416</v>
+      </c>
+      <c r="X11">
+        <v>4682</v>
+      </c>
+      <c r="Y11">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>251188</v>
+      </c>
+      <c r="D12">
+        <v>5023</v>
+      </c>
+      <c r="E12">
+        <v>5443</v>
+      </c>
+      <c r="F12">
+        <v>8924</v>
+      </c>
+      <c r="G12">
+        <v>8257</v>
+      </c>
+      <c r="H12">
+        <v>6053</v>
+      </c>
+      <c r="K12">
+        <v>251188</v>
+      </c>
+      <c r="L12">
+        <v>8779</v>
+      </c>
+      <c r="M12">
+        <v>8340</v>
+      </c>
+      <c r="N12">
+        <v>9234</v>
+      </c>
+      <c r="O12">
+        <v>8609</v>
+      </c>
+      <c r="P12">
+        <v>8591</v>
+      </c>
+      <c r="Q12">
+        <v>9084</v>
+      </c>
+      <c r="S12">
+        <v>251188</v>
+      </c>
+      <c r="T12">
+        <v>5910</v>
+      </c>
+      <c r="U12">
+        <v>6053</v>
+      </c>
+      <c r="V12">
+        <v>6079</v>
+      </c>
+      <c r="W12">
+        <v>6340</v>
+      </c>
+      <c r="X12">
+        <v>5779</v>
+      </c>
+      <c r="Y12">
+        <v>6114</v>
+      </c>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>398107</v>
+      </c>
+      <c r="D13">
+        <v>7883</v>
+      </c>
+      <c r="E13">
+        <v>8669</v>
+      </c>
+      <c r="F13">
+        <v>17606</v>
+      </c>
+      <c r="G13">
+        <v>12157</v>
+      </c>
+      <c r="H13">
+        <v>8759</v>
+      </c>
+      <c r="K13">
+        <v>398107</v>
+      </c>
+      <c r="L13">
+        <v>12002</v>
+      </c>
+      <c r="M13">
+        <v>12350</v>
+      </c>
+      <c r="N13">
+        <v>12773</v>
+      </c>
+      <c r="O13">
+        <v>12586</v>
+      </c>
+      <c r="P13">
+        <v>12079</v>
+      </c>
+      <c r="Q13">
+        <v>12125</v>
+      </c>
+      <c r="S13">
+        <v>398107</v>
+      </c>
+      <c r="T13">
+        <v>9207</v>
+      </c>
+      <c r="U13">
+        <v>8759</v>
+      </c>
+      <c r="V13">
+        <v>8947</v>
+      </c>
+      <c r="W13">
+        <v>8862</v>
+      </c>
+      <c r="X13">
+        <v>8851</v>
+      </c>
+      <c r="Y13">
+        <v>8799</v>
+      </c>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>630957</v>
+      </c>
+      <c r="D14">
+        <v>12469</v>
+      </c>
+      <c r="E14">
+        <v>12114</v>
+      </c>
+      <c r="F14">
+        <v>38436</v>
+      </c>
+      <c r="G14">
+        <v>16963</v>
+      </c>
+      <c r="H14">
+        <v>12884</v>
+      </c>
+      <c r="K14">
+        <v>630957</v>
+      </c>
+      <c r="L14">
+        <v>17337</v>
+      </c>
+      <c r="M14">
+        <v>16954</v>
+      </c>
+      <c r="N14">
+        <v>17240</v>
+      </c>
+      <c r="O14">
+        <v>17420</v>
+      </c>
+      <c r="P14">
+        <v>17520</v>
+      </c>
+      <c r="Q14">
+        <v>17370</v>
+      </c>
+      <c r="S14">
+        <v>630957</v>
+      </c>
+      <c r="T14">
+        <v>12950</v>
+      </c>
+      <c r="U14">
+        <v>12884</v>
+      </c>
+      <c r="V14">
+        <v>13033</v>
+      </c>
+      <c r="W14">
+        <v>12892</v>
+      </c>
+      <c r="X14">
+        <v>12920</v>
+      </c>
+      <c r="Y14">
+        <v>12932</v>
+      </c>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>1000000</v>
+      </c>
+      <c r="F15">
+        <v>87127</v>
+      </c>
+      <c r="G15">
+        <v>27688</v>
+      </c>
+      <c r="H15">
+        <v>20215</v>
+      </c>
+      <c r="K15">
+        <v>1000000</v>
+      </c>
+      <c r="L15">
+        <v>27258</v>
+      </c>
+      <c r="M15">
+        <v>27262</v>
+      </c>
+      <c r="N15">
+        <v>27578</v>
+      </c>
+      <c r="O15">
+        <v>27528</v>
+      </c>
+      <c r="P15">
+        <v>27714</v>
+      </c>
+      <c r="Q15">
+        <v>27771</v>
+      </c>
+      <c r="S15">
+        <v>1000000</v>
+      </c>
+      <c r="T15">
+        <v>19983</v>
+      </c>
+      <c r="U15">
+        <v>20215</v>
+      </c>
+      <c r="V15">
+        <v>20167</v>
+      </c>
+      <c r="W15">
+        <v>20232</v>
+      </c>
+      <c r="X15">
+        <v>20113</v>
+      </c>
+      <c r="Y15">
+        <v>20195</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4383,6 +4383,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>AOL(25MB)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4494,34 +4520,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1182</c:v>
+                  <c:v>1.1819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1357</c:v>
+                  <c:v>1.357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1445</c:v>
+                  <c:v>1.4450000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1729</c:v>
+                  <c:v>1.7290000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2160</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2598</c:v>
+                  <c:v>2.5979999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3653</c:v>
+                  <c:v>3.653</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5023</c:v>
+                  <c:v>5.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7883</c:v>
+                  <c:v>7.883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12469</c:v>
+                  <c:v>12.468999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4608,34 +4637,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1453</c:v>
+                  <c:v>1.4530000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1506</c:v>
+                  <c:v>1.506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1721</c:v>
+                  <c:v>1.7210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2123</c:v>
+                  <c:v>2.1230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2656</c:v>
+                  <c:v>2.6560000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3143</c:v>
+                  <c:v>3.1429999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4498</c:v>
+                  <c:v>4.4980000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5443</c:v>
+                  <c:v>5.4429999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8669</c:v>
+                  <c:v>8.6690000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12114</c:v>
+                  <c:v>12.114000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4722,37 +4754,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1174</c:v>
+                  <c:v>1.1739999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1458</c:v>
+                  <c:v>1.458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1443</c:v>
+                  <c:v>1.4430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1753</c:v>
+                  <c:v>1.7529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2482</c:v>
+                  <c:v>2.4820000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3264</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5256</c:v>
+                  <c:v>5.2560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8924</c:v>
+                  <c:v>8.9239999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17606</c:v>
+                  <c:v>17.606000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38436</c:v>
+                  <c:v>38.436</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87127</c:v>
+                  <c:v>87.126999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4839,37 +4871,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1851</c:v>
+                  <c:v>1.851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2040</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2393</c:v>
+                  <c:v>2.3929999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2881</c:v>
+                  <c:v>2.8809999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3379</c:v>
+                  <c:v>3.379</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4816</c:v>
+                  <c:v>4.8159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6229</c:v>
+                  <c:v>6.2290000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8257</c:v>
+                  <c:v>8.2569999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12157</c:v>
+                  <c:v>12.157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16963</c:v>
+                  <c:v>16.963000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27688</c:v>
+                  <c:v>27.687999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4956,37 +4988,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1371</c:v>
+                  <c:v>1.371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1641</c:v>
+                  <c:v>1.641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1794</c:v>
+                  <c:v>1.794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2193</c:v>
+                  <c:v>2.1930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2758</c:v>
+                  <c:v>2.758</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3341</c:v>
+                  <c:v>3.3410000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4675</c:v>
+                  <c:v>4.6749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6053</c:v>
+                  <c:v>6.0529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8759</c:v>
+                  <c:v>8.7590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12884</c:v>
+                  <c:v>12.884</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20215</c:v>
+                  <c:v>20.215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5078,7 +5110,6 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5229,6 +5260,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>JoinHybrid - Sampling</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5352,37 +5409,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1815</c:v>
+                  <c:v>1.8149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2053</c:v>
+                  <c:v>2.0529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2439</c:v>
+                  <c:v>2.4390000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2982</c:v>
+                  <c:v>2.9820000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3652</c:v>
+                  <c:v>3.6520000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4399</c:v>
+                  <c:v>4.399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5539</c:v>
+                  <c:v>5.5389999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8779</c:v>
+                  <c:v>8.7789999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12002</c:v>
+                  <c:v>12.002000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17337</c:v>
+                  <c:v>17.337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27258</c:v>
+                  <c:v>27.257999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5481,37 +5538,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1862</c:v>
+                  <c:v>1.8620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017</c:v>
+                  <c:v>2.0169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2414</c:v>
+                  <c:v>2.4140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2950</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3321</c:v>
+                  <c:v>3.3210000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4480</c:v>
+                  <c:v>4.4800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5871</c:v>
+                  <c:v>5.8710000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8340</c:v>
+                  <c:v>8.34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12350</c:v>
+                  <c:v>12.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16954</c:v>
+                  <c:v>16.954000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27262</c:v>
+                  <c:v>27.262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5610,37 +5667,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1810</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1987</c:v>
+                  <c:v>1.9870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2471</c:v>
+                  <c:v>2.4710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2746</c:v>
+                  <c:v>2.746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3353</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4598</c:v>
+                  <c:v>4.5979999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6300</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9234</c:v>
+                  <c:v>9.234</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12773</c:v>
+                  <c:v>12.773</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17240</c:v>
+                  <c:v>17.239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27578</c:v>
+                  <c:v>27.577999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5739,37 +5796,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1810</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2067</c:v>
+                  <c:v>2.0670000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2536</c:v>
+                  <c:v>2.536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2756</c:v>
+                  <c:v>2.7559999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3243</c:v>
+                  <c:v>3.2429999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4428</c:v>
+                  <c:v>4.4279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5756</c:v>
+                  <c:v>5.7560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8609</c:v>
+                  <c:v>8.609</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12586</c:v>
+                  <c:v>12.586</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17420</c:v>
+                  <c:v>17.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27528</c:v>
+                  <c:v>27.527999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5868,37 +5925,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1890</c:v>
+                  <c:v>1.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2031</c:v>
+                  <c:v>2.0310000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2399</c:v>
+                  <c:v>2.399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2863</c:v>
+                  <c:v>2.863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3436</c:v>
+                  <c:v>3.4359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4432</c:v>
+                  <c:v>4.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5713</c:v>
+                  <c:v>5.7130000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8591</c:v>
+                  <c:v>8.5909999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12079</c:v>
+                  <c:v>12.079000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17520</c:v>
+                  <c:v>17.52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27714</c:v>
+                  <c:v>27.713999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5997,37 +6054,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1873</c:v>
+                  <c:v>1.873</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2046</c:v>
+                  <c:v>2.0459999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2526</c:v>
+                  <c:v>2.5259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2990</c:v>
+                  <c:v>2.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3530</c:v>
+                  <c:v>3.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4909</c:v>
+                  <c:v>4.9089999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6183</c:v>
+                  <c:v>6.1829999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9084</c:v>
+                  <c:v>9.0839999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12125</c:v>
+                  <c:v>12.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17370</c:v>
+                  <c:v>17.37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27771</c:v>
+                  <c:v>27.771000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6119,7 +6176,6 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6270,6 +6326,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>JoinHybrid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> - Manual Setting</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6393,37 +6479,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1442</c:v>
+                  <c:v>1.4419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1619</c:v>
+                  <c:v>1.619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1874</c:v>
+                  <c:v>1.8740000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2210</c:v>
+                  <c:v>2.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2710</c:v>
+                  <c:v>2.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3462</c:v>
+                  <c:v>3.4620000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4644</c:v>
+                  <c:v>4.6440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5910</c:v>
+                  <c:v>5.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9207</c:v>
+                  <c:v>9.2070000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12950</c:v>
+                  <c:v>12.95</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19983</c:v>
+                  <c:v>19.983000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6522,37 +6608,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1371</c:v>
+                  <c:v>1.371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1641</c:v>
+                  <c:v>1.641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1794</c:v>
+                  <c:v>1.794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2193</c:v>
+                  <c:v>2.1930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2758</c:v>
+                  <c:v>2.758</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3341</c:v>
+                  <c:v>3.3410000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4675</c:v>
+                  <c:v>4.6749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6053</c:v>
+                  <c:v>6.0529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8759</c:v>
+                  <c:v>8.7590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12884</c:v>
+                  <c:v>12.884</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20215</c:v>
+                  <c:v>20.215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6651,37 +6737,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1488</c:v>
+                  <c:v>1.488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1593</c:v>
+                  <c:v>1.593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1812</c:v>
+                  <c:v>1.8120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2262</c:v>
+                  <c:v>2.262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2593</c:v>
+                  <c:v>2.593</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3302</c:v>
+                  <c:v>3.302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4717</c:v>
+                  <c:v>4.7169999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6079</c:v>
+                  <c:v>6.0789999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8947</c:v>
+                  <c:v>8.9469999999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13033</c:v>
+                  <c:v>13.032999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20167</c:v>
+                  <c:v>20.167000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6780,37 +6866,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1459</c:v>
+                  <c:v>1.4590000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1568</c:v>
+                  <c:v>1.5680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1806</c:v>
+                  <c:v>1.806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2147</c:v>
+                  <c:v>2.1469999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2668</c:v>
+                  <c:v>2.6680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3188</c:v>
+                  <c:v>3.1880000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4416</c:v>
+                  <c:v>4.4160000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6340</c:v>
+                  <c:v>6.34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8862</c:v>
+                  <c:v>8.8620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12892</c:v>
+                  <c:v>12.891999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20232</c:v>
+                  <c:v>20.231999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6909,37 +6995,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1396</c:v>
+                  <c:v>1.3959999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1627</c:v>
+                  <c:v>1.627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1813</c:v>
+                  <c:v>1.8129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2288</c:v>
+                  <c:v>2.2879999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2697</c:v>
+                  <c:v>2.6970000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3329</c:v>
+                  <c:v>3.3290000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4682</c:v>
+                  <c:v>4.6820000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5779</c:v>
+                  <c:v>5.7789999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8851</c:v>
+                  <c:v>8.8510000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12920</c:v>
+                  <c:v>12.92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20113</c:v>
+                  <c:v>20.113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7038,37 +7124,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1339</c:v>
+                  <c:v>1.339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1691</c:v>
+                  <c:v>1.6910000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1866</c:v>
+                  <c:v>1.8660000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2213</c:v>
+                  <c:v>2.2130000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2583</c:v>
+                  <c:v>2.5830000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3189</c:v>
+                  <c:v>3.1890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4599</c:v>
+                  <c:v>4.5990000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6114</c:v>
+                  <c:v>6.1139999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8799</c:v>
+                  <c:v>8.7989999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12932</c:v>
+                  <c:v>12.932</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20195</c:v>
+                  <c:v>20.195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7160,7 +7246,6 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7311,6 +7396,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>JoinHybrid</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -7434,37 +7545,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1815</c:v>
+                  <c:v>1.8149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2053</c:v>
+                  <c:v>2.0529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2439</c:v>
+                  <c:v>2.4390000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2982</c:v>
+                  <c:v>2.9820000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3652</c:v>
+                  <c:v>3.6520000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4399</c:v>
+                  <c:v>4.399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5539</c:v>
+                  <c:v>5.5389999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8779</c:v>
+                  <c:v>8.7789999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12002</c:v>
+                  <c:v>12.002000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17337</c:v>
+                  <c:v>17.337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27258</c:v>
+                  <c:v>27.257999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7563,37 +7674,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1862</c:v>
+                  <c:v>1.8620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017</c:v>
+                  <c:v>2.0169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2414</c:v>
+                  <c:v>2.4140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2950</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3321</c:v>
+                  <c:v>3.3210000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4480</c:v>
+                  <c:v>4.4800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5871</c:v>
+                  <c:v>5.8710000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8340</c:v>
+                  <c:v>8.34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12350</c:v>
+                  <c:v>12.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16954</c:v>
+                  <c:v>16.954000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27262</c:v>
+                  <c:v>27.262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7692,37 +7803,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1810</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1987</c:v>
+                  <c:v>1.9870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2471</c:v>
+                  <c:v>2.4710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2746</c:v>
+                  <c:v>2.746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3353</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4598</c:v>
+                  <c:v>4.5979999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6300</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9234</c:v>
+                  <c:v>9.234</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12773</c:v>
+                  <c:v>12.773</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17240</c:v>
+                  <c:v>17.239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27578</c:v>
+                  <c:v>27.577999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7821,37 +7932,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1810</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2067</c:v>
+                  <c:v>2.0670000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2536</c:v>
+                  <c:v>2.536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2756</c:v>
+                  <c:v>2.7559999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3243</c:v>
+                  <c:v>3.2429999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4428</c:v>
+                  <c:v>4.4279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5756</c:v>
+                  <c:v>5.7560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8609</c:v>
+                  <c:v>8.609</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12586</c:v>
+                  <c:v>12.586</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17420</c:v>
+                  <c:v>17.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27528</c:v>
+                  <c:v>27.527999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7950,37 +8061,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1890</c:v>
+                  <c:v>1.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2031</c:v>
+                  <c:v>2.0310000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2399</c:v>
+                  <c:v>2.399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2863</c:v>
+                  <c:v>2.863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3436</c:v>
+                  <c:v>3.4359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4432</c:v>
+                  <c:v>4.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5713</c:v>
+                  <c:v>5.7130000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8591</c:v>
+                  <c:v>8.5909999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12079</c:v>
+                  <c:v>12.079000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17520</c:v>
+                  <c:v>17.52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27714</c:v>
+                  <c:v>27.713999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8079,37 +8190,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1873</c:v>
+                  <c:v>1.873</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2046</c:v>
+                  <c:v>2.0459999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2526</c:v>
+                  <c:v>2.5259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2990</c:v>
+                  <c:v>2.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3530</c:v>
+                  <c:v>3.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4909</c:v>
+                  <c:v>4.9089999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6183</c:v>
+                  <c:v>6.1829999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9084</c:v>
+                  <c:v>9.0839999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12125</c:v>
+                  <c:v>12.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17370</c:v>
+                  <c:v>17.37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27771</c:v>
+                  <c:v>27.771000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8214,37 +8325,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1442</c:v>
+                  <c:v>1.4419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1619</c:v>
+                  <c:v>1.619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1874</c:v>
+                  <c:v>1.8740000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2210</c:v>
+                  <c:v>2.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2710</c:v>
+                  <c:v>2.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3462</c:v>
+                  <c:v>3.4620000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4644</c:v>
+                  <c:v>4.6440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5910</c:v>
+                  <c:v>5.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9207</c:v>
+                  <c:v>9.2070000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12950</c:v>
+                  <c:v>12.95</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19983</c:v>
+                  <c:v>19.983000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8349,37 +8460,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1371</c:v>
+                  <c:v>1.371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1641</c:v>
+                  <c:v>1.641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1794</c:v>
+                  <c:v>1.794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2193</c:v>
+                  <c:v>2.1930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2758</c:v>
+                  <c:v>2.758</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3341</c:v>
+                  <c:v>3.3410000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4675</c:v>
+                  <c:v>4.6749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6053</c:v>
+                  <c:v>6.0529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8759</c:v>
+                  <c:v>8.7590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12884</c:v>
+                  <c:v>12.884</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20215</c:v>
+                  <c:v>20.215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8484,37 +8595,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1488</c:v>
+                  <c:v>1.488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1593</c:v>
+                  <c:v>1.593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1812</c:v>
+                  <c:v>1.8120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2262</c:v>
+                  <c:v>2.262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2593</c:v>
+                  <c:v>2.593</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3302</c:v>
+                  <c:v>3.302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4717</c:v>
+                  <c:v>4.7169999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6079</c:v>
+                  <c:v>6.0789999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8947</c:v>
+                  <c:v>8.9469999999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13033</c:v>
+                  <c:v>13.032999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20167</c:v>
+                  <c:v>20.167000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8619,37 +8730,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1459</c:v>
+                  <c:v>1.4590000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1568</c:v>
+                  <c:v>1.5680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1806</c:v>
+                  <c:v>1.806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2147</c:v>
+                  <c:v>2.1469999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2668</c:v>
+                  <c:v>2.6680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3188</c:v>
+                  <c:v>3.1880000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4416</c:v>
+                  <c:v>4.4160000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6340</c:v>
+                  <c:v>6.34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8862</c:v>
+                  <c:v>8.8620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12892</c:v>
+                  <c:v>12.891999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20232</c:v>
+                  <c:v>20.231999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8757,37 +8868,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1396</c:v>
+                  <c:v>1.3959999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1627</c:v>
+                  <c:v>1.627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1813</c:v>
+                  <c:v>1.8129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2288</c:v>
+                  <c:v>2.2879999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2697</c:v>
+                  <c:v>2.6970000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3329</c:v>
+                  <c:v>3.3290000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4682</c:v>
+                  <c:v>4.6820000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5779</c:v>
+                  <c:v>5.7789999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8851</c:v>
+                  <c:v>8.8510000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12920</c:v>
+                  <c:v>12.92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20113</c:v>
+                  <c:v>20.113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8895,37 +9006,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1339</c:v>
+                  <c:v>1.339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1691</c:v>
+                  <c:v>1.6910000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1866</c:v>
+                  <c:v>1.8660000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2213</c:v>
+                  <c:v>2.2130000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2583</c:v>
+                  <c:v>2.5830000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3189</c:v>
+                  <c:v>3.1890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4599</c:v>
+                  <c:v>4.5990000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6114</c:v>
+                  <c:v>6.1139999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8799</c:v>
+                  <c:v>8.7989999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12932</c:v>
+                  <c:v>12.932</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20195</c:v>
+                  <c:v>20.195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9017,7 +9128,6 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -14316,16 +14426,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14347,15 +14457,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14377,15 +14487,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>671512</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14407,15 +14517,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14704,8 +14814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS97"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="P49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR67" sqref="AR67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17279,10 +17389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:Y15"/>
+  <dimension ref="C3:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17350,61 +17460,78 @@
         <v>10000</v>
       </c>
       <c r="D5">
-        <v>1182</v>
+        <f>D19/1000</f>
+        <v>1.1819999999999999</v>
       </c>
       <c r="E5">
-        <v>1453</v>
+        <f t="shared" ref="E5:H5" si="0">E19/1000</f>
+        <v>1.4530000000000001</v>
       </c>
       <c r="F5">
-        <v>1174</v>
+        <f t="shared" si="0"/>
+        <v>1.1739999999999999</v>
       </c>
       <c r="G5">
-        <v>1851</v>
+        <f t="shared" si="0"/>
+        <v>1.851</v>
       </c>
       <c r="H5">
-        <v>1371</v>
+        <f t="shared" si="0"/>
+        <v>1.371</v>
       </c>
       <c r="K5">
         <v>10000</v>
       </c>
       <c r="L5">
-        <v>1815</v>
+        <f t="shared" ref="L5:Q5" si="1">L19/1000</f>
+        <v>1.8149999999999999</v>
       </c>
       <c r="M5">
-        <v>1862</v>
+        <f t="shared" si="1"/>
+        <v>1.8620000000000001</v>
       </c>
       <c r="N5">
-        <v>1810</v>
+        <f t="shared" si="1"/>
+        <v>1.81</v>
       </c>
       <c r="O5">
-        <v>1810</v>
+        <f t="shared" si="1"/>
+        <v>1.81</v>
       </c>
       <c r="P5">
-        <v>1890</v>
+        <f t="shared" si="1"/>
+        <v>1.89</v>
       </c>
       <c r="Q5">
-        <v>1873</v>
+        <f t="shared" si="1"/>
+        <v>1.873</v>
       </c>
       <c r="S5">
         <v>10000</v>
       </c>
       <c r="T5">
-        <v>1442</v>
+        <f t="shared" ref="T5:Y5" si="2">T19/1000</f>
+        <v>1.4419999999999999</v>
       </c>
       <c r="U5">
-        <v>1371</v>
+        <f t="shared" si="2"/>
+        <v>1.371</v>
       </c>
       <c r="V5">
-        <v>1488</v>
+        <f t="shared" si="2"/>
+        <v>1.488</v>
       </c>
       <c r="W5">
-        <v>1459</v>
+        <f t="shared" si="2"/>
+        <v>1.4590000000000001</v>
       </c>
       <c r="X5">
-        <v>1396</v>
+        <f t="shared" si="2"/>
+        <v>1.3959999999999999</v>
       </c>
       <c r="Y5">
-        <v>1339</v>
+        <f t="shared" si="2"/>
+        <v>1.339</v>
       </c>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.3">
@@ -17412,61 +17539,78 @@
         <v>15848</v>
       </c>
       <c r="D6">
-        <v>1357</v>
+        <f t="shared" ref="D6:H15" si="3">D20/1000</f>
+        <v>1.357</v>
       </c>
       <c r="E6">
-        <v>1506</v>
+        <f t="shared" si="3"/>
+        <v>1.506</v>
       </c>
       <c r="F6">
-        <v>1458</v>
+        <f t="shared" si="3"/>
+        <v>1.458</v>
       </c>
       <c r="G6">
-        <v>2040</v>
+        <f t="shared" si="3"/>
+        <v>2.04</v>
       </c>
       <c r="H6">
-        <v>1641</v>
+        <f t="shared" si="3"/>
+        <v>1.641</v>
       </c>
       <c r="K6">
         <v>15848</v>
       </c>
       <c r="L6">
-        <v>2053</v>
+        <f t="shared" ref="L6:Q6" si="4">L20/1000</f>
+        <v>2.0529999999999999</v>
       </c>
       <c r="M6">
-        <v>2017</v>
+        <f t="shared" si="4"/>
+        <v>2.0169999999999999</v>
       </c>
       <c r="N6">
-        <v>1987</v>
+        <f t="shared" si="4"/>
+        <v>1.9870000000000001</v>
       </c>
       <c r="O6">
-        <v>2067</v>
+        <f t="shared" si="4"/>
+        <v>2.0670000000000002</v>
       </c>
       <c r="P6">
-        <v>2031</v>
+        <f t="shared" si="4"/>
+        <v>2.0310000000000001</v>
       </c>
       <c r="Q6">
-        <v>2046</v>
+        <f t="shared" si="4"/>
+        <v>2.0459999999999998</v>
       </c>
       <c r="S6">
         <v>15848</v>
       </c>
       <c r="T6">
-        <v>1619</v>
+        <f t="shared" ref="T6:Y6" si="5">T20/1000</f>
+        <v>1.619</v>
       </c>
       <c r="U6">
-        <v>1641</v>
+        <f t="shared" si="5"/>
+        <v>1.641</v>
       </c>
       <c r="V6">
-        <v>1593</v>
+        <f t="shared" si="5"/>
+        <v>1.593</v>
       </c>
       <c r="W6">
-        <v>1568</v>
+        <f t="shared" si="5"/>
+        <v>1.5680000000000001</v>
       </c>
       <c r="X6">
-        <v>1627</v>
+        <f t="shared" si="5"/>
+        <v>1.627</v>
       </c>
       <c r="Y6">
-        <v>1691</v>
+        <f t="shared" si="5"/>
+        <v>1.6910000000000001</v>
       </c>
     </row>
     <row r="7" spans="3:25" x14ac:dyDescent="0.3">
@@ -17474,61 +17618,78 @@
         <v>25118</v>
       </c>
       <c r="D7">
-        <v>1445</v>
+        <f t="shared" si="3"/>
+        <v>1.4450000000000001</v>
       </c>
       <c r="E7">
-        <v>1721</v>
+        <f t="shared" si="3"/>
+        <v>1.7210000000000001</v>
       </c>
       <c r="F7">
-        <v>1443</v>
+        <f t="shared" si="3"/>
+        <v>1.4430000000000001</v>
       </c>
       <c r="G7">
-        <v>2393</v>
+        <f t="shared" si="3"/>
+        <v>2.3929999999999998</v>
       </c>
       <c r="H7">
-        <v>1794</v>
+        <f t="shared" si="3"/>
+        <v>1.794</v>
       </c>
       <c r="K7">
         <v>25118</v>
       </c>
       <c r="L7">
-        <v>2439</v>
+        <f t="shared" ref="L7:Q7" si="6">L21/1000</f>
+        <v>2.4390000000000001</v>
       </c>
       <c r="M7">
-        <v>2414</v>
+        <f t="shared" si="6"/>
+        <v>2.4140000000000001</v>
       </c>
       <c r="N7">
-        <v>2471</v>
+        <f t="shared" si="6"/>
+        <v>2.4710000000000001</v>
       </c>
       <c r="O7">
-        <v>2536</v>
+        <f t="shared" si="6"/>
+        <v>2.536</v>
       </c>
       <c r="P7">
-        <v>2399</v>
+        <f t="shared" si="6"/>
+        <v>2.399</v>
       </c>
       <c r="Q7">
-        <v>2526</v>
+        <f t="shared" si="6"/>
+        <v>2.5259999999999998</v>
       </c>
       <c r="S7">
         <v>25118</v>
       </c>
       <c r="T7">
-        <v>1874</v>
+        <f t="shared" ref="T7:Y7" si="7">T21/1000</f>
+        <v>1.8740000000000001</v>
       </c>
       <c r="U7">
-        <v>1794</v>
+        <f t="shared" si="7"/>
+        <v>1.794</v>
       </c>
       <c r="V7">
-        <v>1812</v>
+        <f t="shared" si="7"/>
+        <v>1.8120000000000001</v>
       </c>
       <c r="W7">
-        <v>1806</v>
+        <f t="shared" si="7"/>
+        <v>1.806</v>
       </c>
       <c r="X7">
-        <v>1813</v>
+        <f t="shared" si="7"/>
+        <v>1.8129999999999999</v>
       </c>
       <c r="Y7">
-        <v>1866</v>
+        <f t="shared" si="7"/>
+        <v>1.8660000000000001</v>
       </c>
     </row>
     <row r="8" spans="3:25" x14ac:dyDescent="0.3">
@@ -17536,61 +17697,78 @@
         <v>39810</v>
       </c>
       <c r="D8">
-        <v>1729</v>
+        <f t="shared" si="3"/>
+        <v>1.7290000000000001</v>
       </c>
       <c r="E8">
-        <v>2123</v>
+        <f t="shared" si="3"/>
+        <v>2.1230000000000002</v>
       </c>
       <c r="F8">
-        <v>1753</v>
+        <f t="shared" si="3"/>
+        <v>1.7529999999999999</v>
       </c>
       <c r="G8">
-        <v>2881</v>
+        <f t="shared" si="3"/>
+        <v>2.8809999999999998</v>
       </c>
       <c r="H8">
-        <v>2193</v>
+        <f t="shared" si="3"/>
+        <v>2.1930000000000001</v>
       </c>
       <c r="K8">
         <v>39810</v>
       </c>
       <c r="L8">
-        <v>2982</v>
+        <f t="shared" ref="L8:Q8" si="8">L22/1000</f>
+        <v>2.9820000000000002</v>
       </c>
       <c r="M8">
-        <v>2950</v>
+        <f t="shared" si="8"/>
+        <v>2.95</v>
       </c>
       <c r="N8">
-        <v>2746</v>
+        <f t="shared" si="8"/>
+        <v>2.746</v>
       </c>
       <c r="O8">
-        <v>2756</v>
+        <f t="shared" si="8"/>
+        <v>2.7559999999999998</v>
       </c>
       <c r="P8">
-        <v>2863</v>
+        <f t="shared" si="8"/>
+        <v>2.863</v>
       </c>
       <c r="Q8">
-        <v>2990</v>
+        <f t="shared" si="8"/>
+        <v>2.99</v>
       </c>
       <c r="S8">
         <v>39810</v>
       </c>
       <c r="T8">
-        <v>2210</v>
+        <f t="shared" ref="T8:Y8" si="9">T22/1000</f>
+        <v>2.21</v>
       </c>
       <c r="U8">
-        <v>2193</v>
+        <f t="shared" si="9"/>
+        <v>2.1930000000000001</v>
       </c>
       <c r="V8">
-        <v>2262</v>
+        <f t="shared" si="9"/>
+        <v>2.262</v>
       </c>
       <c r="W8">
-        <v>2147</v>
+        <f t="shared" si="9"/>
+        <v>2.1469999999999998</v>
       </c>
       <c r="X8">
-        <v>2288</v>
+        <f t="shared" si="9"/>
+        <v>2.2879999999999998</v>
       </c>
       <c r="Y8">
-        <v>2213</v>
+        <f t="shared" si="9"/>
+        <v>2.2130000000000001</v>
       </c>
     </row>
     <row r="9" spans="3:25" x14ac:dyDescent="0.3">
@@ -17598,61 +17776,78 @@
         <v>63095</v>
       </c>
       <c r="D9">
-        <v>2160</v>
+        <f t="shared" si="3"/>
+        <v>2.16</v>
       </c>
       <c r="E9">
-        <v>2656</v>
+        <f t="shared" si="3"/>
+        <v>2.6560000000000001</v>
       </c>
       <c r="F9">
-        <v>2482</v>
+        <f t="shared" si="3"/>
+        <v>2.4820000000000002</v>
       </c>
       <c r="G9">
-        <v>3379</v>
+        <f t="shared" si="3"/>
+        <v>3.379</v>
       </c>
       <c r="H9">
-        <v>2758</v>
+        <f t="shared" si="3"/>
+        <v>2.758</v>
       </c>
       <c r="K9">
         <v>63095</v>
       </c>
       <c r="L9">
-        <v>3652</v>
+        <f t="shared" ref="L9:Q9" si="10">L23/1000</f>
+        <v>3.6520000000000001</v>
       </c>
       <c r="M9">
-        <v>3321</v>
+        <f t="shared" si="10"/>
+        <v>3.3210000000000002</v>
       </c>
       <c r="N9">
-        <v>3353</v>
+        <f t="shared" si="10"/>
+        <v>3.3530000000000002</v>
       </c>
       <c r="O9">
-        <v>3243</v>
+        <f t="shared" si="10"/>
+        <v>3.2429999999999999</v>
       </c>
       <c r="P9">
-        <v>3436</v>
+        <f t="shared" si="10"/>
+        <v>3.4359999999999999</v>
       </c>
       <c r="Q9">
-        <v>3530</v>
+        <f t="shared" si="10"/>
+        <v>3.53</v>
       </c>
       <c r="S9">
         <v>63095</v>
       </c>
       <c r="T9">
-        <v>2710</v>
+        <f t="shared" ref="T9:Y9" si="11">T23/1000</f>
+        <v>2.71</v>
       </c>
       <c r="U9">
-        <v>2758</v>
+        <f t="shared" si="11"/>
+        <v>2.758</v>
       </c>
       <c r="V9">
-        <v>2593</v>
+        <f t="shared" si="11"/>
+        <v>2.593</v>
       </c>
       <c r="W9">
-        <v>2668</v>
+        <f t="shared" si="11"/>
+        <v>2.6680000000000001</v>
       </c>
       <c r="X9">
-        <v>2697</v>
+        <f t="shared" si="11"/>
+        <v>2.6970000000000001</v>
       </c>
       <c r="Y9">
-        <v>2583</v>
+        <f t="shared" si="11"/>
+        <v>2.5830000000000002</v>
       </c>
     </row>
     <row r="10" spans="3:25" x14ac:dyDescent="0.3">
@@ -17660,61 +17855,78 @@
         <v>100000</v>
       </c>
       <c r="D10">
-        <v>2598</v>
+        <f t="shared" si="3"/>
+        <v>2.5979999999999999</v>
       </c>
       <c r="E10">
-        <v>3143</v>
+        <f t="shared" si="3"/>
+        <v>3.1429999999999998</v>
       </c>
       <c r="F10">
-        <v>3264</v>
+        <f t="shared" si="3"/>
+        <v>3.2639999999999998</v>
       </c>
       <c r="G10">
-        <v>4816</v>
+        <f t="shared" si="3"/>
+        <v>4.8159999999999998</v>
       </c>
       <c r="H10">
-        <v>3341</v>
+        <f t="shared" si="3"/>
+        <v>3.3410000000000002</v>
       </c>
       <c r="K10">
         <v>100000</v>
       </c>
       <c r="L10">
-        <v>4399</v>
+        <f t="shared" ref="L10:Q10" si="12">L24/1000</f>
+        <v>4.399</v>
       </c>
       <c r="M10">
-        <v>4480</v>
+        <f t="shared" si="12"/>
+        <v>4.4800000000000004</v>
       </c>
       <c r="N10">
-        <v>4598</v>
+        <f t="shared" si="12"/>
+        <v>4.5979999999999999</v>
       </c>
       <c r="O10">
-        <v>4428</v>
+        <f t="shared" si="12"/>
+        <v>4.4279999999999999</v>
       </c>
       <c r="P10">
-        <v>4432</v>
+        <f t="shared" si="12"/>
+        <v>4.4320000000000004</v>
       </c>
       <c r="Q10">
-        <v>4909</v>
+        <f t="shared" si="12"/>
+        <v>4.9089999999999998</v>
       </c>
       <c r="S10">
         <v>100000</v>
       </c>
       <c r="T10">
-        <v>3462</v>
+        <f t="shared" ref="T10:Y10" si="13">T24/1000</f>
+        <v>3.4620000000000002</v>
       </c>
       <c r="U10">
-        <v>3341</v>
+        <f t="shared" si="13"/>
+        <v>3.3410000000000002</v>
       </c>
       <c r="V10">
-        <v>3302</v>
+        <f t="shared" si="13"/>
+        <v>3.302</v>
       </c>
       <c r="W10">
-        <v>3188</v>
+        <f t="shared" si="13"/>
+        <v>3.1880000000000002</v>
       </c>
       <c r="X10">
-        <v>3329</v>
+        <f t="shared" si="13"/>
+        <v>3.3290000000000002</v>
       </c>
       <c r="Y10">
-        <v>3189</v>
+        <f t="shared" si="13"/>
+        <v>3.1890000000000001</v>
       </c>
     </row>
     <row r="11" spans="3:25" x14ac:dyDescent="0.3">
@@ -17722,61 +17934,78 @@
         <v>158489</v>
       </c>
       <c r="D11">
-        <v>3653</v>
+        <f t="shared" si="3"/>
+        <v>3.653</v>
       </c>
       <c r="E11">
-        <v>4498</v>
+        <f t="shared" si="3"/>
+        <v>4.4980000000000002</v>
       </c>
       <c r="F11">
-        <v>5256</v>
+        <f t="shared" si="3"/>
+        <v>5.2560000000000002</v>
       </c>
       <c r="G11">
-        <v>6229</v>
+        <f t="shared" si="3"/>
+        <v>6.2290000000000001</v>
       </c>
       <c r="H11">
-        <v>4675</v>
+        <f t="shared" si="3"/>
+        <v>4.6749999999999998</v>
       </c>
       <c r="K11">
         <v>158489</v>
       </c>
       <c r="L11">
-        <v>5539</v>
+        <f t="shared" ref="L11:Q11" si="14">L25/1000</f>
+        <v>5.5389999999999997</v>
       </c>
       <c r="M11">
-        <v>5871</v>
+        <f t="shared" si="14"/>
+        <v>5.8710000000000004</v>
       </c>
       <c r="N11">
-        <v>6300</v>
+        <f t="shared" si="14"/>
+        <v>6.3</v>
       </c>
       <c r="O11">
-        <v>5756</v>
+        <f t="shared" si="14"/>
+        <v>5.7560000000000002</v>
       </c>
       <c r="P11">
-        <v>5713</v>
+        <f t="shared" si="14"/>
+        <v>5.7130000000000001</v>
       </c>
       <c r="Q11">
-        <v>6183</v>
+        <f t="shared" si="14"/>
+        <v>6.1829999999999998</v>
       </c>
       <c r="S11">
         <v>158489</v>
       </c>
       <c r="T11">
-        <v>4644</v>
+        <f t="shared" ref="T11:Y11" si="15">T25/1000</f>
+        <v>4.6440000000000001</v>
       </c>
       <c r="U11">
-        <v>4675</v>
+        <f t="shared" si="15"/>
+        <v>4.6749999999999998</v>
       </c>
       <c r="V11">
-        <v>4717</v>
+        <f t="shared" si="15"/>
+        <v>4.7169999999999996</v>
       </c>
       <c r="W11">
-        <v>4416</v>
+        <f t="shared" si="15"/>
+        <v>4.4160000000000004</v>
       </c>
       <c r="X11">
-        <v>4682</v>
+        <f t="shared" si="15"/>
+        <v>4.6820000000000004</v>
       </c>
       <c r="Y11">
-        <v>4599</v>
+        <f t="shared" si="15"/>
+        <v>4.5990000000000002</v>
       </c>
     </row>
     <row r="12" spans="3:25" x14ac:dyDescent="0.3">
@@ -17784,61 +18013,78 @@
         <v>251188</v>
       </c>
       <c r="D12">
-        <v>5023</v>
+        <f t="shared" si="3"/>
+        <v>5.0229999999999997</v>
       </c>
       <c r="E12">
-        <v>5443</v>
+        <f t="shared" si="3"/>
+        <v>5.4429999999999996</v>
       </c>
       <c r="F12">
-        <v>8924</v>
+        <f t="shared" si="3"/>
+        <v>8.9239999999999995</v>
       </c>
       <c r="G12">
-        <v>8257</v>
+        <f t="shared" si="3"/>
+        <v>8.2569999999999997</v>
       </c>
       <c r="H12">
-        <v>6053</v>
+        <f t="shared" si="3"/>
+        <v>6.0529999999999999</v>
       </c>
       <c r="K12">
         <v>251188</v>
       </c>
       <c r="L12">
-        <v>8779</v>
+        <f t="shared" ref="L12:Q12" si="16">L26/1000</f>
+        <v>8.7789999999999999</v>
       </c>
       <c r="M12">
-        <v>8340</v>
+        <f t="shared" si="16"/>
+        <v>8.34</v>
       </c>
       <c r="N12">
-        <v>9234</v>
+        <f t="shared" si="16"/>
+        <v>9.234</v>
       </c>
       <c r="O12">
-        <v>8609</v>
+        <f t="shared" si="16"/>
+        <v>8.609</v>
       </c>
       <c r="P12">
-        <v>8591</v>
+        <f t="shared" si="16"/>
+        <v>8.5909999999999993</v>
       </c>
       <c r="Q12">
-        <v>9084</v>
+        <f t="shared" si="16"/>
+        <v>9.0839999999999996</v>
       </c>
       <c r="S12">
         <v>251188</v>
       </c>
       <c r="T12">
-        <v>5910</v>
+        <f t="shared" ref="T12:Y12" si="17">T26/1000</f>
+        <v>5.91</v>
       </c>
       <c r="U12">
-        <v>6053</v>
+        <f t="shared" si="17"/>
+        <v>6.0529999999999999</v>
       </c>
       <c r="V12">
-        <v>6079</v>
+        <f t="shared" si="17"/>
+        <v>6.0789999999999997</v>
       </c>
       <c r="W12">
-        <v>6340</v>
+        <f t="shared" si="17"/>
+        <v>6.34</v>
       </c>
       <c r="X12">
-        <v>5779</v>
+        <f t="shared" si="17"/>
+        <v>5.7789999999999999</v>
       </c>
       <c r="Y12">
-        <v>6114</v>
+        <f t="shared" si="17"/>
+        <v>6.1139999999999999</v>
       </c>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.3">
@@ -17846,61 +18092,78 @@
         <v>398107</v>
       </c>
       <c r="D13">
-        <v>7883</v>
+        <f t="shared" si="3"/>
+        <v>7.883</v>
       </c>
       <c r="E13">
-        <v>8669</v>
+        <f t="shared" si="3"/>
+        <v>8.6690000000000005</v>
       </c>
       <c r="F13">
-        <v>17606</v>
+        <f t="shared" si="3"/>
+        <v>17.606000000000002</v>
       </c>
       <c r="G13">
-        <v>12157</v>
+        <f t="shared" si="3"/>
+        <v>12.157</v>
       </c>
       <c r="H13">
-        <v>8759</v>
+        <f t="shared" si="3"/>
+        <v>8.7590000000000003</v>
       </c>
       <c r="K13">
         <v>398107</v>
       </c>
       <c r="L13">
-        <v>12002</v>
+        <f t="shared" ref="L13:Q13" si="18">L27/1000</f>
+        <v>12.002000000000001</v>
       </c>
       <c r="M13">
-        <v>12350</v>
+        <f t="shared" si="18"/>
+        <v>12.35</v>
       </c>
       <c r="N13">
-        <v>12773</v>
+        <f t="shared" si="18"/>
+        <v>12.773</v>
       </c>
       <c r="O13">
-        <v>12586</v>
+        <f t="shared" si="18"/>
+        <v>12.586</v>
       </c>
       <c r="P13">
-        <v>12079</v>
+        <f t="shared" si="18"/>
+        <v>12.079000000000001</v>
       </c>
       <c r="Q13">
-        <v>12125</v>
+        <f t="shared" si="18"/>
+        <v>12.125</v>
       </c>
       <c r="S13">
         <v>398107</v>
       </c>
       <c r="T13">
-        <v>9207</v>
+        <f t="shared" ref="T13:Y13" si="19">T27/1000</f>
+        <v>9.2070000000000007</v>
       </c>
       <c r="U13">
-        <v>8759</v>
+        <f t="shared" si="19"/>
+        <v>8.7590000000000003</v>
       </c>
       <c r="V13">
-        <v>8947</v>
+        <f t="shared" si="19"/>
+        <v>8.9469999999999992</v>
       </c>
       <c r="W13">
-        <v>8862</v>
+        <f t="shared" si="19"/>
+        <v>8.8620000000000001</v>
       </c>
       <c r="X13">
-        <v>8851</v>
+        <f t="shared" si="19"/>
+        <v>8.8510000000000009</v>
       </c>
       <c r="Y13">
-        <v>8799</v>
+        <f t="shared" si="19"/>
+        <v>8.7989999999999995</v>
       </c>
     </row>
     <row r="14" spans="3:25" x14ac:dyDescent="0.3">
@@ -17908,116 +18171,891 @@
         <v>630957</v>
       </c>
       <c r="D14">
-        <v>12469</v>
+        <f t="shared" si="3"/>
+        <v>12.468999999999999</v>
       </c>
       <c r="E14">
-        <v>12114</v>
+        <f t="shared" si="3"/>
+        <v>12.114000000000001</v>
       </c>
       <c r="F14">
-        <v>38436</v>
+        <f t="shared" si="3"/>
+        <v>38.436</v>
       </c>
       <c r="G14">
-        <v>16963</v>
+        <f t="shared" si="3"/>
+        <v>16.963000000000001</v>
       </c>
       <c r="H14">
-        <v>12884</v>
+        <f t="shared" si="3"/>
+        <v>12.884</v>
       </c>
       <c r="K14">
         <v>630957</v>
       </c>
       <c r="L14">
-        <v>17337</v>
+        <f t="shared" ref="L14:Q14" si="20">L28/1000</f>
+        <v>17.337</v>
       </c>
       <c r="M14">
-        <v>16954</v>
+        <f t="shared" si="20"/>
+        <v>16.954000000000001</v>
       </c>
       <c r="N14">
-        <v>17240</v>
+        <f t="shared" si="20"/>
+        <v>17.239999999999998</v>
       </c>
       <c r="O14">
-        <v>17420</v>
+        <f t="shared" si="20"/>
+        <v>17.420000000000002</v>
       </c>
       <c r="P14">
-        <v>17520</v>
+        <f t="shared" si="20"/>
+        <v>17.52</v>
       </c>
       <c r="Q14">
-        <v>17370</v>
+        <f t="shared" si="20"/>
+        <v>17.37</v>
       </c>
       <c r="S14">
         <v>630957</v>
       </c>
       <c r="T14">
-        <v>12950</v>
+        <f t="shared" ref="T14:Y14" si="21">T28/1000</f>
+        <v>12.95</v>
       </c>
       <c r="U14">
-        <v>12884</v>
+        <f t="shared" si="21"/>
+        <v>12.884</v>
       </c>
       <c r="V14">
-        <v>13033</v>
+        <f t="shared" si="21"/>
+        <v>13.032999999999999</v>
       </c>
       <c r="W14">
-        <v>12892</v>
+        <f t="shared" si="21"/>
+        <v>12.891999999999999</v>
       </c>
       <c r="X14">
-        <v>12920</v>
+        <f t="shared" si="21"/>
+        <v>12.92</v>
       </c>
       <c r="Y14">
-        <v>12932</v>
+        <f t="shared" si="21"/>
+        <v>12.932</v>
       </c>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>1000000</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>22.56</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>19.067</v>
+      </c>
       <c r="F15">
-        <v>87127</v>
+        <f t="shared" si="3"/>
+        <v>87.126999999999995</v>
       </c>
       <c r="G15">
-        <v>27688</v>
+        <f t="shared" si="3"/>
+        <v>27.687999999999999</v>
       </c>
       <c r="H15">
-        <v>20215</v>
+        <f t="shared" si="3"/>
+        <v>20.215</v>
       </c>
       <c r="K15">
         <v>1000000</v>
       </c>
       <c r="L15">
-        <v>27258</v>
+        <f t="shared" ref="L15:Q15" si="22">L29/1000</f>
+        <v>27.257999999999999</v>
       </c>
       <c r="M15">
-        <v>27262</v>
+        <f t="shared" si="22"/>
+        <v>27.262</v>
       </c>
       <c r="N15">
-        <v>27578</v>
+        <f t="shared" si="22"/>
+        <v>27.577999999999999</v>
       </c>
       <c r="O15">
-        <v>27528</v>
+        <f t="shared" si="22"/>
+        <v>27.527999999999999</v>
       </c>
       <c r="P15">
-        <v>27714</v>
+        <f t="shared" si="22"/>
+        <v>27.713999999999999</v>
       </c>
       <c r="Q15">
-        <v>27771</v>
+        <f t="shared" si="22"/>
+        <v>27.771000000000001</v>
       </c>
       <c r="S15">
         <v>1000000</v>
       </c>
       <c r="T15">
+        <f t="shared" ref="T15:Y15" si="23">T29/1000</f>
+        <v>19.983000000000001</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="23"/>
+        <v>20.215</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="23"/>
+        <v>20.167000000000002</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="23"/>
+        <v>20.231999999999999</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="23"/>
+        <v>20.113</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="23"/>
+        <v>20.195</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18">
+        <v>1E-4</v>
+      </c>
+      <c r="M18">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N18">
+        <v>1E-3</v>
+      </c>
+      <c r="O18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P18">
+        <v>0.01</v>
+      </c>
+      <c r="Q18">
+        <v>0.03</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>10</v>
+      </c>
+      <c r="V18">
+        <v>30</v>
+      </c>
+      <c r="W18">
+        <v>100</v>
+      </c>
+      <c r="X18">
+        <v>300</v>
+      </c>
+      <c r="Y18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>10000</v>
+      </c>
+      <c r="D19">
+        <v>1182</v>
+      </c>
+      <c r="E19">
+        <v>1453</v>
+      </c>
+      <c r="F19">
+        <v>1174</v>
+      </c>
+      <c r="G19">
+        <v>1851</v>
+      </c>
+      <c r="H19">
+        <v>1371</v>
+      </c>
+      <c r="K19">
+        <v>10000</v>
+      </c>
+      <c r="L19">
+        <v>1815</v>
+      </c>
+      <c r="M19">
+        <v>1862</v>
+      </c>
+      <c r="N19">
+        <v>1810</v>
+      </c>
+      <c r="O19">
+        <v>1810</v>
+      </c>
+      <c r="P19">
+        <v>1890</v>
+      </c>
+      <c r="Q19">
+        <v>1873</v>
+      </c>
+      <c r="S19">
+        <v>10000</v>
+      </c>
+      <c r="T19">
+        <v>1442</v>
+      </c>
+      <c r="U19">
+        <v>1371</v>
+      </c>
+      <c r="V19">
+        <v>1488</v>
+      </c>
+      <c r="W19">
+        <v>1459</v>
+      </c>
+      <c r="X19">
+        <v>1396</v>
+      </c>
+      <c r="Y19">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>15848</v>
+      </c>
+      <c r="D20">
+        <v>1357</v>
+      </c>
+      <c r="E20">
+        <v>1506</v>
+      </c>
+      <c r="F20">
+        <v>1458</v>
+      </c>
+      <c r="G20">
+        <v>2040</v>
+      </c>
+      <c r="H20">
+        <v>1641</v>
+      </c>
+      <c r="K20">
+        <v>15848</v>
+      </c>
+      <c r="L20">
+        <v>2053</v>
+      </c>
+      <c r="M20">
+        <v>2017</v>
+      </c>
+      <c r="N20">
+        <v>1987</v>
+      </c>
+      <c r="O20">
+        <v>2067</v>
+      </c>
+      <c r="P20">
+        <v>2031</v>
+      </c>
+      <c r="Q20">
+        <v>2046</v>
+      </c>
+      <c r="S20">
+        <v>15848</v>
+      </c>
+      <c r="T20">
+        <v>1619</v>
+      </c>
+      <c r="U20">
+        <v>1641</v>
+      </c>
+      <c r="V20">
+        <v>1593</v>
+      </c>
+      <c r="W20">
+        <v>1568</v>
+      </c>
+      <c r="X20">
+        <v>1627</v>
+      </c>
+      <c r="Y20">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>25118</v>
+      </c>
+      <c r="D21">
+        <v>1445</v>
+      </c>
+      <c r="E21">
+        <v>1721</v>
+      </c>
+      <c r="F21">
+        <v>1443</v>
+      </c>
+      <c r="G21">
+        <v>2393</v>
+      </c>
+      <c r="H21">
+        <v>1794</v>
+      </c>
+      <c r="K21">
+        <v>25118</v>
+      </c>
+      <c r="L21">
+        <v>2439</v>
+      </c>
+      <c r="M21">
+        <v>2414</v>
+      </c>
+      <c r="N21">
+        <v>2471</v>
+      </c>
+      <c r="O21">
+        <v>2536</v>
+      </c>
+      <c r="P21">
+        <v>2399</v>
+      </c>
+      <c r="Q21">
+        <v>2526</v>
+      </c>
+      <c r="S21">
+        <v>25118</v>
+      </c>
+      <c r="T21">
+        <v>1874</v>
+      </c>
+      <c r="U21">
+        <v>1794</v>
+      </c>
+      <c r="V21">
+        <v>1812</v>
+      </c>
+      <c r="W21">
+        <v>1806</v>
+      </c>
+      <c r="X21">
+        <v>1813</v>
+      </c>
+      <c r="Y21">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>39810</v>
+      </c>
+      <c r="D22">
+        <v>1729</v>
+      </c>
+      <c r="E22">
+        <v>2123</v>
+      </c>
+      <c r="F22">
+        <v>1753</v>
+      </c>
+      <c r="G22">
+        <v>2881</v>
+      </c>
+      <c r="H22">
+        <v>2193</v>
+      </c>
+      <c r="K22">
+        <v>39810</v>
+      </c>
+      <c r="L22">
+        <v>2982</v>
+      </c>
+      <c r="M22">
+        <v>2950</v>
+      </c>
+      <c r="N22">
+        <v>2746</v>
+      </c>
+      <c r="O22">
+        <v>2756</v>
+      </c>
+      <c r="P22">
+        <v>2863</v>
+      </c>
+      <c r="Q22">
+        <v>2990</v>
+      </c>
+      <c r="S22">
+        <v>39810</v>
+      </c>
+      <c r="T22">
+        <v>2210</v>
+      </c>
+      <c r="U22">
+        <v>2193</v>
+      </c>
+      <c r="V22">
+        <v>2262</v>
+      </c>
+      <c r="W22">
+        <v>2147</v>
+      </c>
+      <c r="X22">
+        <v>2288</v>
+      </c>
+      <c r="Y22">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>63095</v>
+      </c>
+      <c r="D23">
+        <v>2160</v>
+      </c>
+      <c r="E23">
+        <v>2656</v>
+      </c>
+      <c r="F23">
+        <v>2482</v>
+      </c>
+      <c r="G23">
+        <v>3379</v>
+      </c>
+      <c r="H23">
+        <v>2758</v>
+      </c>
+      <c r="K23">
+        <v>63095</v>
+      </c>
+      <c r="L23">
+        <v>3652</v>
+      </c>
+      <c r="M23">
+        <v>3321</v>
+      </c>
+      <c r="N23">
+        <v>3353</v>
+      </c>
+      <c r="O23">
+        <v>3243</v>
+      </c>
+      <c r="P23">
+        <v>3436</v>
+      </c>
+      <c r="Q23">
+        <v>3530</v>
+      </c>
+      <c r="S23">
+        <v>63095</v>
+      </c>
+      <c r="T23">
+        <v>2710</v>
+      </c>
+      <c r="U23">
+        <v>2758</v>
+      </c>
+      <c r="V23">
+        <v>2593</v>
+      </c>
+      <c r="W23">
+        <v>2668</v>
+      </c>
+      <c r="X23">
+        <v>2697</v>
+      </c>
+      <c r="Y23">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>100000</v>
+      </c>
+      <c r="D24">
+        <v>2598</v>
+      </c>
+      <c r="E24">
+        <v>3143</v>
+      </c>
+      <c r="F24">
+        <v>3264</v>
+      </c>
+      <c r="G24">
+        <v>4816</v>
+      </c>
+      <c r="H24">
+        <v>3341</v>
+      </c>
+      <c r="K24">
+        <v>100000</v>
+      </c>
+      <c r="L24">
+        <v>4399</v>
+      </c>
+      <c r="M24">
+        <v>4480</v>
+      </c>
+      <c r="N24">
+        <v>4598</v>
+      </c>
+      <c r="O24">
+        <v>4428</v>
+      </c>
+      <c r="P24">
+        <v>4432</v>
+      </c>
+      <c r="Q24">
+        <v>4909</v>
+      </c>
+      <c r="S24">
+        <v>100000</v>
+      </c>
+      <c r="T24">
+        <v>3462</v>
+      </c>
+      <c r="U24">
+        <v>3341</v>
+      </c>
+      <c r="V24">
+        <v>3302</v>
+      </c>
+      <c r="W24">
+        <v>3188</v>
+      </c>
+      <c r="X24">
+        <v>3329</v>
+      </c>
+      <c r="Y24">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>158489</v>
+      </c>
+      <c r="D25">
+        <v>3653</v>
+      </c>
+      <c r="E25">
+        <v>4498</v>
+      </c>
+      <c r="F25">
+        <v>5256</v>
+      </c>
+      <c r="G25">
+        <v>6229</v>
+      </c>
+      <c r="H25">
+        <v>4675</v>
+      </c>
+      <c r="K25">
+        <v>158489</v>
+      </c>
+      <c r="L25">
+        <v>5539</v>
+      </c>
+      <c r="M25">
+        <v>5871</v>
+      </c>
+      <c r="N25">
+        <v>6300</v>
+      </c>
+      <c r="O25">
+        <v>5756</v>
+      </c>
+      <c r="P25">
+        <v>5713</v>
+      </c>
+      <c r="Q25">
+        <v>6183</v>
+      </c>
+      <c r="S25">
+        <v>158489</v>
+      </c>
+      <c r="T25">
+        <v>4644</v>
+      </c>
+      <c r="U25">
+        <v>4675</v>
+      </c>
+      <c r="V25">
+        <v>4717</v>
+      </c>
+      <c r="W25">
+        <v>4416</v>
+      </c>
+      <c r="X25">
+        <v>4682</v>
+      </c>
+      <c r="Y25">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>251188</v>
+      </c>
+      <c r="D26">
+        <v>5023</v>
+      </c>
+      <c r="E26">
+        <v>5443</v>
+      </c>
+      <c r="F26">
+        <v>8924</v>
+      </c>
+      <c r="G26">
+        <v>8257</v>
+      </c>
+      <c r="H26">
+        <v>6053</v>
+      </c>
+      <c r="K26">
+        <v>251188</v>
+      </c>
+      <c r="L26">
+        <v>8779</v>
+      </c>
+      <c r="M26">
+        <v>8340</v>
+      </c>
+      <c r="N26">
+        <v>9234</v>
+      </c>
+      <c r="O26">
+        <v>8609</v>
+      </c>
+      <c r="P26">
+        <v>8591</v>
+      </c>
+      <c r="Q26">
+        <v>9084</v>
+      </c>
+      <c r="S26">
+        <v>251188</v>
+      </c>
+      <c r="T26">
+        <v>5910</v>
+      </c>
+      <c r="U26">
+        <v>6053</v>
+      </c>
+      <c r="V26">
+        <v>6079</v>
+      </c>
+      <c r="W26">
+        <v>6340</v>
+      </c>
+      <c r="X26">
+        <v>5779</v>
+      </c>
+      <c r="Y26">
+        <v>6114</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>398107</v>
+      </c>
+      <c r="D27">
+        <v>7883</v>
+      </c>
+      <c r="E27">
+        <v>8669</v>
+      </c>
+      <c r="F27">
+        <v>17606</v>
+      </c>
+      <c r="G27">
+        <v>12157</v>
+      </c>
+      <c r="H27">
+        <v>8759</v>
+      </c>
+      <c r="K27">
+        <v>398107</v>
+      </c>
+      <c r="L27">
+        <v>12002</v>
+      </c>
+      <c r="M27">
+        <v>12350</v>
+      </c>
+      <c r="N27">
+        <v>12773</v>
+      </c>
+      <c r="O27">
+        <v>12586</v>
+      </c>
+      <c r="P27">
+        <v>12079</v>
+      </c>
+      <c r="Q27">
+        <v>12125</v>
+      </c>
+      <c r="S27">
+        <v>398107</v>
+      </c>
+      <c r="T27">
+        <v>9207</v>
+      </c>
+      <c r="U27">
+        <v>8759</v>
+      </c>
+      <c r="V27">
+        <v>8947</v>
+      </c>
+      <c r="W27">
+        <v>8862</v>
+      </c>
+      <c r="X27">
+        <v>8851</v>
+      </c>
+      <c r="Y27">
+        <v>8799</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>630957</v>
+      </c>
+      <c r="D28">
+        <v>12469</v>
+      </c>
+      <c r="E28">
+        <v>12114</v>
+      </c>
+      <c r="F28">
+        <v>38436</v>
+      </c>
+      <c r="G28">
+        <v>16963</v>
+      </c>
+      <c r="H28">
+        <v>12884</v>
+      </c>
+      <c r="K28">
+        <v>630957</v>
+      </c>
+      <c r="L28">
+        <v>17337</v>
+      </c>
+      <c r="M28">
+        <v>16954</v>
+      </c>
+      <c r="N28">
+        <v>17240</v>
+      </c>
+      <c r="O28">
+        <v>17420</v>
+      </c>
+      <c r="P28">
+        <v>17520</v>
+      </c>
+      <c r="Q28">
+        <v>17370</v>
+      </c>
+      <c r="S28">
+        <v>630957</v>
+      </c>
+      <c r="T28">
+        <v>12950</v>
+      </c>
+      <c r="U28">
+        <v>12884</v>
+      </c>
+      <c r="V28">
+        <v>13033</v>
+      </c>
+      <c r="W28">
+        <v>12892</v>
+      </c>
+      <c r="X28">
+        <v>12920</v>
+      </c>
+      <c r="Y28">
+        <v>12932</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>1000000</v>
+      </c>
+      <c r="D29">
+        <v>22560</v>
+      </c>
+      <c r="E29">
+        <v>19067</v>
+      </c>
+      <c r="F29">
+        <v>87127</v>
+      </c>
+      <c r="G29">
+        <v>27688</v>
+      </c>
+      <c r="H29">
+        <v>20215</v>
+      </c>
+      <c r="K29">
+        <v>1000000</v>
+      </c>
+      <c r="L29">
+        <v>27258</v>
+      </c>
+      <c r="M29">
+        <v>27262</v>
+      </c>
+      <c r="N29">
+        <v>27578</v>
+      </c>
+      <c r="O29">
+        <v>27528</v>
+      </c>
+      <c r="P29">
+        <v>27714</v>
+      </c>
+      <c r="Q29">
+        <v>27771</v>
+      </c>
+      <c r="S29">
+        <v>1000000</v>
+      </c>
+      <c r="T29">
         <v>19983</v>
       </c>
-      <c r="U15">
+      <c r="U29">
         <v>20215</v>
       </c>
-      <c r="V15">
+      <c r="V29">
         <v>20167</v>
       </c>
-      <c r="W15">
+      <c r="W29">
         <v>20232</v>
       </c>
-      <c r="X15">
+      <c r="X29">
         <v>20113</v>
       </c>
-      <c r="Y15">
+      <c r="Y29">
         <v>20195</v>
       </c>
     </row>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +125,10 @@
   </si>
   <si>
     <t>JoinHybridThres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinNaive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1260,6 +1265,216 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-36C2-44C2-ACB4-35DD87667636}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybrid(worst)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$41:$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$41:$N$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.158999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.739000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>299.59800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D254-445A-A6B5-40AC88AE61A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinNaive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$41:$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$41:$O$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D254-445A-A6B5-40AC88AE61A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4409,7 +4624,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5178,7 +5392,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5286,7 +5499,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6244,7 +6456,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6356,7 +6567,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7314,7 +7524,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7422,7 +7631,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9196,7 +9404,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14332,15 +14539,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>112938</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14814,8 +15021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR67" sqref="AR67"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S75" sqref="S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14885,19 +15092,19 @@
         <v>0.85199999999999998</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:N3" si="0">K13/1000</f>
+        <f>K13/1000</f>
         <v>1.0740000000000001</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
+        <f>L13/1000</f>
         <v>0.95</v>
       </c>
       <c r="M3">
-        <f t="shared" si="0"/>
+        <f>M13/1000</f>
         <v>1.488</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
+        <f>N13/1000</f>
         <v>1.5780000000000001</v>
       </c>
     </row>
@@ -14918,23 +15125,23 @@
         <v>3000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:N9" si="1">J14/1000</f>
+        <f t="shared" ref="J4:N9" si="0">J14/1000</f>
         <v>0.97699999999999998</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2450000000000001</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.93300000000000005</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7569999999999999</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8440000000000001</v>
       </c>
     </row>
@@ -14955,23 +15162,23 @@
         <v>10000</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.26</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.698</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3260000000000001</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7850000000000001</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.1859999999999999</v>
       </c>
     </row>
@@ -14992,23 +15199,23 @@
         <v>30000</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.2429999999999999</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6219999999999999</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.407</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.7089999999999996</v>
       </c>
     </row>
@@ -15029,23 +15236,23 @@
         <v>100000</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.702</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.1820000000000004</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.367000000000001</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.318</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.978</v>
       </c>
     </row>
@@ -15066,23 +15273,23 @@
         <v>300000</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26.417999999999999</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21.741</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>66.328999999999994</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42.887</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49.536000000000001</v>
       </c>
       <c r="T8" t="s">
@@ -15112,23 +15319,23 @@
         <v>1000000</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>215.86199999999999</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>114.857</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>638.93700000000001</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>158.57400000000001</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>581.43299999999999</v>
       </c>
       <c r="R9" t="s">
@@ -15209,31 +15416,31 @@
         <v>0.01</v>
       </c>
       <c r="T10">
-        <f t="shared" ref="T10:Z13" si="2">T21/1000</f>
+        <f t="shared" ref="T10:Z13" si="1">T21/1000</f>
         <v>1.488</v>
       </c>
       <c r="U10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7569999999999999</v>
       </c>
       <c r="V10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.7850000000000001</v>
       </c>
       <c r="W10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.407</v>
       </c>
       <c r="X10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.318</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42.887</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>158.57400000000001</v>
       </c>
       <c r="AB10" t="s">
@@ -15271,27 +15478,27 @@
         <v>1.0980000000000001</v>
       </c>
       <c r="AN10">
-        <f t="shared" ref="AN10:AS10" si="3">AN17/1000</f>
+        <f t="shared" ref="AN10:AS10" si="2">AN17/1000</f>
         <v>1.234</v>
       </c>
       <c r="AO10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7709999999999999</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.3530000000000002</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.069</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21.521000000000001</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>104.18600000000001</v>
       </c>
     </row>
@@ -15300,31 +15507,31 @@
         <v>0.03</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5229999999999999</v>
       </c>
       <c r="U11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9219999999999999</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.9279999999999999</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.52</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.728999999999999</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45.061999999999998</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>163.31</v>
       </c>
       <c r="AC11">
@@ -15355,31 +15562,31 @@
         <v>100</v>
       </c>
       <c r="AM11">
-        <f t="shared" ref="AM11:AS12" si="4">AM18/1000</f>
+        <f t="shared" ref="AM11:AS12" si="3">AM18/1000</f>
         <v>1.1060000000000001</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.42</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.96</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.6669999999999998</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.7880000000000003</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24.132999999999999</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>115.616</v>
       </c>
     </row>
@@ -15406,31 +15613,31 @@
         <v>0.1</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6080000000000001</v>
       </c>
       <c r="U12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8420000000000001</v>
       </c>
       <c r="V12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.8530000000000002</v>
       </c>
       <c r="W12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0439999999999996</v>
       </c>
       <c r="X12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.77</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45.98</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>161.273</v>
       </c>
       <c r="AC12">
@@ -15461,27 +15668,27 @@
         <v>1000</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.208</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.522</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.5179999999999998</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.9390000000000001</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.2119999999999997</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42.78</v>
       </c>
     </row>
@@ -15508,31 +15715,31 @@
         <v>0.3</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5780000000000001</v>
       </c>
       <c r="U13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8440000000000001</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.1859999999999999</v>
       </c>
       <c r="W13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.7089999999999996</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.978</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49.536000000000001</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>581.43299999999999</v>
       </c>
       <c r="AC13">
@@ -15583,31 +15790,31 @@
         <v>1E-4</v>
       </c>
       <c r="T14">
-        <f t="shared" ref="T14:Z14" si="5">T25/1000</f>
+        <f t="shared" ref="T14:Z14" si="4">T25/1000</f>
         <v>1.3680000000000001</v>
       </c>
       <c r="U14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.58</v>
       </c>
       <c r="V14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.4870000000000001</v>
       </c>
       <c r="W14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.1769999999999996</v>
       </c>
       <c r="X14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12.875</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>41.465000000000003</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>147.39699999999999</v>
       </c>
     </row>
@@ -15634,31 +15841,31 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="T15">
-        <f t="shared" ref="T15:Z15" si="6">T26/1000</f>
+        <f t="shared" ref="T15:Z15" si="5">T26/1000</f>
         <v>1.31</v>
       </c>
       <c r="U15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5249999999999999</v>
       </c>
       <c r="V15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.4729999999999999</v>
       </c>
       <c r="W15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.0259999999999998</v>
       </c>
       <c r="X15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12.561999999999999</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>41.057000000000002</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>143.85599999999999</v>
       </c>
     </row>
@@ -15685,31 +15892,31 @@
         <v>1E-3</v>
       </c>
       <c r="T16">
-        <f t="shared" ref="T16:Z16" si="7">T27/1000</f>
+        <f t="shared" ref="T16:Z16" si="6">T27/1000</f>
         <v>1.3</v>
       </c>
       <c r="U16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.575</v>
       </c>
       <c r="V16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4670000000000001</v>
       </c>
       <c r="W16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.1859999999999999</v>
       </c>
       <c r="X16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12.603999999999999</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>42.302999999999997</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>142.495</v>
       </c>
       <c r="AM16">
@@ -15757,31 +15964,31 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="T17">
-        <f t="shared" ref="T17:Z17" si="8">T28/1000</f>
+        <f t="shared" ref="T17:Z17" si="7">T28/1000</f>
         <v>1.333</v>
       </c>
       <c r="U17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.5820000000000001</v>
       </c>
       <c r="V17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.4430000000000001</v>
       </c>
       <c r="W17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5.2539999999999996</v>
       </c>
       <c r="X17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>13.218</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>42.585000000000001</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>148.27000000000001</v>
       </c>
       <c r="AL17">
@@ -16164,6 +16371,9 @@
       <c r="N40" t="s">
         <v>11</v>
       </c>
+      <c r="O40" t="s">
+        <v>25</v>
+      </c>
       <c r="T40" t="s">
         <v>12</v>
       </c>
@@ -16185,24 +16395,28 @@
         <v>1000</v>
       </c>
       <c r="J41">
-        <f>J52/1000</f>
+        <f t="shared" ref="J41:O41" si="8">J52/1000</f>
         <v>0.221</v>
       </c>
       <c r="K41">
-        <f t="shared" ref="K41:N41" si="9">K52/1000</f>
+        <f t="shared" si="8"/>
         <v>0.33200000000000002</v>
       </c>
       <c r="L41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.24299999999999999</v>
       </c>
       <c r="M41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.2E-2</v>
       </c>
       <c r="N41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.32800000000000001</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="S41" t="s">
         <v>9</v>
@@ -16246,24 +16460,28 @@
         <v>3000</v>
       </c>
       <c r="J42">
-        <f t="shared" ref="J42:N47" si="10">J53/1000</f>
+        <f t="shared" ref="J42:N47" si="9">J53/1000</f>
         <v>0.48199999999999998</v>
       </c>
       <c r="K42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.42699999999999999</v>
       </c>
       <c r="L42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.54600000000000004</v>
       </c>
       <c r="M42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="N42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.91900000000000004</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:O47" si="10">O53/1000</f>
+        <v>0</v>
       </c>
       <c r="S42" t="s">
         <v>15</v>
@@ -16317,24 +16535,28 @@
         <v>10000</v>
       </c>
       <c r="J43">
+        <f t="shared" si="9"/>
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="9"/>
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="9"/>
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="9"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="9"/>
+        <v>2.9409999999999998</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="10"/>
-        <v>2.2770000000000001</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="10"/>
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="10"/>
-        <v>3.1080000000000001</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="10"/>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="10"/>
-        <v>2.9409999999999998</v>
+        <v>0</v>
       </c>
       <c r="T43">
         <v>0.03</v>
@@ -16385,24 +16607,28 @@
         <v>30000</v>
       </c>
       <c r="J44">
+        <f t="shared" si="9"/>
+        <v>16.196999999999999</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="9"/>
+        <v>2.5209999999999999</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="9"/>
+        <v>22.776</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="9"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="9"/>
+        <v>8.8650000000000002</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="10"/>
-        <v>16.196999999999999</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="10"/>
-        <v>2.5209999999999999</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="10"/>
-        <v>22.776</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="10"/>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="10"/>
-        <v>8.8650000000000002</v>
+        <v>0</v>
       </c>
       <c r="T44">
         <v>0.1</v>
@@ -16453,24 +16679,28 @@
         <v>100000</v>
       </c>
       <c r="J45">
+        <f t="shared" si="9"/>
+        <v>193.28700000000001</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="9"/>
+        <v>14.35</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="9"/>
+        <v>242.69</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="9"/>
+        <v>1.014</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="9"/>
+        <v>30.158999999999999</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="10"/>
-        <v>193.28700000000001</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="10"/>
-        <v>14.35</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="10"/>
-        <v>242.69</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="10"/>
-        <v>1.014</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="10"/>
-        <v>30.158999999999999</v>
+        <v>0</v>
       </c>
       <c r="T45">
         <v>0.3</v>
@@ -16512,24 +16742,28 @@
         <v>300000</v>
       </c>
       <c r="J46">
+        <f t="shared" si="9"/>
+        <v>1889.489</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="9"/>
+        <v>117.23099999999999</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="9"/>
+        <v>2272.8029999999999</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="9"/>
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="9"/>
+        <v>89.739000000000004</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="10"/>
-        <v>1889.489</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="10"/>
-        <v>117.23099999999999</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="10"/>
-        <v>2272.8029999999999</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="10"/>
-        <v>2.9950000000000001</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="10"/>
-        <v>89.739000000000004</v>
+        <v>0</v>
       </c>
       <c r="T46">
         <v>1E-4</v>
@@ -16571,24 +16805,28 @@
         <v>1000000</v>
       </c>
       <c r="J47">
+        <f t="shared" si="9"/>
+        <v>22096.137999999999</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="9"/>
+        <v>1204.366</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="9"/>
+        <v>29079.895</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="9"/>
+        <v>10.069000000000001</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="9"/>
+        <v>299.59800000000001</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="10"/>
-        <v>22096.137999999999</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="10"/>
-        <v>1204.366</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="10"/>
-        <v>29079.895</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="10"/>
-        <v>10.069000000000001</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="10"/>
-        <v>299.59800000000001</v>
+        <v>0</v>
       </c>
       <c r="T47">
         <v>2.9999999999999997E-4</v>
@@ -16706,6 +16944,9 @@
       </c>
       <c r="N51" t="s">
         <v>11</v>
+      </c>
+      <c r="O51" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="9:37" x14ac:dyDescent="0.3">
@@ -17391,7 +17632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
@@ -17464,73 +17705,73 @@
         <v>1.1819999999999999</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:H5" si="0">E19/1000</f>
+        <f>E19/1000</f>
         <v>1.4530000000000001</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f>F19/1000</f>
         <v>1.1739999999999999</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f>G19/1000</f>
         <v>1.851</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f>H19/1000</f>
         <v>1.371</v>
       </c>
       <c r="K5">
         <v>10000</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:Q5" si="1">L19/1000</f>
+        <f t="shared" ref="L5:Q5" si="0">L19/1000</f>
         <v>1.8149999999999999</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8620000000000001</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.81</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.81</v>
       </c>
       <c r="P5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.89</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.873</v>
       </c>
       <c r="S5">
         <v>10000</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:Y5" si="2">T19/1000</f>
+        <f t="shared" ref="T5:Y5" si="1">T19/1000</f>
         <v>1.4419999999999999</v>
       </c>
       <c r="U5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.371</v>
       </c>
       <c r="V5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.488</v>
       </c>
       <c r="W5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.4590000000000001</v>
       </c>
       <c r="X5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3959999999999999</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.339</v>
       </c>
     </row>
@@ -17539,77 +17780,77 @@
         <v>15848</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:H15" si="3">D20/1000</f>
+        <f t="shared" ref="D6:H15" si="2">D20/1000</f>
         <v>1.357</v>
       </c>
       <c r="E6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.506</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.458</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.04</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.641</v>
       </c>
       <c r="K6">
         <v>15848</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:Q6" si="4">L20/1000</f>
+        <f t="shared" ref="L6:Q6" si="3">L20/1000</f>
         <v>2.0529999999999999</v>
       </c>
       <c r="M6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.0169999999999999</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.9870000000000001</v>
       </c>
       <c r="O6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.0670000000000002</v>
       </c>
       <c r="P6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.0310000000000001</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.0459999999999998</v>
       </c>
       <c r="S6">
         <v>15848</v>
       </c>
       <c r="T6">
-        <f t="shared" ref="T6:Y6" si="5">T20/1000</f>
+        <f t="shared" ref="T6:Y6" si="4">T20/1000</f>
         <v>1.619</v>
       </c>
       <c r="U6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.641</v>
       </c>
       <c r="V6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.593</v>
       </c>
       <c r="W6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5680000000000001</v>
       </c>
       <c r="X6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.627</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6910000000000001</v>
       </c>
     </row>
@@ -17618,77 +17859,77 @@
         <v>25118</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4450000000000001</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7210000000000001</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4430000000000001</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.3929999999999998</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.794</v>
       </c>
       <c r="K7">
         <v>25118</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:Q7" si="6">L21/1000</f>
+        <f t="shared" ref="L7:Q7" si="5">L21/1000</f>
         <v>2.4390000000000001</v>
       </c>
       <c r="M7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.4140000000000001</v>
       </c>
       <c r="N7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.4710000000000001</v>
       </c>
       <c r="O7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.536</v>
       </c>
       <c r="P7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.399</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.5259999999999998</v>
       </c>
       <c r="S7">
         <v>25118</v>
       </c>
       <c r="T7">
-        <f t="shared" ref="T7:Y7" si="7">T21/1000</f>
+        <f t="shared" ref="T7:Y7" si="6">T21/1000</f>
         <v>1.8740000000000001</v>
       </c>
       <c r="U7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.794</v>
       </c>
       <c r="V7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.8120000000000001</v>
       </c>
       <c r="W7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.806</v>
       </c>
       <c r="X7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.8129999999999999</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.8660000000000001</v>
       </c>
     </row>
@@ -17697,77 +17938,77 @@
         <v>39810</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7290000000000001</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.1230000000000002</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7529999999999999</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.8809999999999998</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.1930000000000001</v>
       </c>
       <c r="K8">
         <v>39810</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:Q8" si="8">L22/1000</f>
+        <f t="shared" ref="L8:Q8" si="7">L22/1000</f>
         <v>2.9820000000000002</v>
       </c>
       <c r="M8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.95</v>
       </c>
       <c r="N8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.746</v>
       </c>
       <c r="O8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.7559999999999998</v>
       </c>
       <c r="P8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.863</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.99</v>
       </c>
       <c r="S8">
         <v>39810</v>
       </c>
       <c r="T8">
-        <f t="shared" ref="T8:Y8" si="9">T22/1000</f>
+        <f t="shared" ref="T8:Y8" si="8">T22/1000</f>
         <v>2.21</v>
       </c>
       <c r="U8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.1930000000000001</v>
       </c>
       <c r="V8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.262</v>
       </c>
       <c r="W8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.1469999999999998</v>
       </c>
       <c r="X8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.2879999999999998</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.2130000000000001</v>
       </c>
     </row>
@@ -17776,77 +18017,77 @@
         <v>63095</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.16</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.6560000000000001</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.4820000000000002</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.379</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.758</v>
       </c>
       <c r="K9">
         <v>63095</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:Q9" si="10">L23/1000</f>
+        <f t="shared" ref="L9:Q9" si="9">L23/1000</f>
         <v>3.6520000000000001</v>
       </c>
       <c r="M9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.3210000000000002</v>
       </c>
       <c r="N9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.3530000000000002</v>
       </c>
       <c r="O9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.2429999999999999</v>
       </c>
       <c r="P9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.4359999999999999</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.53</v>
       </c>
       <c r="S9">
         <v>63095</v>
       </c>
       <c r="T9">
-        <f t="shared" ref="T9:Y9" si="11">T23/1000</f>
+        <f t="shared" ref="T9:Y9" si="10">T23/1000</f>
         <v>2.71</v>
       </c>
       <c r="U9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.758</v>
       </c>
       <c r="V9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.593</v>
       </c>
       <c r="W9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.6680000000000001</v>
       </c>
       <c r="X9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.6970000000000001</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.5830000000000002</v>
       </c>
     </row>
@@ -17855,77 +18096,77 @@
         <v>100000</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5979999999999999</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.1429999999999998</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.2639999999999998</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.8159999999999998</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.3410000000000002</v>
       </c>
       <c r="K10">
         <v>100000</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:Q10" si="12">L24/1000</f>
+        <f t="shared" ref="L10:Q10" si="11">L24/1000</f>
         <v>4.399</v>
       </c>
       <c r="M10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.4800000000000004</v>
       </c>
       <c r="N10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.5979999999999999</v>
       </c>
       <c r="O10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.4279999999999999</v>
       </c>
       <c r="P10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.4320000000000004</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.9089999999999998</v>
       </c>
       <c r="S10">
         <v>100000</v>
       </c>
       <c r="T10">
-        <f t="shared" ref="T10:Y10" si="13">T24/1000</f>
+        <f t="shared" ref="T10:Y10" si="12">T24/1000</f>
         <v>3.4620000000000002</v>
       </c>
       <c r="U10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.3410000000000002</v>
       </c>
       <c r="V10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.302</v>
       </c>
       <c r="W10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.1880000000000002</v>
       </c>
       <c r="X10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.3290000000000002</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.1890000000000001</v>
       </c>
     </row>
@@ -17934,77 +18175,77 @@
         <v>158489</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.653</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.4980000000000002</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.2560000000000002</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.2290000000000001</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.6749999999999998</v>
       </c>
       <c r="K11">
         <v>158489</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:Q11" si="14">L25/1000</f>
+        <f t="shared" ref="L11:Q11" si="13">L25/1000</f>
         <v>5.5389999999999997</v>
       </c>
       <c r="M11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.8710000000000004</v>
       </c>
       <c r="N11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>6.3</v>
       </c>
       <c r="O11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.7560000000000002</v>
       </c>
       <c r="P11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.7130000000000001</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>6.1829999999999998</v>
       </c>
       <c r="S11">
         <v>158489</v>
       </c>
       <c r="T11">
-        <f t="shared" ref="T11:Y11" si="15">T25/1000</f>
+        <f t="shared" ref="T11:Y11" si="14">T25/1000</f>
         <v>4.6440000000000001</v>
       </c>
       <c r="U11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>4.6749999999999998</v>
       </c>
       <c r="V11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>4.7169999999999996</v>
       </c>
       <c r="W11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>4.4160000000000004</v>
       </c>
       <c r="X11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>4.6820000000000004</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>4.5990000000000002</v>
       </c>
     </row>
@@ -18013,77 +18254,77 @@
         <v>251188</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0229999999999997</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4429999999999996</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.9239999999999995</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.2569999999999997</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0529999999999999</v>
       </c>
       <c r="K12">
         <v>251188</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:Q12" si="16">L26/1000</f>
+        <f t="shared" ref="L12:Q12" si="15">L26/1000</f>
         <v>8.7789999999999999</v>
       </c>
       <c r="M12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>8.34</v>
       </c>
       <c r="N12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>9.234</v>
       </c>
       <c r="O12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>8.609</v>
       </c>
       <c r="P12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>8.5909999999999993</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>9.0839999999999996</v>
       </c>
       <c r="S12">
         <v>251188</v>
       </c>
       <c r="T12">
-        <f t="shared" ref="T12:Y12" si="17">T26/1000</f>
+        <f t="shared" ref="T12:Y12" si="16">T26/1000</f>
         <v>5.91</v>
       </c>
       <c r="U12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6.0529999999999999</v>
       </c>
       <c r="V12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6.0789999999999997</v>
       </c>
       <c r="W12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6.34</v>
       </c>
       <c r="X12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5.7789999999999999</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6.1139999999999999</v>
       </c>
     </row>
@@ -18092,77 +18333,77 @@
         <v>398107</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.883</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.6690000000000005</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17.606000000000002</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12.157</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.7590000000000003</v>
       </c>
       <c r="K13">
         <v>398107</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:Q13" si="18">L27/1000</f>
+        <f t="shared" ref="L13:Q13" si="17">L27/1000</f>
         <v>12.002000000000001</v>
       </c>
       <c r="M13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>12.35</v>
       </c>
       <c r="N13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>12.773</v>
       </c>
       <c r="O13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>12.586</v>
       </c>
       <c r="P13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>12.079000000000001</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>12.125</v>
       </c>
       <c r="S13">
         <v>398107</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:Y13" si="19">T27/1000</f>
+        <f t="shared" ref="T13:Y13" si="18">T27/1000</f>
         <v>9.2070000000000007</v>
       </c>
       <c r="U13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>8.7590000000000003</v>
       </c>
       <c r="V13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>8.9469999999999992</v>
       </c>
       <c r="W13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>8.8620000000000001</v>
       </c>
       <c r="X13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>8.8510000000000009</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>8.7989999999999995</v>
       </c>
     </row>
@@ -18171,77 +18412,77 @@
         <v>630957</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12.468999999999999</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12.114000000000001</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38.436</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16.963000000000001</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12.884</v>
       </c>
       <c r="K14">
         <v>630957</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:Q14" si="20">L28/1000</f>
+        <f t="shared" ref="L14:Q14" si="19">L28/1000</f>
         <v>17.337</v>
       </c>
       <c r="M14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>16.954000000000001</v>
       </c>
       <c r="N14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>17.239999999999998</v>
       </c>
       <c r="O14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>17.420000000000002</v>
       </c>
       <c r="P14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>17.52</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>17.37</v>
       </c>
       <c r="S14">
         <v>630957</v>
       </c>
       <c r="T14">
-        <f t="shared" ref="T14:Y14" si="21">T28/1000</f>
+        <f t="shared" ref="T14:Y14" si="20">T28/1000</f>
         <v>12.95</v>
       </c>
       <c r="U14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>12.884</v>
       </c>
       <c r="V14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>13.032999999999999</v>
       </c>
       <c r="W14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>12.891999999999999</v>
       </c>
       <c r="X14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>12.92</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>12.932</v>
       </c>
     </row>
@@ -18250,77 +18491,77 @@
         <v>1000000</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22.56</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19.067</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>87.126999999999995</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27.687999999999999</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20.215</v>
       </c>
       <c r="K15">
         <v>1000000</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:Q15" si="22">L29/1000</f>
+        <f t="shared" ref="L15:Q15" si="21">L29/1000</f>
         <v>27.257999999999999</v>
       </c>
       <c r="M15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>27.262</v>
       </c>
       <c r="N15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>27.577999999999999</v>
       </c>
       <c r="O15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>27.527999999999999</v>
       </c>
       <c r="P15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>27.713999999999999</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>27.771000000000001</v>
       </c>
       <c r="S15">
         <v>1000000</v>
       </c>
       <c r="T15">
-        <f t="shared" ref="T15:Y15" si="23">T29/1000</f>
+        <f t="shared" ref="T15:Y15" si="22">T29/1000</f>
         <v>19.983000000000001</v>
       </c>
       <c r="U15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>20.215</v>
       </c>
       <c r="V15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>20.167000000000002</v>
       </c>
       <c r="W15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>20.231999999999999</v>
       </c>
       <c r="X15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>20.113</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>20.195</v>
       </c>
     </row>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="AOL_Sample" sheetId="2" r:id="rId2"/>
+    <sheet name="USPS_Sample" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,6 +692,4984 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="158970671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$Q$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$Q$14:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7788</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62953</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>349363</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>873217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C92-47DA-9BD4-584DB706E0FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$R$14:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14344</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27850</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145812</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>352313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>877386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C92-47DA-9BD4-584DB706E0FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$S$14:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3786</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7806</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>143742</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>347940</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>878847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C92-47DA-9BD4-584DB706E0FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$T$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$T$14:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7081</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>869331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3C92-47DA-9BD4-584DB706E0FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$U$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$U$14:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27977</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350511</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>875582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3C92-47DA-9BD4-584DB706E0FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$V$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$V$14:$V$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27853</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65066</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>146052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>354056</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>876602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3C92-47DA-9BD4-584DB706E0FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="575819328"/>
+        <c:axId val="575820160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="575819328"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575820160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="575820160"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575819328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$Y$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$X$14:$X$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$Y$14:$Y$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10962</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>321615</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>822343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8109-4059-A467-6DF698AC0953}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$Z$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$X$14:$X$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$Z$14:$Z$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33029</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74843</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>438287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8109-4059-A467-6DF698AC0953}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$AA$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$X$14:$X$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AA$14:$AA$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3489</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7572</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18478</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30342</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8109-4059-A467-6DF698AC0953}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$AB$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$X$14:$X$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AB$14:$AB$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18534</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29824</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8109-4059-A467-6DF698AC0953}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$AC$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$X$14:$X$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AC$14:$AC$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29754</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8109-4059-A467-6DF698AC0953}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$AD$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$X$14:$X$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AD$14:$AD$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2514</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3555</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4907</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18426</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29754</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8109-4059-A467-6DF698AC0953}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="757490736"/>
+        <c:axId val="757482000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="757490736"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="757482000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="757482000"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="757490736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$Q$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$Q$14:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7788</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62953</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>349363</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>873217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63E0-475F-A979-8B5FB90D5D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$R$14:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14344</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27850</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145812</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>352313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>877386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63E0-475F-A979-8B5FB90D5D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$S$14:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3786</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7806</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>143742</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>347940</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>878847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-63E0-475F-A979-8B5FB90D5D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$T$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$T$14:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7081</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>869331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-63E0-475F-A979-8B5FB90D5D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$U$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$U$14:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27977</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350511</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>875582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-63E0-475F-A979-8B5FB90D5D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$V$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$V$14:$V$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27853</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65066</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>146052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>354056</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>876602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-63E0-475F-A979-8B5FB90D5D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$Y$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$Y$14:$Y$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10962</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>321615</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>822343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-63E0-475F-A979-8B5FB90D5D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$Z$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$Z$14:$Z$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33029</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74843</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>438287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-63E0-475F-A979-8B5FB90D5D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$AA$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AA$14:$AA$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3489</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7572</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18478</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30342</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-63E0-475F-A979-8B5FB90D5D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$AB$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AB$14:$AB$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18534</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29824</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-63E0-475F-A979-8B5FB90D5D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$AC$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AC$14:$AC$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29754</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-63E0-475F-A979-8B5FB90D5D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$AD$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AD$14:$AD$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2514</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3555</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4907</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18426</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29754</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-63E0-475F-A979-8B5FB90D5D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="613933072"/>
+        <c:axId val="613938896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="613933072"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613938896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="613938896"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613933072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$F$14:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2746</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82917</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>213328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>555887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1408840</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3457405</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8671151</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22241199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC9A-484E-B640-72E85C7D5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$G$14:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2393</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81532</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>199406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>492949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1214990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC9A-484E-B640-72E85C7D5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIJoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$H$14:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>257335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>669567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1752369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4614251</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11857958</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32204405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FC9A-484E-B640-72E85C7D5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybrid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$I$14:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7081</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>869331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FC9A-484E-B640-72E85C7D5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybridThres</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$J$14:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3489</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7572</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18478</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30342</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FC9A-484E-B640-72E85C7D5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinNaive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$K$14:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9632</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14920</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FC9A-484E-B640-72E85C7D5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="757480752"/>
+        <c:axId val="757477424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="757480752"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="757477424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="757477424"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="757480752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4624,6 +9602,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4664,7 +9643,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$4</c:f>
+              <c:f>AOL_Sample!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4687,7 +9666,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$5:$C$15</c:f>
+              <c:f>AOL_Sample!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4729,7 +9708,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$5:$D$15</c:f>
+              <c:f>AOL_Sample!$D$5:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4781,7 +9760,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$4</c:f>
+              <c:f>AOL_Sample!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4804,7 +9783,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$5:$C$15</c:f>
+              <c:f>AOL_Sample!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4846,7 +9825,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$5:$E$15</c:f>
+              <c:f>AOL_Sample!$E$5:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4898,7 +9877,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$4</c:f>
+              <c:f>AOL_Sample!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4921,7 +9900,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$5:$C$15</c:f>
+              <c:f>AOL_Sample!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4963,7 +9942,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$5:$F$15</c:f>
+              <c:f>AOL_Sample!$F$5:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5015,7 +9994,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$4</c:f>
+              <c:f>AOL_Sample!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5038,7 +10017,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$5:$C$15</c:f>
+              <c:f>AOL_Sample!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5080,7 +10059,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$5:$G$15</c:f>
+              <c:f>AOL_Sample!$G$5:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5132,7 +10111,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$H$4</c:f>
+              <c:f>AOL_Sample!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5155,7 +10134,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$5:$C$15</c:f>
+              <c:f>AOL_Sample!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5197,7 +10176,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$5:$H$15</c:f>
+              <c:f>AOL_Sample!$H$5:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5392,6 +10371,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5499,6 +10479,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5539,7 +10520,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$L$4</c:f>
+              <c:f>AOL_Sample!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5574,7 +10555,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5616,7 +10597,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$L$5:$L$15</c:f>
+              <c:f>AOL_Sample!$L$5:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5668,7 +10649,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$M$4</c:f>
+              <c:f>AOL_Sample!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5703,7 +10684,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5745,7 +10726,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$5:$M$15</c:f>
+              <c:f>AOL_Sample!$M$5:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5797,7 +10778,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$N$4</c:f>
+              <c:f>AOL_Sample!$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5832,7 +10813,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5874,7 +10855,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$N$5:$N$15</c:f>
+              <c:f>AOL_Sample!$N$5:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5926,7 +10907,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$O$4</c:f>
+              <c:f>AOL_Sample!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5961,7 +10942,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6003,7 +10984,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$O$5:$O$15</c:f>
+              <c:f>AOL_Sample!$O$5:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6055,7 +11036,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$P$4</c:f>
+              <c:f>AOL_Sample!$P$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6090,7 +11071,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6132,7 +11113,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$P$5:$P$15</c:f>
+              <c:f>AOL_Sample!$P$5:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6184,7 +11165,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$Q$4</c:f>
+              <c:f>AOL_Sample!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6219,7 +11200,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6261,7 +11242,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Q$5:$Q$15</c:f>
+              <c:f>AOL_Sample!$Q$5:$Q$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6456,6 +11437,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6567,6 +11549,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6607,7 +11590,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$T$4</c:f>
+              <c:f>AOL_Sample!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6642,7 +11625,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$S$5:$S$15</c:f>
+              <c:f>AOL_Sample!$S$5:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6684,7 +11667,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$T$5:$T$15</c:f>
+              <c:f>AOL_Sample!$T$5:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6736,7 +11719,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$U$4</c:f>
+              <c:f>AOL_Sample!$U$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6771,7 +11754,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$S$5:$S$15</c:f>
+              <c:f>AOL_Sample!$S$5:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6813,7 +11796,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$U$5:$U$15</c:f>
+              <c:f>AOL_Sample!$U$5:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6865,7 +11848,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$V$4</c:f>
+              <c:f>AOL_Sample!$V$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6900,7 +11883,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$S$5:$S$15</c:f>
+              <c:f>AOL_Sample!$S$5:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6942,7 +11925,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$V$5:$V$15</c:f>
+              <c:f>AOL_Sample!$V$5:$V$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6994,7 +11977,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$W$4</c:f>
+              <c:f>AOL_Sample!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7029,7 +12012,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$S$5:$S$15</c:f>
+              <c:f>AOL_Sample!$S$5:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7071,7 +12054,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$W$5:$W$15</c:f>
+              <c:f>AOL_Sample!$W$5:$W$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7123,7 +12106,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$X$4</c:f>
+              <c:f>AOL_Sample!$X$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7158,7 +12141,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$S$5:$S$15</c:f>
+              <c:f>AOL_Sample!$S$5:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7200,7 +12183,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$X$5:$X$15</c:f>
+              <c:f>AOL_Sample!$X$5:$X$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7252,7 +12235,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$Y$4</c:f>
+              <c:f>AOL_Sample!$Y$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7287,7 +12270,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$S$5:$S$15</c:f>
+              <c:f>AOL_Sample!$S$5:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7329,7 +12312,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Y$5:$Y$15</c:f>
+              <c:f>AOL_Sample!$Y$5:$Y$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7524,6 +12507,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7631,6 +12615,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7671,7 +12656,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$L$4</c:f>
+              <c:f>AOL_Sample!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7706,7 +12691,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7748,7 +12733,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$L$5:$L$15</c:f>
+              <c:f>AOL_Sample!$L$5:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7800,7 +12785,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$M$4</c:f>
+              <c:f>AOL_Sample!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7835,7 +12820,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7877,7 +12862,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$5:$M$15</c:f>
+              <c:f>AOL_Sample!$M$5:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7929,7 +12914,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$N$4</c:f>
+              <c:f>AOL_Sample!$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7964,7 +12949,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8006,7 +12991,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$N$5:$N$15</c:f>
+              <c:f>AOL_Sample!$N$5:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8058,7 +13043,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$O$4</c:f>
+              <c:f>AOL_Sample!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8093,7 +13078,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8135,7 +13120,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$O$5:$O$15</c:f>
+              <c:f>AOL_Sample!$O$5:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8187,7 +13172,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$P$4</c:f>
+              <c:f>AOL_Sample!$P$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8222,7 +13207,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8264,7 +13249,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$P$5:$P$15</c:f>
+              <c:f>AOL_Sample!$P$5:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8316,7 +13301,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$Q$4</c:f>
+              <c:f>AOL_Sample!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8351,7 +13336,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8393,7 +13378,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Q$5:$Q$15</c:f>
+              <c:f>AOL_Sample!$Q$5:$Q$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8445,7 +13430,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$T$4</c:f>
+              <c:f>AOL_Sample!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8486,7 +13471,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8528,7 +13513,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$T$5:$T$15</c:f>
+              <c:f>AOL_Sample!$T$5:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8580,7 +13565,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$U$4</c:f>
+              <c:f>AOL_Sample!$U$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8621,7 +13606,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8663,7 +13648,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$U$5:$U$15</c:f>
+              <c:f>AOL_Sample!$U$5:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8715,7 +13700,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$V$4</c:f>
+              <c:f>AOL_Sample!$V$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8756,7 +13741,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8798,7 +13783,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$V$5:$V$15</c:f>
+              <c:f>AOL_Sample!$V$5:$V$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8850,7 +13835,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$W$4</c:f>
+              <c:f>AOL_Sample!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8891,7 +13876,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8933,7 +13918,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$W$5:$W$15</c:f>
+              <c:f>AOL_Sample!$W$5:$W$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8985,7 +13970,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$X$4</c:f>
+              <c:f>AOL_Sample!$X$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9029,7 +14014,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9071,7 +14056,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$X$5:$X$15</c:f>
+              <c:f>AOL_Sample!$X$5:$X$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9123,7 +14108,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$Y$4</c:f>
+              <c:f>AOL_Sample!$Y$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9167,7 +14152,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$15</c:f>
+              <c:f>AOL_Sample!$K$5:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9209,7 +14194,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Y$5:$Y$15</c:f>
+              <c:f>AOL_Sample!$Y$5:$Y$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9404,6 +14389,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9471,6 +14457,166 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10346,6 +15492,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -14756,6 +21966,131 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>74840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>93889</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>494619</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>78922</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>224518</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34018</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>346981</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156481</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>201386</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -15021,7 +22356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S75" sqref="S75"/>
     </sheetView>
   </sheetViews>
@@ -17632,8 +24967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19305,4 +26640,792 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E13:AD24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="13" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13">
+        <v>1E-4</v>
+      </c>
+      <c r="R13">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="S13">
+        <v>1E-3</v>
+      </c>
+      <c r="T13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="U13">
+        <v>0.01</v>
+      </c>
+      <c r="V13">
+        <v>0.03</v>
+      </c>
+      <c r="Y13">
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <v>10</v>
+      </c>
+      <c r="AA13">
+        <v>30</v>
+      </c>
+      <c r="AB13">
+        <v>100</v>
+      </c>
+      <c r="AC13">
+        <v>300</v>
+      </c>
+      <c r="AD13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>10000</v>
+      </c>
+      <c r="F14">
+        <v>2746</v>
+      </c>
+      <c r="G14">
+        <v>947</v>
+      </c>
+      <c r="H14">
+        <v>3271</v>
+      </c>
+      <c r="I14">
+        <v>1260</v>
+      </c>
+      <c r="J14">
+        <v>947</v>
+      </c>
+      <c r="K14">
+        <v>649</v>
+      </c>
+      <c r="P14">
+        <v>10000</v>
+      </c>
+      <c r="Q14">
+        <v>1947</v>
+      </c>
+      <c r="R14">
+        <v>1821</v>
+      </c>
+      <c r="S14">
+        <v>1276</v>
+      </c>
+      <c r="T14">
+        <v>1260</v>
+      </c>
+      <c r="U14">
+        <v>1362</v>
+      </c>
+      <c r="V14">
+        <v>2008</v>
+      </c>
+      <c r="X14">
+        <v>10000</v>
+      </c>
+      <c r="Y14">
+        <v>847</v>
+      </c>
+      <c r="Z14">
+        <v>944</v>
+      </c>
+      <c r="AA14">
+        <v>947</v>
+      </c>
+      <c r="AB14">
+        <v>917</v>
+      </c>
+      <c r="AC14">
+        <v>1002</v>
+      </c>
+      <c r="AD14">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="15" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>15848</v>
+      </c>
+      <c r="F15">
+        <v>5404</v>
+      </c>
+      <c r="G15">
+        <v>1527</v>
+      </c>
+      <c r="H15">
+        <v>7173</v>
+      </c>
+      <c r="I15">
+        <v>2596</v>
+      </c>
+      <c r="J15">
+        <v>1238</v>
+      </c>
+      <c r="K15">
+        <v>759</v>
+      </c>
+      <c r="P15">
+        <v>15848</v>
+      </c>
+      <c r="Q15">
+        <v>3433</v>
+      </c>
+      <c r="R15">
+        <v>3062</v>
+      </c>
+      <c r="S15">
+        <v>2652</v>
+      </c>
+      <c r="T15">
+        <v>2596</v>
+      </c>
+      <c r="U15">
+        <v>1862</v>
+      </c>
+      <c r="V15">
+        <v>2001</v>
+      </c>
+      <c r="X15">
+        <v>15848</v>
+      </c>
+      <c r="Y15">
+        <v>1338</v>
+      </c>
+      <c r="Z15">
+        <v>1479</v>
+      </c>
+      <c r="AA15">
+        <v>1238</v>
+      </c>
+      <c r="AB15">
+        <v>1285</v>
+      </c>
+      <c r="AC15">
+        <v>1335</v>
+      </c>
+      <c r="AD15">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="16" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>25118</v>
+      </c>
+      <c r="F16">
+        <v>12326</v>
+      </c>
+      <c r="G16">
+        <v>2393</v>
+      </c>
+      <c r="H16">
+        <v>16642</v>
+      </c>
+      <c r="I16">
+        <v>2717</v>
+      </c>
+      <c r="J16">
+        <v>1684</v>
+      </c>
+      <c r="K16">
+        <v>994</v>
+      </c>
+      <c r="P16">
+        <v>25118</v>
+      </c>
+      <c r="Q16">
+        <v>3813</v>
+      </c>
+      <c r="R16">
+        <v>2769</v>
+      </c>
+      <c r="S16">
+        <v>3786</v>
+      </c>
+      <c r="T16">
+        <v>2717</v>
+      </c>
+      <c r="U16">
+        <v>3017</v>
+      </c>
+      <c r="V16">
+        <v>2778</v>
+      </c>
+      <c r="X16">
+        <v>25118</v>
+      </c>
+      <c r="Y16">
+        <v>1830</v>
+      </c>
+      <c r="Z16">
+        <v>2139</v>
+      </c>
+      <c r="AA16">
+        <v>1684</v>
+      </c>
+      <c r="AB16">
+        <v>1749</v>
+      </c>
+      <c r="AC16">
+        <v>1741</v>
+      </c>
+      <c r="AD16">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="17" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>39810</v>
+      </c>
+      <c r="F17">
+        <v>33166</v>
+      </c>
+      <c r="G17">
+        <v>4067</v>
+      </c>
+      <c r="H17">
+        <v>41702</v>
+      </c>
+      <c r="I17">
+        <v>5407</v>
+      </c>
+      <c r="J17">
+        <v>2471</v>
+      </c>
+      <c r="K17">
+        <v>1341</v>
+      </c>
+      <c r="P17">
+        <v>39810</v>
+      </c>
+      <c r="Q17">
+        <v>4716</v>
+      </c>
+      <c r="R17">
+        <v>5474</v>
+      </c>
+      <c r="S17">
+        <v>5214</v>
+      </c>
+      <c r="T17">
+        <v>5407</v>
+      </c>
+      <c r="U17">
+        <v>4979</v>
+      </c>
+      <c r="V17">
+        <v>6675</v>
+      </c>
+      <c r="X17">
+        <v>39810</v>
+      </c>
+      <c r="Y17">
+        <v>3410</v>
+      </c>
+      <c r="Z17">
+        <v>3223</v>
+      </c>
+      <c r="AA17">
+        <v>2471</v>
+      </c>
+      <c r="AB17">
+        <v>2417</v>
+      </c>
+      <c r="AC17">
+        <v>2456</v>
+      </c>
+      <c r="AD17">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="18" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>63095</v>
+      </c>
+      <c r="F18">
+        <v>82917</v>
+      </c>
+      <c r="G18">
+        <v>7399</v>
+      </c>
+      <c r="H18">
+        <v>100428</v>
+      </c>
+      <c r="I18">
+        <v>7081</v>
+      </c>
+      <c r="J18">
+        <v>3489</v>
+      </c>
+      <c r="K18">
+        <v>1954</v>
+      </c>
+      <c r="P18">
+        <v>63095</v>
+      </c>
+      <c r="Q18">
+        <v>7788</v>
+      </c>
+      <c r="R18">
+        <v>7506</v>
+      </c>
+      <c r="S18">
+        <v>7806</v>
+      </c>
+      <c r="T18">
+        <v>7081</v>
+      </c>
+      <c r="U18">
+        <v>7156</v>
+      </c>
+      <c r="V18">
+        <v>8121</v>
+      </c>
+      <c r="X18">
+        <v>63095</v>
+      </c>
+      <c r="Y18">
+        <v>5412</v>
+      </c>
+      <c r="Z18">
+        <v>5026</v>
+      </c>
+      <c r="AA18">
+        <v>3489</v>
+      </c>
+      <c r="AB18">
+        <v>3335</v>
+      </c>
+      <c r="AC18">
+        <v>3365</v>
+      </c>
+      <c r="AD18">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="19" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>100000</v>
+      </c>
+      <c r="F19">
+        <v>213328</v>
+      </c>
+      <c r="G19">
+        <v>18407</v>
+      </c>
+      <c r="H19">
+        <v>257335</v>
+      </c>
+      <c r="I19">
+        <v>14668</v>
+      </c>
+      <c r="J19">
+        <v>5046</v>
+      </c>
+      <c r="K19">
+        <v>2667</v>
+      </c>
+      <c r="P19">
+        <v>100000</v>
+      </c>
+      <c r="Q19">
+        <v>14152</v>
+      </c>
+      <c r="R19">
+        <v>14344</v>
+      </c>
+      <c r="S19">
+        <v>14252</v>
+      </c>
+      <c r="T19">
+        <v>14668</v>
+      </c>
+      <c r="U19">
+        <v>14136</v>
+      </c>
+      <c r="V19">
+        <v>14723</v>
+      </c>
+      <c r="X19">
+        <v>100000</v>
+      </c>
+      <c r="Y19">
+        <v>10962</v>
+      </c>
+      <c r="Z19">
+        <v>8011</v>
+      </c>
+      <c r="AA19">
+        <v>5046</v>
+      </c>
+      <c r="AB19">
+        <v>5023</v>
+      </c>
+      <c r="AC19">
+        <v>5051</v>
+      </c>
+      <c r="AD19">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="20" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>158489</v>
+      </c>
+      <c r="F20">
+        <v>555887</v>
+      </c>
+      <c r="G20">
+        <v>35680</v>
+      </c>
+      <c r="H20">
+        <v>669567</v>
+      </c>
+      <c r="I20">
+        <v>28039</v>
+      </c>
+      <c r="J20">
+        <v>7572</v>
+      </c>
+      <c r="K20">
+        <v>3927</v>
+      </c>
+      <c r="P20">
+        <v>158489</v>
+      </c>
+      <c r="Q20">
+        <v>27737</v>
+      </c>
+      <c r="R20">
+        <v>27850</v>
+      </c>
+      <c r="S20">
+        <v>28857</v>
+      </c>
+      <c r="T20">
+        <v>28039</v>
+      </c>
+      <c r="U20">
+        <v>27977</v>
+      </c>
+      <c r="V20">
+        <v>27853</v>
+      </c>
+      <c r="X20">
+        <v>158489</v>
+      </c>
+      <c r="Y20">
+        <v>23679</v>
+      </c>
+      <c r="Z20">
+        <v>15561</v>
+      </c>
+      <c r="AA20">
+        <v>7572</v>
+      </c>
+      <c r="AB20">
+        <v>7529</v>
+      </c>
+      <c r="AC20">
+        <v>7559</v>
+      </c>
+      <c r="AD20">
+        <v>7517</v>
+      </c>
+    </row>
+    <row r="21" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>251188</v>
+      </c>
+      <c r="F21">
+        <v>1408840</v>
+      </c>
+      <c r="G21">
+        <v>81532</v>
+      </c>
+      <c r="H21">
+        <v>1752369</v>
+      </c>
+      <c r="I21">
+        <v>63723</v>
+      </c>
+      <c r="J21">
+        <v>11738</v>
+      </c>
+      <c r="K21">
+        <v>6278</v>
+      </c>
+      <c r="P21">
+        <v>251188</v>
+      </c>
+      <c r="Q21">
+        <v>62953</v>
+      </c>
+      <c r="R21">
+        <v>63249</v>
+      </c>
+      <c r="S21">
+        <v>64191</v>
+      </c>
+      <c r="T21">
+        <v>63723</v>
+      </c>
+      <c r="U21">
+        <v>63396</v>
+      </c>
+      <c r="V21">
+        <v>65066</v>
+      </c>
+      <c r="X21">
+        <v>251188</v>
+      </c>
+      <c r="Y21">
+        <v>54626</v>
+      </c>
+      <c r="Z21">
+        <v>33029</v>
+      </c>
+      <c r="AA21">
+        <v>11738</v>
+      </c>
+      <c r="AB21">
+        <v>11668</v>
+      </c>
+      <c r="AC21">
+        <v>11771</v>
+      </c>
+      <c r="AD21">
+        <v>11701</v>
+      </c>
+    </row>
+    <row r="22" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>398107</v>
+      </c>
+      <c r="F22">
+        <v>3457405</v>
+      </c>
+      <c r="G22">
+        <v>199406</v>
+      </c>
+      <c r="H22">
+        <v>4614251</v>
+      </c>
+      <c r="I22">
+        <v>145457</v>
+      </c>
+      <c r="J22">
+        <v>18478</v>
+      </c>
+      <c r="K22">
+        <v>9632</v>
+      </c>
+      <c r="P22">
+        <v>398107</v>
+      </c>
+      <c r="Q22">
+        <v>145443</v>
+      </c>
+      <c r="R22">
+        <v>145812</v>
+      </c>
+      <c r="S22">
+        <v>143742</v>
+      </c>
+      <c r="T22">
+        <v>145457</v>
+      </c>
+      <c r="U22">
+        <v>147303</v>
+      </c>
+      <c r="V22">
+        <v>146052</v>
+      </c>
+      <c r="X22">
+        <v>398107</v>
+      </c>
+      <c r="Y22">
+        <v>131321</v>
+      </c>
+      <c r="Z22">
+        <v>74843</v>
+      </c>
+      <c r="AA22">
+        <v>18478</v>
+      </c>
+      <c r="AB22">
+        <v>18534</v>
+      </c>
+      <c r="AC22">
+        <v>18154</v>
+      </c>
+      <c r="AD22">
+        <v>18426</v>
+      </c>
+    </row>
+    <row r="23" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>630957</v>
+      </c>
+      <c r="F23">
+        <v>8671151</v>
+      </c>
+      <c r="G23">
+        <v>492949</v>
+      </c>
+      <c r="H23">
+        <v>11857958</v>
+      </c>
+      <c r="I23">
+        <v>350185</v>
+      </c>
+      <c r="J23">
+        <v>30342</v>
+      </c>
+      <c r="K23">
+        <v>14920</v>
+      </c>
+      <c r="P23">
+        <v>630957</v>
+      </c>
+      <c r="Q23">
+        <v>349363</v>
+      </c>
+      <c r="R23">
+        <v>352313</v>
+      </c>
+      <c r="S23">
+        <v>347940</v>
+      </c>
+      <c r="T23">
+        <v>350185</v>
+      </c>
+      <c r="U23">
+        <v>350511</v>
+      </c>
+      <c r="V23">
+        <v>354056</v>
+      </c>
+      <c r="X23">
+        <v>630957</v>
+      </c>
+      <c r="Y23">
+        <v>321615</v>
+      </c>
+      <c r="Z23">
+        <v>174984</v>
+      </c>
+      <c r="AA23">
+        <v>30342</v>
+      </c>
+      <c r="AB23">
+        <v>29824</v>
+      </c>
+      <c r="AC23">
+        <v>29754</v>
+      </c>
+      <c r="AD23">
+        <v>29754</v>
+      </c>
+    </row>
+    <row r="24" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>1000000</v>
+      </c>
+      <c r="F24">
+        <v>22241199</v>
+      </c>
+      <c r="G24">
+        <v>1214990</v>
+      </c>
+      <c r="H24">
+        <v>32204405</v>
+      </c>
+      <c r="I24">
+        <v>869331</v>
+      </c>
+      <c r="J24">
+        <v>49318</v>
+      </c>
+      <c r="K24">
+        <v>24578</v>
+      </c>
+      <c r="P24">
+        <v>1000000</v>
+      </c>
+      <c r="Q24">
+        <v>873217</v>
+      </c>
+      <c r="R24">
+        <v>877386</v>
+      </c>
+      <c r="S24">
+        <v>878847</v>
+      </c>
+      <c r="T24">
+        <v>869331</v>
+      </c>
+      <c r="U24">
+        <v>875582</v>
+      </c>
+      <c r="V24">
+        <v>876602</v>
+      </c>
+      <c r="X24">
+        <v>1000000</v>
+      </c>
+      <c r="Y24">
+        <v>822343</v>
+      </c>
+      <c r="Z24">
+        <v>438287</v>
+      </c>
+      <c r="AA24">
+        <v>49318</v>
+      </c>
+      <c r="AB24">
+        <v>48647</v>
+      </c>
+      <c r="AC24">
+        <v>49718</v>
+      </c>
+      <c r="AD24">
+        <v>48582</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="AOL_Sample" sheetId="2" r:id="rId2"/>
-    <sheet name="USPS_Sample" sheetId="3" r:id="rId3"/>
+    <sheet name="AOL_Sample(2)" sheetId="4" r:id="rId3"/>
+    <sheet name="USPS_Sample" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +130,30 @@
   </si>
   <si>
     <t>JoinNaive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinMH_QL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinHybridOpt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinHybridThres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinMH_QL (two gram 모두 생성, intersection 효율적)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinMH_QL (two gram 필요부분만 생성 table T만, intersection 효율적)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinMH_QL (two gram 필요부분만 생성 table T/S 모두, intersection 효율적)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +266,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -705,7 +729,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -788,6 +811,1699 @@
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AOL_Sample(2)'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$M$4:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$N$4:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24587</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43449</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61780</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-046E-430E-B762-3779CC94A675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AOL_Sample(2)'!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$M$4:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$O$4:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-046E-430E-B762-3779CC94A675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AOL_Sample(2)'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$M$4:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$P$4:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2590</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5283</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16931</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24279</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62657</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-046E-430E-B762-3779CC94A675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1908108703"/>
+        <c:axId val="1914508367"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1908108703"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1914508367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1914508367"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1908108703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AOL_Sample(2)'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.3859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.655999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.283999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.346000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-784D-49B7-9386-5B8A2E05276E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AOL_Sample(2)'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.6970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6709999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0620000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.567</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.182000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-784D-49B7-9386-5B8A2E05276E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AOL_Sample(2)'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIJoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$D$4:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.803999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>145.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>346.05799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-784D-49B7-9386-5B8A2E05276E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AOL_Sample(2)'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybrid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$E$4:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.5289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.188000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.492999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.985999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120.667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-784D-49B7-9386-5B8A2E05276E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AOL_Sample(2)'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybridThres</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$F$4:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.7110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.311999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.677999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.082999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-784D-49B7-9386-5B8A2E05276E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AOL_Sample(2)'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMH_QL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AOL_Sample(2)'!$G$4:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.4359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.829</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.681999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.107999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.483000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-784D-49B7-9386-5B8A2E05276E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="135472912"/>
+        <c:axId val="135470832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="135472912"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135470832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="135470832"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135472912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1746,7 +3462,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1813,7 +3528,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -1828,7 +3543,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2786,7 +4500,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2853,7 +4566,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2868,7 +4581,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4642,7 +6354,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4709,7 +6420,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -4724,7 +6435,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>USPS</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5683,7 +7419,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5790,7 +7525,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6517,7 +8251,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6641,7 +8374,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6722,7 +8454,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6830,7 +8561,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7435,7 +9165,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7547,7 +9276,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8479,7 +10207,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8561,7 +10288,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9494,7 +11220,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10239,6 +11964,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
           <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -10303,6 +12029,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -14656,6 +16383,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17556,6 +19363,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -21843,15 +24682,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21874,15 +24713,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21967,6 +24806,71 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22356,7 +25260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS97"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S75" sqref="S75"/>
     </sheetView>
   </sheetViews>
@@ -24965,20 +27869,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:Y29"/>
+  <dimension ref="B3:Y29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:H18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
       <c r="K3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>19</v>
       </c>
@@ -25031,7 +27935,10 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5">
         <v>10000</v>
       </c>
@@ -25110,7 +28017,10 @@
         <v>1.339</v>
       </c>
     </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
       <c r="C6">
         <v>15848</v>
       </c>
@@ -25189,7 +28099,10 @@
         <v>1.6910000000000001</v>
       </c>
     </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3</v>
+      </c>
       <c r="C7">
         <v>25118</v>
       </c>
@@ -25268,7 +28181,10 @@
         <v>1.8660000000000001</v>
       </c>
     </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>4</v>
+      </c>
       <c r="C8">
         <v>39810</v>
       </c>
@@ -25347,7 +28263,10 @@
         <v>2.2130000000000001</v>
       </c>
     </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>5</v>
+      </c>
       <c r="C9">
         <v>63095</v>
       </c>
@@ -25426,7 +28345,10 @@
         <v>2.5830000000000002</v>
       </c>
     </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>6</v>
+      </c>
       <c r="C10">
         <v>100000</v>
       </c>
@@ -25505,7 +28427,10 @@
         <v>3.1890000000000001</v>
       </c>
     </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>7</v>
+      </c>
       <c r="C11">
         <v>158489</v>
       </c>
@@ -25584,7 +28509,10 @@
         <v>4.5990000000000002</v>
       </c>
     </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>8</v>
+      </c>
       <c r="C12">
         <v>251188</v>
       </c>
@@ -25663,7 +28591,10 @@
         <v>6.1139999999999999</v>
       </c>
     </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>9</v>
+      </c>
       <c r="C13">
         <v>398107</v>
       </c>
@@ -25742,7 +28673,10 @@
         <v>8.7989999999999995</v>
       </c>
     </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>10</v>
+      </c>
       <c r="C14">
         <v>630957</v>
       </c>
@@ -25821,7 +28755,10 @@
         <v>12.932</v>
       </c>
     </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>11</v>
+      </c>
       <c r="C15">
         <v>1000000</v>
       </c>
@@ -26644,15 +29581,1372 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E13:AD24"/>
+  <dimension ref="A2:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="13" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>1E-3</v>
+      </c>
+      <c r="O3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P3">
+        <v>0.01</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4">
+        <f>B17/1000</f>
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:G4" si="0">C17/1000</f>
+        <v>1.6970000000000001</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.421</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.5289999999999999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="I4">
+        <v>1711</v>
+      </c>
+      <c r="J4">
+        <v>1791</v>
+      </c>
+      <c r="K4">
+        <v>1755</v>
+      </c>
+      <c r="M4">
+        <v>10000</v>
+      </c>
+      <c r="N4">
+        <v>2489</v>
+      </c>
+      <c r="O4">
+        <v>2529</v>
+      </c>
+      <c r="P4">
+        <v>2590</v>
+      </c>
+      <c r="S4">
+        <v>10000</v>
+      </c>
+      <c r="T4">
+        <v>1345</v>
+      </c>
+      <c r="U4">
+        <v>1436</v>
+      </c>
+      <c r="V4">
+        <v>1389</v>
+      </c>
+      <c r="X4">
+        <v>10000</v>
+      </c>
+      <c r="Y4">
+        <v>1268</v>
+      </c>
+      <c r="Z4">
+        <v>1386</v>
+      </c>
+      <c r="AA4">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>15848</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:G5" si="1">B18/1000</f>
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>1.958</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1.627</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>3.077</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.012</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.595</v>
+      </c>
+      <c r="I5">
+        <v>2012</v>
+      </c>
+      <c r="J5">
+        <v>2198</v>
+      </c>
+      <c r="K5">
+        <v>2230</v>
+      </c>
+      <c r="M5">
+        <v>15848</v>
+      </c>
+      <c r="N5">
+        <v>2858</v>
+      </c>
+      <c r="O5">
+        <v>3077</v>
+      </c>
+      <c r="P5">
+        <v>3100</v>
+      </c>
+      <c r="S5">
+        <v>15848</v>
+      </c>
+      <c r="T5">
+        <v>1489</v>
+      </c>
+      <c r="U5">
+        <v>1595</v>
+      </c>
+      <c r="V5">
+        <v>1567</v>
+      </c>
+      <c r="X5">
+        <v>15848</v>
+      </c>
+      <c r="Y5">
+        <v>1539</v>
+      </c>
+      <c r="Z5">
+        <v>1684</v>
+      </c>
+      <c r="AA5">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>25118</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:G6" si="2">B19/1000</f>
+        <v>1.895</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>2.6709999999999998</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>4.1840000000000002</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>1.829</v>
+      </c>
+      <c r="I6">
+        <v>2639</v>
+      </c>
+      <c r="J6">
+        <v>2643</v>
+      </c>
+      <c r="K6">
+        <v>2936</v>
+      </c>
+      <c r="M6">
+        <v>25118</v>
+      </c>
+      <c r="N6">
+        <v>4192</v>
+      </c>
+      <c r="O6">
+        <v>4184</v>
+      </c>
+      <c r="P6">
+        <v>4175</v>
+      </c>
+      <c r="S6">
+        <v>25118</v>
+      </c>
+      <c r="T6">
+        <v>1880</v>
+      </c>
+      <c r="U6">
+        <v>1829</v>
+      </c>
+      <c r="V6">
+        <v>1956</v>
+      </c>
+      <c r="X6">
+        <v>25118</v>
+      </c>
+      <c r="Y6">
+        <v>1775</v>
+      </c>
+      <c r="Z6">
+        <v>1895</v>
+      </c>
+      <c r="AA6">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>39810</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:G7" si="3">B20/1000</f>
+        <v>2.556</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>3.3610000000000002</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>5.1879999999999997</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>3.1560000000000001</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>2.488</v>
+      </c>
+      <c r="I7">
+        <v>3156</v>
+      </c>
+      <c r="J7">
+        <v>3520</v>
+      </c>
+      <c r="K7">
+        <v>3619</v>
+      </c>
+      <c r="M7">
+        <v>39810</v>
+      </c>
+      <c r="N7">
+        <v>5692</v>
+      </c>
+      <c r="O7">
+        <v>5188</v>
+      </c>
+      <c r="P7">
+        <v>5283</v>
+      </c>
+      <c r="S7">
+        <v>39810</v>
+      </c>
+      <c r="T7">
+        <v>2375</v>
+      </c>
+      <c r="U7">
+        <v>2488</v>
+      </c>
+      <c r="V7">
+        <v>2728</v>
+      </c>
+      <c r="X7">
+        <v>39810</v>
+      </c>
+      <c r="Y7">
+        <v>2377</v>
+      </c>
+      <c r="Z7">
+        <v>2556</v>
+      </c>
+      <c r="AA7">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>63095</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:G8" si="4">B21/1000</f>
+        <v>3.4060000000000001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="4"/>
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="4"/>
+        <v>4.2329999999999997</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>4.2720000000000002</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>3.14</v>
+      </c>
+      <c r="I8">
+        <v>4272</v>
+      </c>
+      <c r="J8">
+        <v>4622</v>
+      </c>
+      <c r="K8">
+        <v>4828</v>
+      </c>
+      <c r="M8">
+        <v>63095</v>
+      </c>
+      <c r="N8">
+        <v>7257</v>
+      </c>
+      <c r="O8">
+        <v>8050</v>
+      </c>
+      <c r="P8">
+        <v>7795</v>
+      </c>
+      <c r="S8">
+        <v>63095</v>
+      </c>
+      <c r="T8">
+        <v>3039</v>
+      </c>
+      <c r="U8">
+        <v>3140</v>
+      </c>
+      <c r="V8">
+        <v>3438</v>
+      </c>
+      <c r="X8">
+        <v>63095</v>
+      </c>
+      <c r="Y8">
+        <v>3021</v>
+      </c>
+      <c r="Z8">
+        <v>3406</v>
+      </c>
+      <c r="AA8">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>100000</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:G9" si="5">B22/1000</f>
+        <v>4.67</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="5"/>
+        <v>5.9390000000000001</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="5"/>
+        <v>6.9710000000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>10.188000000000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>6.0229999999999997</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>4.46</v>
+      </c>
+      <c r="I9">
+        <v>6023</v>
+      </c>
+      <c r="J9">
+        <v>6162</v>
+      </c>
+      <c r="K9">
+        <v>6488</v>
+      </c>
+      <c r="M9">
+        <v>100000</v>
+      </c>
+      <c r="N9">
+        <v>10708</v>
+      </c>
+      <c r="O9">
+        <v>10188</v>
+      </c>
+      <c r="P9">
+        <v>11295</v>
+      </c>
+      <c r="S9">
+        <v>100000</v>
+      </c>
+      <c r="T9">
+        <v>4537</v>
+      </c>
+      <c r="U9">
+        <v>4460</v>
+      </c>
+      <c r="V9">
+        <v>4820</v>
+      </c>
+      <c r="X9">
+        <v>100000</v>
+      </c>
+      <c r="Y9">
+        <v>4507</v>
+      </c>
+      <c r="Z9">
+        <v>4670</v>
+      </c>
+      <c r="AA9">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>158489</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:G10" si="6">B23/1000</f>
+        <v>7.2069999999999999</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="6"/>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="6"/>
+        <v>13.676</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="6"/>
+        <v>17.492999999999999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="6"/>
+        <v>8.5549999999999997</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>6.6680000000000001</v>
+      </c>
+      <c r="I10">
+        <v>8555</v>
+      </c>
+      <c r="J10">
+        <v>8814</v>
+      </c>
+      <c r="K10">
+        <v>9177</v>
+      </c>
+      <c r="M10">
+        <v>158489</v>
+      </c>
+      <c r="N10">
+        <v>17027</v>
+      </c>
+      <c r="O10">
+        <v>17493</v>
+      </c>
+      <c r="P10">
+        <v>16931</v>
+      </c>
+      <c r="S10">
+        <v>158489</v>
+      </c>
+      <c r="T10">
+        <v>7652</v>
+      </c>
+      <c r="U10">
+        <v>6668</v>
+      </c>
+      <c r="V10">
+        <v>7251</v>
+      </c>
+      <c r="X10">
+        <v>158489</v>
+      </c>
+      <c r="Y10">
+        <v>7595</v>
+      </c>
+      <c r="Z10">
+        <v>7207</v>
+      </c>
+      <c r="AA10">
+        <v>9308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>251188</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:G11" si="7">B24/1000</f>
+        <v>11.615</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="7"/>
+        <v>13.893000000000001</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="7"/>
+        <v>28.803999999999998</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="7"/>
+        <v>24.311</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="7"/>
+        <v>13.311999999999999</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="7"/>
+        <v>10.265000000000001</v>
+      </c>
+      <c r="I11">
+        <v>13312</v>
+      </c>
+      <c r="J11">
+        <v>13903</v>
+      </c>
+      <c r="K11">
+        <v>14633</v>
+      </c>
+      <c r="M11">
+        <v>251188</v>
+      </c>
+      <c r="N11">
+        <v>24587</v>
+      </c>
+      <c r="O11">
+        <v>24311</v>
+      </c>
+      <c r="P11">
+        <v>24279</v>
+      </c>
+      <c r="S11">
+        <v>251188</v>
+      </c>
+      <c r="T11">
+        <v>13574</v>
+      </c>
+      <c r="U11">
+        <v>10265</v>
+      </c>
+      <c r="V11">
+        <v>11534</v>
+      </c>
+      <c r="X11">
+        <v>251188</v>
+      </c>
+      <c r="Y11">
+        <v>13765</v>
+      </c>
+      <c r="Z11">
+        <v>11615</v>
+      </c>
+      <c r="AA11">
+        <v>14828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>398107</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:G12" si="8">B25/1000</f>
+        <v>21.655999999999999</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="8"/>
+        <v>22.567</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="8"/>
+        <v>63.39</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="8"/>
+        <v>46.22</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="8"/>
+        <v>21.579000000000001</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="8"/>
+        <v>17.681999999999999</v>
+      </c>
+      <c r="I12">
+        <v>21579</v>
+      </c>
+      <c r="J12">
+        <v>21527</v>
+      </c>
+      <c r="K12">
+        <v>23614</v>
+      </c>
+      <c r="M12">
+        <v>398107</v>
+      </c>
+      <c r="N12">
+        <v>43449</v>
+      </c>
+      <c r="O12">
+        <v>46220</v>
+      </c>
+      <c r="P12">
+        <v>45483</v>
+      </c>
+      <c r="S12">
+        <v>398107</v>
+      </c>
+      <c r="T12">
+        <v>26612</v>
+      </c>
+      <c r="U12">
+        <v>17682</v>
+      </c>
+      <c r="V12">
+        <v>19635</v>
+      </c>
+      <c r="X12">
+        <v>398107</v>
+      </c>
+      <c r="Y12">
+        <v>27271</v>
+      </c>
+      <c r="Z12">
+        <v>21656</v>
+      </c>
+      <c r="AA12">
+        <v>27831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>630957</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:G13" si="9">B26/1000</f>
+        <v>40.283999999999999</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="9"/>
+        <v>39.832000000000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="9"/>
+        <v>145.40899999999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="9"/>
+        <v>61.985999999999997</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="9"/>
+        <v>35.677999999999997</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="9"/>
+        <v>32.107999999999997</v>
+      </c>
+      <c r="I13">
+        <v>35678</v>
+      </c>
+      <c r="J13">
+        <v>36410</v>
+      </c>
+      <c r="K13">
+        <v>44244</v>
+      </c>
+      <c r="M13">
+        <v>630957</v>
+      </c>
+      <c r="N13">
+        <v>61780</v>
+      </c>
+      <c r="O13">
+        <v>61986</v>
+      </c>
+      <c r="P13">
+        <v>62657</v>
+      </c>
+      <c r="S13">
+        <v>630957</v>
+      </c>
+      <c r="T13">
+        <v>55620</v>
+      </c>
+      <c r="U13">
+        <v>32108</v>
+      </c>
+      <c r="V13">
+        <v>46230</v>
+      </c>
+      <c r="X13">
+        <v>630957</v>
+      </c>
+      <c r="Y13">
+        <v>57953</v>
+      </c>
+      <c r="Z13">
+        <v>40284</v>
+      </c>
+      <c r="AA13">
+        <v>55151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1000000</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:G14" si="10">B27/1000</f>
+        <v>91.346000000000004</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="10"/>
+        <v>83.182000000000002</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="10"/>
+        <v>346.05799999999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="10"/>
+        <v>120.667</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="10"/>
+        <v>75.082999999999998</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="10"/>
+        <v>71.483000000000004</v>
+      </c>
+      <c r="I14">
+        <v>75083</v>
+      </c>
+      <c r="J14">
+        <v>75203</v>
+      </c>
+      <c r="K14">
+        <v>77033</v>
+      </c>
+      <c r="M14">
+        <v>1000000</v>
+      </c>
+      <c r="N14">
+        <v>120909</v>
+      </c>
+      <c r="O14">
+        <v>120667</v>
+      </c>
+      <c r="P14">
+        <v>126359</v>
+      </c>
+      <c r="S14">
+        <v>1000000</v>
+      </c>
+      <c r="T14">
+        <v>123808</v>
+      </c>
+      <c r="U14">
+        <v>71483</v>
+      </c>
+      <c r="V14">
+        <v>83109</v>
+      </c>
+      <c r="X14">
+        <v>1000000</v>
+      </c>
+      <c r="Y14">
+        <v>127928</v>
+      </c>
+      <c r="Z14">
+        <v>91346</v>
+      </c>
+      <c r="AA14">
+        <v>127803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1386</v>
+      </c>
+      <c r="C17">
+        <v>1697</v>
+      </c>
+      <c r="D17">
+        <v>1421</v>
+      </c>
+      <c r="E17">
+        <v>2529</v>
+      </c>
+      <c r="F17">
+        <v>1711</v>
+      </c>
+      <c r="G17">
+        <v>1436</v>
+      </c>
+      <c r="S17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1684</v>
+      </c>
+      <c r="C18">
+        <v>1958</v>
+      </c>
+      <c r="D18">
+        <v>1627</v>
+      </c>
+      <c r="E18">
+        <v>3077</v>
+      </c>
+      <c r="F18">
+        <v>2012</v>
+      </c>
+      <c r="G18">
+        <v>1595</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1895</v>
+      </c>
+      <c r="C19">
+        <v>2671</v>
+      </c>
+      <c r="D19">
+        <v>2102</v>
+      </c>
+      <c r="E19">
+        <v>4184</v>
+      </c>
+      <c r="F19">
+        <v>2639</v>
+      </c>
+      <c r="G19">
+        <v>1829</v>
+      </c>
+      <c r="S19">
+        <v>10000</v>
+      </c>
+      <c r="T19">
+        <v>1288</v>
+      </c>
+      <c r="U19">
+        <v>1356</v>
+      </c>
+      <c r="V19">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2556</v>
+      </c>
+      <c r="C20">
+        <v>3361</v>
+      </c>
+      <c r="D20">
+        <v>2781</v>
+      </c>
+      <c r="E20">
+        <v>5188</v>
+      </c>
+      <c r="F20">
+        <v>3156</v>
+      </c>
+      <c r="G20">
+        <v>2488</v>
+      </c>
+      <c r="S20">
+        <v>15848</v>
+      </c>
+      <c r="T20">
+        <v>1519</v>
+      </c>
+      <c r="U20">
+        <v>1496</v>
+      </c>
+      <c r="V20">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>3406</v>
+      </c>
+      <c r="C21">
+        <v>4062</v>
+      </c>
+      <c r="D21">
+        <v>4233</v>
+      </c>
+      <c r="E21">
+        <v>8050</v>
+      </c>
+      <c r="F21">
+        <v>4272</v>
+      </c>
+      <c r="G21">
+        <v>3140</v>
+      </c>
+      <c r="S21">
+        <v>25118</v>
+      </c>
+      <c r="T21">
+        <v>1758</v>
+      </c>
+      <c r="U21">
+        <v>1791</v>
+      </c>
+      <c r="V21">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>4670</v>
+      </c>
+      <c r="C22">
+        <v>5939</v>
+      </c>
+      <c r="D22">
+        <v>6971</v>
+      </c>
+      <c r="E22">
+        <v>10188</v>
+      </c>
+      <c r="F22">
+        <v>6023</v>
+      </c>
+      <c r="G22">
+        <v>4460</v>
+      </c>
+      <c r="S22">
+        <v>39810</v>
+      </c>
+      <c r="T22">
+        <v>2439</v>
+      </c>
+      <c r="U22">
+        <v>2533</v>
+      </c>
+      <c r="V22">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>7207</v>
+      </c>
+      <c r="C23">
+        <v>8790</v>
+      </c>
+      <c r="D23">
+        <v>13676</v>
+      </c>
+      <c r="E23">
+        <v>17493</v>
+      </c>
+      <c r="F23">
+        <v>8555</v>
+      </c>
+      <c r="G23">
+        <v>6668</v>
+      </c>
+      <c r="S23">
+        <v>63095</v>
+      </c>
+      <c r="T23">
+        <v>2936</v>
+      </c>
+      <c r="U23">
+        <v>3041</v>
+      </c>
+      <c r="V23">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>11615</v>
+      </c>
+      <c r="C24">
+        <v>13893</v>
+      </c>
+      <c r="D24">
+        <v>28804</v>
+      </c>
+      <c r="E24">
+        <v>24311</v>
+      </c>
+      <c r="F24">
+        <v>13312</v>
+      </c>
+      <c r="G24">
+        <v>10265</v>
+      </c>
+      <c r="S24">
+        <v>100000</v>
+      </c>
+      <c r="T24">
+        <v>4382</v>
+      </c>
+      <c r="U24">
+        <v>4544</v>
+      </c>
+      <c r="V24">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>21656</v>
+      </c>
+      <c r="C25">
+        <v>22567</v>
+      </c>
+      <c r="D25">
+        <v>63390</v>
+      </c>
+      <c r="E25">
+        <v>46220</v>
+      </c>
+      <c r="F25">
+        <v>21579</v>
+      </c>
+      <c r="G25">
+        <v>17682</v>
+      </c>
+      <c r="S25">
+        <v>158489</v>
+      </c>
+      <c r="T25">
+        <v>7289</v>
+      </c>
+      <c r="U25">
+        <v>6518</v>
+      </c>
+      <c r="V25">
+        <v>7078</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>40284</v>
+      </c>
+      <c r="C26">
+        <v>39832</v>
+      </c>
+      <c r="D26">
+        <v>145409</v>
+      </c>
+      <c r="E26">
+        <v>61986</v>
+      </c>
+      <c r="F26">
+        <v>35678</v>
+      </c>
+      <c r="G26">
+        <v>32108</v>
+      </c>
+      <c r="S26">
+        <v>251188</v>
+      </c>
+      <c r="T26">
+        <v>12901</v>
+      </c>
+      <c r="U26">
+        <v>10394</v>
+      </c>
+      <c r="V26">
+        <v>11428</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>91346</v>
+      </c>
+      <c r="C27">
+        <v>83182</v>
+      </c>
+      <c r="D27">
+        <v>346058</v>
+      </c>
+      <c r="E27">
+        <v>120667</v>
+      </c>
+      <c r="F27">
+        <v>75083</v>
+      </c>
+      <c r="G27">
+        <v>71483</v>
+      </c>
+      <c r="S27">
+        <v>398107</v>
+      </c>
+      <c r="T27">
+        <v>26336</v>
+      </c>
+      <c r="U27">
+        <v>17832</v>
+      </c>
+      <c r="V27">
+        <v>19943</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S28">
+        <v>630957</v>
+      </c>
+      <c r="T28">
+        <v>55714</v>
+      </c>
+      <c r="U28">
+        <v>31847</v>
+      </c>
+      <c r="V28">
+        <v>42464</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S29">
+        <v>1000000</v>
+      </c>
+      <c r="T29">
+        <v>122111</v>
+      </c>
+      <c r="U29">
+        <v>70468</v>
+      </c>
+      <c r="V29">
+        <v>75510</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="19:22" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="19:22" x14ac:dyDescent="0.3">
+      <c r="S34">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="19:22" x14ac:dyDescent="0.3">
+      <c r="S35">
+        <v>15848</v>
+      </c>
+    </row>
+    <row r="36" spans="19:22" x14ac:dyDescent="0.3">
+      <c r="S36">
+        <v>25118</v>
+      </c>
+    </row>
+    <row r="37" spans="19:22" x14ac:dyDescent="0.3">
+      <c r="S37">
+        <v>39810</v>
+      </c>
+    </row>
+    <row r="38" spans="19:22" x14ac:dyDescent="0.3">
+      <c r="S38">
+        <v>63095</v>
+      </c>
+    </row>
+    <row r="39" spans="19:22" x14ac:dyDescent="0.3">
+      <c r="S39">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="40" spans="19:22" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <v>158489</v>
+      </c>
+    </row>
+    <row r="41" spans="19:22" x14ac:dyDescent="0.3">
+      <c r="S41">
+        <v>251188</v>
+      </c>
+    </row>
+    <row r="42" spans="19:22" x14ac:dyDescent="0.3">
+      <c r="S42">
+        <v>398107</v>
+      </c>
+    </row>
+    <row r="43" spans="19:22" x14ac:dyDescent="0.3">
+      <c r="S43">
+        <v>630957</v>
+      </c>
+    </row>
+    <row r="44" spans="19:22" x14ac:dyDescent="0.3">
+      <c r="S44">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D13:AL37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="13" spans="4:30" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
         <v>0</v>
       </c>
@@ -26708,7 +31002,10 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14">
         <v>10000</v>
       </c>
@@ -26773,7 +31070,10 @@
         <v>916</v>
       </c>
     </row>
-    <row r="15" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>2</v>
+      </c>
       <c r="E15">
         <v>15848</v>
       </c>
@@ -26838,7 +31138,10 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="16" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>3</v>
+      </c>
       <c r="E16">
         <v>25118</v>
       </c>
@@ -26903,7 +31206,10 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="17" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>4</v>
+      </c>
       <c r="E17">
         <v>39810</v>
       </c>
@@ -26968,7 +31274,10 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="18" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>5</v>
+      </c>
       <c r="E18">
         <v>63095</v>
       </c>
@@ -27033,7 +31342,10 @@
         <v>3555</v>
       </c>
     </row>
-    <row r="19" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>6</v>
+      </c>
       <c r="E19">
         <v>100000</v>
       </c>
@@ -27098,7 +31410,10 @@
         <v>4907</v>
       </c>
     </row>
-    <row r="20" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>7</v>
+      </c>
       <c r="E20">
         <v>158489</v>
       </c>
@@ -27163,7 +31478,10 @@
         <v>7517</v>
       </c>
     </row>
-    <row r="21" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>8</v>
+      </c>
       <c r="E21">
         <v>251188</v>
       </c>
@@ -27228,7 +31546,10 @@
         <v>11701</v>
       </c>
     </row>
-    <row r="22" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>9</v>
+      </c>
       <c r="E22">
         <v>398107</v>
       </c>
@@ -27293,7 +31614,10 @@
         <v>18426</v>
       </c>
     </row>
-    <row r="23" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>10</v>
+      </c>
       <c r="E23">
         <v>630957</v>
       </c>
@@ -27358,7 +31682,10 @@
         <v>29754</v>
       </c>
     </row>
-    <row r="24" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>11</v>
+      </c>
       <c r="E24">
         <v>1000000</v>
       </c>
@@ -27380,6 +31707,10 @@
       <c r="K24">
         <v>24578</v>
       </c>
+      <c r="L24">
+        <f>J24/K24</f>
+        <v>2.0065912604768492</v>
+      </c>
       <c r="P24">
         <v>1000000</v>
       </c>
@@ -27421,6 +31752,12 @@
       </c>
       <c r="AD24">
         <v>48582</v>
+      </c>
+    </row>
+    <row r="37" spans="38:38" x14ac:dyDescent="0.3">
+      <c r="AL37">
+        <f>36/55</f>
+        <v>0.65454545454545454</v>
       </c>
     </row>
   </sheetData>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -29583,8 +29583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30878,50 +30878,140 @@
       <c r="S34">
         <v>10000</v>
       </c>
+      <c r="T34">
+        <v>1311</v>
+      </c>
+      <c r="U34">
+        <v>1299</v>
+      </c>
+      <c r="V34">
+        <v>1299</v>
+      </c>
     </row>
     <row r="35" spans="19:22" x14ac:dyDescent="0.3">
       <c r="S35">
         <v>15848</v>
       </c>
+      <c r="T35">
+        <v>1413</v>
+      </c>
+      <c r="U35">
+        <v>1461</v>
+      </c>
+      <c r="V35">
+        <v>1587</v>
+      </c>
     </row>
     <row r="36" spans="19:22" x14ac:dyDescent="0.3">
       <c r="S36">
         <v>25118</v>
       </c>
+      <c r="T36">
+        <v>1623</v>
+      </c>
+      <c r="U36">
+        <v>1737</v>
+      </c>
+      <c r="V36">
+        <v>1880</v>
+      </c>
     </row>
     <row r="37" spans="19:22" x14ac:dyDescent="0.3">
       <c r="S37">
         <v>39810</v>
       </c>
+      <c r="T37">
+        <v>2173</v>
+      </c>
+      <c r="U37">
+        <v>2350</v>
+      </c>
+      <c r="V37">
+        <v>2514</v>
+      </c>
     </row>
     <row r="38" spans="19:22" x14ac:dyDescent="0.3">
       <c r="S38">
         <v>63095</v>
       </c>
+      <c r="T38">
+        <v>2828</v>
+      </c>
+      <c r="U38">
+        <v>2929</v>
+      </c>
+      <c r="V38">
+        <v>3327</v>
+      </c>
     </row>
     <row r="39" spans="19:22" x14ac:dyDescent="0.3">
       <c r="S39">
         <v>100000</v>
       </c>
+      <c r="T39">
+        <v>4307</v>
+      </c>
+      <c r="U39">
+        <v>4091</v>
+      </c>
+      <c r="V39">
+        <v>4788</v>
+      </c>
     </row>
     <row r="40" spans="19:22" x14ac:dyDescent="0.3">
       <c r="S40">
         <v>158489</v>
       </c>
+      <c r="T40">
+        <v>6801</v>
+      </c>
+      <c r="U40">
+        <v>6217</v>
+      </c>
+      <c r="V40">
+        <v>7046</v>
+      </c>
     </row>
     <row r="41" spans="19:22" x14ac:dyDescent="0.3">
       <c r="S41">
         <v>251188</v>
       </c>
+      <c r="T41">
+        <v>12640</v>
+      </c>
+      <c r="U41">
+        <v>9986</v>
+      </c>
+      <c r="V41">
+        <v>11244</v>
+      </c>
     </row>
     <row r="42" spans="19:22" x14ac:dyDescent="0.3">
       <c r="S42">
         <v>398107</v>
       </c>
+      <c r="T42">
+        <v>26168</v>
+      </c>
+      <c r="U42">
+        <v>17926</v>
+      </c>
+      <c r="V42">
+        <v>19565</v>
+      </c>
     </row>
     <row r="43" spans="19:22" x14ac:dyDescent="0.3">
       <c r="S43">
         <v>630957</v>
+      </c>
+      <c r="T43">
+        <v>55172</v>
+      </c>
+      <c r="U43">
+        <v>31439</v>
+      </c>
+      <c r="V43">
+        <v>42157</v>
       </c>
     </row>
     <row r="44" spans="19:22" x14ac:dyDescent="0.3">

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>JoinMH_QL (two gram 필요부분만 생성 table T/S 모두, intersection 효율적)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2231,37 +2235,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.4359999999999999</c:v>
+                  <c:v>1.2989999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.595</c:v>
+                  <c:v>1.4610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.829</c:v>
+                  <c:v>1.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.488</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.14</c:v>
+                  <c:v>2.9289999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.46</c:v>
+                  <c:v>4.0910000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6680000000000001</c:v>
+                  <c:v>6.2169999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.265000000000001</c:v>
+                  <c:v>9.9860000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.681999999999999</c:v>
+                  <c:v>17.925999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.107999999999997</c:v>
+                  <c:v>31.439</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.483000000000004</c:v>
+                  <c:v>69.656000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29583,8 +29587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29599,6 +29603,9 @@
       <c r="S2" t="s">
         <v>29</v>
       </c>
+      <c r="X2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -29682,7 +29689,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>1.4359999999999999</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="I4">
         <v>1711</v>
@@ -29756,7 +29763,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>1.595</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="I5">
         <v>2012</v>
@@ -29830,7 +29837,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>1.829</v>
+        <v>1.7370000000000001</v>
       </c>
       <c r="I6">
         <v>2639</v>
@@ -29904,7 +29911,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>2.488</v>
+        <v>2.35</v>
       </c>
       <c r="I7">
         <v>3156</v>
@@ -29978,7 +29985,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="4"/>
-        <v>3.14</v>
+        <v>2.9289999999999998</v>
       </c>
       <c r="I8">
         <v>4272</v>
@@ -30052,7 +30059,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>4.46</v>
+        <v>4.0910000000000002</v>
       </c>
       <c r="I9">
         <v>6023</v>
@@ -30126,7 +30133,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="6"/>
-        <v>6.6680000000000001</v>
+        <v>6.2169999999999996</v>
       </c>
       <c r="I10">
         <v>8555</v>
@@ -30200,7 +30207,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="7"/>
-        <v>10.265000000000001</v>
+        <v>9.9860000000000007</v>
       </c>
       <c r="I11">
         <v>13312</v>
@@ -30274,7 +30281,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="8"/>
-        <v>17.681999999999999</v>
+        <v>17.925999999999998</v>
       </c>
       <c r="I12">
         <v>21579</v>
@@ -30348,7 +30355,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>32.107999999999997</v>
+        <v>31.439</v>
       </c>
       <c r="I13">
         <v>35678</v>
@@ -30422,7 +30429,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="10"/>
-        <v>71.483000000000004</v>
+        <v>69.656000000000006</v>
       </c>
       <c r="I14">
         <v>75083</v>
@@ -30507,7 +30514,7 @@
         <v>1711</v>
       </c>
       <c r="G17">
-        <v>1436</v>
+        <v>1299</v>
       </c>
       <c r="S17" t="s">
         <v>30</v>
@@ -30530,7 +30537,7 @@
         <v>2012</v>
       </c>
       <c r="G18">
-        <v>1595</v>
+        <v>1461</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -30559,7 +30566,7 @@
         <v>2639</v>
       </c>
       <c r="G19">
-        <v>1829</v>
+        <v>1737</v>
       </c>
       <c r="S19">
         <v>10000</v>
@@ -30591,7 +30598,7 @@
         <v>3156</v>
       </c>
       <c r="G20">
-        <v>2488</v>
+        <v>2350</v>
       </c>
       <c r="S20">
         <v>15848</v>
@@ -30623,7 +30630,7 @@
         <v>4272</v>
       </c>
       <c r="G21">
-        <v>3140</v>
+        <v>2929</v>
       </c>
       <c r="S21">
         <v>25118</v>
@@ -30655,7 +30662,7 @@
         <v>6023</v>
       </c>
       <c r="G22">
-        <v>4460</v>
+        <v>4091</v>
       </c>
       <c r="S22">
         <v>39810</v>
@@ -30687,7 +30694,7 @@
         <v>8555</v>
       </c>
       <c r="G23">
-        <v>6668</v>
+        <v>6217</v>
       </c>
       <c r="S23">
         <v>63095</v>
@@ -30719,7 +30726,7 @@
         <v>13312</v>
       </c>
       <c r="G24">
-        <v>10265</v>
+        <v>9986</v>
       </c>
       <c r="S24">
         <v>100000</v>
@@ -30751,7 +30758,7 @@
         <v>21579</v>
       </c>
       <c r="G25">
-        <v>17682</v>
+        <v>17926</v>
       </c>
       <c r="S25">
         <v>158489</v>
@@ -30783,7 +30790,7 @@
         <v>35678</v>
       </c>
       <c r="G26">
-        <v>32108</v>
+        <v>31439</v>
       </c>
       <c r="S26">
         <v>251188</v>
@@ -30815,7 +30822,7 @@
         <v>75083</v>
       </c>
       <c r="G27">
-        <v>71483</v>
+        <v>69656</v>
       </c>
       <c r="S27">
         <v>398107</v>
@@ -31017,6 +31024,15 @@
     <row r="44" spans="19:22" x14ac:dyDescent="0.3">
       <c r="S44">
         <v>1000000</v>
+      </c>
+      <c r="T44">
+        <v>120033</v>
+      </c>
+      <c r="U44">
+        <v>69656</v>
+      </c>
+      <c r="V44">
+        <v>82285</v>
       </c>
     </row>
   </sheetData>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -29587,8 +29587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -29587,8 +29587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,22 @@
   </si>
   <si>
     <t>Opt_Thres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After last token filtering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinMH_old</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12096,6 +12112,12 @@
                 <c:pt idx="8">
                   <c:v>27021</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>49107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12207,6 +12229,12 @@
                 <c:pt idx="8">
                   <c:v>27230</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>49343</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92068</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12318,6 +12346,12 @@
                 <c:pt idx="8">
                   <c:v>26919</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>49696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90879</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12428,6 +12462,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>27533</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50071</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12807,6 +12847,12 @@
                 <c:pt idx="8">
                   <c:v>1059272</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2726469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7449948</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12918,6 +12964,12 @@
                 <c:pt idx="8">
                   <c:v>141502</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>354350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>909454</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13029,6 +13081,12 @@
                 <c:pt idx="8">
                   <c:v>4601554</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>11934550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32114556</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13140,6 +13198,12 @@
                 <c:pt idx="8">
                   <c:v>26319</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>48869</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88895</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13251,6 +13315,12 @@
                 <c:pt idx="8">
                   <c:v>19319</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>34434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65576</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13364,6 +13434,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13477,6 +13550,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>27021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13624,6 +13703,531 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1208945183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$AY$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Before</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AX$66:$AX$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AY$66:$AY$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5587</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>141502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>354350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>909454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7448-45E5-BD0E-ACF6AE061FB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$AZ$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>After</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AX$66:$AX$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AZ$66:$AZ$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35914</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80842</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>202671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7448-45E5-BD0E-ACF6AE061FB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1296187007"/>
+        <c:axId val="1296174111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1296187007"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1296174111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1296174111"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1296187007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21919,6 +22523,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -28908,6 +29552,522 @@
 </file>
 
 <file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -33656,16 +34816,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>483052</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>102052</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>51707</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>367391</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>187779</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33679,6 +34839,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="차트 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -40635,10 +41825,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D12:AV45"/>
+  <dimension ref="D12:AZ76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK48" sqref="AK48"/>
+    <sheetView tabSelected="1" topLeftCell="Z31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN49" sqref="AN49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41833,11 +43023,47 @@
       <c r="AF23">
         <v>630957</v>
       </c>
+      <c r="AG23">
+        <v>49107</v>
+      </c>
+      <c r="AH23">
+        <v>49343</v>
+      </c>
+      <c r="AI23">
+        <v>49696</v>
+      </c>
+      <c r="AJ23">
+        <v>50071</v>
+      </c>
       <c r="AL23">
         <v>630957</v>
       </c>
+      <c r="AM23">
+        <v>48869</v>
+      </c>
+      <c r="AN23">
+        <v>49380</v>
+      </c>
+      <c r="AO23">
+        <v>49318</v>
+      </c>
+      <c r="AP23">
+        <v>49422</v>
+      </c>
       <c r="AR23">
         <v>630957</v>
+      </c>
+      <c r="AS23">
+        <v>339604</v>
+      </c>
+      <c r="AT23">
+        <v>189285</v>
+      </c>
+      <c r="AU23">
+        <v>37960</v>
+      </c>
+      <c r="AV23">
+        <v>34434</v>
       </c>
     </row>
     <row r="24" spans="4:48" x14ac:dyDescent="0.3">
@@ -41914,11 +43140,47 @@
       <c r="AF24">
         <v>1000000</v>
       </c>
+      <c r="AG24">
+        <v>91025</v>
+      </c>
+      <c r="AH24">
+        <v>92068</v>
+      </c>
+      <c r="AI24">
+        <v>90879</v>
+      </c>
+      <c r="AJ24">
+        <v>103179</v>
+      </c>
       <c r="AL24">
         <v>1000000</v>
       </c>
+      <c r="AM24">
+        <v>88895</v>
+      </c>
+      <c r="AN24">
+        <v>90309</v>
+      </c>
+      <c r="AO24">
+        <v>89525</v>
+      </c>
+      <c r="AP24">
+        <v>106222</v>
+      </c>
       <c r="AR24">
         <v>1000000</v>
+      </c>
+      <c r="AS24">
+        <v>864186</v>
+      </c>
+      <c r="AT24">
+        <v>476131</v>
+      </c>
+      <c r="AU24">
+        <v>84625</v>
+      </c>
+      <c r="AV24">
+        <v>65576</v>
       </c>
     </row>
     <row r="34" spans="39:46" x14ac:dyDescent="0.3">
@@ -42182,13 +43444,369 @@
       <c r="AM44">
         <v>630957</v>
       </c>
+      <c r="AN44">
+        <v>2726469</v>
+      </c>
+      <c r="AO44">
+        <v>354350</v>
+      </c>
+      <c r="AP44">
+        <v>11934550</v>
+      </c>
+      <c r="AQ44">
+        <v>48869</v>
+      </c>
+      <c r="AR44">
+        <v>34434</v>
+      </c>
       <c r="AS44">
         <v>15082</v>
+      </c>
+      <c r="AT44">
+        <v>49107</v>
       </c>
     </row>
     <row r="45" spans="39:46" x14ac:dyDescent="0.3">
       <c r="AM45">
         <v>1000000</v>
+      </c>
+      <c r="AN45">
+        <v>7449948</v>
+      </c>
+      <c r="AO45">
+        <v>909454</v>
+      </c>
+      <c r="AP45">
+        <v>32114556</v>
+      </c>
+      <c r="AQ45">
+        <v>88895</v>
+      </c>
+      <c r="AR45">
+        <v>65576</v>
+      </c>
+      <c r="AS45">
+        <v>24359</v>
+      </c>
+      <c r="AT45">
+        <v>91025</v>
+      </c>
+    </row>
+    <row r="48" spans="39:46" x14ac:dyDescent="0.3">
+      <c r="AN48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="39:40" x14ac:dyDescent="0.3">
+      <c r="AM49">
+        <v>10000</v>
+      </c>
+      <c r="AN49">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="50" spans="39:40" x14ac:dyDescent="0.3">
+      <c r="AM50">
+        <v>15848</v>
+      </c>
+      <c r="AN50">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="51" spans="39:40" x14ac:dyDescent="0.3">
+      <c r="AM51">
+        <v>25118</v>
+      </c>
+      <c r="AN51">
+        <v>12326</v>
+      </c>
+    </row>
+    <row r="52" spans="39:40" x14ac:dyDescent="0.3">
+      <c r="AM52">
+        <v>39810</v>
+      </c>
+      <c r="AN52">
+        <v>33166</v>
+      </c>
+    </row>
+    <row r="53" spans="39:40" x14ac:dyDescent="0.3">
+      <c r="AM53">
+        <v>63095</v>
+      </c>
+      <c r="AN53">
+        <v>82917</v>
+      </c>
+    </row>
+    <row r="54" spans="39:40" x14ac:dyDescent="0.3">
+      <c r="AM54">
+        <v>100000</v>
+      </c>
+      <c r="AN54">
+        <v>213328</v>
+      </c>
+    </row>
+    <row r="55" spans="39:40" x14ac:dyDescent="0.3">
+      <c r="AM55">
+        <v>158489</v>
+      </c>
+      <c r="AN55">
+        <v>555887</v>
+      </c>
+    </row>
+    <row r="56" spans="39:40" x14ac:dyDescent="0.3">
+      <c r="AM56">
+        <v>251188</v>
+      </c>
+      <c r="AN56">
+        <v>1408840</v>
+      </c>
+    </row>
+    <row r="57" spans="39:40" x14ac:dyDescent="0.3">
+      <c r="AM57">
+        <v>398107</v>
+      </c>
+      <c r="AN57">
+        <v>3457405</v>
+      </c>
+    </row>
+    <row r="58" spans="39:40" x14ac:dyDescent="0.3">
+      <c r="AM58">
+        <v>630957</v>
+      </c>
+      <c r="AN58">
+        <v>8671151</v>
+      </c>
+    </row>
+    <row r="59" spans="39:40" x14ac:dyDescent="0.3">
+      <c r="AM59">
+        <v>1000000</v>
+      </c>
+      <c r="AN59">
+        <v>22241199</v>
+      </c>
+    </row>
+    <row r="64" spans="39:40" x14ac:dyDescent="0.3">
+      <c r="AM64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AO65" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AM66">
+        <v>10000</v>
+      </c>
+      <c r="AN66">
+        <v>830</v>
+      </c>
+      <c r="AO66">
+        <v>856</v>
+      </c>
+      <c r="AX66">
+        <v>10000</v>
+      </c>
+      <c r="AY66">
+        <v>943</v>
+      </c>
+      <c r="AZ66">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="67" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AM67">
+        <v>15848</v>
+      </c>
+      <c r="AN67">
+        <v>1744</v>
+      </c>
+      <c r="AO67">
+        <v>1092</v>
+      </c>
+      <c r="AX67">
+        <v>15848</v>
+      </c>
+      <c r="AY67">
+        <v>1192</v>
+      </c>
+      <c r="AZ67">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="68" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AM68">
+        <v>25118</v>
+      </c>
+      <c r="AN68">
+        <v>3187</v>
+      </c>
+      <c r="AO68">
+        <v>1522</v>
+      </c>
+      <c r="AX68">
+        <v>25118</v>
+      </c>
+      <c r="AY68">
+        <v>2038</v>
+      </c>
+      <c r="AZ68">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="69" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AM69">
+        <v>39810</v>
+      </c>
+      <c r="AN69">
+        <v>7067</v>
+      </c>
+      <c r="AO69">
+        <v>2180</v>
+      </c>
+      <c r="AX69">
+        <v>39810</v>
+      </c>
+      <c r="AY69">
+        <v>3247</v>
+      </c>
+      <c r="AZ69">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="70" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AM70">
+        <v>63095</v>
+      </c>
+      <c r="AN70">
+        <v>12437</v>
+      </c>
+      <c r="AO70">
+        <v>3411</v>
+      </c>
+      <c r="AX70">
+        <v>63095</v>
+      </c>
+      <c r="AY70">
+        <v>5587</v>
+      </c>
+      <c r="AZ70">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="71" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AM71">
+        <v>100000</v>
+      </c>
+      <c r="AN71">
+        <v>45374</v>
+      </c>
+      <c r="AO71">
+        <v>5370</v>
+      </c>
+      <c r="AX71">
+        <v>100000</v>
+      </c>
+      <c r="AY71">
+        <v>11847</v>
+      </c>
+      <c r="AZ71">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="72" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AM72">
+        <v>158489</v>
+      </c>
+      <c r="AN72">
+        <v>127690</v>
+      </c>
+      <c r="AO72">
+        <v>9211</v>
+      </c>
+      <c r="AX72">
+        <v>158489</v>
+      </c>
+      <c r="AY72">
+        <v>25824</v>
+      </c>
+      <c r="AZ72">
+        <v>9211</v>
+      </c>
+    </row>
+    <row r="73" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AM73">
+        <v>251188</v>
+      </c>
+      <c r="AO73">
+        <v>17232</v>
+      </c>
+      <c r="AX73">
+        <v>251188</v>
+      </c>
+      <c r="AY73">
+        <v>59552</v>
+      </c>
+      <c r="AZ73">
+        <v>17232</v>
+      </c>
+    </row>
+    <row r="74" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AM74">
+        <v>398107</v>
+      </c>
+      <c r="AO74">
+        <v>35914</v>
+      </c>
+      <c r="AX74">
+        <v>398107</v>
+      </c>
+      <c r="AY74">
+        <v>141502</v>
+      </c>
+      <c r="AZ74">
+        <v>35914</v>
+      </c>
+    </row>
+    <row r="75" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AM75">
+        <v>630957</v>
+      </c>
+      <c r="AO75">
+        <v>80842</v>
+      </c>
+      <c r="AX75">
+        <v>630957</v>
+      </c>
+      <c r="AY75">
+        <v>354350</v>
+      </c>
+      <c r="AZ75">
+        <v>80842</v>
+      </c>
+    </row>
+    <row r="76" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AM76">
+        <v>1000000</v>
+      </c>
+      <c r="AO76">
+        <v>202671</v>
+      </c>
+      <c r="AX76">
+        <v>1000000</v>
+      </c>
+      <c r="AY76">
+        <v>909454</v>
+      </c>
+      <c r="AZ76">
+        <v>202671</v>
       </c>
     </row>
   </sheetData>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="51">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,26 @@
   </si>
   <si>
     <t>JoinMH_old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastTokenFiltering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinMin_Q_old</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,6 +886,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1436,6 +1457,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1517,6 +1539,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2475,6 +2498,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2556,6 +2580,33 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>AOL</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2600,7 +2651,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JoinMH</c:v>
+                  <c:v>JoinMH_QL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2678,37 +2729,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1280</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1534</c:v>
+                  <c:v>1.534</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1797</c:v>
+                  <c:v>1.7969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2442</c:v>
+                  <c:v>2.4420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2967</c:v>
+                  <c:v>2.9670000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4380</c:v>
+                  <c:v>4.38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6215</c:v>
+                  <c:v>6.2149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10383</c:v>
+                  <c:v>10.382999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17508</c:v>
+                  <c:v>17.507999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30884</c:v>
+                  <c:v>30.884</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68409</c:v>
+                  <c:v>68.409000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2729,7 +2780,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JoinMin</c:v>
+                  <c:v>JoinMin_Q</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2807,37 +2858,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1638</c:v>
+                  <c:v>1.6379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2097</c:v>
+                  <c:v>2.097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2616</c:v>
+                  <c:v>2.6160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3405</c:v>
+                  <c:v>3.4049999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3993</c:v>
+                  <c:v>3.9929999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5782</c:v>
+                  <c:v>5.782</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8096</c:v>
+                  <c:v>8.0960000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12520</c:v>
+                  <c:v>12.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21040</c:v>
+                  <c:v>21.04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35464</c:v>
+                  <c:v>35.463999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73397</c:v>
+                  <c:v>73.397000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2936,37 +2987,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1305</c:v>
+                  <c:v>1.3049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1654</c:v>
+                  <c:v>1.6539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2068</c:v>
+                  <c:v>2.0680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2884</c:v>
+                  <c:v>2.8839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4199</c:v>
+                  <c:v>4.1989999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6971</c:v>
+                  <c:v>6.9710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13629</c:v>
+                  <c:v>13.629</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28842</c:v>
+                  <c:v>28.841999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63071</c:v>
+                  <c:v>63.070999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>145481</c:v>
+                  <c:v>145.48099999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>346745</c:v>
+                  <c:v>346.745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2987,7 +3038,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JoinHybrid</c:v>
+                  <c:v>JoinHybridOpt_Q</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3065,37 +3116,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2022</c:v>
+                  <c:v>2.0219999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2627</c:v>
+                  <c:v>2.6269999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3429</c:v>
+                  <c:v>3.4289999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4041</c:v>
+                  <c:v>4.0410000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5940</c:v>
+                  <c:v>5.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8209</c:v>
+                  <c:v>8.2089999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12457</c:v>
+                  <c:v>12.457000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19328</c:v>
+                  <c:v>19.327999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28553</c:v>
+                  <c:v>28.553000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43729</c:v>
+                  <c:v>43.728999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90014</c:v>
+                  <c:v>90.013999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3116,7 +3167,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JoinHybridThres</c:v>
+                  <c:v>JoinHybridThres_Q</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3194,37 +3245,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1614</c:v>
+                  <c:v>1.6140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1936</c:v>
+                  <c:v>1.9359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2465</c:v>
+                  <c:v>2.4649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3230</c:v>
+                  <c:v>3.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4271</c:v>
+                  <c:v>4.2709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5482</c:v>
+                  <c:v>5.4820000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7979</c:v>
+                  <c:v>7.9790000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12356</c:v>
+                  <c:v>12.356</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20436</c:v>
+                  <c:v>20.436</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33881</c:v>
+                  <c:v>33.881</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71691</c:v>
+                  <c:v>71.691000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3316,7 +3367,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1000"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3385,6 +3436,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3398,7 +3450,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3466,6 +3518,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3588,37 +3641,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.28</c:v>
+                  <c:v>1.2800000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.534</c:v>
+                  <c:v>1.534E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7969999999999999</c:v>
+                  <c:v>1.797E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4420000000000002</c:v>
+                  <c:v>2.4420000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9670000000000001</c:v>
+                  <c:v>2.967E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.38</c:v>
+                  <c:v>4.3800000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2149999999999999</c:v>
+                  <c:v>6.215E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.382999999999999</c:v>
+                  <c:v>1.0383E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.507999999999999</c:v>
+                  <c:v>1.7507999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.884</c:v>
+                  <c:v>3.0884000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.409000000000006</c:v>
+                  <c:v>6.8409000000000011E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3717,37 +3770,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.6379999999999999</c:v>
+                  <c:v>1.6379999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.097</c:v>
+                  <c:v>2.0969999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6160000000000001</c:v>
+                  <c:v>2.6160000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4049999999999998</c:v>
+                  <c:v>3.4049999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9929999999999999</c:v>
+                  <c:v>3.993E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.782</c:v>
+                  <c:v>5.7819999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0960000000000001</c:v>
+                  <c:v>8.0960000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.52</c:v>
+                  <c:v>1.252E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.04</c:v>
+                  <c:v>2.104E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.463999999999999</c:v>
+                  <c:v>3.5463999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.397000000000006</c:v>
+                  <c:v>7.3397000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3846,37 +3899,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.3049999999999999</c:v>
+                  <c:v>1.305E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6539999999999999</c:v>
+                  <c:v>1.6539999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0680000000000001</c:v>
+                  <c:v>2.068E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8839999999999999</c:v>
+                  <c:v>2.8839999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1989999999999998</c:v>
+                  <c:v>4.1989999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9710000000000001</c:v>
+                  <c:v>6.9709999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.629</c:v>
+                  <c:v>1.3628999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.841999999999999</c:v>
+                  <c:v>2.8842E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.070999999999998</c:v>
+                  <c:v>6.3071000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>145.48099999999999</c:v>
+                  <c:v>0.145481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>346.745</c:v>
+                  <c:v>0.34674500000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3975,37 +4028,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.0219999999999998</c:v>
+                  <c:v>2.0219999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6269999999999998</c:v>
+                  <c:v>2.627E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4289999999999998</c:v>
+                  <c:v>3.4289999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0410000000000004</c:v>
+                  <c:v>4.0410000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.94</c:v>
+                  <c:v>5.94E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2089999999999996</c:v>
+                  <c:v>8.2089999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.457000000000001</c:v>
+                  <c:v>1.2457000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.327999999999999</c:v>
+                  <c:v>1.9327999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.553000000000001</c:v>
+                  <c:v>2.8553000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.728999999999999</c:v>
+                  <c:v>4.3728999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90.013999999999996</c:v>
+                  <c:v>9.0013999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4104,37 +4157,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.6140000000000001</c:v>
+                  <c:v>1.6140000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9359999999999999</c:v>
+                  <c:v>1.936E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4649999999999999</c:v>
+                  <c:v>2.4649999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.23</c:v>
+                  <c:v>3.2299999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2709999999999999</c:v>
+                  <c:v>4.2709999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4820000000000002</c:v>
+                  <c:v>5.4819999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9790000000000001</c:v>
+                  <c:v>7.979E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.356</c:v>
+                  <c:v>1.2356000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.436</c:v>
+                  <c:v>2.0435999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.881</c:v>
+                  <c:v>3.3881000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.691000000000003</c:v>
+                  <c:v>7.1691000000000005E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4295,6 +4348,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4376,6 +4430,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5076,6 +5131,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5157,6 +5213,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5855,6 +5912,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12710,6 +12768,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>USPS</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -12747,359 +12831,8 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>USPS_Sample!$AN$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JoinMH_QL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$AM$35:$AM$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$AN$35:$AN$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1411</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2395</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4790</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10670</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25097</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63737</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>161147</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>405322</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1059272</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2726469</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7449948</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CC42-40C6-B227-4E94264E9270}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>USPS_Sample!$AO$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JoinMin_Q</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$AM$35:$AM$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$AO$35:$AO$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>943</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1192</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3247</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5587</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11847</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25824</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59552</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>141502</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>354350</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>909454</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CC42-40C6-B227-4E94264E9270}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>USPS_Sample!$AP$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SIJoin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$AM$35:$AM$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$AP$35:$AP$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16681</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41769</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100508</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>262835</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>664339</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1760654</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4601554</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11934550</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32114556</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CC42-40C6-B227-4E94264E9270}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>USPS_Sample!$AQ$34</c:f>
@@ -13121,7 +12854,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -13172,37 +12917,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1068</c:v>
+                  <c:v>1.0680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1808</c:v>
+                  <c:v>1.8080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2425</c:v>
+                  <c:v>2.4249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3793</c:v>
+                  <c:v>3.7930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6541</c:v>
+                  <c:v>6.5410000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6892</c:v>
+                  <c:v>6.8920000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10451</c:v>
+                  <c:v>10.451000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16593</c:v>
+                  <c:v>16.593</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26319</c:v>
+                  <c:v>26.318999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48869</c:v>
+                  <c:v>48.869</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88895</c:v>
+                  <c:v>88.894999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13216,7 +12961,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>USPS_Sample!$AR$34</c:f>
@@ -13238,7 +12983,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -13289,37 +13046,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>866</c:v>
+                  <c:v>0.86599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1221</c:v>
+                  <c:v>1.2210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1800</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2504</c:v>
+                  <c:v>2.504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3282</c:v>
+                  <c:v>3.282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4968</c:v>
+                  <c:v>4.968</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7623</c:v>
+                  <c:v>7.6230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11723</c:v>
+                  <c:v>11.723000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19319</c:v>
+                  <c:v>19.318999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34434</c:v>
+                  <c:v>34.433999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65576</c:v>
+                  <c:v>65.575999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13333,7 +13090,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>USPS_Sample!$AS$34</c:f>
@@ -13355,7 +13112,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -13406,37 +13175,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>699</c:v>
+                  <c:v>0.69899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>799</c:v>
+                  <c:v>0.79900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1020</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1381</c:v>
+                  <c:v>1.381</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2027</c:v>
+                  <c:v>2.0270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2631</c:v>
+                  <c:v>2.6309999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3911</c:v>
+                  <c:v>3.911</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6248</c:v>
+                  <c:v>6.2480000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9697</c:v>
+                  <c:v>9.6969999999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15082</c:v>
+                  <c:v>15.082000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24359</c:v>
+                  <c:v>24.359000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13445,125 +13214,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-CC42-40C6-B227-4E94264E9270}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>USPS_Sample!$AT$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JoinHybridOpt_Old</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$AM$35:$AM$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$AT$35:$AT$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1032</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1651</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2422</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6724</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7452</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10677</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16973</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>49107</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>91025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CC42-40C6-B227-4E94264E9270}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13647,7 +13297,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="100"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -13730,7 +13380,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -13798,6 +13448,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>JoinMin_Q</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -13921,37 +13597,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>943</c:v>
+                  <c:v>0.94299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1192</c:v>
+                  <c:v>1.1919999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2038</c:v>
+                  <c:v>2.0379999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3247</c:v>
+                  <c:v>3.2469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5587</c:v>
+                  <c:v>5.5869999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11847</c:v>
+                  <c:v>11.847</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25824</c:v>
+                  <c:v>25.824000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59552</c:v>
+                  <c:v>59.552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>141502</c:v>
+                  <c:v>141.50200000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>354350</c:v>
+                  <c:v>354.35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>909454</c:v>
+                  <c:v>909.45399999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14050,37 +13726,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>856</c:v>
+                  <c:v>0.85599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1092</c:v>
+                  <c:v>1.0920000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1522</c:v>
+                  <c:v>1.522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2180</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3411</c:v>
+                  <c:v>3.411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5370</c:v>
+                  <c:v>5.37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9211</c:v>
+                  <c:v>9.2110000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17232</c:v>
+                  <c:v>17.231999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35914</c:v>
+                  <c:v>35.914000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80842</c:v>
+                  <c:v>80.841999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>202671</c:v>
+                  <c:v>202.67099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14172,6 +13848,530 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1296187007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$AY$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Before</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AX$53:$AX$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AY$53:$AY$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4790</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10670</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>405322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1059272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2726469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7449948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A13F-4CC6-AE01-7AEB0C48DAFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$AZ$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>After</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AX$53:$AX$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$AZ$53:$AZ$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18770</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65070</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>488271</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>987669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2826749</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7585988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A13F-4CC6-AE01-7AEB0C48DAFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1296178687"/>
+        <c:axId val="1296186175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1296178687"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1296186175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1296186175"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
           <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -14227,7 +14427,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1296187007"/>
+        <c:crossAx val="1296178687"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17992,6 +18192,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18949,6 +19150,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19060,6 +19262,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20017,6 +20220,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22563,6 +22767,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -30068,6 +30312,522 @@
 </file>
 
 <file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -34541,16 +35301,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34816,16 +35576,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>102052</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>319766</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>367391</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>187779</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>585106</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34846,16 +35606,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>125185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>146957</xdr:rowOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34869,6 +35629,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>612322</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>166006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>51706</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="차트 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39463,10 +40253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AA80"/>
+  <dimension ref="A2:AA108"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q59" sqref="Q59"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="U111" sqref="U111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41038,23 +41828,23 @@
       </c>
       <c r="B57">
         <f>B70/1000</f>
-        <v>1.28</v>
+        <v>1.2800000000000001E-3</v>
       </c>
       <c r="C57">
         <f t="shared" ref="C57:F57" si="11">C70/1000</f>
-        <v>1.6379999999999999</v>
+        <v>1.6379999999999999E-3</v>
       </c>
       <c r="D57">
         <f t="shared" si="11"/>
-        <v>1.3049999999999999</v>
+        <v>1.305E-3</v>
       </c>
       <c r="E57">
         <f t="shared" si="11"/>
-        <v>2.0219999999999998</v>
+        <v>2.0219999999999999E-3</v>
       </c>
       <c r="F57">
         <f t="shared" si="11"/>
-        <v>1.6140000000000001</v>
+        <v>1.6140000000000002E-3</v>
       </c>
       <c r="R57">
         <v>100000</v>
@@ -41078,23 +41868,23 @@
       </c>
       <c r="B58">
         <f t="shared" ref="B58:F58" si="12">B71/1000</f>
-        <v>1.534</v>
+        <v>1.534E-3</v>
       </c>
       <c r="C58">
         <f t="shared" si="12"/>
-        <v>2.097</v>
+        <v>2.0969999999999999E-3</v>
       </c>
       <c r="D58">
         <f t="shared" si="12"/>
-        <v>1.6539999999999999</v>
+        <v>1.6539999999999999E-3</v>
       </c>
       <c r="E58">
         <f t="shared" si="12"/>
-        <v>2.6269999999999998</v>
+        <v>2.627E-3</v>
       </c>
       <c r="F58">
         <f t="shared" si="12"/>
-        <v>1.9359999999999999</v>
+        <v>1.936E-3</v>
       </c>
       <c r="R58">
         <v>158489</v>
@@ -41118,23 +41908,23 @@
       </c>
       <c r="B59">
         <f t="shared" ref="B59:F59" si="13">B72/1000</f>
-        <v>1.7969999999999999</v>
+        <v>1.797E-3</v>
       </c>
       <c r="C59">
         <f t="shared" si="13"/>
-        <v>2.6160000000000001</v>
+        <v>2.6160000000000003E-3</v>
       </c>
       <c r="D59">
         <f t="shared" si="13"/>
-        <v>2.0680000000000001</v>
+        <v>2.068E-3</v>
       </c>
       <c r="E59">
         <f t="shared" si="13"/>
-        <v>3.4289999999999998</v>
+        <v>3.4289999999999998E-3</v>
       </c>
       <c r="F59">
         <f t="shared" si="13"/>
-        <v>2.4649999999999999</v>
+        <v>2.4649999999999997E-3</v>
       </c>
       <c r="R59">
         <v>251188</v>
@@ -41158,23 +41948,23 @@
       </c>
       <c r="B60">
         <f t="shared" ref="B60:F60" si="14">B73/1000</f>
-        <v>2.4420000000000002</v>
+        <v>2.4420000000000002E-3</v>
       </c>
       <c r="C60">
         <f t="shared" si="14"/>
-        <v>3.4049999999999998</v>
+        <v>3.4049999999999996E-3</v>
       </c>
       <c r="D60">
         <f t="shared" si="14"/>
-        <v>2.8839999999999999</v>
+        <v>2.8839999999999998E-3</v>
       </c>
       <c r="E60">
         <f t="shared" si="14"/>
-        <v>4.0410000000000004</v>
+        <v>4.0410000000000003E-3</v>
       </c>
       <c r="F60">
         <f t="shared" si="14"/>
-        <v>3.23</v>
+        <v>3.2299999999999998E-3</v>
       </c>
       <c r="R60">
         <v>398107</v>
@@ -41198,23 +41988,23 @@
       </c>
       <c r="B61">
         <f t="shared" ref="B61:F61" si="15">B74/1000</f>
-        <v>2.9670000000000001</v>
+        <v>2.967E-3</v>
       </c>
       <c r="C61">
         <f t="shared" si="15"/>
-        <v>3.9929999999999999</v>
+        <v>3.993E-3</v>
       </c>
       <c r="D61">
         <f t="shared" si="15"/>
-        <v>4.1989999999999998</v>
+        <v>4.1989999999999996E-3</v>
       </c>
       <c r="E61">
         <f t="shared" si="15"/>
-        <v>5.94</v>
+        <v>5.94E-3</v>
       </c>
       <c r="F61">
         <f t="shared" si="15"/>
-        <v>4.2709999999999999</v>
+        <v>4.2709999999999996E-3</v>
       </c>
       <c r="R61">
         <v>630957</v>
@@ -41238,23 +42028,23 @@
       </c>
       <c r="B62">
         <f t="shared" ref="B62:F62" si="16">B75/1000</f>
-        <v>4.38</v>
+        <v>4.3800000000000002E-3</v>
       </c>
       <c r="C62">
         <f t="shared" si="16"/>
-        <v>5.782</v>
+        <v>5.7819999999999998E-3</v>
       </c>
       <c r="D62">
         <f t="shared" si="16"/>
-        <v>6.9710000000000001</v>
+        <v>6.9709999999999998E-3</v>
       </c>
       <c r="E62">
         <f t="shared" si="16"/>
-        <v>8.2089999999999996</v>
+        <v>8.2089999999999993E-3</v>
       </c>
       <c r="F62">
         <f t="shared" si="16"/>
-        <v>5.4820000000000002</v>
+        <v>5.4819999999999999E-3</v>
       </c>
       <c r="R62">
         <v>1000000</v>
@@ -41278,23 +42068,23 @@
       </c>
       <c r="B63">
         <f t="shared" ref="B63:F63" si="17">B76/1000</f>
-        <v>6.2149999999999999</v>
+        <v>6.215E-3</v>
       </c>
       <c r="C63">
         <f t="shared" si="17"/>
-        <v>8.0960000000000001</v>
+        <v>8.0960000000000008E-3</v>
       </c>
       <c r="D63">
         <f t="shared" si="17"/>
-        <v>13.629</v>
+        <v>1.3628999999999999E-2</v>
       </c>
       <c r="E63">
         <f t="shared" si="17"/>
-        <v>12.457000000000001</v>
+        <v>1.2457000000000001E-2</v>
       </c>
       <c r="F63">
         <f t="shared" si="17"/>
-        <v>7.9790000000000001</v>
+        <v>7.979E-3</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
@@ -41303,23 +42093,23 @@
       </c>
       <c r="B64">
         <f t="shared" ref="B64:F64" si="18">B77/1000</f>
-        <v>10.382999999999999</v>
+        <v>1.0383E-2</v>
       </c>
       <c r="C64">
         <f t="shared" si="18"/>
-        <v>12.52</v>
+        <v>1.252E-2</v>
       </c>
       <c r="D64">
         <f t="shared" si="18"/>
-        <v>28.841999999999999</v>
+        <v>2.8842E-2</v>
       </c>
       <c r="E64">
         <f t="shared" si="18"/>
-        <v>19.327999999999999</v>
+        <v>1.9327999999999998E-2</v>
       </c>
       <c r="F64">
         <f t="shared" si="18"/>
-        <v>12.356</v>
+        <v>1.2356000000000001E-2</v>
       </c>
       <c r="S64" t="s">
         <v>34</v>
@@ -41331,23 +42121,23 @@
       </c>
       <c r="B65">
         <f t="shared" ref="B65:F65" si="19">B78/1000</f>
-        <v>17.507999999999999</v>
+        <v>1.7507999999999999E-2</v>
       </c>
       <c r="C65">
         <f t="shared" si="19"/>
-        <v>21.04</v>
+        <v>2.104E-2</v>
       </c>
       <c r="D65">
         <f t="shared" si="19"/>
-        <v>63.070999999999998</v>
+        <v>6.3071000000000002E-2</v>
       </c>
       <c r="E65">
         <f t="shared" si="19"/>
-        <v>28.553000000000001</v>
+        <v>2.8553000000000002E-2</v>
       </c>
       <c r="F65">
         <f t="shared" si="19"/>
-        <v>20.436</v>
+        <v>2.0435999999999999E-2</v>
       </c>
       <c r="S65">
         <v>3</v>
@@ -41368,23 +42158,23 @@
       </c>
       <c r="B66">
         <f t="shared" ref="B66:F67" si="20">B79/1000</f>
-        <v>30.884</v>
+        <v>3.0884000000000002E-2</v>
       </c>
       <c r="C66">
         <f t="shared" si="20"/>
-        <v>35.463999999999999</v>
+        <v>3.5463999999999996E-2</v>
       </c>
       <c r="D66">
         <f t="shared" si="20"/>
-        <v>145.48099999999999</v>
+        <v>0.145481</v>
       </c>
       <c r="E66">
         <f t="shared" si="20"/>
-        <v>43.728999999999999</v>
+        <v>4.3728999999999997E-2</v>
       </c>
       <c r="F66">
         <f t="shared" si="20"/>
-        <v>33.881</v>
+        <v>3.3881000000000001E-2</v>
       </c>
       <c r="R66">
         <v>10000</v>
@@ -41408,23 +42198,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:D67" si="21">B80/1000</f>
-        <v>68.409000000000006</v>
+        <v>6.8409000000000011E-2</v>
       </c>
       <c r="C67">
         <f t="shared" si="21"/>
-        <v>73.397000000000006</v>
+        <v>7.3397000000000004E-2</v>
       </c>
       <c r="D67">
         <f t="shared" si="21"/>
-        <v>346.745</v>
+        <v>0.34674500000000003</v>
       </c>
       <c r="E67">
         <f t="shared" si="20"/>
-        <v>90.013999999999996</v>
+        <v>9.0013999999999997E-2</v>
       </c>
       <c r="F67">
         <f t="shared" si="20"/>
-        <v>71.691000000000003</v>
+        <v>7.1691000000000005E-2</v>
       </c>
       <c r="R67">
         <v>15848</v>
@@ -41461,19 +42251,37 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D69" t="s">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" t="s">
+        <v>26</v>
+      </c>
+      <c r="L69" t="s">
+        <v>35</v>
+      </c>
+      <c r="M69" t="s">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>33</v>
+      </c>
+      <c r="O69" t="s">
+        <v>34</v>
       </c>
       <c r="R69">
         <v>39810</v>
@@ -41496,18 +42304,41 @@
         <v>10000</v>
       </c>
       <c r="B70">
+        <f>K70/1000</f>
+        <v>1.28</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ref="C70:F80" si="22">L70/1000</f>
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="22"/>
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="22"/>
+        <v>2.0219999999999998</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="22"/>
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="J70">
+        <v>10000</v>
+      </c>
+      <c r="K70">
         <v>1280</v>
       </c>
-      <c r="C70">
+      <c r="L70">
         <v>1638</v>
       </c>
-      <c r="D70">
+      <c r="M70">
         <v>1305</v>
       </c>
-      <c r="E70">
+      <c r="N70">
         <v>2022</v>
       </c>
-      <c r="F70">
+      <c r="O70">
         <v>1614</v>
       </c>
       <c r="R70">
@@ -41531,18 +42362,41 @@
         <v>15848</v>
       </c>
       <c r="B71">
+        <f t="shared" ref="B71:B80" si="23">K71/1000</f>
+        <v>1.534</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="22"/>
+        <v>2.097</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="22"/>
+        <v>1.6539999999999999</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="22"/>
+        <v>2.6269999999999998</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="22"/>
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="J71">
+        <v>15848</v>
+      </c>
+      <c r="K71">
         <v>1534</v>
       </c>
-      <c r="C71">
+      <c r="L71">
         <v>2097</v>
       </c>
-      <c r="D71">
+      <c r="M71">
         <v>1654</v>
       </c>
-      <c r="E71">
+      <c r="N71">
         <v>2627</v>
       </c>
-      <c r="F71">
+      <c r="O71">
         <v>1936</v>
       </c>
       <c r="R71">
@@ -41566,18 +42420,41 @@
         <v>25118</v>
       </c>
       <c r="B72">
+        <f t="shared" si="23"/>
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="22"/>
+        <v>2.6160000000000001</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="22"/>
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="22"/>
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="22"/>
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="J72">
+        <v>25118</v>
+      </c>
+      <c r="K72">
         <v>1797</v>
       </c>
-      <c r="C72">
+      <c r="L72">
         <v>2616</v>
       </c>
-      <c r="D72">
+      <c r="M72">
         <v>2068</v>
       </c>
-      <c r="E72">
+      <c r="N72">
         <v>3429</v>
       </c>
-      <c r="F72">
+      <c r="O72">
         <v>2465</v>
       </c>
       <c r="R72">
@@ -41601,18 +42478,41 @@
         <v>39810</v>
       </c>
       <c r="B73">
+        <f t="shared" si="23"/>
+        <v>2.4420000000000002</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="22"/>
+        <v>3.4049999999999998</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="22"/>
+        <v>2.8839999999999999</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="22"/>
+        <v>4.0410000000000004</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="22"/>
+        <v>3.23</v>
+      </c>
+      <c r="J73">
+        <v>39810</v>
+      </c>
+      <c r="K73">
         <v>2442</v>
       </c>
-      <c r="C73">
+      <c r="L73">
         <v>3405</v>
       </c>
-      <c r="D73">
+      <c r="M73">
         <v>2884</v>
       </c>
-      <c r="E73">
+      <c r="N73">
         <v>4041</v>
       </c>
-      <c r="F73">
+      <c r="O73">
         <v>3230</v>
       </c>
       <c r="R73">
@@ -41636,18 +42536,41 @@
         <v>63095</v>
       </c>
       <c r="B74">
+        <f t="shared" si="23"/>
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="22"/>
+        <v>3.9929999999999999</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="22"/>
+        <v>4.1989999999999998</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="22"/>
+        <v>5.94</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="22"/>
+        <v>4.2709999999999999</v>
+      </c>
+      <c r="J74">
+        <v>63095</v>
+      </c>
+      <c r="K74">
         <v>2967</v>
       </c>
-      <c r="C74">
+      <c r="L74">
         <v>3993</v>
       </c>
-      <c r="D74">
+      <c r="M74">
         <v>4199</v>
       </c>
-      <c r="E74">
+      <c r="N74">
         <v>5940</v>
       </c>
-      <c r="F74">
+      <c r="O74">
         <v>4271</v>
       </c>
       <c r="R74">
@@ -41671,18 +42594,41 @@
         <v>100000</v>
       </c>
       <c r="B75">
+        <f t="shared" si="23"/>
+        <v>4.38</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="22"/>
+        <v>5.782</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="22"/>
+        <v>6.9710000000000001</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="22"/>
+        <v>8.2089999999999996</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="22"/>
+        <v>5.4820000000000002</v>
+      </c>
+      <c r="J75">
+        <v>100000</v>
+      </c>
+      <c r="K75">
         <v>4380</v>
       </c>
-      <c r="C75">
+      <c r="L75">
         <v>5782</v>
       </c>
-      <c r="D75">
+      <c r="M75">
         <v>6971</v>
       </c>
-      <c r="E75">
+      <c r="N75">
         <v>8209</v>
       </c>
-      <c r="F75">
+      <c r="O75">
         <v>5482</v>
       </c>
       <c r="R75">
@@ -41706,18 +42652,41 @@
         <v>158489</v>
       </c>
       <c r="B76">
+        <f t="shared" si="23"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="22"/>
+        <v>8.0960000000000001</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="22"/>
+        <v>13.629</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="22"/>
+        <v>12.457000000000001</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="22"/>
+        <v>7.9790000000000001</v>
+      </c>
+      <c r="J76">
+        <v>158489</v>
+      </c>
+      <c r="K76">
         <v>6215</v>
       </c>
-      <c r="C76">
+      <c r="L76">
         <v>8096</v>
       </c>
-      <c r="D76">
+      <c r="M76">
         <v>13629</v>
       </c>
-      <c r="E76">
+      <c r="N76">
         <v>12457</v>
       </c>
-      <c r="F76">
+      <c r="O76">
         <v>7979</v>
       </c>
       <c r="R76">
@@ -41741,18 +42710,41 @@
         <v>251188</v>
       </c>
       <c r="B77">
+        <f t="shared" si="23"/>
+        <v>10.382999999999999</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="22"/>
+        <v>12.52</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="22"/>
+        <v>28.841999999999999</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="22"/>
+        <v>19.327999999999999</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="22"/>
+        <v>12.356</v>
+      </c>
+      <c r="J77">
+        <v>251188</v>
+      </c>
+      <c r="K77">
         <v>10383</v>
       </c>
-      <c r="C77">
+      <c r="L77">
         <v>12520</v>
       </c>
-      <c r="D77">
+      <c r="M77">
         <v>28842</v>
       </c>
-      <c r="E77">
+      <c r="N77">
         <v>19328</v>
       </c>
-      <c r="F77">
+      <c r="O77">
         <v>12356</v>
       </c>
     </row>
@@ -41761,18 +42753,41 @@
         <v>398107</v>
       </c>
       <c r="B78">
+        <f t="shared" si="23"/>
+        <v>17.507999999999999</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="22"/>
+        <v>21.04</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="22"/>
+        <v>63.070999999999998</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="22"/>
+        <v>28.553000000000001</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="22"/>
+        <v>20.436</v>
+      </c>
+      <c r="J78">
+        <v>398107</v>
+      </c>
+      <c r="K78">
         <v>17508</v>
       </c>
-      <c r="C78">
+      <c r="L78">
         <v>21040</v>
       </c>
-      <c r="D78">
+      <c r="M78">
         <v>63071</v>
       </c>
-      <c r="E78">
+      <c r="N78">
         <v>28553</v>
       </c>
-      <c r="F78">
+      <c r="O78">
         <v>20436</v>
       </c>
     </row>
@@ -41781,18 +42796,41 @@
         <v>630957</v>
       </c>
       <c r="B79">
+        <f t="shared" si="23"/>
+        <v>30.884</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="22"/>
+        <v>35.463999999999999</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="22"/>
+        <v>145.48099999999999</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="22"/>
+        <v>43.728999999999999</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="22"/>
+        <v>33.881</v>
+      </c>
+      <c r="J79">
+        <v>630957</v>
+      </c>
+      <c r="K79">
         <v>30884</v>
       </c>
-      <c r="C79">
+      <c r="L79">
         <v>35464</v>
       </c>
-      <c r="D79">
+      <c r="M79">
         <v>145481</v>
       </c>
-      <c r="E79">
+      <c r="N79">
         <v>43729</v>
       </c>
-      <c r="F79">
+      <c r="O79">
         <v>33881</v>
       </c>
     </row>
@@ -41801,19 +42839,289 @@
         <v>1000000</v>
       </c>
       <c r="B80">
+        <f t="shared" si="23"/>
+        <v>68.409000000000006</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="22"/>
+        <v>73.397000000000006</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="22"/>
+        <v>346.745</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="22"/>
+        <v>90.013999999999996</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="22"/>
+        <v>71.691000000000003</v>
+      </c>
+      <c r="J80">
+        <v>1000000</v>
+      </c>
+      <c r="K80">
         <v>68409</v>
       </c>
-      <c r="C80">
+      <c r="L80">
         <v>73397</v>
       </c>
-      <c r="D80">
+      <c r="M80">
         <v>346745</v>
       </c>
-      <c r="E80">
+      <c r="N80">
         <v>90014</v>
       </c>
-      <c r="F80">
+      <c r="O80">
         <v>71691</v>
+      </c>
+    </row>
+    <row r="94" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F97" t="s">
+        <v>48</v>
+      </c>
+      <c r="G97" t="s">
+        <v>47</v>
+      </c>
+      <c r="J97" t="s">
+        <v>48</v>
+      </c>
+      <c r="K97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>10000</v>
+      </c>
+      <c r="F98">
+        <v>1280</v>
+      </c>
+      <c r="G98">
+        <v>1289</v>
+      </c>
+      <c r="I98">
+        <v>10000</v>
+      </c>
+      <c r="J98">
+        <v>1638</v>
+      </c>
+      <c r="K98">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="99" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>15848</v>
+      </c>
+      <c r="F99">
+        <v>1534</v>
+      </c>
+      <c r="G99">
+        <v>1545</v>
+      </c>
+      <c r="I99">
+        <v>15848</v>
+      </c>
+      <c r="J99">
+        <v>2097</v>
+      </c>
+      <c r="K99">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="100" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>25118</v>
+      </c>
+      <c r="F100">
+        <v>1797</v>
+      </c>
+      <c r="G100">
+        <v>1839</v>
+      </c>
+      <c r="I100">
+        <v>25118</v>
+      </c>
+      <c r="J100">
+        <v>2616</v>
+      </c>
+      <c r="K100">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="101" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>39810</v>
+      </c>
+      <c r="F101">
+        <v>2442</v>
+      </c>
+      <c r="G101">
+        <v>2332</v>
+      </c>
+      <c r="I101">
+        <v>39810</v>
+      </c>
+      <c r="J101">
+        <v>3405</v>
+      </c>
+      <c r="K101">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="102" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>63095</v>
+      </c>
+      <c r="F102">
+        <v>2967</v>
+      </c>
+      <c r="G102">
+        <v>3363</v>
+      </c>
+      <c r="I102">
+        <v>63095</v>
+      </c>
+      <c r="J102">
+        <v>3993</v>
+      </c>
+      <c r="K102">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="103" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>100000</v>
+      </c>
+      <c r="F103">
+        <v>4380</v>
+      </c>
+      <c r="G103">
+        <v>4685</v>
+      </c>
+      <c r="I103">
+        <v>100000</v>
+      </c>
+      <c r="J103">
+        <v>5782</v>
+      </c>
+      <c r="K103">
+        <v>5879</v>
+      </c>
+    </row>
+    <row r="104" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>158489</v>
+      </c>
+      <c r="F104">
+        <v>6215</v>
+      </c>
+      <c r="G104">
+        <v>6637</v>
+      </c>
+      <c r="I104">
+        <v>158489</v>
+      </c>
+      <c r="J104">
+        <v>8096</v>
+      </c>
+      <c r="K104">
+        <v>8017</v>
+      </c>
+    </row>
+    <row r="105" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <v>251188</v>
+      </c>
+      <c r="F105">
+        <v>10383</v>
+      </c>
+      <c r="G105">
+        <v>10716</v>
+      </c>
+      <c r="I105">
+        <v>251188</v>
+      </c>
+      <c r="J105">
+        <v>12520</v>
+      </c>
+      <c r="K105">
+        <v>12256</v>
+      </c>
+    </row>
+    <row r="106" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <v>398107</v>
+      </c>
+      <c r="F106">
+        <v>17508</v>
+      </c>
+      <c r="G106">
+        <v>19278</v>
+      </c>
+      <c r="I106">
+        <v>398107</v>
+      </c>
+      <c r="J106">
+        <v>21040</v>
+      </c>
+      <c r="K106">
+        <v>19805</v>
+      </c>
+    </row>
+    <row r="107" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>630957</v>
+      </c>
+      <c r="F107">
+        <v>30884</v>
+      </c>
+      <c r="G107">
+        <v>39252</v>
+      </c>
+      <c r="I107">
+        <v>630957</v>
+      </c>
+      <c r="J107">
+        <v>35464</v>
+      </c>
+      <c r="K107">
+        <v>40430</v>
+      </c>
+    </row>
+    <row r="108" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <v>1000000</v>
+      </c>
+      <c r="F108">
+        <v>68409</v>
+      </c>
+      <c r="G108">
+        <v>72925</v>
+      </c>
+      <c r="I108">
+        <v>1000000</v>
+      </c>
+      <c r="J108">
+        <v>73397</v>
+      </c>
+      <c r="K108">
+        <v>61675</v>
       </c>
     </row>
   </sheetData>
@@ -41825,10 +43133,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D12:AZ76"/>
+  <dimension ref="D12:BF76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN49" sqref="AN49"/>
+    <sheetView topLeftCell="AI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BJ17" sqref="BJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -43183,7 +44491,7 @@
         <v>65576</v>
       </c>
     </row>
-    <row r="34" spans="39:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="39:58" x14ac:dyDescent="0.3">
       <c r="AN34" t="s">
         <v>26</v>
       </c>
@@ -43205,299 +44513,744 @@
       <c r="AT34" t="s">
         <v>38</v>
       </c>
+      <c r="AU34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="35" spans="39:46" x14ac:dyDescent="0.3">
+    <row r="35" spans="39:58" x14ac:dyDescent="0.3">
       <c r="AM35">
         <v>10000</v>
       </c>
       <c r="AN35">
+        <f>AY35/1000</f>
+        <v>1.411</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" ref="AO35:AU45" si="0">AZ35/1000</f>
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="0"/>
+        <v>3.2429999999999999</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="0"/>
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="AR35">
+        <f t="shared" si="0"/>
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="AS35">
+        <f t="shared" si="0"/>
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="0"/>
+        <v>1.032</v>
+      </c>
+      <c r="AU35">
+        <f t="shared" si="0"/>
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="AX35">
+        <v>10000</v>
+      </c>
+      <c r="AY35">
         <v>1411</v>
       </c>
-      <c r="AO35">
+      <c r="AZ35">
+        <v>856</v>
+      </c>
+      <c r="BA35">
+        <v>3243</v>
+      </c>
+      <c r="BB35">
+        <v>1068</v>
+      </c>
+      <c r="BC35">
+        <v>866</v>
+      </c>
+      <c r="BD35">
+        <v>699</v>
+      </c>
+      <c r="BE35">
+        <v>1032</v>
+      </c>
+      <c r="BF35">
         <v>943</v>
       </c>
-      <c r="AP35">
-        <v>3243</v>
-      </c>
-      <c r="AQ35">
-        <v>1068</v>
-      </c>
-      <c r="AR35">
-        <v>866</v>
-      </c>
-      <c r="AS35">
-        <v>699</v>
-      </c>
-      <c r="AT35">
-        <v>1032</v>
-      </c>
     </row>
-    <row r="36" spans="39:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="39:58" x14ac:dyDescent="0.3">
       <c r="AM36">
         <v>15848</v>
       </c>
       <c r="AN36">
+        <f t="shared" ref="AN36:AN45" si="1">AY36/1000</f>
+        <v>2.395</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="0"/>
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="0"/>
+        <v>7.1760000000000002</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" si="0"/>
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" si="0"/>
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="AS36">
+        <f t="shared" si="0"/>
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="0"/>
+        <v>1.651</v>
+      </c>
+      <c r="AU36">
+        <f t="shared" si="0"/>
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="AX36">
+        <v>15848</v>
+      </c>
+      <c r="AY36">
         <v>2395</v>
       </c>
-      <c r="AO36">
+      <c r="AZ36">
+        <v>1092</v>
+      </c>
+      <c r="BA36">
+        <v>7176</v>
+      </c>
+      <c r="BB36">
+        <v>1808</v>
+      </c>
+      <c r="BC36">
+        <v>1221</v>
+      </c>
+      <c r="BD36">
+        <v>799</v>
+      </c>
+      <c r="BE36">
+        <v>1651</v>
+      </c>
+      <c r="BF36">
         <v>1192</v>
       </c>
-      <c r="AP36">
-        <v>7176</v>
-      </c>
-      <c r="AQ36">
-        <v>1808</v>
-      </c>
-      <c r="AR36">
-        <v>1221</v>
-      </c>
-      <c r="AS36">
-        <v>799</v>
-      </c>
-      <c r="AT36">
-        <v>1651</v>
-      </c>
     </row>
-    <row r="37" spans="39:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="39:58" x14ac:dyDescent="0.3">
       <c r="AM37">
         <v>25118</v>
       </c>
       <c r="AN37">
+        <f t="shared" si="1"/>
+        <v>4.79</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="0"/>
+        <v>1.522</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="0"/>
+        <v>16.681000000000001</v>
+      </c>
+      <c r="AQ37">
+        <f t="shared" si="0"/>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="AR37">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="AS37">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+      <c r="AT37">
+        <f t="shared" si="0"/>
+        <v>2.4220000000000002</v>
+      </c>
+      <c r="AU37">
+        <f t="shared" si="0"/>
+        <v>2.0379999999999998</v>
+      </c>
+      <c r="AX37">
+        <v>25118</v>
+      </c>
+      <c r="AY37">
         <v>4790</v>
       </c>
-      <c r="AO37">
+      <c r="AZ37">
+        <v>1522</v>
+      </c>
+      <c r="BA37">
+        <v>16681</v>
+      </c>
+      <c r="BB37">
+        <v>2425</v>
+      </c>
+      <c r="BC37">
+        <v>1800</v>
+      </c>
+      <c r="BD37">
+        <v>1020</v>
+      </c>
+      <c r="BE37">
+        <v>2422</v>
+      </c>
+      <c r="BF37">
         <v>2038</v>
       </c>
-      <c r="AP37">
-        <v>16681</v>
-      </c>
-      <c r="AQ37">
-        <v>2425</v>
-      </c>
-      <c r="AR37">
-        <v>1800</v>
-      </c>
-      <c r="AS37">
-        <v>1020</v>
-      </c>
-      <c r="AT37">
-        <v>2422</v>
-      </c>
     </row>
-    <row r="38" spans="39:46" x14ac:dyDescent="0.3">
+    <row r="38" spans="39:58" x14ac:dyDescent="0.3">
       <c r="AM38">
         <v>39810</v>
       </c>
       <c r="AN38">
+        <f t="shared" si="1"/>
+        <v>10.67</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="0"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="0"/>
+        <v>41.768999999999998</v>
+      </c>
+      <c r="AQ38">
+        <f t="shared" si="0"/>
+        <v>3.7930000000000001</v>
+      </c>
+      <c r="AR38">
+        <f t="shared" si="0"/>
+        <v>2.504</v>
+      </c>
+      <c r="AS38">
+        <f t="shared" si="0"/>
+        <v>1.381</v>
+      </c>
+      <c r="AT38">
+        <f t="shared" si="0"/>
+        <v>4.0010000000000003</v>
+      </c>
+      <c r="AU38">
+        <f t="shared" si="0"/>
+        <v>3.2469999999999999</v>
+      </c>
+      <c r="AX38">
+        <v>39810</v>
+      </c>
+      <c r="AY38">
         <v>10670</v>
       </c>
-      <c r="AO38">
+      <c r="AZ38">
+        <v>2180</v>
+      </c>
+      <c r="BA38">
+        <v>41769</v>
+      </c>
+      <c r="BB38">
+        <v>3793</v>
+      </c>
+      <c r="BC38">
+        <v>2504</v>
+      </c>
+      <c r="BD38">
+        <v>1381</v>
+      </c>
+      <c r="BE38">
+        <v>4001</v>
+      </c>
+      <c r="BF38">
         <v>3247</v>
       </c>
-      <c r="AP38">
-        <v>41769</v>
-      </c>
-      <c r="AQ38">
-        <v>3793</v>
-      </c>
-      <c r="AR38">
-        <v>2504</v>
-      </c>
-      <c r="AS38">
-        <v>1381</v>
-      </c>
-      <c r="AT38">
-        <v>4001</v>
-      </c>
     </row>
-    <row r="39" spans="39:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="39:58" x14ac:dyDescent="0.3">
       <c r="AM39">
         <v>63095</v>
       </c>
       <c r="AN39">
+        <f t="shared" si="1"/>
+        <v>25.097000000000001</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" si="0"/>
+        <v>3.411</v>
+      </c>
+      <c r="AP39">
+        <f t="shared" si="0"/>
+        <v>100.508</v>
+      </c>
+      <c r="AQ39">
+        <f t="shared" si="0"/>
+        <v>6.5410000000000004</v>
+      </c>
+      <c r="AR39">
+        <f t="shared" si="0"/>
+        <v>3.282</v>
+      </c>
+      <c r="AS39">
+        <f t="shared" si="0"/>
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="AT39">
+        <f t="shared" si="0"/>
+        <v>6.7240000000000002</v>
+      </c>
+      <c r="AU39">
+        <f t="shared" si="0"/>
+        <v>5.5869999999999997</v>
+      </c>
+      <c r="AX39">
+        <v>63095</v>
+      </c>
+      <c r="AY39">
         <v>25097</v>
       </c>
-      <c r="AO39">
+      <c r="AZ39">
+        <v>3411</v>
+      </c>
+      <c r="BA39">
+        <v>100508</v>
+      </c>
+      <c r="BB39">
+        <v>6541</v>
+      </c>
+      <c r="BC39">
+        <v>3282</v>
+      </c>
+      <c r="BD39">
+        <v>2027</v>
+      </c>
+      <c r="BE39">
+        <v>6724</v>
+      </c>
+      <c r="BF39">
         <v>5587</v>
       </c>
-      <c r="AP39">
-        <v>100508</v>
-      </c>
-      <c r="AQ39">
-        <v>6541</v>
-      </c>
-      <c r="AR39">
-        <v>3282</v>
-      </c>
-      <c r="AS39">
-        <v>2027</v>
-      </c>
-      <c r="AT39">
-        <v>6724</v>
-      </c>
     </row>
-    <row r="40" spans="39:46" x14ac:dyDescent="0.3">
+    <row r="40" spans="39:58" x14ac:dyDescent="0.3">
       <c r="AM40">
         <v>100000</v>
       </c>
       <c r="AN40">
+        <f t="shared" si="1"/>
+        <v>63.737000000000002</v>
+      </c>
+      <c r="AO40">
+        <f t="shared" si="0"/>
+        <v>5.37</v>
+      </c>
+      <c r="AP40">
+        <f t="shared" si="0"/>
+        <v>262.83499999999998</v>
+      </c>
+      <c r="AQ40">
+        <f t="shared" si="0"/>
+        <v>6.8920000000000003</v>
+      </c>
+      <c r="AR40">
+        <f t="shared" si="0"/>
+        <v>4.968</v>
+      </c>
+      <c r="AS40">
+        <f t="shared" si="0"/>
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="AT40">
+        <f t="shared" si="0"/>
+        <v>7.452</v>
+      </c>
+      <c r="AU40">
+        <f t="shared" si="0"/>
+        <v>11.847</v>
+      </c>
+      <c r="AX40">
+        <v>100000</v>
+      </c>
+      <c r="AY40">
         <v>63737</v>
       </c>
-      <c r="AO40">
+      <c r="AZ40">
+        <v>5370</v>
+      </c>
+      <c r="BA40">
+        <v>262835</v>
+      </c>
+      <c r="BB40">
+        <v>6892</v>
+      </c>
+      <c r="BC40">
+        <v>4968</v>
+      </c>
+      <c r="BD40">
+        <v>2631</v>
+      </c>
+      <c r="BE40">
+        <v>7452</v>
+      </c>
+      <c r="BF40">
         <v>11847</v>
       </c>
-      <c r="AP40">
-        <v>262835</v>
-      </c>
-      <c r="AQ40">
-        <v>6892</v>
-      </c>
-      <c r="AR40">
-        <v>4968</v>
-      </c>
-      <c r="AS40">
-        <v>2631</v>
-      </c>
-      <c r="AT40">
-        <v>7452</v>
-      </c>
     </row>
-    <row r="41" spans="39:46" x14ac:dyDescent="0.3">
+    <row r="41" spans="39:58" x14ac:dyDescent="0.3">
       <c r="AM41">
         <v>158489</v>
       </c>
       <c r="AN41">
+        <f t="shared" si="1"/>
+        <v>161.14699999999999</v>
+      </c>
+      <c r="AO41">
+        <f t="shared" si="0"/>
+        <v>9.2110000000000003</v>
+      </c>
+      <c r="AP41">
+        <f t="shared" si="0"/>
+        <v>664.33900000000006</v>
+      </c>
+      <c r="AQ41">
+        <f t="shared" si="0"/>
+        <v>10.451000000000001</v>
+      </c>
+      <c r="AR41">
+        <f t="shared" si="0"/>
+        <v>7.6230000000000002</v>
+      </c>
+      <c r="AS41">
+        <f t="shared" si="0"/>
+        <v>3.911</v>
+      </c>
+      <c r="AT41">
+        <f t="shared" si="0"/>
+        <v>10.677</v>
+      </c>
+      <c r="AU41">
+        <f t="shared" si="0"/>
+        <v>25.824000000000002</v>
+      </c>
+      <c r="AX41">
+        <v>158489</v>
+      </c>
+      <c r="AY41">
         <v>161147</v>
       </c>
-      <c r="AO41">
+      <c r="AZ41">
+        <v>9211</v>
+      </c>
+      <c r="BA41">
+        <v>664339</v>
+      </c>
+      <c r="BB41">
+        <v>10451</v>
+      </c>
+      <c r="BC41">
+        <v>7623</v>
+      </c>
+      <c r="BD41">
+        <v>3911</v>
+      </c>
+      <c r="BE41">
+        <v>10677</v>
+      </c>
+      <c r="BF41">
         <v>25824</v>
       </c>
-      <c r="AP41">
-        <v>664339</v>
-      </c>
-      <c r="AQ41">
-        <v>10451</v>
-      </c>
-      <c r="AR41">
-        <v>7623</v>
-      </c>
-      <c r="AS41">
-        <v>3911</v>
-      </c>
-      <c r="AT41">
-        <v>10677</v>
-      </c>
     </row>
-    <row r="42" spans="39:46" x14ac:dyDescent="0.3">
+    <row r="42" spans="39:58" x14ac:dyDescent="0.3">
       <c r="AM42">
         <v>251188</v>
       </c>
       <c r="AN42">
+        <f t="shared" si="1"/>
+        <v>405.322</v>
+      </c>
+      <c r="AO42">
+        <f t="shared" si="0"/>
+        <v>17.231999999999999</v>
+      </c>
+      <c r="AP42">
+        <f t="shared" si="0"/>
+        <v>1760.654</v>
+      </c>
+      <c r="AQ42">
+        <f t="shared" si="0"/>
+        <v>16.593</v>
+      </c>
+      <c r="AR42">
+        <f t="shared" si="0"/>
+        <v>11.723000000000001</v>
+      </c>
+      <c r="AS42">
+        <f t="shared" si="0"/>
+        <v>6.2480000000000002</v>
+      </c>
+      <c r="AT42">
+        <f t="shared" si="0"/>
+        <v>16.972999999999999</v>
+      </c>
+      <c r="AU42">
+        <f t="shared" si="0"/>
+        <v>59.552</v>
+      </c>
+      <c r="AX42">
+        <v>251188</v>
+      </c>
+      <c r="AY42">
         <v>405322</v>
       </c>
-      <c r="AO42">
+      <c r="AZ42">
+        <v>17232</v>
+      </c>
+      <c r="BA42">
+        <v>1760654</v>
+      </c>
+      <c r="BB42">
+        <v>16593</v>
+      </c>
+      <c r="BC42">
+        <v>11723</v>
+      </c>
+      <c r="BD42">
+        <v>6248</v>
+      </c>
+      <c r="BE42">
+        <v>16973</v>
+      </c>
+      <c r="BF42">
         <v>59552</v>
       </c>
-      <c r="AP42">
-        <v>1760654</v>
-      </c>
-      <c r="AQ42">
-        <v>16593</v>
-      </c>
-      <c r="AR42">
-        <v>11723</v>
-      </c>
-      <c r="AS42">
-        <v>6248</v>
-      </c>
-      <c r="AT42">
-        <v>16973</v>
-      </c>
     </row>
-    <row r="43" spans="39:46" x14ac:dyDescent="0.3">
+    <row r="43" spans="39:58" x14ac:dyDescent="0.3">
       <c r="AM43">
         <v>398107</v>
       </c>
       <c r="AN43">
+        <f t="shared" si="1"/>
+        <v>1059.2719999999999</v>
+      </c>
+      <c r="AO43">
+        <f t="shared" si="0"/>
+        <v>35.914000000000001</v>
+      </c>
+      <c r="AP43">
+        <f t="shared" si="0"/>
+        <v>4601.5540000000001</v>
+      </c>
+      <c r="AQ43">
+        <f t="shared" si="0"/>
+        <v>26.318999999999999</v>
+      </c>
+      <c r="AR43">
+        <f t="shared" si="0"/>
+        <v>19.318999999999999</v>
+      </c>
+      <c r="AS43">
+        <f t="shared" si="0"/>
+        <v>9.6969999999999992</v>
+      </c>
+      <c r="AT43">
+        <f t="shared" si="0"/>
+        <v>27.021000000000001</v>
+      </c>
+      <c r="AU43">
+        <f t="shared" si="0"/>
+        <v>141.50200000000001</v>
+      </c>
+      <c r="AX43">
+        <v>398107</v>
+      </c>
+      <c r="AY43">
         <v>1059272</v>
       </c>
-      <c r="AO43">
+      <c r="AZ43">
+        <v>35914</v>
+      </c>
+      <c r="BA43">
+        <v>4601554</v>
+      </c>
+      <c r="BB43">
+        <v>26319</v>
+      </c>
+      <c r="BC43">
+        <v>19319</v>
+      </c>
+      <c r="BD43">
+        <v>9697</v>
+      </c>
+      <c r="BE43">
+        <v>27021</v>
+      </c>
+      <c r="BF43">
         <v>141502</v>
       </c>
-      <c r="AP43">
-        <v>4601554</v>
-      </c>
-      <c r="AQ43">
-        <v>26319</v>
-      </c>
-      <c r="AR43">
-        <v>19319</v>
-      </c>
-      <c r="AS43">
-        <v>9697</v>
-      </c>
-      <c r="AT43">
-        <v>27021</v>
-      </c>
     </row>
-    <row r="44" spans="39:46" x14ac:dyDescent="0.3">
+    <row r="44" spans="39:58" x14ac:dyDescent="0.3">
       <c r="AM44">
         <v>630957</v>
       </c>
       <c r="AN44">
+        <f t="shared" si="1"/>
+        <v>2726.4690000000001</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="0"/>
+        <v>80.841999999999999</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="0"/>
+        <v>11934.55</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="0"/>
+        <v>48.869</v>
+      </c>
+      <c r="AR44">
+        <f t="shared" si="0"/>
+        <v>34.433999999999997</v>
+      </c>
+      <c r="AS44">
+        <f t="shared" si="0"/>
+        <v>15.082000000000001</v>
+      </c>
+      <c r="AT44">
+        <f t="shared" si="0"/>
+        <v>49.106999999999999</v>
+      </c>
+      <c r="AU44">
+        <f t="shared" si="0"/>
+        <v>354.35</v>
+      </c>
+      <c r="AX44">
+        <v>630957</v>
+      </c>
+      <c r="AY44">
         <v>2726469</v>
       </c>
-      <c r="AO44">
+      <c r="AZ44">
+        <v>80842</v>
+      </c>
+      <c r="BA44">
+        <v>11934550</v>
+      </c>
+      <c r="BB44">
+        <v>48869</v>
+      </c>
+      <c r="BC44">
+        <v>34434</v>
+      </c>
+      <c r="BD44">
+        <v>15082</v>
+      </c>
+      <c r="BE44">
+        <v>49107</v>
+      </c>
+      <c r="BF44">
         <v>354350</v>
       </c>
-      <c r="AP44">
-        <v>11934550</v>
-      </c>
-      <c r="AQ44">
-        <v>48869</v>
-      </c>
-      <c r="AR44">
-        <v>34434</v>
-      </c>
-      <c r="AS44">
-        <v>15082</v>
-      </c>
-      <c r="AT44">
-        <v>49107</v>
-      </c>
     </row>
-    <row r="45" spans="39:46" x14ac:dyDescent="0.3">
+    <row r="45" spans="39:58" x14ac:dyDescent="0.3">
       <c r="AM45">
         <v>1000000</v>
       </c>
       <c r="AN45">
+        <f t="shared" si="1"/>
+        <v>7449.9480000000003</v>
+      </c>
+      <c r="AO45">
+        <f t="shared" si="0"/>
+        <v>202.67099999999999</v>
+      </c>
+      <c r="AP45">
+        <f t="shared" si="0"/>
+        <v>32114.556</v>
+      </c>
+      <c r="AQ45">
+        <f t="shared" si="0"/>
+        <v>88.894999999999996</v>
+      </c>
+      <c r="AR45">
+        <f t="shared" si="0"/>
+        <v>65.575999999999993</v>
+      </c>
+      <c r="AS45">
+        <f t="shared" si="0"/>
+        <v>24.359000000000002</v>
+      </c>
+      <c r="AT45">
+        <f t="shared" si="0"/>
+        <v>91.025000000000006</v>
+      </c>
+      <c r="AU45">
+        <f t="shared" si="0"/>
+        <v>909.45399999999995</v>
+      </c>
+      <c r="AX45">
+        <v>1000000</v>
+      </c>
+      <c r="AY45">
         <v>7449948</v>
       </c>
-      <c r="AO45">
+      <c r="AZ45">
+        <v>202671</v>
+      </c>
+      <c r="BA45">
+        <v>32114556</v>
+      </c>
+      <c r="BB45">
+        <v>88895</v>
+      </c>
+      <c r="BC45">
+        <v>65576</v>
+      </c>
+      <c r="BD45">
+        <v>24359</v>
+      </c>
+      <c r="BE45">
+        <v>91025</v>
+      </c>
+      <c r="BF45">
         <v>909454</v>
       </c>
-      <c r="AP45">
-        <v>32114556</v>
-      </c>
-      <c r="AQ45">
-        <v>88895</v>
-      </c>
-      <c r="AR45">
-        <v>65576</v>
-      </c>
-      <c r="AS45">
-        <v>24359</v>
-      </c>
-      <c r="AT45">
-        <v>91025</v>
-      </c>
     </row>
-    <row r="48" spans="39:46" x14ac:dyDescent="0.3">
+    <row r="48" spans="39:58" x14ac:dyDescent="0.3">
       <c r="AN48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="39:40" x14ac:dyDescent="0.3">
+    <row r="49" spans="39:52" x14ac:dyDescent="0.3">
       <c r="AM49">
         <v>10000</v>
       </c>
@@ -43505,7 +45258,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="50" spans="39:40" x14ac:dyDescent="0.3">
+    <row r="50" spans="39:52" x14ac:dyDescent="0.3">
       <c r="AM50">
         <v>15848</v>
       </c>
@@ -43513,7 +45266,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="51" spans="39:40" x14ac:dyDescent="0.3">
+    <row r="51" spans="39:52" x14ac:dyDescent="0.3">
       <c r="AM51">
         <v>25118</v>
       </c>
@@ -43521,77 +45274,206 @@
         <v>12326</v>
       </c>
     </row>
-    <row r="52" spans="39:40" x14ac:dyDescent="0.3">
+    <row r="52" spans="39:52" x14ac:dyDescent="0.3">
       <c r="AM52">
         <v>39810</v>
       </c>
       <c r="AN52">
         <v>33166</v>
       </c>
+      <c r="AW52" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="53" spans="39:40" x14ac:dyDescent="0.3">
+    <row r="53" spans="39:52" x14ac:dyDescent="0.3">
       <c r="AM53">
         <v>63095</v>
       </c>
       <c r="AN53">
         <v>82917</v>
       </c>
+      <c r="AX53">
+        <v>10000</v>
+      </c>
+      <c r="AY53">
+        <v>1411</v>
+      </c>
+      <c r="AZ53">
+        <v>990</v>
+      </c>
     </row>
-    <row r="54" spans="39:40" x14ac:dyDescent="0.3">
+    <row r="54" spans="39:52" x14ac:dyDescent="0.3">
       <c r="AM54">
         <v>100000</v>
       </c>
       <c r="AN54">
         <v>213328</v>
       </c>
+      <c r="AX54">
+        <v>15848</v>
+      </c>
+      <c r="AY54">
+        <v>2395</v>
+      </c>
+      <c r="AZ54">
+        <v>1883</v>
+      </c>
     </row>
-    <row r="55" spans="39:40" x14ac:dyDescent="0.3">
+    <row r="55" spans="39:52" x14ac:dyDescent="0.3">
       <c r="AM55">
         <v>158489</v>
       </c>
       <c r="AN55">
         <v>555887</v>
       </c>
+      <c r="AX55">
+        <v>25118</v>
+      </c>
+      <c r="AY55">
+        <v>4790</v>
+      </c>
+      <c r="AZ55">
+        <v>4273</v>
+      </c>
     </row>
-    <row r="56" spans="39:40" x14ac:dyDescent="0.3">
+    <row r="56" spans="39:52" x14ac:dyDescent="0.3">
       <c r="AM56">
         <v>251188</v>
       </c>
       <c r="AN56">
         <v>1408840</v>
       </c>
+      <c r="AX56">
+        <v>39810</v>
+      </c>
+      <c r="AY56">
+        <v>10670</v>
+      </c>
+      <c r="AZ56">
+        <v>10846</v>
+      </c>
     </row>
-    <row r="57" spans="39:40" x14ac:dyDescent="0.3">
+    <row r="57" spans="39:52" x14ac:dyDescent="0.3">
       <c r="AM57">
         <v>398107</v>
       </c>
       <c r="AN57">
         <v>3457405</v>
       </c>
+      <c r="AX57">
+        <v>63095</v>
+      </c>
+      <c r="AY57">
+        <v>25097</v>
+      </c>
+      <c r="AZ57">
+        <v>18770</v>
+      </c>
     </row>
-    <row r="58" spans="39:40" x14ac:dyDescent="0.3">
+    <row r="58" spans="39:52" x14ac:dyDescent="0.3">
       <c r="AM58">
         <v>630957</v>
       </c>
       <c r="AN58">
         <v>8671151</v>
       </c>
+      <c r="AX58">
+        <v>100000</v>
+      </c>
+      <c r="AY58">
+        <v>63737</v>
+      </c>
+      <c r="AZ58">
+        <v>65070</v>
+      </c>
     </row>
-    <row r="59" spans="39:40" x14ac:dyDescent="0.3">
+    <row r="59" spans="39:52" x14ac:dyDescent="0.3">
       <c r="AM59">
         <v>1000000</v>
       </c>
       <c r="AN59">
         <v>22241199</v>
       </c>
+      <c r="AX59">
+        <v>158489</v>
+      </c>
+      <c r="AY59">
+        <v>161147</v>
+      </c>
+      <c r="AZ59">
+        <v>180361</v>
+      </c>
     </row>
-    <row r="64" spans="39:40" x14ac:dyDescent="0.3">
+    <row r="60" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AX60">
+        <v>251188</v>
+      </c>
+      <c r="AY60">
+        <v>405322</v>
+      </c>
+      <c r="AZ60">
+        <v>488271</v>
+      </c>
+    </row>
+    <row r="61" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AV61">
+        <f>AY61/1000/60</f>
+        <v>17.654533333333333</v>
+      </c>
+      <c r="AX61">
+        <v>398107</v>
+      </c>
+      <c r="AY61">
+        <v>1059272</v>
+      </c>
+      <c r="AZ61">
+        <v>987669</v>
+      </c>
+    </row>
+    <row r="62" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AX62">
+        <v>630957</v>
+      </c>
+      <c r="AY62">
+        <v>2726469</v>
+      </c>
+      <c r="AZ62">
+        <v>2826749</v>
+      </c>
+    </row>
+    <row r="63" spans="39:52" x14ac:dyDescent="0.3">
+      <c r="AX63">
+        <v>1000000</v>
+      </c>
+      <c r="AY63">
+        <v>7449948</v>
+      </c>
+      <c r="AZ63">
+        <v>7585988</v>
+      </c>
+    </row>
+    <row r="64" spans="39:52" x14ac:dyDescent="0.3">
       <c r="AM64" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="39:52" x14ac:dyDescent="0.3">
+    <row r="65" spans="38:56" x14ac:dyDescent="0.3">
+      <c r="AL65" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>44</v>
+      </c>
       <c r="AO65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW65" t="s">
         <v>35</v>
       </c>
       <c r="AY65" t="s">
@@ -43600,218 +45482,358 @@
       <c r="AZ65" t="s">
         <v>43</v>
       </c>
+      <c r="BC65" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD65" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="66" spans="39:52" x14ac:dyDescent="0.3">
+    <row r="66" spans="38:56" x14ac:dyDescent="0.3">
       <c r="AM66">
         <v>10000</v>
       </c>
       <c r="AN66">
-        <v>830</v>
+        <v>1411</v>
       </c>
       <c r="AO66">
-        <v>856</v>
+        <v>990</v>
       </c>
       <c r="AX66">
         <v>10000</v>
       </c>
       <c r="AY66">
+        <f>BC66/1000</f>
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="AZ66">
+        <f>BD66/1000</f>
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="BB66">
+        <v>10000</v>
+      </c>
+      <c r="BC66">
         <v>943</v>
       </c>
-      <c r="AZ66">
+      <c r="BD66">
         <v>856</v>
       </c>
     </row>
-    <row r="67" spans="39:52" x14ac:dyDescent="0.3">
+    <row r="67" spans="38:56" x14ac:dyDescent="0.3">
       <c r="AM67">
         <v>15848</v>
       </c>
       <c r="AN67">
-        <v>1744</v>
+        <v>2395</v>
       </c>
       <c r="AO67">
-        <v>1092</v>
+        <v>1883</v>
       </c>
       <c r="AX67">
         <v>15848</v>
       </c>
       <c r="AY67">
+        <f t="shared" ref="AY67:AZ76" si="2">BC67/1000</f>
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="AZ67">
+        <f t="shared" si="2"/>
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="BB67">
+        <v>15848</v>
+      </c>
+      <c r="BC67">
         <v>1192</v>
       </c>
-      <c r="AZ67">
+      <c r="BD67">
         <v>1092</v>
       </c>
     </row>
-    <row r="68" spans="39:52" x14ac:dyDescent="0.3">
+    <row r="68" spans="38:56" x14ac:dyDescent="0.3">
       <c r="AM68">
         <v>25118</v>
       </c>
       <c r="AN68">
-        <v>3187</v>
+        <v>4790</v>
       </c>
       <c r="AO68">
-        <v>1522</v>
+        <v>4273</v>
       </c>
       <c r="AX68">
         <v>25118</v>
       </c>
       <c r="AY68">
+        <f t="shared" si="2"/>
+        <v>2.0379999999999998</v>
+      </c>
+      <c r="AZ68">
+        <f t="shared" si="2"/>
+        <v>1.522</v>
+      </c>
+      <c r="BB68">
+        <v>25118</v>
+      </c>
+      <c r="BC68">
         <v>2038</v>
       </c>
-      <c r="AZ68">
+      <c r="BD68">
         <v>1522</v>
       </c>
     </row>
-    <row r="69" spans="39:52" x14ac:dyDescent="0.3">
+    <row r="69" spans="38:56" x14ac:dyDescent="0.3">
       <c r="AM69">
         <v>39810</v>
       </c>
       <c r="AN69">
-        <v>7067</v>
+        <v>10670</v>
       </c>
       <c r="AO69">
-        <v>2180</v>
+        <v>10846</v>
       </c>
       <c r="AX69">
         <v>39810</v>
       </c>
       <c r="AY69">
+        <f t="shared" si="2"/>
+        <v>3.2469999999999999</v>
+      </c>
+      <c r="AZ69">
+        <f t="shared" si="2"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="BB69">
+        <v>39810</v>
+      </c>
+      <c r="BC69">
         <v>3247</v>
       </c>
-      <c r="AZ69">
+      <c r="BD69">
         <v>2180</v>
       </c>
     </row>
-    <row r="70" spans="39:52" x14ac:dyDescent="0.3">
+    <row r="70" spans="38:56" x14ac:dyDescent="0.3">
       <c r="AM70">
         <v>63095</v>
       </c>
       <c r="AN70">
-        <v>12437</v>
+        <v>25097</v>
       </c>
       <c r="AO70">
-        <v>3411</v>
+        <v>18770</v>
       </c>
       <c r="AX70">
         <v>63095</v>
       </c>
       <c r="AY70">
+        <f t="shared" si="2"/>
+        <v>5.5869999999999997</v>
+      </c>
+      <c r="AZ70">
+        <f t="shared" si="2"/>
+        <v>3.411</v>
+      </c>
+      <c r="BB70">
+        <v>63095</v>
+      </c>
+      <c r="BC70">
         <v>5587</v>
       </c>
-      <c r="AZ70">
+      <c r="BD70">
         <v>3411</v>
       </c>
     </row>
-    <row r="71" spans="39:52" x14ac:dyDescent="0.3">
+    <row r="71" spans="38:56" x14ac:dyDescent="0.3">
       <c r="AM71">
         <v>100000</v>
       </c>
       <c r="AN71">
-        <v>45374</v>
+        <v>63737</v>
       </c>
       <c r="AO71">
-        <v>5370</v>
+        <v>65070</v>
       </c>
       <c r="AX71">
         <v>100000</v>
       </c>
       <c r="AY71">
+        <f t="shared" si="2"/>
+        <v>11.847</v>
+      </c>
+      <c r="AZ71">
+        <f t="shared" si="2"/>
+        <v>5.37</v>
+      </c>
+      <c r="BB71">
+        <v>100000</v>
+      </c>
+      <c r="BC71">
         <v>11847</v>
       </c>
-      <c r="AZ71">
+      <c r="BD71">
         <v>5370</v>
       </c>
     </row>
-    <row r="72" spans="39:52" x14ac:dyDescent="0.3">
+    <row r="72" spans="38:56" x14ac:dyDescent="0.3">
       <c r="AM72">
         <v>158489</v>
       </c>
       <c r="AN72">
-        <v>127690</v>
+        <v>161147</v>
       </c>
       <c r="AO72">
-        <v>9211</v>
+        <v>180361</v>
       </c>
       <c r="AX72">
         <v>158489</v>
       </c>
       <c r="AY72">
+        <f t="shared" si="2"/>
+        <v>25.824000000000002</v>
+      </c>
+      <c r="AZ72">
+        <f t="shared" si="2"/>
+        <v>9.2110000000000003</v>
+      </c>
+      <c r="BB72">
+        <v>158489</v>
+      </c>
+      <c r="BC72">
         <v>25824</v>
       </c>
-      <c r="AZ72">
+      <c r="BD72">
         <v>9211</v>
       </c>
     </row>
-    <row r="73" spans="39:52" x14ac:dyDescent="0.3">
+    <row r="73" spans="38:56" x14ac:dyDescent="0.3">
       <c r="AM73">
         <v>251188</v>
       </c>
+      <c r="AN73">
+        <v>405322</v>
+      </c>
       <c r="AO73">
-        <v>17232</v>
+        <v>488271</v>
       </c>
       <c r="AX73">
         <v>251188</v>
       </c>
       <c r="AY73">
+        <f t="shared" si="2"/>
+        <v>59.552</v>
+      </c>
+      <c r="AZ73">
+        <f t="shared" si="2"/>
+        <v>17.231999999999999</v>
+      </c>
+      <c r="BB73">
+        <v>251188</v>
+      </c>
+      <c r="BC73">
         <v>59552</v>
       </c>
-      <c r="AZ73">
+      <c r="BD73">
         <v>17232</v>
       </c>
     </row>
-    <row r="74" spans="39:52" x14ac:dyDescent="0.3">
+    <row r="74" spans="38:56" x14ac:dyDescent="0.3">
       <c r="AM74">
         <v>398107</v>
       </c>
+      <c r="AN74">
+        <v>1059272</v>
+      </c>
       <c r="AO74">
-        <v>35914</v>
+        <v>987669</v>
       </c>
       <c r="AX74">
         <v>398107</v>
       </c>
       <c r="AY74">
+        <f t="shared" si="2"/>
+        <v>141.50200000000001</v>
+      </c>
+      <c r="AZ74">
+        <f t="shared" si="2"/>
+        <v>35.914000000000001</v>
+      </c>
+      <c r="BB74">
+        <v>398107</v>
+      </c>
+      <c r="BC74">
         <v>141502</v>
       </c>
-      <c r="AZ74">
+      <c r="BD74">
         <v>35914</v>
       </c>
     </row>
-    <row r="75" spans="39:52" x14ac:dyDescent="0.3">
+    <row r="75" spans="38:56" x14ac:dyDescent="0.3">
       <c r="AM75">
         <v>630957</v>
       </c>
+      <c r="AN75">
+        <v>2726469</v>
+      </c>
       <c r="AO75">
-        <v>80842</v>
+        <v>2826749</v>
       </c>
       <c r="AX75">
         <v>630957</v>
       </c>
       <c r="AY75">
+        <f t="shared" si="2"/>
+        <v>354.35</v>
+      </c>
+      <c r="AZ75">
+        <f t="shared" si="2"/>
+        <v>80.841999999999999</v>
+      </c>
+      <c r="BB75">
+        <v>630957</v>
+      </c>
+      <c r="BC75">
         <v>354350</v>
       </c>
-      <c r="AZ75">
+      <c r="BD75">
         <v>80842</v>
       </c>
     </row>
-    <row r="76" spans="39:52" x14ac:dyDescent="0.3">
+    <row r="76" spans="38:56" x14ac:dyDescent="0.3">
       <c r="AM76">
         <v>1000000</v>
       </c>
+      <c r="AN76">
+        <v>7449948</v>
+      </c>
       <c r="AO76">
-        <v>202671</v>
+        <v>7585988</v>
       </c>
       <c r="AX76">
         <v>1000000</v>
       </c>
       <c r="AY76">
+        <f t="shared" si="2"/>
+        <v>909.45399999999995</v>
+      </c>
+      <c r="AZ76">
+        <f t="shared" si="2"/>
+        <v>202.67099999999999</v>
+      </c>
+      <c r="BB76">
+        <v>1000000</v>
+      </c>
+      <c r="BC76">
         <v>909454</v>
       </c>
-      <c r="AZ76">
+      <c r="BD76">
         <v>202671</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="AOL_Sample" sheetId="2" r:id="rId2"/>
     <sheet name="AOL_Sample(2)" sheetId="4" r:id="rId3"/>
-    <sheet name="USPS_Sample" sheetId="3" r:id="rId4"/>
+    <sheet name="AOL_Removed" sheetId="5" r:id="rId4"/>
+    <sheet name="USPS_Sample" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="53">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +232,12 @@
   <si>
     <t>JoinMin_Q_old</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinHybridOpt</t>
+  </si>
+  <si>
+    <t>JoinHybridThres</t>
   </si>
 </sst>
 </file>
@@ -3594,7 +3601,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AOL_Sample(2)'!$A$57:$A$67</c:f>
+              <c:f>'AOL_Sample(2)'!$A$70:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3636,42 +3643,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AOL_Sample(2)'!$B$57:$B$67</c:f>
+              <c:f>'AOL_Sample(2)'!$B$70:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.2800000000000001E-3</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.534E-3</c:v>
+                  <c:v>1.534</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.797E-3</c:v>
+                  <c:v>1.7969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4420000000000002E-3</c:v>
+                  <c:v>2.4420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.967E-3</c:v>
+                  <c:v>2.9670000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3800000000000002E-3</c:v>
+                  <c:v>4.38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.215E-3</c:v>
+                  <c:v>6.2149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0383E-2</c:v>
+                  <c:v>10.382999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7507999999999999E-2</c:v>
+                  <c:v>17.507999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0884000000000002E-2</c:v>
+                  <c:v>30.884</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.8409000000000011E-2</c:v>
+                  <c:v>68.409000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3723,7 +3730,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AOL_Sample(2)'!$A$57:$A$67</c:f>
+              <c:f>'AOL_Sample(2)'!$A$70:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3765,42 +3772,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AOL_Sample(2)'!$C$57:$C$67</c:f>
+              <c:f>'AOL_Sample(2)'!$C$70:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.6379999999999999E-3</c:v>
+                  <c:v>1.6379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0969999999999999E-3</c:v>
+                  <c:v>2.097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6160000000000003E-3</c:v>
+                  <c:v>2.6160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4049999999999996E-3</c:v>
+                  <c:v>3.4049999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.993E-3</c:v>
+                  <c:v>3.9929999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7819999999999998E-3</c:v>
+                  <c:v>5.782</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0960000000000008E-3</c:v>
+                  <c:v>8.0960000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.252E-2</c:v>
+                  <c:v>12.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.104E-2</c:v>
+                  <c:v>21.04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5463999999999996E-2</c:v>
+                  <c:v>35.463999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3397000000000004E-2</c:v>
+                  <c:v>73.397000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3852,7 +3859,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AOL_Sample(2)'!$A$57:$A$67</c:f>
+              <c:f>'AOL_Sample(2)'!$A$70:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3894,42 +3901,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AOL_Sample(2)'!$D$57:$D$67</c:f>
+              <c:f>'AOL_Sample(2)'!$D$70:$D$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.305E-3</c:v>
+                  <c:v>1.3049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6539999999999999E-3</c:v>
+                  <c:v>1.6539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.068E-3</c:v>
+                  <c:v>2.0680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8839999999999998E-3</c:v>
+                  <c:v>2.8839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1989999999999996E-3</c:v>
+                  <c:v>4.1989999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9709999999999998E-3</c:v>
+                  <c:v>6.9710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3628999999999999E-2</c:v>
+                  <c:v>13.629</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8842E-2</c:v>
+                  <c:v>28.841999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3071000000000002E-2</c:v>
+                  <c:v>63.070999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.145481</c:v>
+                  <c:v>145.48099999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34674500000000003</c:v>
+                  <c:v>346.745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3981,7 +3988,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AOL_Sample(2)'!$A$57:$A$67</c:f>
+              <c:f>'AOL_Sample(2)'!$A$70:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4023,42 +4030,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AOL_Sample(2)'!$E$57:$E$67</c:f>
+              <c:f>'AOL_Sample(2)'!$E$70:$E$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.0219999999999999E-3</c:v>
+                  <c:v>2.0219999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.627E-3</c:v>
+                  <c:v>2.6269999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4289999999999998E-3</c:v>
+                  <c:v>3.4289999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0410000000000003E-3</c:v>
+                  <c:v>4.0410000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.94E-3</c:v>
+                  <c:v>5.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2089999999999993E-3</c:v>
+                  <c:v>8.2089999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2457000000000001E-2</c:v>
+                  <c:v>12.457000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9327999999999998E-2</c:v>
+                  <c:v>19.327999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8553000000000002E-2</c:v>
+                  <c:v>28.553000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3728999999999997E-2</c:v>
+                  <c:v>43.728999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0013999999999997E-2</c:v>
+                  <c:v>90.013999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4110,7 +4117,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AOL_Sample(2)'!$A$57:$A$67</c:f>
+              <c:f>'AOL_Sample(2)'!$A$70:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4152,42 +4159,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AOL_Sample(2)'!$F$57:$F$67</c:f>
+              <c:f>'AOL_Sample(2)'!$F$70:$F$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.6140000000000002E-3</c:v>
+                  <c:v>1.6140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.936E-3</c:v>
+                  <c:v>1.9359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4649999999999997E-3</c:v>
+                  <c:v>2.4649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2299999999999998E-3</c:v>
+                  <c:v>3.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2709999999999996E-3</c:v>
+                  <c:v>4.2709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4819999999999999E-3</c:v>
+                  <c:v>5.4820000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.979E-3</c:v>
+                  <c:v>7.9790000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2356000000000001E-2</c:v>
+                  <c:v>12.356</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0435999999999999E-2</c:v>
+                  <c:v>20.436</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3881000000000001E-2</c:v>
+                  <c:v>33.881</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.1691000000000005E-2</c:v>
+                  <c:v>71.691000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6035,6 +6042,939 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>AOL_Removed!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AOL_Removed!$C$7:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15820</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>397246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>629557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>997775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AOL_Removed!$D$7:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6379</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10778</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA80-43CA-AD5E-A3F6FC49CFBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AOL_Removed!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AOL_Removed!$C$7:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15820</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>397246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>629557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>997775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AOL_Removed!$E$7:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3077</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5675</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7797</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11651</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA80-43CA-AD5E-A3F6FC49CFBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AOL_Removed!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIJoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AOL_Removed!$C$7:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15820</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>397246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>629557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>997775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AOL_Removed!$F$7:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28568</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA80-43CA-AD5E-A3F6FC49CFBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AOL_Removed!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybrid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AOL_Removed!$C$7:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15820</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>397246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>629557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>997775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AOL_Removed!$G$7:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18471</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30551</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BA80-43CA-AD5E-A3F6FC49CFBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AOL_Removed!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybridThres</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AOL_Removed!$C$7:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15820</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>397246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>629557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>997775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AOL_Removed!$H$7:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4290</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7781</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BA80-43CA-AD5E-A3F6FC49CFBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AOL_Removed!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinNaive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AOL_Removed!$C$7:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15820</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>397246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>629557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>997775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AOL_Removed!$I$7:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BA80-43CA-AD5E-A3F6FC49CFBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1511300575"/>
+        <c:axId val="1511296415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1511300575"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1511296415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1511296415"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1511300575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>USPS_Sample!$Q$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -7020,7 +7960,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -8060,7 +9000,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -9836,1073 +10776,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="613933072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>USPS</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>USPS_Sample!$F$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JoinMH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$E$14:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$F$14:$F$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2746</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5404</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12326</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33166</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>82917</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>213328</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>555887</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1408840</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3457405</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8671151</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22241199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC9A-484E-B640-72E85C7D5F8A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>USPS_Sample!$G$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JoinMin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$E$14:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$G$14:$G$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>947</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1527</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2393</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4067</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7399</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18407</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35680</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>81532</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>199406</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>492949</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1214990</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC9A-484E-B640-72E85C7D5F8A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>USPS_Sample!$H$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SIJoin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$E$14:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$H$14:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3271</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7173</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16642</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41702</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100428</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>257335</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>669567</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1752369</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4614251</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11857958</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32204405</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FC9A-484E-B640-72E85C7D5F8A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>USPS_Sample!$I$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JoinHybrid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$E$14:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$I$14:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1260</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2596</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2717</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5407</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7081</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14668</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28039</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63723</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>145457</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>350185</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>869331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FC9A-484E-B640-72E85C7D5F8A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>USPS_Sample!$J$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JoinHybridThres</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$E$14:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$J$14:$J$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>947</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1238</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1684</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2471</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3489</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5046</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7572</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11738</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18478</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30342</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>49318</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FC9A-484E-B640-72E85C7D5F8A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>USPS_Sample!$K$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JoinNaive</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$E$14:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>158489</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>630957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>USPS_Sample!$K$14:$K$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>649</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>759</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1341</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1954</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3927</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6278</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9632</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14920</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24578</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FC9A-484E-B640-72E85C7D5F8A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="757480752"/>
-        <c:axId val="757477424"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="757480752"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:min val="10000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="757477424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="757477424"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:min val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="757480752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12033,6 +11906,1073 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>USPS</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$F$14:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2746</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82917</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>213328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>555887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1408840</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3457405</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8671151</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22241199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC9A-484E-B640-72E85C7D5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$G$14:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2393</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81532</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>199406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>492949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1214990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC9A-484E-B640-72E85C7D5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIJoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$H$14:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>257335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>669567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1752369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4614251</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11857958</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32204405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FC9A-484E-B640-72E85C7D5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybrid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$I$14:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7081</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>869331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FC9A-484E-B640-72E85C7D5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybridThres</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$J$14:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3489</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7572</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18478</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30342</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FC9A-484E-B640-72E85C7D5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USPS_Sample!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinNaive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USPS_Sample!$K$14:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9632</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14920</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FC9A-484E-B640-72E85C7D5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="757480752"/>
+        <c:axId val="757477424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="757480752"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="757477424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="757477424"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="757480752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -12753,7 +13693,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -13433,7 +14373,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -13474,7 +14414,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13916,7 +14855,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13983,7 +14921,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -22807,6 +23745,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -30828,6 +31806,522 @@
 </file>
 
 <file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -35301,16 +36795,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35423,6 +36917,41 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -40255,8 +41784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="U111" sqref="U111"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -43133,10 +44662,696 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:R44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9990</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>9990</v>
+      </c>
+      <c r="D7">
+        <v>1396</v>
+      </c>
+      <c r="E7">
+        <v>1864</v>
+      </c>
+      <c r="F7">
+        <v>1420</v>
+      </c>
+      <c r="G7">
+        <v>2168</v>
+      </c>
+      <c r="H7">
+        <v>1652</v>
+      </c>
+      <c r="I7">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>15830</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>15820</v>
+      </c>
+      <c r="D8">
+        <v>1532</v>
+      </c>
+      <c r="E8">
+        <v>2004</v>
+      </c>
+      <c r="F8">
+        <v>1660</v>
+      </c>
+      <c r="G8">
+        <v>2869</v>
+      </c>
+      <c r="H8">
+        <v>1903</v>
+      </c>
+      <c r="I8">
+        <v>5529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>25100</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>25064</v>
+      </c>
+      <c r="D9">
+        <v>1879</v>
+      </c>
+      <c r="E9">
+        <v>2528</v>
+      </c>
+      <c r="F9">
+        <v>2422</v>
+      </c>
+      <c r="G9">
+        <v>3380</v>
+      </c>
+      <c r="H9">
+        <v>2583</v>
+      </c>
+      <c r="I9">
+        <v>8072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>39760</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>39712</v>
+      </c>
+      <c r="D10">
+        <v>2339</v>
+      </c>
+      <c r="E10">
+        <v>3077</v>
+      </c>
+      <c r="F10">
+        <v>2894</v>
+      </c>
+      <c r="G10">
+        <v>4304</v>
+      </c>
+      <c r="H10">
+        <v>2957</v>
+      </c>
+      <c r="I10">
+        <v>21720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>63104</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>62978</v>
+      </c>
+      <c r="D11">
+        <v>3172</v>
+      </c>
+      <c r="E11">
+        <v>4014</v>
+      </c>
+      <c r="F11">
+        <v>4411</v>
+      </c>
+      <c r="G11">
+        <v>5975</v>
+      </c>
+      <c r="H11">
+        <v>4290</v>
+      </c>
+      <c r="I11">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>100131</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>99825</v>
+      </c>
+      <c r="D12">
+        <v>4044</v>
+      </c>
+      <c r="E12">
+        <v>5675</v>
+      </c>
+      <c r="F12">
+        <v>7044</v>
+      </c>
+      <c r="G12">
+        <v>9022</v>
+      </c>
+      <c r="H12">
+        <v>5497</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>158848</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>158208</v>
+      </c>
+      <c r="D13">
+        <v>6379</v>
+      </c>
+      <c r="E13">
+        <v>7797</v>
+      </c>
+      <c r="F13">
+        <v>13773</v>
+      </c>
+      <c r="G13">
+        <v>12989</v>
+      </c>
+      <c r="H13">
+        <v>7781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>252298</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>250626</v>
+      </c>
+      <c r="D14">
+        <v>10778</v>
+      </c>
+      <c r="E14">
+        <v>11651</v>
+      </c>
+      <c r="F14">
+        <v>28568</v>
+      </c>
+      <c r="G14">
+        <v>18471</v>
+      </c>
+      <c r="H14">
+        <v>11547</v>
+      </c>
+      <c r="O14">
+        <v>1E-3</v>
+      </c>
+      <c r="P14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q14">
+        <v>0.01</v>
+      </c>
+      <c r="R14">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>401684</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>397246</v>
+      </c>
+      <c r="D15">
+        <v>19026</v>
+      </c>
+      <c r="E15">
+        <v>18992</v>
+      </c>
+      <c r="F15">
+        <v>63283</v>
+      </c>
+      <c r="G15">
+        <v>30551</v>
+      </c>
+      <c r="H15">
+        <v>18779</v>
+      </c>
+      <c r="N15">
+        <v>9990</v>
+      </c>
+      <c r="O15">
+        <v>2160</v>
+      </c>
+      <c r="P15">
+        <v>2228</v>
+      </c>
+      <c r="Q15">
+        <v>2185</v>
+      </c>
+      <c r="R15">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>640753</v>
+      </c>
+      <c r="C16">
+        <v>629557</v>
+      </c>
+      <c r="D16">
+        <v>38766</v>
+      </c>
+      <c r="E16">
+        <v>34072</v>
+      </c>
+      <c r="F16">
+        <v>144885</v>
+      </c>
+      <c r="G16">
+        <v>55995</v>
+      </c>
+      <c r="N16">
+        <v>15820</v>
+      </c>
+      <c r="O16">
+        <v>2794</v>
+      </c>
+      <c r="P16">
+        <v>2676</v>
+      </c>
+      <c r="Q16">
+        <v>2723</v>
+      </c>
+      <c r="R16">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>997775</v>
+      </c>
+      <c r="N17">
+        <v>25064</v>
+      </c>
+      <c r="O17">
+        <v>3448</v>
+      </c>
+      <c r="P17">
+        <v>3364</v>
+      </c>
+      <c r="Q17">
+        <v>3488</v>
+      </c>
+      <c r="R17">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>39712</v>
+      </c>
+      <c r="O18">
+        <v>3938</v>
+      </c>
+      <c r="P18">
+        <v>3974</v>
+      </c>
+      <c r="Q18">
+        <v>4041</v>
+      </c>
+      <c r="R18">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>62978</v>
+      </c>
+      <c r="O19">
+        <v>5957</v>
+      </c>
+      <c r="P19">
+        <v>6351</v>
+      </c>
+      <c r="Q19">
+        <v>6095</v>
+      </c>
+      <c r="R19">
+        <v>5975</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>99825</v>
+      </c>
+      <c r="O20">
+        <v>8165</v>
+      </c>
+      <c r="P20">
+        <v>7944</v>
+      </c>
+      <c r="Q20">
+        <v>8884</v>
+      </c>
+      <c r="R20">
+        <v>9022</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>158208</v>
+      </c>
+      <c r="O21">
+        <v>12700</v>
+      </c>
+      <c r="P21">
+        <v>15148</v>
+      </c>
+      <c r="Q21">
+        <v>12557</v>
+      </c>
+      <c r="R21">
+        <v>12989</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>250626</v>
+      </c>
+      <c r="O22">
+        <v>18787</v>
+      </c>
+      <c r="P22">
+        <v>21790</v>
+      </c>
+      <c r="Q22">
+        <v>19011</v>
+      </c>
+      <c r="R22">
+        <v>18471</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>397246</v>
+      </c>
+      <c r="O23">
+        <v>30391</v>
+      </c>
+      <c r="P23">
+        <v>44728</v>
+      </c>
+      <c r="Q23">
+        <v>33542</v>
+      </c>
+      <c r="R23">
+        <v>30551</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>629557</v>
+      </c>
+      <c r="P24">
+        <v>77710</v>
+      </c>
+      <c r="Q24">
+        <v>72602</v>
+      </c>
+      <c r="R24">
+        <v>55995</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>997775</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="14:18" x14ac:dyDescent="0.3">
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <v>10</v>
+      </c>
+      <c r="Q33">
+        <v>30</v>
+      </c>
+      <c r="R33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="14:18" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <v>9990</v>
+      </c>
+      <c r="O34">
+        <v>1652</v>
+      </c>
+      <c r="P34">
+        <v>1792</v>
+      </c>
+      <c r="Q34">
+        <v>1640</v>
+      </c>
+      <c r="R34">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="35" spans="14:18" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <v>15820</v>
+      </c>
+      <c r="O35">
+        <v>1903</v>
+      </c>
+      <c r="P35">
+        <v>2034</v>
+      </c>
+      <c r="Q35">
+        <v>2102</v>
+      </c>
+      <c r="R35">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="36" spans="14:18" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>25064</v>
+      </c>
+      <c r="O36">
+        <v>2583</v>
+      </c>
+      <c r="P36">
+        <v>2570</v>
+      </c>
+      <c r="Q36">
+        <v>2624</v>
+      </c>
+      <c r="R36">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="37" spans="14:18" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <v>39712</v>
+      </c>
+      <c r="O37">
+        <v>2957</v>
+      </c>
+      <c r="P37">
+        <v>3125</v>
+      </c>
+      <c r="Q37">
+        <v>3336</v>
+      </c>
+      <c r="R37">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="38" spans="14:18" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <v>62978</v>
+      </c>
+      <c r="O38">
+        <v>4290</v>
+      </c>
+      <c r="P38">
+        <v>4108</v>
+      </c>
+      <c r="Q38">
+        <v>4385</v>
+      </c>
+      <c r="R38">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="39" spans="14:18" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <v>99825</v>
+      </c>
+      <c r="O39">
+        <v>5497</v>
+      </c>
+      <c r="P39">
+        <v>5540</v>
+      </c>
+      <c r="Q39">
+        <v>5881</v>
+      </c>
+      <c r="R39">
+        <v>6106</v>
+      </c>
+    </row>
+    <row r="40" spans="14:18" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <v>158208</v>
+      </c>
+      <c r="O40">
+        <v>7781</v>
+      </c>
+      <c r="P40">
+        <v>7853</v>
+      </c>
+      <c r="Q40">
+        <v>8539</v>
+      </c>
+      <c r="R40">
+        <v>9031</v>
+      </c>
+    </row>
+    <row r="41" spans="14:18" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <v>250626</v>
+      </c>
+      <c r="O41">
+        <v>11547</v>
+      </c>
+      <c r="P41">
+        <v>11792</v>
+      </c>
+      <c r="Q41">
+        <v>12929</v>
+      </c>
+      <c r="R41">
+        <v>13896</v>
+      </c>
+    </row>
+    <row r="42" spans="14:18" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <v>397246</v>
+      </c>
+      <c r="O42">
+        <v>18779</v>
+      </c>
+      <c r="P42">
+        <v>18812</v>
+      </c>
+      <c r="Q42">
+        <v>19209</v>
+      </c>
+      <c r="R42">
+        <v>20581</v>
+      </c>
+    </row>
+    <row r="43" spans="14:18" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <v>629557</v>
+      </c>
+      <c r="O43">
+        <v>32838</v>
+      </c>
+      <c r="P43">
+        <v>33093</v>
+      </c>
+      <c r="Q43">
+        <v>34021</v>
+      </c>
+      <c r="R43">
+        <v>36708</v>
+      </c>
+    </row>
+    <row r="44" spans="14:18" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <v>997775</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D12:BF76"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BJ17" sqref="BJ17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="55">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,12 +239,20 @@
   <si>
     <t>JoinHybridThres</t>
   </si>
+  <si>
+    <t>Remove OneGram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemoveOneGram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +265,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -283,8 +299,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -349,6 +368,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -812,6 +832,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -893,7 +914,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1464,7 +1484,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1546,7 +1565,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2505,7 +2523,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4437,7 +4454,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5138,7 +5154,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5220,7 +5235,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5919,7 +5933,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6001,6 +6014,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>AOL Removed</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6061,7 +6100,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -6175,7 +6226,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -6289,7 +6352,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -6403,7 +6478,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -6517,7 +6604,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -6628,7 +6727,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -10896,6 +11007,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11622,6 +11734,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11745,6 +11858,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11825,6 +11939,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14414,6 +14529,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14855,6 +14971,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15487,6 +15604,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16091,6 +16209,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16202,6 +16321,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17133,6 +17253,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17214,6 +17335,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18146,6 +18268,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21266,6 +21389,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23039,6 +23163,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -36921,15 +37046,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>361949</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37461,7 +37586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS97"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="S75" sqref="S75"/>
     </sheetView>
   </sheetViews>
@@ -44664,8 +44789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -45350,8 +45475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D12:BF76"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:K13"/>
+    <sheetView topLeftCell="AU13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BF74" sqref="BF74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -47678,7 +47803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="38:56" x14ac:dyDescent="0.3">
+    <row r="65" spans="38:58" x14ac:dyDescent="0.3">
       <c r="AL65" t="s">
         <v>26</v>
       </c>
@@ -47688,6 +47813,9 @@
       <c r="AO65" t="s">
         <v>49</v>
       </c>
+      <c r="AQ65" t="s">
+        <v>53</v>
+      </c>
       <c r="AW65" t="s">
         <v>35</v>
       </c>
@@ -47703,8 +47831,11 @@
       <c r="BD65" t="s">
         <v>43</v>
       </c>
+      <c r="BF65" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="66" spans="38:56" x14ac:dyDescent="0.3">
+    <row r="66" spans="38:58" x14ac:dyDescent="0.3">
       <c r="AM66">
         <v>10000</v>
       </c>
@@ -47713,6 +47844,9 @@
       </c>
       <c r="AO66">
         <v>990</v>
+      </c>
+      <c r="AQ66">
+        <v>1332</v>
       </c>
       <c r="AX66">
         <v>10000</v>
@@ -47734,8 +47868,11 @@
       <c r="BD66">
         <v>856</v>
       </c>
+      <c r="BF66">
+        <v>1021</v>
+      </c>
     </row>
-    <row r="67" spans="38:56" x14ac:dyDescent="0.3">
+    <row r="67" spans="38:58" x14ac:dyDescent="0.3">
       <c r="AM67">
         <v>15848</v>
       </c>
@@ -47744,6 +47881,9 @@
       </c>
       <c r="AO67">
         <v>1883</v>
+      </c>
+      <c r="AQ67">
+        <v>2448</v>
       </c>
       <c r="AX67">
         <v>15848</v>
@@ -47765,8 +47905,11 @@
       <c r="BD67">
         <v>1092</v>
       </c>
+      <c r="BF67" s="1">
+        <v>1357</v>
+      </c>
     </row>
-    <row r="68" spans="38:56" x14ac:dyDescent="0.3">
+    <row r="68" spans="38:58" x14ac:dyDescent="0.3">
       <c r="AM68">
         <v>25118</v>
       </c>
@@ -47775,6 +47918,9 @@
       </c>
       <c r="AO68">
         <v>4273</v>
+      </c>
+      <c r="AQ68">
+        <v>4700</v>
       </c>
       <c r="AX68">
         <v>25118</v>
@@ -47796,8 +47942,11 @@
       <c r="BD68">
         <v>1522</v>
       </c>
+      <c r="BF68" s="1">
+        <v>1988</v>
+      </c>
     </row>
-    <row r="69" spans="38:56" x14ac:dyDescent="0.3">
+    <row r="69" spans="38:58" x14ac:dyDescent="0.3">
       <c r="AM69">
         <v>39810</v>
       </c>
@@ -47806,6 +47955,9 @@
       </c>
       <c r="AO69">
         <v>10846</v>
+      </c>
+      <c r="AQ69">
+        <v>11068</v>
       </c>
       <c r="AX69">
         <v>39810</v>
@@ -47827,8 +47979,11 @@
       <c r="BD69">
         <v>2180</v>
       </c>
+      <c r="BF69">
+        <v>3548</v>
+      </c>
     </row>
-    <row r="70" spans="38:56" x14ac:dyDescent="0.3">
+    <row r="70" spans="38:58" x14ac:dyDescent="0.3">
       <c r="AM70">
         <v>63095</v>
       </c>
@@ -47837,6 +47992,9 @@
       </c>
       <c r="AO70">
         <v>18770</v>
+      </c>
+      <c r="AQ70">
+        <v>24777</v>
       </c>
       <c r="AX70">
         <v>63095</v>
@@ -47858,8 +48016,11 @@
       <c r="BD70">
         <v>3411</v>
       </c>
+      <c r="BF70">
+        <v>6523</v>
+      </c>
     </row>
-    <row r="71" spans="38:56" x14ac:dyDescent="0.3">
+    <row r="71" spans="38:58" x14ac:dyDescent="0.3">
       <c r="AM71">
         <v>100000</v>
       </c>
@@ -47868,6 +48029,9 @@
       </c>
       <c r="AO71">
         <v>65070</v>
+      </c>
+      <c r="AQ71">
+        <v>64402</v>
       </c>
       <c r="AX71">
         <v>100000</v>
@@ -47889,8 +48053,11 @@
       <c r="BD71">
         <v>5370</v>
       </c>
+      <c r="BF71">
+        <v>14072</v>
+      </c>
     </row>
-    <row r="72" spans="38:56" x14ac:dyDescent="0.3">
+    <row r="72" spans="38:58" x14ac:dyDescent="0.3">
       <c r="AM72">
         <v>158489</v>
       </c>
@@ -47899,6 +48066,9 @@
       </c>
       <c r="AO72">
         <v>180361</v>
+      </c>
+      <c r="AQ72">
+        <v>156147</v>
       </c>
       <c r="AX72">
         <v>158489</v>
@@ -47920,8 +48090,11 @@
       <c r="BD72">
         <v>9211</v>
       </c>
+      <c r="BF72">
+        <v>31343</v>
+      </c>
     </row>
-    <row r="73" spans="38:56" x14ac:dyDescent="0.3">
+    <row r="73" spans="38:58" x14ac:dyDescent="0.3">
       <c r="AM73">
         <v>251188</v>
       </c>
@@ -47951,8 +48124,11 @@
       <c r="BD73">
         <v>17232</v>
       </c>
+      <c r="BF73">
+        <v>73711</v>
+      </c>
     </row>
-    <row r="74" spans="38:56" x14ac:dyDescent="0.3">
+    <row r="74" spans="38:58" x14ac:dyDescent="0.3">
       <c r="AM74">
         <v>398107</v>
       </c>
@@ -47982,8 +48158,11 @@
       <c r="BD74">
         <v>35914</v>
       </c>
+      <c r="BF74">
+        <v>177119</v>
+      </c>
     </row>
-    <row r="75" spans="38:56" x14ac:dyDescent="0.3">
+    <row r="75" spans="38:58" x14ac:dyDescent="0.3">
       <c r="AM75">
         <v>630957</v>
       </c>
@@ -48014,7 +48193,7 @@
         <v>80842</v>
       </c>
     </row>
-    <row r="76" spans="38:56" x14ac:dyDescent="0.3">
+    <row r="76" spans="38:58" x14ac:dyDescent="0.3">
       <c r="AM76">
         <v>1000000</v>
       </c>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="57">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,14 @@
     <t>RemoveOneGram</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>After optimize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinNaiveOpt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -299,11 +307,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -368,7 +379,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -832,7 +842,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2630,7 +2639,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3460,7 +3468,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3542,7 +3549,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4372,7 +4378,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6814,6 +6819,123 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AOL_Removed!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinNaiveOpt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AOL_Removed!$C$7:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15820</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>397246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>629557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>997775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AOL_Removed!$J$7:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2700-4C5A-B561-988B7E412971}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -7045,7 +7167,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8004,7 +8125,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8086,7 +8206,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9044,7 +9163,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9126,7 +9244,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10900,7 +11017,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11007,7 +11123,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11734,7 +11849,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11858,7 +11972,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11939,7 +12052,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12047,7 +12159,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13006,7 +13117,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13088,7 +13198,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13741,7 +13850,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15604,7 +15712,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16209,7 +16316,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16321,7 +16427,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17253,7 +17358,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17335,7 +17439,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18268,7 +18371,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19253,7 +19355,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20211,7 +20312,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20323,7 +20423,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21281,7 +21380,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21389,7 +21487,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23163,7 +23260,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -37045,16 +37141,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>496420</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>189378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>372595</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>84603</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -44789,8 +44885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -44814,6 +44910,9 @@
       <c r="I6" t="s">
         <v>25</v>
       </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -44843,6 +44942,9 @@
       <c r="I7">
         <v>4109</v>
       </c>
+      <c r="J7" s="2">
+        <v>2818</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -44872,6 +44974,9 @@
       <c r="I8">
         <v>5529</v>
       </c>
+      <c r="J8" s="2">
+        <v>3170</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -44901,6 +45006,9 @@
       <c r="I9">
         <v>8072</v>
       </c>
+      <c r="J9" s="2">
+        <v>4907</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -44930,6 +45038,9 @@
       <c r="I10">
         <v>21720</v>
       </c>
+      <c r="J10" s="2">
+        <v>7178</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -44958,6 +45069,9 @@
       </c>
       <c r="I11">
         <v>43510</v>
+      </c>
+      <c r="J11" s="2">
+        <v>11476</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -45473,10 +45587,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D12:BF76"/>
+  <dimension ref="D12:BI103"/>
   <sheetViews>
-    <sheetView topLeftCell="AU13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BF74" sqref="BF74"/>
+    <sheetView topLeftCell="AU25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ99" sqref="AZ99:AZ103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -48222,6 +48336,174 @@
       </c>
       <c r="BD76">
         <v>202671</v>
+      </c>
+    </row>
+    <row r="80" spans="38:58" x14ac:dyDescent="0.3">
+      <c r="BD80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="50:61" x14ac:dyDescent="0.3">
+      <c r="AY81" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ81" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA81" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB81" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC81" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD81" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE81" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="50:61" x14ac:dyDescent="0.3">
+      <c r="AX82">
+        <v>10000</v>
+      </c>
+      <c r="BD82">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="83" spans="50:61" x14ac:dyDescent="0.3">
+      <c r="AX83">
+        <v>15848</v>
+      </c>
+      <c r="BB83" s="2"/>
+      <c r="BC83" s="2"/>
+      <c r="BD83">
+        <v>744</v>
+      </c>
+      <c r="BE83" s="2"/>
+      <c r="BF83" s="2"/>
+      <c r="BG83" s="2"/>
+      <c r="BH83" s="2"/>
+      <c r="BI83" s="2"/>
+    </row>
+    <row r="84" spans="50:61" x14ac:dyDescent="0.3">
+      <c r="AX84">
+        <v>25118</v>
+      </c>
+      <c r="BD84">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="85" spans="50:61" x14ac:dyDescent="0.3">
+      <c r="AX85">
+        <v>39810</v>
+      </c>
+      <c r="BD85" s="2">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="86" spans="50:61" x14ac:dyDescent="0.3">
+      <c r="AX86">
+        <v>63095</v>
+      </c>
+      <c r="BD86" s="2">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="87" spans="50:61" x14ac:dyDescent="0.3">
+      <c r="AX87">
+        <v>100000</v>
+      </c>
+      <c r="BD87" s="2">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="88" spans="50:61" x14ac:dyDescent="0.3">
+      <c r="AX88">
+        <v>158489</v>
+      </c>
+      <c r="BD88" s="2">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="89" spans="50:61" x14ac:dyDescent="0.3">
+      <c r="AX89">
+        <v>251188</v>
+      </c>
+      <c r="BD89" s="2">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="90" spans="50:61" x14ac:dyDescent="0.3">
+      <c r="AX90">
+        <v>398107</v>
+      </c>
+      <c r="BD90" s="2">
+        <v>9093</v>
+      </c>
+    </row>
+    <row r="91" spans="50:61" x14ac:dyDescent="0.3">
+      <c r="AX91">
+        <v>630957</v>
+      </c>
+      <c r="BD91" s="2">
+        <v>13987</v>
+      </c>
+    </row>
+    <row r="92" spans="50:61" x14ac:dyDescent="0.3">
+      <c r="AX92">
+        <v>1000000</v>
+      </c>
+      <c r="BD92" s="2">
+        <v>22919</v>
+      </c>
+    </row>
+    <row r="96" spans="50:61" x14ac:dyDescent="0.3">
+      <c r="AZ96" s="2">
+        <v>2818</v>
+      </c>
+      <c r="BA96" s="2">
+        <v>3170</v>
+      </c>
+      <c r="BB96" s="2">
+        <v>4907</v>
+      </c>
+      <c r="BC96" s="2">
+        <v>7178</v>
+      </c>
+      <c r="BD96" s="2">
+        <v>11476</v>
+      </c>
+    </row>
+    <row r="99" spans="52:52" x14ac:dyDescent="0.3">
+      <c r="AZ99" s="2">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="100" spans="52:52" x14ac:dyDescent="0.3">
+      <c r="AZ100" s="2">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="101" spans="52:52" x14ac:dyDescent="0.3">
+      <c r="AZ101" s="2">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="102" spans="52:52" x14ac:dyDescent="0.3">
+      <c r="AZ102" s="2">
+        <v>7178</v>
+      </c>
+    </row>
+    <row r="103" spans="52:52" x14ac:dyDescent="0.3">
+      <c r="AZ103" s="2">
+        <v>11476</v>
       </c>
     </row>
   </sheetData>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -44886,7 +44886,7 @@
   <dimension ref="A6:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7167,6 +7167,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8125,6 +8126,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8206,6 +8208,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9163,6 +9166,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9244,6 +9248,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11017,6 +11022,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12159,6 +12165,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13117,6 +13124,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13198,6 +13206,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13850,6 +13859,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -44886,7 +44896,7 @@
   <dimension ref="A6:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -45298,6 +45308,12 @@
       </c>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>1864</v>
+      </c>
+      <c r="E20">
+        <v>1774</v>
+      </c>
       <c r="N20">
         <v>99825</v>
       </c>
@@ -45315,6 +45331,12 @@
       </c>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>2004</v>
+      </c>
+      <c r="E21">
+        <v>2208</v>
+      </c>
       <c r="N21">
         <v>158208</v>
       </c>
@@ -45332,6 +45354,12 @@
       </c>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>2528</v>
+      </c>
+      <c r="E22">
+        <v>2699</v>
+      </c>
       <c r="N22">
         <v>250626</v>
       </c>
@@ -45349,6 +45377,12 @@
       </c>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>3077</v>
+      </c>
+      <c r="E23">
+        <v>3381</v>
+      </c>
       <c r="N23">
         <v>397246</v>
       </c>
@@ -45366,6 +45400,12 @@
       </c>
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>4014</v>
+      </c>
+      <c r="E24">
+        <v>4395</v>
+      </c>
       <c r="N24">
         <v>629557</v>
       </c>
@@ -45380,8 +45420,51 @@
       </c>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>5675</v>
+      </c>
+      <c r="E25">
+        <v>6006</v>
+      </c>
       <c r="N25">
         <v>997775</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>7797</v>
+      </c>
+      <c r="E26">
+        <v>8938</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>11651</v>
+      </c>
+      <c r="E27">
+        <v>14364</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>18992</v>
+      </c>
+      <c r="E28">
+        <v>23764</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>34072</v>
+      </c>
+      <c r="E29">
+        <v>45151</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>88197</v>
       </c>
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.3">
@@ -45589,8 +45672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D12:BI103"/>
   <sheetViews>
-    <sheetView topLeftCell="AU25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AZ99" sqref="AZ99:AZ103"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="AOL_Sample(2)" sheetId="4" r:id="rId3"/>
     <sheet name="AOL_Removed" sheetId="5" r:id="rId4"/>
     <sheet name="USPS_Sample" sheetId="3" r:id="rId5"/>
+    <sheet name="QGram" sheetId="6" r:id="rId6"/>
+    <sheet name="SPROT" sheetId="7" r:id="rId7"/>
+    <sheet name="Synthetic" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="58">
   <si>
     <t>JoinMH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +256,10 @@
   </si>
   <si>
     <t>JoinNaiveOpt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1574,6 +1581,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2532,6 +2540,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2639,6 +2648,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3468,6 +3478,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3549,6 +3560,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4378,6 +4390,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13967,7 +13980,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14539,7 +14551,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14647,7 +14658,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15089,7 +15099,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15171,7 +15180,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15601,6 +15609,2987 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1296178687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPROT!$P$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SPROT!$O$11:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SPROT!$P$11:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>2956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3730</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21318</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E06-4FDF-93D9-535F0EAAAF3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPROT!$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SPROT!$O$11:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SPROT!$Q$11:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10054</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E06-4FDF-93D9-535F0EAAAF3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPROT!$R$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SPROT!$O$11:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SPROT!$R$11:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3E06-4FDF-93D9-535F0EAAAF3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPROT!$S$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SPROT!$O$11:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SPROT!$S$11:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9851</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21884</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3E06-4FDF-93D9-535F0EAAAF3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1199206783"/>
+        <c:axId val="1199205951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1199206783"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1199205951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1199205951"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1199206783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPROT!$V$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SPROT!$U$11:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SPROT!$V$11:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92C3-4F60-89B7-DCCD4E4911FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPROT!$W$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SPROT!$U$11:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SPROT!$W$11:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8538</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-92C3-4F60-89B7-DCCD4E4911FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPROT!$X$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SPROT!$U$11:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SPROT!$X$11:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-92C3-4F60-89B7-DCCD4E4911FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPROT!$Y$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SPROT!$U$11:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SPROT!$Y$11:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-92C3-4F60-89B7-DCCD4E4911FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1435419327"/>
+        <c:axId val="1435423071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1435419327"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1435423071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1435423071"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1435419327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>SPROT</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPROT!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SPROT!$C$8:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SPROT!$D$8:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2711</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-391B-4F31-A021-D39E7039155A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPROT!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SPROT!$C$8:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SPROT!$E$8:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-391B-4F31-A021-D39E7039155A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPROT!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIJoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SPROT!$C$8:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SPROT!$F$8:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>115380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>287562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-391B-4F31-A021-D39E7039155A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPROT!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybrid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SPROT!$C$8:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SPROT!$G$8:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-391B-4F31-A021-D39E7039155A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPROT!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybridThres</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SPROT!$C$8:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SPROT!$H$8:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8538</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-391B-4F31-A021-D39E7039155A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPROT!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinNaive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SPROT!$C$8:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SPROT!$I$8:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2420</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5660</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-391B-4F31-A021-D39E7039155A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1552473231"/>
+        <c:axId val="1552473647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1552473231"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1552473647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1552473647"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1552473231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Random</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Synthetic!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Synthetic!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Synthetic!$C$6:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3955</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16863</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131412</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B012-40F3-B453-4E0A60B6391C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Synthetic!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Synthetic!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Synthetic!$D$6:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16955</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99770</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B012-40F3-B453-4E0A60B6391C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Synthetic!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIJoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Synthetic!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Synthetic!$E$6:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>76190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B012-40F3-B453-4E0A60B6391C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Synthetic!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybrid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Synthetic!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Synthetic!$F$6:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B012-40F3-B453-4E0A60B6391C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Synthetic!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinHybridThres</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Synthetic!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Synthetic!$G$6:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2393</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15316</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B012-40F3-B453-4E0A60B6391C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Synthetic!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JoinNaive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Synthetic!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Synthetic!$H$6:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5920</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53274</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B012-40F3-B453-4E0A60B6391C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1318825807"/>
+        <c:axId val="1318826223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1318825807"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1318826223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1318826223"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1318825807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -24016,6 +27005,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -32553,6 +35702,2070 @@
 </file>
 
 <file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -37427,6 +42640,136 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -42015,7 +47358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA108"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
@@ -44895,8 +50238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -45673,7 +51016,7 @@
   <dimension ref="D12:BI103"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G24"/>
+      <selection activeCell="E14" sqref="E14:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -48595,4 +53938,1681 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C8:S33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8">
+        <v>1E-3</v>
+      </c>
+      <c r="Q8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R8">
+        <v>0.01</v>
+      </c>
+      <c r="S8">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>9990</v>
+      </c>
+      <c r="E9">
+        <v>1367</v>
+      </c>
+      <c r="F9">
+        <v>1774</v>
+      </c>
+      <c r="H9">
+        <v>2618</v>
+      </c>
+      <c r="O9">
+        <v>9990</v>
+      </c>
+      <c r="P9">
+        <v>2618</v>
+      </c>
+      <c r="Q9">
+        <v>2521</v>
+      </c>
+      <c r="R9">
+        <v>2646</v>
+      </c>
+      <c r="S9">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>15820</v>
+      </c>
+      <c r="E10">
+        <v>1626</v>
+      </c>
+      <c r="F10">
+        <v>2208</v>
+      </c>
+      <c r="H10">
+        <v>2905</v>
+      </c>
+      <c r="O10">
+        <v>15820</v>
+      </c>
+      <c r="P10">
+        <v>2905</v>
+      </c>
+      <c r="Q10">
+        <v>3051</v>
+      </c>
+      <c r="R10">
+        <v>3073</v>
+      </c>
+      <c r="S10">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>25064</v>
+      </c>
+      <c r="E11">
+        <v>1890</v>
+      </c>
+      <c r="F11">
+        <v>2699</v>
+      </c>
+      <c r="H11">
+        <v>3551</v>
+      </c>
+      <c r="O11">
+        <v>25064</v>
+      </c>
+      <c r="P11">
+        <v>3551</v>
+      </c>
+      <c r="Q11">
+        <v>3520</v>
+      </c>
+      <c r="R11">
+        <v>3164</v>
+      </c>
+      <c r="S11">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>39712</v>
+      </c>
+      <c r="E12">
+        <v>2498</v>
+      </c>
+      <c r="F12">
+        <v>3381</v>
+      </c>
+      <c r="H12">
+        <v>3930</v>
+      </c>
+      <c r="O12">
+        <v>39712</v>
+      </c>
+      <c r="P12">
+        <v>3930</v>
+      </c>
+      <c r="Q12">
+        <v>3805</v>
+      </c>
+      <c r="R12">
+        <v>3395</v>
+      </c>
+      <c r="S12">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>62978</v>
+      </c>
+      <c r="E13">
+        <v>3292</v>
+      </c>
+      <c r="F13">
+        <v>4395</v>
+      </c>
+      <c r="H13">
+        <v>4871</v>
+      </c>
+      <c r="O13">
+        <v>62978</v>
+      </c>
+      <c r="P13">
+        <v>4871</v>
+      </c>
+      <c r="Q13">
+        <v>4643</v>
+      </c>
+      <c r="R13">
+        <v>4552</v>
+      </c>
+      <c r="S13">
+        <v>5229</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>99825</v>
+      </c>
+      <c r="E14">
+        <v>4573</v>
+      </c>
+      <c r="F14">
+        <v>6006</v>
+      </c>
+      <c r="H14">
+        <v>6856</v>
+      </c>
+      <c r="O14">
+        <v>99825</v>
+      </c>
+      <c r="P14">
+        <v>6856</v>
+      </c>
+      <c r="Q14">
+        <v>6584</v>
+      </c>
+      <c r="R14">
+        <v>7148</v>
+      </c>
+      <c r="S14">
+        <v>6863</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>158208</v>
+      </c>
+      <c r="E15">
+        <v>6748</v>
+      </c>
+      <c r="F15">
+        <v>8938</v>
+      </c>
+      <c r="H15">
+        <v>9339</v>
+      </c>
+      <c r="O15">
+        <v>158208</v>
+      </c>
+      <c r="P15">
+        <v>9339</v>
+      </c>
+      <c r="Q15">
+        <v>9234</v>
+      </c>
+      <c r="R15">
+        <v>9345</v>
+      </c>
+      <c r="S15">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>250626</v>
+      </c>
+      <c r="E16">
+        <v>10349</v>
+      </c>
+      <c r="F16">
+        <v>14364</v>
+      </c>
+      <c r="H16">
+        <v>14110</v>
+      </c>
+      <c r="O16">
+        <v>250626</v>
+      </c>
+      <c r="P16">
+        <v>14110</v>
+      </c>
+      <c r="Q16">
+        <v>13576</v>
+      </c>
+      <c r="R16">
+        <v>14279</v>
+      </c>
+      <c r="S16">
+        <v>14837</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>397246</v>
+      </c>
+      <c r="E17">
+        <v>18121</v>
+      </c>
+      <c r="F17">
+        <v>23764</v>
+      </c>
+      <c r="H17">
+        <v>22791</v>
+      </c>
+      <c r="O17">
+        <v>397246</v>
+      </c>
+      <c r="P17">
+        <v>22791</v>
+      </c>
+      <c r="Q17">
+        <v>22779</v>
+      </c>
+      <c r="R17">
+        <v>23206</v>
+      </c>
+      <c r="S17">
+        <v>22970</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>629557</v>
+      </c>
+      <c r="E18">
+        <v>40431</v>
+      </c>
+      <c r="F18">
+        <v>45151</v>
+      </c>
+      <c r="H18">
+        <v>45956</v>
+      </c>
+      <c r="O18">
+        <v>629557</v>
+      </c>
+      <c r="P18">
+        <v>45956</v>
+      </c>
+      <c r="Q18">
+        <v>36770</v>
+      </c>
+      <c r="R18">
+        <v>36790</v>
+      </c>
+      <c r="S18">
+        <v>47681</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>997775</v>
+      </c>
+      <c r="E19">
+        <v>68987</v>
+      </c>
+      <c r="F19">
+        <v>88197</v>
+      </c>
+      <c r="H19">
+        <v>76576</v>
+      </c>
+      <c r="O19">
+        <v>997775</v>
+      </c>
+      <c r="P19">
+        <v>76576</v>
+      </c>
+      <c r="Q19">
+        <v>80226</v>
+      </c>
+      <c r="R19">
+        <v>79465</v>
+      </c>
+      <c r="S19">
+        <v>80075</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22">
+        <v>1E-3</v>
+      </c>
+      <c r="Q22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R22">
+        <v>0.01</v>
+      </c>
+      <c r="S22">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>10000</v>
+      </c>
+      <c r="E23">
+        <v>1363</v>
+      </c>
+      <c r="F23">
+        <v>1267</v>
+      </c>
+      <c r="H23">
+        <v>1908</v>
+      </c>
+      <c r="K23">
+        <v>590</v>
+      </c>
+      <c r="O23">
+        <v>10000</v>
+      </c>
+      <c r="P23">
+        <v>1908</v>
+      </c>
+      <c r="Q23">
+        <v>1715</v>
+      </c>
+      <c r="R23">
+        <v>1323</v>
+      </c>
+      <c r="S23">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>15848</v>
+      </c>
+      <c r="E24">
+        <v>2555</v>
+      </c>
+      <c r="F24">
+        <v>1715</v>
+      </c>
+      <c r="H24">
+        <v>2127</v>
+      </c>
+      <c r="K24">
+        <v>712</v>
+      </c>
+      <c r="O24">
+        <v>15848</v>
+      </c>
+      <c r="P24">
+        <v>2127</v>
+      </c>
+      <c r="Q24">
+        <v>1796</v>
+      </c>
+      <c r="R24">
+        <v>1879</v>
+      </c>
+      <c r="S24">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>25118</v>
+      </c>
+      <c r="E25">
+        <v>5192</v>
+      </c>
+      <c r="F25">
+        <v>2353</v>
+      </c>
+      <c r="H25">
+        <v>2897</v>
+      </c>
+      <c r="K25">
+        <v>936</v>
+      </c>
+      <c r="O25">
+        <v>25118</v>
+      </c>
+      <c r="P25">
+        <v>2897</v>
+      </c>
+      <c r="Q25">
+        <v>3005</v>
+      </c>
+      <c r="R25">
+        <v>2879</v>
+      </c>
+      <c r="S25">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>39810</v>
+      </c>
+      <c r="E26">
+        <v>10677</v>
+      </c>
+      <c r="F26">
+        <v>3949</v>
+      </c>
+      <c r="H26">
+        <v>3754</v>
+      </c>
+      <c r="K26">
+        <v>1208</v>
+      </c>
+      <c r="O26">
+        <v>39810</v>
+      </c>
+      <c r="P26">
+        <v>3754</v>
+      </c>
+      <c r="Q26">
+        <v>3619</v>
+      </c>
+      <c r="R26">
+        <v>3632</v>
+      </c>
+      <c r="S26">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>63095</v>
+      </c>
+      <c r="E27">
+        <v>25828</v>
+      </c>
+      <c r="F27">
+        <v>7200</v>
+      </c>
+      <c r="H27">
+        <v>7320</v>
+      </c>
+      <c r="K27">
+        <v>1903</v>
+      </c>
+      <c r="O27">
+        <v>63095</v>
+      </c>
+      <c r="P27">
+        <v>7320</v>
+      </c>
+      <c r="Q27">
+        <v>5337</v>
+      </c>
+      <c r="R27">
+        <v>5120</v>
+      </c>
+      <c r="S27">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>100000</v>
+      </c>
+      <c r="E28">
+        <v>64726</v>
+      </c>
+      <c r="F28">
+        <v>15152</v>
+      </c>
+      <c r="H28">
+        <v>7856</v>
+      </c>
+      <c r="K28">
+        <v>2520</v>
+      </c>
+      <c r="O28">
+        <v>100000</v>
+      </c>
+      <c r="P28">
+        <v>7856</v>
+      </c>
+      <c r="Q28">
+        <v>7758</v>
+      </c>
+      <c r="R28">
+        <v>7531</v>
+      </c>
+      <c r="S28">
+        <v>7487</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>158489</v>
+      </c>
+      <c r="E29">
+        <v>160807</v>
+      </c>
+      <c r="F29">
+        <v>31581</v>
+      </c>
+      <c r="H29">
+        <v>27053</v>
+      </c>
+      <c r="K29">
+        <v>3755</v>
+      </c>
+      <c r="O29">
+        <v>158489</v>
+      </c>
+      <c r="P29">
+        <v>27053</v>
+      </c>
+      <c r="Q29">
+        <v>20061</v>
+      </c>
+      <c r="R29">
+        <v>27836</v>
+      </c>
+      <c r="S29">
+        <v>27481</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>251188</v>
+      </c>
+      <c r="E30">
+        <v>412236</v>
+      </c>
+      <c r="F30">
+        <v>79305</v>
+      </c>
+      <c r="H30">
+        <v>62056</v>
+      </c>
+      <c r="K30">
+        <v>5410</v>
+      </c>
+      <c r="O30">
+        <v>251188</v>
+      </c>
+      <c r="P30">
+        <v>62056</v>
+      </c>
+      <c r="Q30">
+        <v>41313</v>
+      </c>
+      <c r="R30">
+        <v>41536</v>
+      </c>
+      <c r="S30">
+        <v>61200</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>398107</v>
+      </c>
+      <c r="E31">
+        <v>1082738</v>
+      </c>
+      <c r="F31">
+        <v>181852</v>
+      </c>
+      <c r="H31">
+        <v>140657</v>
+      </c>
+      <c r="K31">
+        <v>9076</v>
+      </c>
+      <c r="O31">
+        <v>398107</v>
+      </c>
+      <c r="P31">
+        <v>140657</v>
+      </c>
+      <c r="Q31">
+        <v>142179</v>
+      </c>
+      <c r="R31">
+        <v>142913</v>
+      </c>
+      <c r="S31">
+        <v>143382</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>630957</v>
+      </c>
+      <c r="E32">
+        <v>2723764</v>
+      </c>
+      <c r="F32">
+        <v>464203</v>
+      </c>
+      <c r="H32">
+        <v>345925</v>
+      </c>
+      <c r="K32">
+        <v>13976</v>
+      </c>
+      <c r="O32">
+        <v>630957</v>
+      </c>
+      <c r="P32">
+        <v>345925</v>
+      </c>
+      <c r="Q32">
+        <v>348516</v>
+      </c>
+      <c r="R32">
+        <v>346757</v>
+      </c>
+      <c r="S32">
+        <v>349434</v>
+      </c>
+    </row>
+    <row r="33" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>1000000</v>
+      </c>
+      <c r="E33">
+        <v>7558401</v>
+      </c>
+      <c r="F33">
+        <v>1185884</v>
+      </c>
+      <c r="H33">
+        <v>877360</v>
+      </c>
+      <c r="K33">
+        <v>22812</v>
+      </c>
+      <c r="O33">
+        <v>1000000</v>
+      </c>
+      <c r="P33">
+        <v>877360</v>
+      </c>
+      <c r="Q33">
+        <v>899692</v>
+      </c>
+      <c r="R33">
+        <v>893397</v>
+      </c>
+      <c r="S33">
+        <v>883610</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:Y17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>2205</v>
+      </c>
+      <c r="E8">
+        <v>2443</v>
+      </c>
+      <c r="F8">
+        <v>2154</v>
+      </c>
+      <c r="G8">
+        <v>2743</v>
+      </c>
+      <c r="H8">
+        <v>2351</v>
+      </c>
+      <c r="I8">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>3000</v>
+      </c>
+      <c r="D9">
+        <v>2438</v>
+      </c>
+      <c r="E9">
+        <v>2506</v>
+      </c>
+      <c r="F9">
+        <v>2273</v>
+      </c>
+      <c r="G9">
+        <v>2907</v>
+      </c>
+      <c r="H9">
+        <v>2600</v>
+      </c>
+      <c r="I9">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>10000</v>
+      </c>
+      <c r="D10">
+        <v>2711</v>
+      </c>
+      <c r="E10">
+        <v>2951</v>
+      </c>
+      <c r="F10">
+        <v>2727</v>
+      </c>
+      <c r="G10">
+        <v>3805</v>
+      </c>
+      <c r="H10">
+        <v>3329</v>
+      </c>
+      <c r="I10">
+        <v>2709</v>
+      </c>
+      <c r="P10">
+        <v>1E-4</v>
+      </c>
+      <c r="Q10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="R10">
+        <v>1E-3</v>
+      </c>
+      <c r="S10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
+        <v>30</v>
+      </c>
+      <c r="Y10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>30000</v>
+      </c>
+      <c r="D11">
+        <v>4362</v>
+      </c>
+      <c r="E11">
+        <v>4604</v>
+      </c>
+      <c r="F11">
+        <v>4309</v>
+      </c>
+      <c r="G11">
+        <v>4984</v>
+      </c>
+      <c r="H11">
+        <v>4692</v>
+      </c>
+      <c r="I11">
+        <v>3379</v>
+      </c>
+      <c r="O11">
+        <v>1000</v>
+      </c>
+      <c r="Q11">
+        <v>2670</v>
+      </c>
+      <c r="R11">
+        <v>2743</v>
+      </c>
+      <c r="S11">
+        <v>2642</v>
+      </c>
+      <c r="U11">
+        <v>1000</v>
+      </c>
+      <c r="V11">
+        <v>2302</v>
+      </c>
+      <c r="W11">
+        <v>2351</v>
+      </c>
+      <c r="X11">
+        <v>2321</v>
+      </c>
+      <c r="Y11">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>100000</v>
+      </c>
+      <c r="D12">
+        <v>13328</v>
+      </c>
+      <c r="E12">
+        <v>8352</v>
+      </c>
+      <c r="F12">
+        <v>16968</v>
+      </c>
+      <c r="G12">
+        <v>9663</v>
+      </c>
+      <c r="H12">
+        <v>8538</v>
+      </c>
+      <c r="I12">
+        <v>5660</v>
+      </c>
+      <c r="O12">
+        <v>3000</v>
+      </c>
+      <c r="P12">
+        <v>2956</v>
+      </c>
+      <c r="Q12">
+        <v>2921</v>
+      </c>
+      <c r="R12">
+        <v>2907</v>
+      </c>
+      <c r="S12">
+        <v>2895</v>
+      </c>
+      <c r="U12">
+        <v>3000</v>
+      </c>
+      <c r="V12">
+        <v>2604</v>
+      </c>
+      <c r="W12">
+        <v>2600</v>
+      </c>
+      <c r="X12">
+        <v>2585</v>
+      </c>
+      <c r="Y12">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>300000</v>
+      </c>
+      <c r="D13">
+        <v>74975</v>
+      </c>
+      <c r="E13">
+        <v>18968</v>
+      </c>
+      <c r="F13">
+        <v>115380</v>
+      </c>
+      <c r="G13">
+        <v>21892</v>
+      </c>
+      <c r="H13">
+        <v>19845</v>
+      </c>
+      <c r="I13">
+        <v>11730</v>
+      </c>
+      <c r="O13">
+        <v>10000</v>
+      </c>
+      <c r="P13">
+        <v>3730</v>
+      </c>
+      <c r="Q13">
+        <v>3768</v>
+      </c>
+      <c r="R13">
+        <v>3805</v>
+      </c>
+      <c r="S13">
+        <v>3735</v>
+      </c>
+      <c r="U13">
+        <v>10000</v>
+      </c>
+      <c r="V13">
+        <v>2969</v>
+      </c>
+      <c r="W13">
+        <v>3329</v>
+      </c>
+      <c r="X13">
+        <v>3068</v>
+      </c>
+      <c r="Y13">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1000000</v>
+      </c>
+      <c r="D14">
+        <v>161052</v>
+      </c>
+      <c r="E14">
+        <v>27172</v>
+      </c>
+      <c r="F14">
+        <v>287562</v>
+      </c>
+      <c r="G14">
+        <v>31622</v>
+      </c>
+      <c r="H14">
+        <v>28339</v>
+      </c>
+      <c r="I14">
+        <v>18845</v>
+      </c>
+      <c r="O14">
+        <v>30000</v>
+      </c>
+      <c r="P14">
+        <v>5247</v>
+      </c>
+      <c r="Q14">
+        <v>5658</v>
+      </c>
+      <c r="R14">
+        <v>4984</v>
+      </c>
+      <c r="S14">
+        <v>5034</v>
+      </c>
+      <c r="U14">
+        <v>30000</v>
+      </c>
+      <c r="V14">
+        <v>4675</v>
+      </c>
+      <c r="W14">
+        <v>4692</v>
+      </c>
+      <c r="X14">
+        <v>4661</v>
+      </c>
+      <c r="Y14">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>100000</v>
+      </c>
+      <c r="P15">
+        <v>10147</v>
+      </c>
+      <c r="Q15">
+        <v>10054</v>
+      </c>
+      <c r="R15">
+        <v>9663</v>
+      </c>
+      <c r="S15">
+        <v>9851</v>
+      </c>
+      <c r="U15">
+        <v>100000</v>
+      </c>
+      <c r="V15">
+        <v>8779</v>
+      </c>
+      <c r="W15">
+        <v>8538</v>
+      </c>
+      <c r="X15">
+        <v>8864</v>
+      </c>
+      <c r="Y15">
+        <v>8411</v>
+      </c>
+    </row>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>300000</v>
+      </c>
+      <c r="P16">
+        <v>21318</v>
+      </c>
+      <c r="Q16">
+        <v>21441</v>
+      </c>
+      <c r="R16">
+        <v>21892</v>
+      </c>
+      <c r="S16">
+        <v>21884</v>
+      </c>
+      <c r="U16">
+        <v>300000</v>
+      </c>
+      <c r="V16">
+        <v>19507</v>
+      </c>
+      <c r="W16">
+        <v>19845</v>
+      </c>
+      <c r="X16">
+        <v>20130</v>
+      </c>
+      <c r="Y16">
+        <v>20158</v>
+      </c>
+    </row>
+    <row r="17" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>1000000</v>
+      </c>
+      <c r="P17">
+        <v>32012</v>
+      </c>
+      <c r="Q17">
+        <v>31678</v>
+      </c>
+      <c r="R17">
+        <v>31622</v>
+      </c>
+      <c r="S17">
+        <v>32062</v>
+      </c>
+      <c r="U17">
+        <v>1000000</v>
+      </c>
+      <c r="V17">
+        <v>28865</v>
+      </c>
+      <c r="W17">
+        <v>28339</v>
+      </c>
+      <c r="X17">
+        <v>28941</v>
+      </c>
+      <c r="Y17">
+        <v>28852</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>1E-3</v>
+      </c>
+      <c r="L5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M5">
+        <v>0.01</v>
+      </c>
+      <c r="N5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>898</v>
+      </c>
+      <c r="D6">
+        <v>995</v>
+      </c>
+      <c r="E6">
+        <v>76190</v>
+      </c>
+      <c r="F6">
+        <v>787</v>
+      </c>
+      <c r="G6">
+        <v>1073</v>
+      </c>
+      <c r="H6">
+        <v>1045</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>799</v>
+      </c>
+      <c r="L6">
+        <v>793</v>
+      </c>
+      <c r="M6">
+        <v>792</v>
+      </c>
+      <c r="N6">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>926</v>
+      </c>
+      <c r="D7">
+        <v>1037</v>
+      </c>
+      <c r="F7">
+        <v>795</v>
+      </c>
+      <c r="G7">
+        <v>1108</v>
+      </c>
+      <c r="H7">
+        <v>1101</v>
+      </c>
+      <c r="J7">
+        <v>300</v>
+      </c>
+      <c r="K7">
+        <v>792</v>
+      </c>
+      <c r="L7">
+        <v>800</v>
+      </c>
+      <c r="M7">
+        <v>795</v>
+      </c>
+      <c r="N7">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>990</v>
+      </c>
+      <c r="D8">
+        <v>1142</v>
+      </c>
+      <c r="F8">
+        <v>1490</v>
+      </c>
+      <c r="G8">
+        <v>1256</v>
+      </c>
+      <c r="H8">
+        <v>1395</v>
+      </c>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+      <c r="L8">
+        <v>1502</v>
+      </c>
+      <c r="M8">
+        <v>1522</v>
+      </c>
+      <c r="N8">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>3000</v>
+      </c>
+      <c r="C9">
+        <v>1128</v>
+      </c>
+      <c r="D9">
+        <v>1450</v>
+      </c>
+      <c r="F9">
+        <v>2080</v>
+      </c>
+      <c r="G9">
+        <v>1594</v>
+      </c>
+      <c r="H9">
+        <v>2333</v>
+      </c>
+      <c r="J9">
+        <v>3000</v>
+      </c>
+      <c r="K9">
+        <v>2296</v>
+      </c>
+      <c r="L9">
+        <v>2178</v>
+      </c>
+      <c r="M9">
+        <v>1996</v>
+      </c>
+      <c r="N9">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>1652</v>
+      </c>
+      <c r="D10">
+        <v>2298</v>
+      </c>
+      <c r="F10">
+        <v>3242</v>
+      </c>
+      <c r="G10">
+        <v>2393</v>
+      </c>
+      <c r="H10">
+        <v>5920</v>
+      </c>
+      <c r="J10">
+        <v>10000</v>
+      </c>
+      <c r="K10">
+        <v>3223</v>
+      </c>
+      <c r="L10">
+        <v>3295</v>
+      </c>
+      <c r="M10">
+        <v>3188</v>
+      </c>
+      <c r="N10">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>30000</v>
+      </c>
+      <c r="C11">
+        <v>3955</v>
+      </c>
+      <c r="D11">
+        <v>4583</v>
+      </c>
+      <c r="F11">
+        <v>7035</v>
+      </c>
+      <c r="G11">
+        <v>4984</v>
+      </c>
+      <c r="H11">
+        <v>53274</v>
+      </c>
+      <c r="J11">
+        <v>30000</v>
+      </c>
+      <c r="K11">
+        <v>7132</v>
+      </c>
+      <c r="L11">
+        <v>6912</v>
+      </c>
+      <c r="M11">
+        <v>7566</v>
+      </c>
+      <c r="N11">
+        <v>7035</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>100000</v>
+      </c>
+      <c r="C12">
+        <v>16863</v>
+      </c>
+      <c r="D12">
+        <v>16955</v>
+      </c>
+      <c r="F12">
+        <v>20026</v>
+      </c>
+      <c r="G12">
+        <v>15316</v>
+      </c>
+      <c r="J12">
+        <v>100000</v>
+      </c>
+      <c r="K12">
+        <v>32538</v>
+      </c>
+      <c r="L12">
+        <v>30248</v>
+      </c>
+      <c r="M12">
+        <v>19989</v>
+      </c>
+      <c r="N12">
+        <v>20026</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>300000</v>
+      </c>
+      <c r="C13">
+        <v>131412</v>
+      </c>
+      <c r="D13">
+        <v>99770</v>
+      </c>
+      <c r="F13">
+        <v>84818</v>
+      </c>
+      <c r="G13">
+        <v>75149</v>
+      </c>
+      <c r="J13">
+        <v>300000</v>
+      </c>
+      <c r="K13">
+        <v>104283</v>
+      </c>
+      <c r="L13">
+        <v>92479</v>
+      </c>
+      <c r="M13">
+        <v>92304</v>
+      </c>
+      <c r="N13">
+        <v>84818</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>30</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>1080</v>
+      </c>
+      <c r="L16">
+        <v>1065</v>
+      </c>
+      <c r="M16">
+        <v>1073</v>
+      </c>
+      <c r="N16">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>300</v>
+      </c>
+      <c r="K17">
+        <v>1125</v>
+      </c>
+      <c r="L17">
+        <v>1102</v>
+      </c>
+      <c r="M17">
+        <v>1108</v>
+      </c>
+      <c r="N17">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="18" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>1000</v>
+      </c>
+      <c r="K18">
+        <v>1213</v>
+      </c>
+      <c r="L18">
+        <v>1202</v>
+      </c>
+      <c r="M18">
+        <v>1256</v>
+      </c>
+      <c r="N18">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>3000</v>
+      </c>
+      <c r="K19">
+        <v>1577</v>
+      </c>
+      <c r="L19">
+        <v>1561</v>
+      </c>
+      <c r="M19">
+        <v>1594</v>
+      </c>
+      <c r="N19">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>10000</v>
+      </c>
+      <c r="K20">
+        <v>2467</v>
+      </c>
+      <c r="L20">
+        <v>2542</v>
+      </c>
+      <c r="M20">
+        <v>2393</v>
+      </c>
+      <c r="N20">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>30000</v>
+      </c>
+      <c r="K21">
+        <v>4704</v>
+      </c>
+      <c r="L21">
+        <v>4874</v>
+      </c>
+      <c r="M21">
+        <v>4984</v>
+      </c>
+      <c r="N21">
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="22" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>100000</v>
+      </c>
+      <c r="K22">
+        <v>15288</v>
+      </c>
+      <c r="L22">
+        <v>15113</v>
+      </c>
+      <c r="M22">
+        <v>15316</v>
+      </c>
+      <c r="N22">
+        <v>15812</v>
+      </c>
+    </row>
+    <row r="23" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>300000</v>
+      </c>
+      <c r="K23">
+        <v>73902</v>
+      </c>
+      <c r="L23">
+        <v>73643</v>
+      </c>
+      <c r="M23">
+        <v>75149</v>
+      </c>
+      <c r="N23">
+        <v>73866</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/exp/exp.xlsx
+++ b/exp/exp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="7905" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,6 +386,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -849,6 +850,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2648,7 +2650,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3478,7 +3479,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4472,6 +4472,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5172,6 +5173,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5253,6 +5255,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5951,6 +5954,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11142,6 +11146,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11868,6 +11873,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11991,6 +11997,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12071,6 +12078,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15703,7 +15711,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16255,7 +16262,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16337,7 +16343,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16892,7 +16897,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17000,7 +17004,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17743,7 +17746,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17851,7 +17853,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18603,7 +18604,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18711,6 +18711,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19315,6 +19316,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19426,6 +19428,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20357,6 +20360,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20438,6 +20442,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21370,6 +21375,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21477,6 +21483,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22247,6 +22254,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22354,6 +22362,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23311,6 +23320,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23422,6 +23432,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24379,6 +24390,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24486,6 +24498,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26259,6 +26272,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -43035,8 +43049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS97"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S75" sqref="S75"/>
+    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -45646,7 +45660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
@@ -50239,7 +50253,7 @@
   <dimension ref="A6:R44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -51015,8 +51029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D12:BI103"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E24"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -53944,8 +53958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
